--- a/Documents/grouppl설계서 - 종합.xlsx
+++ b/Documents/grouppl설계서 - 종합.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="911"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="911" firstSheet="9" activeTab="23"/>
   </bookViews>
   <sheets>
     <sheet name="목록" sheetId="1" r:id="rId1"/>
@@ -345,7 +345,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="571">
   <si>
     <t>No</t>
     <phoneticPr fontId="9" type="noConversion"/>
@@ -2523,11 +2523,7 @@
     <t>SELECT INVITE_SEQ, INVITE_DATE, EMAIL, CONFIRMED, PROJECT_SEQ</t>
   </si>
   <si>
-    <t>WHERE INVITE_SEQ =? AND CONFIRMED = 'N'</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>WHERE APPL_SEQ =? AND CONFIRMED = 'N'</t>
+    <t>WHERE EMAIL =? AND CONFIRMED = 'N'</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -3947,6 +3943,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3977,18 +3985,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4001,6 +3997,12 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4019,10 +4021,97 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4031,6 +4120,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4043,117 +4147,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4175,26 +4171,56 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4229,33 +4255,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4355,6 +4354,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4385,33 +4411,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4496,47 +4495,44 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -4582,7 +4578,7 @@
         <xdr:cNvPr id="2" name="순서도: 병합 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4653,7 +4649,7 @@
         <xdr:cNvPr id="2" name="그림 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B73F2E9-4801-46BD-BC35-4E9713E2BAF2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5B73F2E9-4801-46BD-BC35-4E9713E2BAF2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4697,7 +4693,7 @@
         <xdr:cNvPr id="3" name="이등변 삼각형 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D73DF1D3-2849-46AB-B336-A326FB4901E2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D73DF1D3-2849-46AB-B336-A326FB4901E2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4765,7 +4761,7 @@
         <xdr:cNvPr id="4" name="이등변 삼각형 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67A2E7E7-89B2-417E-B60B-FC9DB9E704D5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{67A2E7E7-89B2-417E-B60B-FC9DB9E704D5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4833,7 +4829,7 @@
         <xdr:cNvPr id="5" name="이등변 삼각형 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07B25D27-05DA-4E91-85D1-956BEAEEC4EE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{07B25D27-05DA-4E91-85D1-956BEAEEC4EE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4901,7 +4897,7 @@
         <xdr:cNvPr id="6" name="이등변 삼각형 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5D45EA9-FD67-4188-B253-C7B1B7313E73}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B5D45EA9-FD67-4188-B253-C7B1B7313E73}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4969,7 +4965,7 @@
         <xdr:cNvPr id="7" name="이등변 삼각형 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE75AAB9-84C8-44E7-A3F4-3EE9C13729AE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CE75AAB9-84C8-44E7-A3F4-3EE9C13729AE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5037,7 +5033,7 @@
         <xdr:cNvPr id="8" name="이등변 삼각형 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49586B28-A40A-445D-BE4A-FC60D22DD948}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{49586B28-A40A-445D-BE4A-FC60D22DD948}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5105,7 +5101,7 @@
         <xdr:cNvPr id="9" name="이등변 삼각형 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4019BAC-5C29-4142-85D0-D90499A51EEA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C4019BAC-5C29-4142-85D0-D90499A51EEA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5178,7 +5174,7 @@
         <xdr:cNvPr id="2" name="이등변 삼각형 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0B00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5238,7 +5234,7 @@
         <xdr:cNvPr id="3" name="이등변 삼각형 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0B00-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5298,7 +5294,7 @@
         <xdr:cNvPr id="4" name="이등변 삼각형 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0B00-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5358,7 +5354,7 @@
         <xdr:cNvPr id="5" name="이등변 삼각형 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0B00-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5418,7 +5414,7 @@
         <xdr:cNvPr id="6" name="그림 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0B00-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5462,7 +5458,7 @@
         <xdr:cNvPr id="7" name="이등변 삼각형 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0B00-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5522,7 +5518,7 @@
         <xdr:cNvPr id="8" name="이등변 삼각형 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0B00-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5587,7 +5583,7 @@
         <xdr:cNvPr id="3" name="그림 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0C00-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5631,7 +5627,7 @@
         <xdr:cNvPr id="4" name="그림 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0C00-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5675,7 +5671,7 @@
         <xdr:cNvPr id="5" name="그림 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0C00-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5719,7 +5715,7 @@
         <xdr:cNvPr id="6" name="그림 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0C00-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5763,7 +5759,7 @@
         <xdr:cNvPr id="7" name="그림 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0C00-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5807,7 +5803,7 @@
         <xdr:cNvPr id="8" name="그림 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0C00-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5851,7 +5847,7 @@
         <xdr:cNvPr id="9" name="그림 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0C00-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5895,7 +5891,7 @@
         <xdr:cNvPr id="10" name="그림 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0C00-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5944,7 +5940,7 @@
         <xdr:cNvPr id="2" name="모서리가 둥근 직사각형 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0E00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6007,7 +6003,7 @@
         <xdr:cNvPr id="3" name="모서리가 둥근 직사각형 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0E00-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6084,7 +6080,7 @@
         <xdr:cNvPr id="2" name="모서리가 둥근 직사각형 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6147,7 +6143,7 @@
         <xdr:cNvPr id="3" name="모서리가 둥근 직사각형 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6224,7 +6220,7 @@
         <xdr:cNvPr id="2" name="모서리가 둥근 직사각형 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-1200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6284,7 +6280,7 @@
         <xdr:cNvPr id="3" name="모서리가 둥근 직사각형 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-1200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6344,7 +6340,7 @@
         <xdr:cNvPr id="4" name="모서리가 둥근 직사각형 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1200-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-1200-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6404,7 +6400,7 @@
         <xdr:cNvPr id="5" name="모서리가 둥근 직사각형 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1200-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-1200-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6464,7 +6460,7 @@
         <xdr:cNvPr id="6" name="모서리가 둥근 직사각형 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1200-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-1200-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6529,7 +6525,7 @@
         <xdr:cNvPr id="2" name="모서리가 둥근 직사각형 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1500-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-1500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6592,7 +6588,7 @@
         <xdr:cNvPr id="3" name="모서리가 둥근 직사각형 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1500-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-1500-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6660,7 +6656,7 @@
         <xdr:cNvPr id="2" name="모서리가 둥근 직사각형 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1600-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-1600-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6723,7 +6719,7 @@
         <xdr:cNvPr id="3" name="모서리가 둥근 직사각형 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1600-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-1600-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6786,7 +6782,7 @@
         <xdr:cNvPr id="4" name="모서리가 둥근 직사각형 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1600-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-1600-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7132,8 +7128,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:A5"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1"/>
@@ -7887,16 +7883,16 @@
       </c>
       <c r="F12" s="275"/>
       <c r="G12" s="6"/>
-      <c r="H12" s="225" t="s">
+      <c r="H12" s="227" t="s">
         <v>80</v>
       </c>
-      <c r="I12" s="226"/>
+      <c r="I12" s="228"/>
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
       <c r="N12" s="23"/>
-      <c r="O12" s="229" t="s">
+      <c r="O12" s="223" t="s">
         <v>78</v>
       </c>
       <c r="P12" s="23"/>
@@ -7916,14 +7912,14 @@
       <c r="E13" s="276"/>
       <c r="F13" s="277"/>
       <c r="G13" s="6"/>
-      <c r="H13" s="227"/>
-      <c r="I13" s="228"/>
+      <c r="H13" s="229"/>
+      <c r="I13" s="230"/>
       <c r="J13" s="6"/>
       <c r="K13" s="39"/>
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
       <c r="N13" s="39"/>
-      <c r="O13" s="230"/>
+      <c r="O13" s="224"/>
       <c r="P13" s="23"/>
       <c r="Q13" s="24"/>
       <c r="R13" s="191"/>
@@ -8009,10 +8005,10 @@
         <v>66</v>
       </c>
       <c r="S16" s="191"/>
-      <c r="T16" s="215" t="s">
+      <c r="T16" s="205" t="s">
         <v>70</v>
       </c>
-      <c r="U16" s="216"/>
+      <c r="U16" s="206"/>
       <c r="V16" s="24"/>
     </row>
     <row r="17" spans="2:22">
@@ -8035,10 +8031,10 @@
         <v>68</v>
       </c>
       <c r="S17" s="191"/>
-      <c r="T17" s="215" t="s">
+      <c r="T17" s="205" t="s">
         <v>72</v>
       </c>
-      <c r="U17" s="216"/>
+      <c r="U17" s="206"/>
       <c r="V17" s="24"/>
     </row>
     <row r="18" spans="2:22">
@@ -8052,10 +8048,10 @@
         <v>67</v>
       </c>
       <c r="S18" s="191"/>
-      <c r="T18" s="215" t="s">
+      <c r="T18" s="205" t="s">
         <v>73</v>
       </c>
-      <c r="U18" s="216"/>
+      <c r="U18" s="206"/>
       <c r="V18" s="24"/>
     </row>
     <row r="19" spans="2:22" ht="16.5" customHeight="1" thickBot="1">
@@ -8079,10 +8075,10 @@
         <v>69</v>
       </c>
       <c r="S19" s="193"/>
-      <c r="T19" s="213" t="s">
+      <c r="T19" s="217" t="s">
         <v>71</v>
       </c>
-      <c r="U19" s="214"/>
+      <c r="U19" s="218"/>
       <c r="V19" s="24"/>
     </row>
     <row r="20" spans="2:22" ht="16.5" customHeight="1" thickBot="1">
@@ -8138,7 +8134,7 @@
       <c r="C22" s="28"/>
       <c r="D22" s="39"/>
       <c r="E22" s="41"/>
-      <c r="F22" s="223" t="s">
+      <c r="F22" s="225" t="s">
         <v>88</v>
       </c>
       <c r="G22" s="190" t="s">
@@ -8167,7 +8163,7 @@
       <c r="C23" s="28"/>
       <c r="D23" s="39"/>
       <c r="E23" s="41"/>
-      <c r="F23" s="224"/>
+      <c r="F23" s="226"/>
       <c r="G23" s="190"/>
       <c r="H23" s="191"/>
       <c r="I23" s="39"/>
@@ -8363,7 +8359,7 @@
       <c r="C31" s="28"/>
       <c r="D31" s="39"/>
       <c r="E31" s="41"/>
-      <c r="F31" s="223" t="s">
+      <c r="F31" s="225" t="s">
         <v>88</v>
       </c>
       <c r="G31" s="190" t="s">
@@ -8392,7 +8388,7 @@
       <c r="C32" s="28"/>
       <c r="D32" s="39"/>
       <c r="E32" s="41"/>
-      <c r="F32" s="224"/>
+      <c r="F32" s="226"/>
       <c r="G32" s="190"/>
       <c r="H32" s="191"/>
       <c r="I32" s="39"/>
@@ -8720,17 +8716,12 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="T6:V6"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="J6:M6"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="Q6:S6"/>
-    <mergeCell ref="R8:U10"/>
-    <mergeCell ref="E12:F13"/>
-    <mergeCell ref="H12:I13"/>
-    <mergeCell ref="O12:O13"/>
-    <mergeCell ref="R12:U14"/>
+    <mergeCell ref="A1:A5"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:H23"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G31:H32"/>
+    <mergeCell ref="C8:D10"/>
     <mergeCell ref="R27:S27"/>
     <mergeCell ref="R16:S16"/>
     <mergeCell ref="T16:U16"/>
@@ -8743,12 +8734,17 @@
     <mergeCell ref="R21:U23"/>
     <mergeCell ref="R25:S25"/>
     <mergeCell ref="R26:S26"/>
-    <mergeCell ref="A1:A5"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:H23"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="G31:H32"/>
-    <mergeCell ref="C8:D10"/>
+    <mergeCell ref="R8:U10"/>
+    <mergeCell ref="E12:F13"/>
+    <mergeCell ref="H12:I13"/>
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="R12:U14"/>
+    <mergeCell ref="T6:V6"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="J6:M6"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="Q6:S6"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>
@@ -9020,7 +9016,7 @@
       <c r="D15" s="115"/>
       <c r="E15" s="115"/>
       <c r="F15" s="115"/>
-      <c r="G15" s="223" t="s">
+      <c r="G15" s="225" t="s">
         <v>289</v>
       </c>
       <c r="H15" s="117"/>
@@ -9030,7 +9026,7 @@
       <c r="J15" s="189"/>
       <c r="K15" s="194"/>
       <c r="L15" s="117"/>
-      <c r="M15" s="223" t="s">
+      <c r="M15" s="225" t="s">
         <v>291</v>
       </c>
       <c r="N15" s="115"/>
@@ -9044,13 +9040,13 @@
       <c r="D16" s="115"/>
       <c r="E16" s="115"/>
       <c r="F16" s="115"/>
-      <c r="G16" s="224"/>
+      <c r="G16" s="226"/>
       <c r="H16" s="119"/>
       <c r="I16" s="192"/>
       <c r="J16" s="193"/>
       <c r="K16" s="196"/>
       <c r="L16" s="119"/>
-      <c r="M16" s="224"/>
+      <c r="M16" s="226"/>
       <c r="N16" s="115"/>
       <c r="Q16" s="91"/>
       <c r="U16" s="111"/>
@@ -9088,7 +9084,7 @@
       <c r="J18" s="122"/>
       <c r="K18" s="121"/>
       <c r="L18" s="115"/>
-      <c r="M18" s="223" t="s">
+      <c r="M18" s="225" t="s">
         <v>292</v>
       </c>
       <c r="N18" s="115"/>
@@ -9110,7 +9106,7 @@
       <c r="J19" s="114"/>
       <c r="K19" s="109"/>
       <c r="L19" s="115"/>
-      <c r="M19" s="224"/>
+      <c r="M19" s="226"/>
       <c r="N19" s="115"/>
       <c r="Q19" s="91"/>
       <c r="U19" s="111"/>
@@ -9166,7 +9162,7 @@
       <c r="J22" s="122"/>
       <c r="K22" s="121"/>
       <c r="L22" s="119"/>
-      <c r="M22" s="223" t="s">
+      <c r="M22" s="225" t="s">
         <v>168</v>
       </c>
       <c r="N22" s="115"/>
@@ -9188,7 +9184,7 @@
       <c r="J23" s="122"/>
       <c r="K23" s="121"/>
       <c r="L23" s="118"/>
-      <c r="M23" s="224"/>
+      <c r="M23" s="226"/>
       <c r="N23" s="115"/>
       <c r="Q23" s="91"/>
       <c r="U23" s="111"/>
@@ -9623,108 +9619,108 @@
     </row>
     <row r="8" spans="1:22">
       <c r="B8" s="59"/>
-      <c r="J8" s="225" t="s">
+      <c r="J8" s="227" t="s">
         <v>116</v>
       </c>
-      <c r="K8" s="282"/>
-      <c r="L8" s="282"/>
-      <c r="M8" s="282"/>
-      <c r="N8" s="282"/>
-      <c r="O8" s="282"/>
-      <c r="P8" s="282"/>
-      <c r="Q8" s="226"/>
+      <c r="K8" s="287"/>
+      <c r="L8" s="287"/>
+      <c r="M8" s="287"/>
+      <c r="N8" s="287"/>
+      <c r="O8" s="287"/>
+      <c r="P8" s="287"/>
+      <c r="Q8" s="228"/>
       <c r="V8" s="60"/>
     </row>
     <row r="9" spans="1:22" ht="17.25" thickBot="1">
       <c r="B9" s="59"/>
-      <c r="J9" s="227"/>
-      <c r="K9" s="283"/>
-      <c r="L9" s="283"/>
-      <c r="M9" s="283"/>
-      <c r="N9" s="283"/>
-      <c r="O9" s="283"/>
-      <c r="P9" s="283"/>
-      <c r="Q9" s="228"/>
+      <c r="J9" s="229"/>
+      <c r="K9" s="284"/>
+      <c r="L9" s="284"/>
+      <c r="M9" s="284"/>
+      <c r="N9" s="284"/>
+      <c r="O9" s="284"/>
+      <c r="P9" s="284"/>
+      <c r="Q9" s="230"/>
       <c r="V9" s="60"/>
     </row>
     <row r="10" spans="1:22">
       <c r="B10" s="59"/>
-      <c r="J10" s="225" t="s">
+      <c r="J10" s="227" t="s">
         <v>109</v>
       </c>
-      <c r="K10" s="226"/>
-      <c r="L10" s="225" t="s">
+      <c r="K10" s="228"/>
+      <c r="L10" s="227" t="s">
         <v>110</v>
       </c>
-      <c r="M10" s="282"/>
-      <c r="N10" s="282"/>
-      <c r="O10" s="282"/>
-      <c r="P10" s="282"/>
-      <c r="Q10" s="226"/>
+      <c r="M10" s="287"/>
+      <c r="N10" s="287"/>
+      <c r="O10" s="287"/>
+      <c r="P10" s="287"/>
+      <c r="Q10" s="228"/>
       <c r="V10" s="60"/>
     </row>
     <row r="11" spans="1:22" ht="17.25" thickBot="1">
       <c r="B11" s="59"/>
-      <c r="J11" s="227"/>
-      <c r="K11" s="228"/>
-      <c r="L11" s="227"/>
-      <c r="M11" s="283"/>
-      <c r="N11" s="283"/>
-      <c r="O11" s="283"/>
-      <c r="P11" s="283"/>
-      <c r="Q11" s="228"/>
+      <c r="J11" s="229"/>
+      <c r="K11" s="230"/>
+      <c r="L11" s="229"/>
+      <c r="M11" s="284"/>
+      <c r="N11" s="284"/>
+      <c r="O11" s="284"/>
+      <c r="P11" s="284"/>
+      <c r="Q11" s="230"/>
       <c r="V11" s="60"/>
     </row>
     <row r="12" spans="1:22">
       <c r="B12" s="59"/>
-      <c r="J12" s="225" t="s">
+      <c r="J12" s="227" t="s">
         <v>117</v>
       </c>
-      <c r="K12" s="226"/>
-      <c r="L12" s="225" t="s">
+      <c r="K12" s="228"/>
+      <c r="L12" s="227" t="s">
         <v>118</v>
       </c>
-      <c r="M12" s="282"/>
-      <c r="N12" s="282"/>
-      <c r="O12" s="282"/>
-      <c r="P12" s="282"/>
-      <c r="Q12" s="226"/>
+      <c r="M12" s="287"/>
+      <c r="N12" s="287"/>
+      <c r="O12" s="287"/>
+      <c r="P12" s="287"/>
+      <c r="Q12" s="228"/>
       <c r="V12" s="60"/>
     </row>
     <row r="13" spans="1:22">
       <c r="B13" s="59"/>
-      <c r="J13" s="284"/>
-      <c r="K13" s="285"/>
-      <c r="L13" s="284"/>
-      <c r="M13" s="286"/>
-      <c r="N13" s="286"/>
-      <c r="O13" s="286"/>
-      <c r="P13" s="286"/>
-      <c r="Q13" s="285"/>
+      <c r="J13" s="281"/>
+      <c r="K13" s="283"/>
+      <c r="L13" s="281"/>
+      <c r="M13" s="282"/>
+      <c r="N13" s="282"/>
+      <c r="O13" s="282"/>
+      <c r="P13" s="282"/>
+      <c r="Q13" s="283"/>
       <c r="V13" s="60"/>
     </row>
     <row r="14" spans="1:22">
       <c r="B14" s="59"/>
-      <c r="J14" s="284"/>
-      <c r="K14" s="285"/>
-      <c r="L14" s="284"/>
-      <c r="M14" s="286"/>
-      <c r="N14" s="286"/>
-      <c r="O14" s="286"/>
-      <c r="P14" s="286"/>
-      <c r="Q14" s="285"/>
+      <c r="J14" s="281"/>
+      <c r="K14" s="283"/>
+      <c r="L14" s="281"/>
+      <c r="M14" s="282"/>
+      <c r="N14" s="282"/>
+      <c r="O14" s="282"/>
+      <c r="P14" s="282"/>
+      <c r="Q14" s="283"/>
       <c r="V14" s="60"/>
     </row>
     <row r="15" spans="1:22" ht="17.25" thickBot="1">
       <c r="B15" s="59"/>
-      <c r="J15" s="227"/>
-      <c r="K15" s="228"/>
-      <c r="L15" s="227"/>
-      <c r="M15" s="283"/>
-      <c r="N15" s="283"/>
-      <c r="O15" s="283"/>
-      <c r="P15" s="283"/>
-      <c r="Q15" s="228"/>
+      <c r="J15" s="229"/>
+      <c r="K15" s="230"/>
+      <c r="L15" s="229"/>
+      <c r="M15" s="284"/>
+      <c r="N15" s="284"/>
+      <c r="O15" s="284"/>
+      <c r="P15" s="284"/>
+      <c r="Q15" s="230"/>
       <c r="V15" s="60"/>
     </row>
     <row r="16" spans="1:22" ht="17.25" thickBot="1">
@@ -9739,7 +9735,7 @@
         <v>2017</v>
       </c>
       <c r="O16" s="279"/>
-      <c r="P16" s="281">
+      <c r="P16" s="286">
         <v>42772</v>
       </c>
       <c r="Q16" s="279"/>
@@ -9777,144 +9773,144 @@
       <c r="B19" s="59"/>
       <c r="J19" s="192"/>
       <c r="K19" s="196"/>
-      <c r="L19" s="284"/>
-      <c r="M19" s="286"/>
-      <c r="N19" s="286"/>
-      <c r="O19" s="286"/>
-      <c r="P19" s="286"/>
-      <c r="Q19" s="285"/>
+      <c r="L19" s="281"/>
+      <c r="M19" s="282"/>
+      <c r="N19" s="282"/>
+      <c r="O19" s="282"/>
+      <c r="P19" s="282"/>
+      <c r="Q19" s="283"/>
       <c r="V19" s="60"/>
     </row>
     <row r="20" spans="2:22">
       <c r="B20" s="59"/>
       <c r="J20" s="80"/>
       <c r="K20" s="81"/>
-      <c r="L20" s="284"/>
-      <c r="M20" s="286"/>
-      <c r="N20" s="286"/>
-      <c r="O20" s="286"/>
-      <c r="P20" s="286"/>
-      <c r="Q20" s="285"/>
+      <c r="L20" s="281"/>
+      <c r="M20" s="282"/>
+      <c r="N20" s="282"/>
+      <c r="O20" s="282"/>
+      <c r="P20" s="282"/>
+      <c r="Q20" s="283"/>
       <c r="V20" s="60"/>
     </row>
     <row r="21" spans="2:22">
       <c r="B21" s="59"/>
       <c r="J21" s="82"/>
       <c r="K21" s="83"/>
-      <c r="L21" s="284"/>
-      <c r="M21" s="286"/>
-      <c r="N21" s="286"/>
-      <c r="O21" s="286"/>
-      <c r="P21" s="286"/>
-      <c r="Q21" s="285"/>
+      <c r="L21" s="281"/>
+      <c r="M21" s="282"/>
+      <c r="N21" s="282"/>
+      <c r="O21" s="282"/>
+      <c r="P21" s="282"/>
+      <c r="Q21" s="283"/>
       <c r="V21" s="60"/>
     </row>
     <row r="22" spans="2:22">
       <c r="B22" s="59"/>
       <c r="J22" s="82"/>
       <c r="K22" s="83"/>
-      <c r="L22" s="284"/>
-      <c r="M22" s="286"/>
-      <c r="N22" s="286"/>
-      <c r="O22" s="286"/>
-      <c r="P22" s="286"/>
-      <c r="Q22" s="285"/>
+      <c r="L22" s="281"/>
+      <c r="M22" s="282"/>
+      <c r="N22" s="282"/>
+      <c r="O22" s="282"/>
+      <c r="P22" s="282"/>
+      <c r="Q22" s="283"/>
       <c r="V22" s="60"/>
     </row>
     <row r="23" spans="2:22">
       <c r="B23" s="59"/>
       <c r="J23" s="82"/>
       <c r="K23" s="83"/>
-      <c r="L23" s="284"/>
-      <c r="M23" s="286"/>
-      <c r="N23" s="286"/>
-      <c r="O23" s="286"/>
-      <c r="P23" s="286"/>
-      <c r="Q23" s="285"/>
+      <c r="L23" s="281"/>
+      <c r="M23" s="282"/>
+      <c r="N23" s="282"/>
+      <c r="O23" s="282"/>
+      <c r="P23" s="282"/>
+      <c r="Q23" s="283"/>
       <c r="V23" s="60"/>
     </row>
     <row r="24" spans="2:22">
       <c r="B24" s="59"/>
       <c r="J24" s="82"/>
       <c r="K24" s="83"/>
-      <c r="L24" s="284"/>
-      <c r="M24" s="286"/>
-      <c r="N24" s="286"/>
-      <c r="O24" s="286"/>
-      <c r="P24" s="286"/>
-      <c r="Q24" s="285"/>
+      <c r="L24" s="281"/>
+      <c r="M24" s="282"/>
+      <c r="N24" s="282"/>
+      <c r="O24" s="282"/>
+      <c r="P24" s="282"/>
+      <c r="Q24" s="283"/>
       <c r="V24" s="60"/>
     </row>
     <row r="25" spans="2:22">
       <c r="B25" s="59"/>
       <c r="J25" s="82"/>
       <c r="K25" s="83"/>
-      <c r="L25" s="284"/>
-      <c r="M25" s="286"/>
-      <c r="N25" s="286"/>
-      <c r="O25" s="286"/>
-      <c r="P25" s="286"/>
-      <c r="Q25" s="285"/>
+      <c r="L25" s="281"/>
+      <c r="M25" s="282"/>
+      <c r="N25" s="282"/>
+      <c r="O25" s="282"/>
+      <c r="P25" s="282"/>
+      <c r="Q25" s="283"/>
       <c r="V25" s="60"/>
     </row>
     <row r="26" spans="2:22">
       <c r="B26" s="59"/>
       <c r="J26" s="82"/>
       <c r="K26" s="83"/>
-      <c r="L26" s="284"/>
-      <c r="M26" s="286"/>
-      <c r="N26" s="286"/>
-      <c r="O26" s="286"/>
-      <c r="P26" s="286"/>
-      <c r="Q26" s="285"/>
+      <c r="L26" s="281"/>
+      <c r="M26" s="282"/>
+      <c r="N26" s="282"/>
+      <c r="O26" s="282"/>
+      <c r="P26" s="282"/>
+      <c r="Q26" s="283"/>
       <c r="V26" s="60"/>
     </row>
     <row r="27" spans="2:22">
       <c r="B27" s="59"/>
       <c r="J27" s="82"/>
       <c r="K27" s="83"/>
-      <c r="L27" s="284"/>
-      <c r="M27" s="286"/>
-      <c r="N27" s="286"/>
-      <c r="O27" s="286"/>
-      <c r="P27" s="286"/>
-      <c r="Q27" s="285"/>
+      <c r="L27" s="281"/>
+      <c r="M27" s="282"/>
+      <c r="N27" s="282"/>
+      <c r="O27" s="282"/>
+      <c r="P27" s="282"/>
+      <c r="Q27" s="283"/>
       <c r="V27" s="60"/>
     </row>
     <row r="28" spans="2:22">
       <c r="B28" s="59"/>
       <c r="J28" s="82"/>
       <c r="K28" s="83"/>
-      <c r="L28" s="284"/>
-      <c r="M28" s="286"/>
-      <c r="N28" s="286"/>
-      <c r="O28" s="286"/>
-      <c r="P28" s="286"/>
-      <c r="Q28" s="285"/>
+      <c r="L28" s="281"/>
+      <c r="M28" s="282"/>
+      <c r="N28" s="282"/>
+      <c r="O28" s="282"/>
+      <c r="P28" s="282"/>
+      <c r="Q28" s="283"/>
       <c r="V28" s="60"/>
     </row>
     <row r="29" spans="2:22">
       <c r="B29" s="59"/>
       <c r="J29" s="82"/>
       <c r="K29" s="83"/>
-      <c r="L29" s="284"/>
-      <c r="M29" s="286"/>
-      <c r="N29" s="286"/>
-      <c r="O29" s="286"/>
-      <c r="P29" s="286"/>
-      <c r="Q29" s="285"/>
+      <c r="L29" s="281"/>
+      <c r="M29" s="282"/>
+      <c r="N29" s="282"/>
+      <c r="O29" s="282"/>
+      <c r="P29" s="282"/>
+      <c r="Q29" s="283"/>
       <c r="V29" s="60"/>
     </row>
     <row r="30" spans="2:22" ht="17.25" thickBot="1">
       <c r="B30" s="59"/>
-      <c r="J30" s="287"/>
-      <c r="K30" s="287"/>
-      <c r="L30" s="227"/>
-      <c r="M30" s="283"/>
-      <c r="N30" s="283"/>
-      <c r="O30" s="283"/>
-      <c r="P30" s="283"/>
-      <c r="Q30" s="228"/>
+      <c r="J30" s="285"/>
+      <c r="K30" s="285"/>
+      <c r="L30" s="229"/>
+      <c r="M30" s="284"/>
+      <c r="N30" s="284"/>
+      <c r="O30" s="284"/>
+      <c r="P30" s="284"/>
+      <c r="Q30" s="230"/>
       <c r="V30" s="60"/>
     </row>
     <row r="31" spans="2:22">
@@ -9949,10 +9945,10 @@
       <c r="M33" s="83"/>
       <c r="N33" s="83"/>
       <c r="O33" s="83"/>
-      <c r="P33" s="225" t="s">
+      <c r="P33" s="227" t="s">
         <v>120</v>
       </c>
-      <c r="Q33" s="226"/>
+      <c r="Q33" s="228"/>
       <c r="V33" s="60"/>
     </row>
     <row r="34" spans="2:22" ht="17.25" thickBot="1">
@@ -9963,8 +9959,8 @@
       <c r="M34" s="86"/>
       <c r="N34" s="86"/>
       <c r="O34" s="86"/>
-      <c r="P34" s="227"/>
-      <c r="Q34" s="228"/>
+      <c r="P34" s="229"/>
+      <c r="Q34" s="230"/>
       <c r="V34" s="60"/>
     </row>
     <row r="35" spans="2:22" ht="17.25" thickBot="1">
@@ -10055,14 +10051,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="P33:Q34"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="J18:K19"/>
-    <mergeCell ref="L19:Q30"/>
-    <mergeCell ref="J30:K30"/>
     <mergeCell ref="T6:V6"/>
     <mergeCell ref="A1:A5"/>
     <mergeCell ref="J16:K16"/>
@@ -10079,6 +10067,14 @@
     <mergeCell ref="L10:Q11"/>
     <mergeCell ref="J12:K15"/>
     <mergeCell ref="L12:Q15"/>
+    <mergeCell ref="P33:Q34"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="J18:K19"/>
+    <mergeCell ref="L19:Q30"/>
+    <mergeCell ref="J30:K30"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>
@@ -10311,7 +10307,7 @@
       <c r="J18" s="189"/>
       <c r="K18" s="189"/>
       <c r="L18" s="194"/>
-      <c r="N18" s="223" t="s">
+      <c r="N18" s="225" t="s">
         <v>123</v>
       </c>
       <c r="O18" s="91"/>
@@ -10326,7 +10322,7 @@
       <c r="J19" s="191"/>
       <c r="K19" s="191"/>
       <c r="L19" s="195"/>
-      <c r="N19" s="267"/>
+      <c r="N19" s="249"/>
       <c r="O19" s="91"/>
       <c r="V19" s="60"/>
     </row>
@@ -10339,7 +10335,7 @@
       <c r="J20" s="191"/>
       <c r="K20" s="191"/>
       <c r="L20" s="195"/>
-      <c r="N20" s="267"/>
+      <c r="N20" s="249"/>
       <c r="O20" s="91"/>
       <c r="V20" s="60"/>
     </row>
@@ -10352,7 +10348,7 @@
       <c r="J21" s="193"/>
       <c r="K21" s="193"/>
       <c r="L21" s="196"/>
-      <c r="N21" s="224"/>
+      <c r="N21" s="226"/>
       <c r="O21" s="91"/>
       <c r="V21" s="60"/>
     </row>
@@ -10379,7 +10375,7 @@
       <c r="J23" s="189"/>
       <c r="K23" s="189"/>
       <c r="L23" s="194"/>
-      <c r="N23" s="223" t="s">
+      <c r="N23" s="225" t="s">
         <v>123</v>
       </c>
       <c r="O23" s="91"/>
@@ -10394,7 +10390,7 @@
       <c r="J24" s="191"/>
       <c r="K24" s="191"/>
       <c r="L24" s="195"/>
-      <c r="N24" s="267"/>
+      <c r="N24" s="249"/>
       <c r="O24" s="91"/>
       <c r="V24" s="60"/>
     </row>
@@ -10407,7 +10403,7 @@
       <c r="J25" s="191"/>
       <c r="K25" s="191"/>
       <c r="L25" s="195"/>
-      <c r="N25" s="267"/>
+      <c r="N25" s="249"/>
       <c r="O25" s="91"/>
       <c r="V25" s="60"/>
     </row>
@@ -10420,7 +10416,7 @@
       <c r="J26" s="193"/>
       <c r="K26" s="193"/>
       <c r="L26" s="196"/>
-      <c r="N26" s="224"/>
+      <c r="N26" s="226"/>
       <c r="O26" s="91"/>
       <c r="V26" s="60"/>
     </row>
@@ -10447,7 +10443,7 @@
       <c r="J28" s="189"/>
       <c r="K28" s="189"/>
       <c r="L28" s="194"/>
-      <c r="N28" s="223" t="s">
+      <c r="N28" s="225" t="s">
         <v>123</v>
       </c>
       <c r="O28" s="91"/>
@@ -10462,7 +10458,7 @@
       <c r="J29" s="191"/>
       <c r="K29" s="191"/>
       <c r="L29" s="195"/>
-      <c r="N29" s="267"/>
+      <c r="N29" s="249"/>
       <c r="O29" s="91"/>
       <c r="V29" s="60"/>
     </row>
@@ -10475,7 +10471,7 @@
       <c r="J30" s="191"/>
       <c r="K30" s="191"/>
       <c r="L30" s="195"/>
-      <c r="N30" s="267"/>
+      <c r="N30" s="249"/>
       <c r="O30" s="91"/>
       <c r="V30" s="60"/>
     </row>
@@ -10488,7 +10484,7 @@
       <c r="J31" s="193"/>
       <c r="K31" s="193"/>
       <c r="L31" s="196"/>
-      <c r="N31" s="224"/>
+      <c r="N31" s="226"/>
       <c r="O31" s="91"/>
       <c r="V31" s="60"/>
     </row>
@@ -10631,19 +10627,19 @@
       </c>
     </row>
     <row r="52" spans="2:12">
-      <c r="B52" s="401" t="s">
+      <c r="B52" s="288" t="s">
         <v>567</v>
       </c>
-      <c r="C52" s="401"/>
-      <c r="D52" s="401"/>
-      <c r="E52" s="401"/>
-      <c r="F52" s="401"/>
-      <c r="G52" s="401"/>
-      <c r="H52" s="401"/>
-      <c r="I52" s="401"/>
-      <c r="J52" s="401"/>
-      <c r="K52" s="401"/>
-      <c r="L52" s="401"/>
+      <c r="C52" s="288"/>
+      <c r="D52" s="288"/>
+      <c r="E52" s="288"/>
+      <c r="F52" s="288"/>
+      <c r="G52" s="288"/>
+      <c r="H52" s="288"/>
+      <c r="I52" s="288"/>
+      <c r="J52" s="288"/>
+      <c r="K52" s="288"/>
+      <c r="L52" s="288"/>
     </row>
     <row r="53" spans="2:12">
       <c r="B53" t="s">
@@ -10662,6 +10658,13 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="T6:V6"/>
+    <mergeCell ref="A1:A5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="J6:M6"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="Q6:S6"/>
     <mergeCell ref="B52:L52"/>
     <mergeCell ref="F28:G31"/>
     <mergeCell ref="I28:L31"/>
@@ -10672,13 +10675,6 @@
     <mergeCell ref="F23:G26"/>
     <mergeCell ref="I23:L26"/>
     <mergeCell ref="N23:N26"/>
-    <mergeCell ref="T6:V6"/>
-    <mergeCell ref="A1:A5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="J6:M6"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="Q6:S6"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>
@@ -10790,21 +10786,21 @@
         <v>129</v>
       </c>
       <c r="D8" s="194"/>
-      <c r="E8" s="288" t="s">
+      <c r="E8" s="298" t="s">
         <v>130</v>
       </c>
-      <c r="F8" s="289"/>
-      <c r="G8" s="289"/>
-      <c r="H8" s="289"/>
-      <c r="I8" s="289"/>
-      <c r="J8" s="289"/>
-      <c r="K8" s="289"/>
-      <c r="L8" s="289"/>
-      <c r="M8" s="289"/>
-      <c r="N8" s="289"/>
-      <c r="O8" s="289"/>
-      <c r="P8" s="289"/>
-      <c r="Q8" s="290"/>
+      <c r="F8" s="299"/>
+      <c r="G8" s="299"/>
+      <c r="H8" s="299"/>
+      <c r="I8" s="299"/>
+      <c r="J8" s="299"/>
+      <c r="K8" s="299"/>
+      <c r="L8" s="299"/>
+      <c r="M8" s="299"/>
+      <c r="N8" s="299"/>
+      <c r="O8" s="299"/>
+      <c r="P8" s="299"/>
+      <c r="Q8" s="300"/>
       <c r="R8" s="188" t="s">
         <v>131</v>
       </c>
@@ -10817,19 +10813,19 @@
       <c r="B9" s="59"/>
       <c r="C9" s="190"/>
       <c r="D9" s="195"/>
-      <c r="E9" s="291"/>
-      <c r="F9" s="292"/>
-      <c r="G9" s="292"/>
-      <c r="H9" s="292"/>
-      <c r="I9" s="292"/>
-      <c r="J9" s="292"/>
-      <c r="K9" s="292"/>
-      <c r="L9" s="292"/>
-      <c r="M9" s="292"/>
-      <c r="N9" s="292"/>
-      <c r="O9" s="292"/>
-      <c r="P9" s="292"/>
-      <c r="Q9" s="293"/>
+      <c r="E9" s="301"/>
+      <c r="F9" s="302"/>
+      <c r="G9" s="302"/>
+      <c r="H9" s="302"/>
+      <c r="I9" s="302"/>
+      <c r="J9" s="302"/>
+      <c r="K9" s="302"/>
+      <c r="L9" s="302"/>
+      <c r="M9" s="302"/>
+      <c r="N9" s="302"/>
+      <c r="O9" s="302"/>
+      <c r="P9" s="302"/>
+      <c r="Q9" s="303"/>
       <c r="R9" s="190"/>
       <c r="S9" s="191"/>
       <c r="T9" s="191"/>
@@ -10840,19 +10836,19 @@
       <c r="B10" s="59"/>
       <c r="C10" s="192"/>
       <c r="D10" s="196"/>
-      <c r="E10" s="294"/>
-      <c r="F10" s="295"/>
-      <c r="G10" s="295"/>
-      <c r="H10" s="295"/>
-      <c r="I10" s="295"/>
-      <c r="J10" s="295"/>
-      <c r="K10" s="295"/>
-      <c r="L10" s="295"/>
-      <c r="M10" s="295"/>
-      <c r="N10" s="295"/>
-      <c r="O10" s="295"/>
-      <c r="P10" s="295"/>
-      <c r="Q10" s="296"/>
+      <c r="E10" s="304"/>
+      <c r="F10" s="305"/>
+      <c r="G10" s="305"/>
+      <c r="H10" s="305"/>
+      <c r="I10" s="305"/>
+      <c r="J10" s="305"/>
+      <c r="K10" s="305"/>
+      <c r="L10" s="305"/>
+      <c r="M10" s="305"/>
+      <c r="N10" s="305"/>
+      <c r="O10" s="305"/>
+      <c r="P10" s="305"/>
+      <c r="Q10" s="306"/>
       <c r="R10" s="192"/>
       <c r="S10" s="193"/>
       <c r="T10" s="193"/>
@@ -10878,7 +10874,7 @@
       <c r="O11" s="189"/>
       <c r="P11" s="189"/>
       <c r="Q11" s="194"/>
-      <c r="R11" s="249" t="s">
+      <c r="R11" s="231" t="s">
         <v>133</v>
       </c>
       <c r="S11" s="189"/>
@@ -10999,25 +10995,25 @@
       <c r="E16" s="39"/>
       <c r="F16" s="39"/>
       <c r="G16" s="39"/>
-      <c r="H16" s="264" t="s">
+      <c r="H16" s="246" t="s">
         <v>141</v>
       </c>
-      <c r="I16" s="223" t="s">
+      <c r="I16" s="225" t="s">
         <v>142</v>
       </c>
-      <c r="J16" s="223" t="s">
+      <c r="J16" s="225" t="s">
         <v>143</v>
       </c>
-      <c r="K16" s="223" t="s">
+      <c r="K16" s="225" t="s">
         <v>144</v>
       </c>
-      <c r="L16" s="223" t="s">
+      <c r="L16" s="225" t="s">
         <v>145</v>
       </c>
-      <c r="M16" s="223" t="s">
+      <c r="M16" s="225" t="s">
         <v>146</v>
       </c>
-      <c r="N16" s="268" t="s">
+      <c r="N16" s="250" t="s">
         <v>147</v>
       </c>
       <c r="O16" s="39"/>
@@ -11036,13 +11032,13 @@
       <c r="E17" s="39"/>
       <c r="F17" s="39"/>
       <c r="G17" s="39"/>
-      <c r="H17" s="265"/>
-      <c r="I17" s="267"/>
-      <c r="J17" s="267"/>
-      <c r="K17" s="267"/>
-      <c r="L17" s="267"/>
-      <c r="M17" s="267"/>
-      <c r="N17" s="297"/>
+      <c r="H17" s="247"/>
+      <c r="I17" s="249"/>
+      <c r="J17" s="249"/>
+      <c r="K17" s="249"/>
+      <c r="L17" s="249"/>
+      <c r="M17" s="249"/>
+      <c r="N17" s="307"/>
       <c r="O17" s="39"/>
       <c r="P17" s="39"/>
       <c r="Q17" s="54"/>
@@ -11059,13 +11055,13 @@
       <c r="E18" s="39"/>
       <c r="F18" s="39"/>
       <c r="G18" s="39"/>
-      <c r="H18" s="266"/>
-      <c r="I18" s="224"/>
-      <c r="J18" s="224"/>
-      <c r="K18" s="224"/>
-      <c r="L18" s="224"/>
-      <c r="M18" s="224"/>
-      <c r="N18" s="298"/>
+      <c r="H18" s="248"/>
+      <c r="I18" s="226"/>
+      <c r="J18" s="226"/>
+      <c r="K18" s="226"/>
+      <c r="L18" s="226"/>
+      <c r="M18" s="226"/>
+      <c r="N18" s="308"/>
       <c r="O18" s="39"/>
       <c r="P18" s="39"/>
       <c r="Q18" s="54"/>
@@ -11082,23 +11078,23 @@
       <c r="E19" s="39"/>
       <c r="F19" s="39"/>
       <c r="G19" s="39"/>
-      <c r="H19" s="248"/>
-      <c r="I19" s="248">
+      <c r="H19" s="268"/>
+      <c r="I19" s="268">
         <v>1</v>
       </c>
-      <c r="J19" s="248">
+      <c r="J19" s="268">
         <v>2</v>
       </c>
-      <c r="K19" s="248">
+      <c r="K19" s="268">
         <v>3</v>
       </c>
-      <c r="L19" s="248">
+      <c r="L19" s="268">
         <v>4</v>
       </c>
-      <c r="M19" s="248">
+      <c r="M19" s="268">
         <v>5</v>
       </c>
-      <c r="N19" s="299">
+      <c r="N19" s="295">
         <v>6</v>
       </c>
       <c r="O19" s="39"/>
@@ -11117,13 +11113,13 @@
       <c r="E20" s="39"/>
       <c r="F20" s="39"/>
       <c r="G20" s="39"/>
-      <c r="H20" s="232"/>
-      <c r="I20" s="232"/>
-      <c r="J20" s="232"/>
-      <c r="K20" s="232"/>
-      <c r="L20" s="232"/>
-      <c r="M20" s="232"/>
-      <c r="N20" s="300"/>
+      <c r="H20" s="263"/>
+      <c r="I20" s="263"/>
+      <c r="J20" s="263"/>
+      <c r="K20" s="263"/>
+      <c r="L20" s="263"/>
+      <c r="M20" s="263"/>
+      <c r="N20" s="296"/>
       <c r="O20" s="39"/>
       <c r="P20" s="39"/>
       <c r="Q20" s="54"/>
@@ -11140,17 +11136,17 @@
       <c r="E21" s="39"/>
       <c r="F21" s="39"/>
       <c r="G21" s="39"/>
-      <c r="H21" s="240"/>
-      <c r="I21" s="240"/>
-      <c r="J21" s="240"/>
-      <c r="K21" s="240"/>
-      <c r="L21" s="240"/>
-      <c r="M21" s="240"/>
-      <c r="N21" s="301"/>
+      <c r="H21" s="264"/>
+      <c r="I21" s="264"/>
+      <c r="J21" s="264"/>
+      <c r="K21" s="264"/>
+      <c r="L21" s="264"/>
+      <c r="M21" s="264"/>
+      <c r="N21" s="297"/>
       <c r="O21" s="39"/>
       <c r="P21" s="39"/>
       <c r="Q21" s="54"/>
-      <c r="R21" s="249" t="s">
+      <c r="R21" s="231" t="s">
         <v>148</v>
       </c>
       <c r="S21" s="189"/>
@@ -11165,25 +11161,25 @@
       <c r="E22" s="39"/>
       <c r="F22" s="39"/>
       <c r="G22" s="39"/>
-      <c r="H22" s="302">
+      <c r="H22" s="292">
         <v>7</v>
       </c>
-      <c r="I22" s="231">
+      <c r="I22" s="262">
         <v>8</v>
       </c>
-      <c r="J22" s="231">
+      <c r="J22" s="262">
         <v>9</v>
       </c>
-      <c r="K22" s="231">
+      <c r="K22" s="262">
         <v>10</v>
       </c>
-      <c r="L22" s="231">
+      <c r="L22" s="262">
         <v>11</v>
       </c>
-      <c r="M22" s="231">
+      <c r="M22" s="262">
         <v>12</v>
       </c>
-      <c r="N22" s="305">
+      <c r="N22" s="289">
         <v>13</v>
       </c>
       <c r="O22" s="39"/>
@@ -11202,13 +11198,13 @@
       <c r="E23" s="39"/>
       <c r="F23" s="39"/>
       <c r="G23" s="39"/>
-      <c r="H23" s="303"/>
-      <c r="I23" s="232"/>
-      <c r="J23" s="232"/>
-      <c r="K23" s="232"/>
-      <c r="L23" s="232"/>
-      <c r="M23" s="232"/>
-      <c r="N23" s="306"/>
+      <c r="H23" s="293"/>
+      <c r="I23" s="263"/>
+      <c r="J23" s="263"/>
+      <c r="K23" s="263"/>
+      <c r="L23" s="263"/>
+      <c r="M23" s="263"/>
+      <c r="N23" s="290"/>
       <c r="O23" s="39"/>
       <c r="P23" s="39"/>
       <c r="Q23" s="54"/>
@@ -11225,13 +11221,13 @@
       <c r="E24" s="39"/>
       <c r="F24" s="39"/>
       <c r="G24" s="39"/>
-      <c r="H24" s="304"/>
-      <c r="I24" s="240"/>
-      <c r="J24" s="240"/>
-      <c r="K24" s="240"/>
-      <c r="L24" s="240"/>
-      <c r="M24" s="240"/>
-      <c r="N24" s="307"/>
+      <c r="H24" s="294"/>
+      <c r="I24" s="264"/>
+      <c r="J24" s="264"/>
+      <c r="K24" s="264"/>
+      <c r="L24" s="264"/>
+      <c r="M24" s="264"/>
+      <c r="N24" s="291"/>
       <c r="O24" s="39"/>
       <c r="P24" s="39"/>
       <c r="Q24" s="54"/>
@@ -11248,25 +11244,25 @@
       <c r="E25" s="39"/>
       <c r="F25" s="39"/>
       <c r="G25" s="39"/>
-      <c r="H25" s="302">
+      <c r="H25" s="292">
         <v>14</v>
       </c>
-      <c r="I25" s="231">
+      <c r="I25" s="262">
         <v>15</v>
       </c>
-      <c r="J25" s="231">
+      <c r="J25" s="262">
         <v>16</v>
       </c>
-      <c r="K25" s="231">
+      <c r="K25" s="262">
         <v>17</v>
       </c>
-      <c r="L25" s="231">
+      <c r="L25" s="262">
         <v>18</v>
       </c>
-      <c r="M25" s="231">
+      <c r="M25" s="262">
         <v>19</v>
       </c>
-      <c r="N25" s="305">
+      <c r="N25" s="289">
         <v>20</v>
       </c>
       <c r="O25" s="39"/>
@@ -11285,13 +11281,13 @@
       <c r="E26" s="39"/>
       <c r="F26" s="39"/>
       <c r="G26" s="39"/>
-      <c r="H26" s="303"/>
-      <c r="I26" s="232"/>
-      <c r="J26" s="232"/>
-      <c r="K26" s="232"/>
-      <c r="L26" s="232"/>
-      <c r="M26" s="232"/>
-      <c r="N26" s="306"/>
+      <c r="H26" s="293"/>
+      <c r="I26" s="263"/>
+      <c r="J26" s="263"/>
+      <c r="K26" s="263"/>
+      <c r="L26" s="263"/>
+      <c r="M26" s="263"/>
+      <c r="N26" s="290"/>
       <c r="O26" s="39"/>
       <c r="P26" s="39"/>
       <c r="Q26" s="54"/>
@@ -11308,13 +11304,13 @@
       <c r="E27" s="39"/>
       <c r="F27" s="39"/>
       <c r="G27" s="39"/>
-      <c r="H27" s="304"/>
-      <c r="I27" s="240"/>
-      <c r="J27" s="240"/>
-      <c r="K27" s="240"/>
-      <c r="L27" s="240"/>
-      <c r="M27" s="240"/>
-      <c r="N27" s="307"/>
+      <c r="H27" s="294"/>
+      <c r="I27" s="264"/>
+      <c r="J27" s="264"/>
+      <c r="K27" s="264"/>
+      <c r="L27" s="264"/>
+      <c r="M27" s="264"/>
+      <c r="N27" s="291"/>
       <c r="O27" s="39"/>
       <c r="P27" s="39"/>
       <c r="Q27" s="54"/>
@@ -11331,25 +11327,25 @@
       <c r="E28" s="39"/>
       <c r="F28" s="39"/>
       <c r="G28" s="39"/>
-      <c r="H28" s="302">
+      <c r="H28" s="292">
         <v>21</v>
       </c>
-      <c r="I28" s="231">
+      <c r="I28" s="262">
         <v>22</v>
       </c>
-      <c r="J28" s="231">
+      <c r="J28" s="262">
         <v>23</v>
       </c>
-      <c r="K28" s="231">
+      <c r="K28" s="262">
         <v>24</v>
       </c>
-      <c r="L28" s="231">
+      <c r="L28" s="262">
         <v>25</v>
       </c>
-      <c r="M28" s="231">
+      <c r="M28" s="262">
         <v>26</v>
       </c>
-      <c r="N28" s="305">
+      <c r="N28" s="289">
         <v>27</v>
       </c>
       <c r="O28" s="39"/>
@@ -11368,13 +11364,13 @@
       <c r="E29" s="39"/>
       <c r="F29" s="39"/>
       <c r="G29" s="39"/>
-      <c r="H29" s="303"/>
-      <c r="I29" s="232"/>
-      <c r="J29" s="232"/>
-      <c r="K29" s="232"/>
-      <c r="L29" s="232"/>
-      <c r="M29" s="232"/>
-      <c r="N29" s="306"/>
+      <c r="H29" s="293"/>
+      <c r="I29" s="263"/>
+      <c r="J29" s="263"/>
+      <c r="K29" s="263"/>
+      <c r="L29" s="263"/>
+      <c r="M29" s="263"/>
+      <c r="N29" s="290"/>
       <c r="O29" s="39"/>
       <c r="P29" s="39"/>
       <c r="Q29" s="39"/>
@@ -11391,13 +11387,13 @@
       <c r="E30" s="39"/>
       <c r="F30" s="39"/>
       <c r="G30" s="39"/>
-      <c r="H30" s="304"/>
-      <c r="I30" s="240"/>
-      <c r="J30" s="240"/>
-      <c r="K30" s="240"/>
-      <c r="L30" s="240"/>
-      <c r="M30" s="240"/>
-      <c r="N30" s="307"/>
+      <c r="H30" s="294"/>
+      <c r="I30" s="264"/>
+      <c r="J30" s="264"/>
+      <c r="K30" s="264"/>
+      <c r="L30" s="264"/>
+      <c r="M30" s="264"/>
+      <c r="N30" s="291"/>
       <c r="O30" s="39"/>
       <c r="P30" s="39"/>
       <c r="Q30" s="39"/>
@@ -11414,21 +11410,21 @@
       <c r="E31" s="39"/>
       <c r="F31" s="39"/>
       <c r="G31" s="39"/>
-      <c r="H31" s="302">
+      <c r="H31" s="292">
         <v>28</v>
       </c>
-      <c r="I31" s="231">
+      <c r="I31" s="262">
         <v>29</v>
       </c>
-      <c r="J31" s="231">
+      <c r="J31" s="262">
         <v>30</v>
       </c>
-      <c r="K31" s="231">
+      <c r="K31" s="262">
         <v>31</v>
       </c>
-      <c r="L31" s="231"/>
-      <c r="M31" s="231"/>
-      <c r="N31" s="231"/>
+      <c r="L31" s="262"/>
+      <c r="M31" s="262"/>
+      <c r="N31" s="262"/>
       <c r="O31" s="39"/>
       <c r="P31" s="39"/>
       <c r="Q31" s="39"/>
@@ -11445,13 +11441,13 @@
       <c r="E32" s="39"/>
       <c r="F32" s="39"/>
       <c r="G32" s="39"/>
-      <c r="H32" s="303"/>
-      <c r="I32" s="232"/>
-      <c r="J32" s="232"/>
-      <c r="K32" s="232"/>
-      <c r="L32" s="232"/>
-      <c r="M32" s="232"/>
-      <c r="N32" s="232"/>
+      <c r="H32" s="293"/>
+      <c r="I32" s="263"/>
+      <c r="J32" s="263"/>
+      <c r="K32" s="263"/>
+      <c r="L32" s="263"/>
+      <c r="M32" s="263"/>
+      <c r="N32" s="263"/>
       <c r="O32" s="39"/>
       <c r="P32" s="39"/>
       <c r="Q32" s="39"/>
@@ -11468,13 +11464,13 @@
       <c r="E33" s="39"/>
       <c r="F33" s="39"/>
       <c r="G33" s="39"/>
-      <c r="H33" s="304"/>
-      <c r="I33" s="240"/>
-      <c r="J33" s="240"/>
-      <c r="K33" s="240"/>
-      <c r="L33" s="240"/>
-      <c r="M33" s="240"/>
-      <c r="N33" s="240"/>
+      <c r="H33" s="294"/>
+      <c r="I33" s="264"/>
+      <c r="J33" s="264"/>
+      <c r="K33" s="264"/>
+      <c r="L33" s="264"/>
+      <c r="M33" s="264"/>
+      <c r="N33" s="264"/>
       <c r="O33" s="39"/>
       <c r="P33" s="39"/>
       <c r="Q33" s="39"/>
@@ -11606,6 +11602,45 @@
     </row>
   </sheetData>
   <mergeCells count="55">
+    <mergeCell ref="T6:V6"/>
+    <mergeCell ref="A1:A5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="J6:M6"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="Q6:S6"/>
+    <mergeCell ref="C8:D10"/>
+    <mergeCell ref="E8:Q10"/>
+    <mergeCell ref="R8:U10"/>
+    <mergeCell ref="C11:Q13"/>
+    <mergeCell ref="R11:U20"/>
+    <mergeCell ref="H16:H18"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="J16:J18"/>
+    <mergeCell ref="K16:K18"/>
+    <mergeCell ref="L16:L18"/>
+    <mergeCell ref="M16:M18"/>
+    <mergeCell ref="N16:N18"/>
+    <mergeCell ref="H19:H21"/>
+    <mergeCell ref="I19:I21"/>
+    <mergeCell ref="J19:J21"/>
+    <mergeCell ref="K19:K21"/>
+    <mergeCell ref="L19:L21"/>
+    <mergeCell ref="M19:M21"/>
+    <mergeCell ref="N19:N21"/>
+    <mergeCell ref="R21:U28"/>
+    <mergeCell ref="H22:H24"/>
+    <mergeCell ref="I22:I24"/>
+    <mergeCell ref="J22:J24"/>
+    <mergeCell ref="K22:K24"/>
+    <mergeCell ref="L22:L24"/>
+    <mergeCell ref="M22:M24"/>
+    <mergeCell ref="N22:N24"/>
+    <mergeCell ref="H25:H27"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="J25:J27"/>
+    <mergeCell ref="K25:K27"/>
+    <mergeCell ref="L25:L27"/>
     <mergeCell ref="M25:M27"/>
     <mergeCell ref="N25:N27"/>
     <mergeCell ref="M28:M30"/>
@@ -11622,45 +11657,6 @@
     <mergeCell ref="J28:J30"/>
     <mergeCell ref="K28:K30"/>
     <mergeCell ref="L28:L30"/>
-    <mergeCell ref="L19:L21"/>
-    <mergeCell ref="M19:M21"/>
-    <mergeCell ref="N19:N21"/>
-    <mergeCell ref="R21:U28"/>
-    <mergeCell ref="H22:H24"/>
-    <mergeCell ref="I22:I24"/>
-    <mergeCell ref="J22:J24"/>
-    <mergeCell ref="K22:K24"/>
-    <mergeCell ref="L22:L24"/>
-    <mergeCell ref="M22:M24"/>
-    <mergeCell ref="N22:N24"/>
-    <mergeCell ref="H25:H27"/>
-    <mergeCell ref="I25:I27"/>
-    <mergeCell ref="J25:J27"/>
-    <mergeCell ref="K25:K27"/>
-    <mergeCell ref="L25:L27"/>
-    <mergeCell ref="C8:D10"/>
-    <mergeCell ref="E8:Q10"/>
-    <mergeCell ref="R8:U10"/>
-    <mergeCell ref="C11:Q13"/>
-    <mergeCell ref="R11:U20"/>
-    <mergeCell ref="H16:H18"/>
-    <mergeCell ref="I16:I18"/>
-    <mergeCell ref="J16:J18"/>
-    <mergeCell ref="K16:K18"/>
-    <mergeCell ref="L16:L18"/>
-    <mergeCell ref="M16:M18"/>
-    <mergeCell ref="N16:N18"/>
-    <mergeCell ref="H19:H21"/>
-    <mergeCell ref="I19:I21"/>
-    <mergeCell ref="J19:J21"/>
-    <mergeCell ref="K19:K21"/>
-    <mergeCell ref="T6:V6"/>
-    <mergeCell ref="A1:A5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="J6:M6"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="Q6:S6"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>
@@ -11815,16 +11811,16 @@
       <c r="E10" s="39"/>
       <c r="F10" s="39"/>
       <c r="G10" s="39"/>
-      <c r="H10" s="309" t="s">
+      <c r="H10" s="310" t="s">
         <v>191</v>
       </c>
-      <c r="I10" s="310"/>
-      <c r="J10" s="310"/>
-      <c r="K10" s="310"/>
-      <c r="L10" s="310"/>
-      <c r="M10" s="310"/>
-      <c r="N10" s="310"/>
-      <c r="O10" s="311"/>
+      <c r="I10" s="311"/>
+      <c r="J10" s="311"/>
+      <c r="K10" s="311"/>
+      <c r="L10" s="311"/>
+      <c r="M10" s="311"/>
+      <c r="N10" s="311"/>
+      <c r="O10" s="312"/>
       <c r="P10" s="39"/>
       <c r="Q10" s="39"/>
       <c r="R10" s="39"/>
@@ -11840,14 +11836,14 @@
       <c r="E11" s="39"/>
       <c r="F11" s="39"/>
       <c r="G11" s="39"/>
-      <c r="H11" s="312"/>
-      <c r="I11" s="313"/>
-      <c r="J11" s="313"/>
-      <c r="K11" s="313"/>
-      <c r="L11" s="313"/>
-      <c r="M11" s="313"/>
-      <c r="N11" s="313"/>
-      <c r="O11" s="314"/>
+      <c r="H11" s="313"/>
+      <c r="I11" s="314"/>
+      <c r="J11" s="314"/>
+      <c r="K11" s="314"/>
+      <c r="L11" s="314"/>
+      <c r="M11" s="314"/>
+      <c r="N11" s="314"/>
+      <c r="O11" s="315"/>
       <c r="P11" s="39"/>
       <c r="Q11" s="39"/>
       <c r="R11" s="39"/>
@@ -11863,14 +11859,14 @@
       <c r="E12" s="39"/>
       <c r="F12" s="39"/>
       <c r="G12" s="39"/>
-      <c r="H12" s="312"/>
-      <c r="I12" s="313"/>
-      <c r="J12" s="313"/>
-      <c r="K12" s="313"/>
-      <c r="L12" s="313"/>
-      <c r="M12" s="313"/>
-      <c r="N12" s="313"/>
-      <c r="O12" s="314"/>
+      <c r="H12" s="313"/>
+      <c r="I12" s="314"/>
+      <c r="J12" s="314"/>
+      <c r="K12" s="314"/>
+      <c r="L12" s="314"/>
+      <c r="M12" s="314"/>
+      <c r="N12" s="314"/>
+      <c r="O12" s="315"/>
       <c r="P12" s="39"/>
       <c r="Q12" s="39"/>
       <c r="R12" s="39"/>
@@ -11886,14 +11882,14 @@
       <c r="E13" s="39"/>
       <c r="F13" s="39"/>
       <c r="G13" s="39"/>
-      <c r="H13" s="315"/>
-      <c r="I13" s="316"/>
-      <c r="J13" s="316"/>
-      <c r="K13" s="316"/>
-      <c r="L13" s="316"/>
-      <c r="M13" s="316"/>
-      <c r="N13" s="316"/>
-      <c r="O13" s="317"/>
+      <c r="H13" s="316"/>
+      <c r="I13" s="317"/>
+      <c r="J13" s="317"/>
+      <c r="K13" s="317"/>
+      <c r="L13" s="317"/>
+      <c r="M13" s="317"/>
+      <c r="N13" s="317"/>
+      <c r="O13" s="318"/>
       <c r="P13" s="39"/>
       <c r="Q13" s="39"/>
       <c r="R13" s="39"/>
@@ -11931,17 +11927,17 @@
       <c r="E15" s="39"/>
       <c r="F15" s="39"/>
       <c r="G15" s="39"/>
-      <c r="H15" s="318" t="s">
+      <c r="H15" s="319" t="s">
         <v>192</v>
       </c>
-      <c r="I15" s="319" t="s">
+      <c r="I15" s="320" t="s">
         <v>193</v>
       </c>
-      <c r="J15" s="320"/>
-      <c r="K15" s="320"/>
-      <c r="L15" s="320"/>
-      <c r="M15" s="320"/>
-      <c r="N15" s="321"/>
+      <c r="J15" s="321"/>
+      <c r="K15" s="321"/>
+      <c r="L15" s="321"/>
+      <c r="M15" s="321"/>
+      <c r="N15" s="322"/>
       <c r="O15" s="132"/>
       <c r="P15" s="39"/>
       <c r="Q15" s="39"/>
@@ -11958,13 +11954,13 @@
       <c r="E16" s="39"/>
       <c r="F16" s="39"/>
       <c r="G16" s="39"/>
-      <c r="H16" s="318"/>
-      <c r="I16" s="322"/>
-      <c r="J16" s="323"/>
-      <c r="K16" s="323"/>
-      <c r="L16" s="323"/>
-      <c r="M16" s="323"/>
-      <c r="N16" s="324"/>
+      <c r="H16" s="319"/>
+      <c r="I16" s="323"/>
+      <c r="J16" s="324"/>
+      <c r="K16" s="324"/>
+      <c r="L16" s="324"/>
+      <c r="M16" s="324"/>
+      <c r="N16" s="325"/>
       <c r="O16" s="132"/>
       <c r="P16" s="39"/>
       <c r="Q16" s="39"/>
@@ -12004,17 +12000,17 @@
       <c r="E18" s="39"/>
       <c r="F18" s="39"/>
       <c r="G18" s="39"/>
-      <c r="H18" s="325" t="s">
+      <c r="H18" s="326" t="s">
         <v>194</v>
       </c>
-      <c r="I18" s="326" t="s">
+      <c r="I18" s="327" t="s">
         <v>195</v>
       </c>
-      <c r="J18" s="327"/>
-      <c r="K18" s="327"/>
-      <c r="L18" s="327"/>
-      <c r="M18" s="327"/>
-      <c r="N18" s="328"/>
+      <c r="J18" s="328"/>
+      <c r="K18" s="328"/>
+      <c r="L18" s="328"/>
+      <c r="M18" s="328"/>
+      <c r="N18" s="329"/>
       <c r="O18" s="132"/>
       <c r="P18" s="39"/>
       <c r="Q18" s="39"/>
@@ -12031,13 +12027,13 @@
       <c r="E19" s="39"/>
       <c r="F19" s="39"/>
       <c r="G19" s="39"/>
-      <c r="H19" s="325"/>
-      <c r="I19" s="329"/>
-      <c r="J19" s="330"/>
-      <c r="K19" s="330"/>
-      <c r="L19" s="330"/>
-      <c r="M19" s="330"/>
-      <c r="N19" s="331"/>
+      <c r="H19" s="326"/>
+      <c r="I19" s="330"/>
+      <c r="J19" s="331"/>
+      <c r="K19" s="331"/>
+      <c r="L19" s="331"/>
+      <c r="M19" s="331"/>
+      <c r="N19" s="332"/>
       <c r="O19" s="132"/>
       <c r="P19" s="39"/>
       <c r="Q19" s="39"/>
@@ -12080,14 +12076,14 @@
       <c r="H21" s="145" t="s">
         <v>196</v>
       </c>
-      <c r="I21" s="332" t="s">
+      <c r="I21" s="333" t="s">
         <v>197</v>
       </c>
-      <c r="J21" s="333"/>
-      <c r="K21" s="333"/>
-      <c r="L21" s="333"/>
-      <c r="M21" s="333"/>
-      <c r="N21" s="334"/>
+      <c r="J21" s="334"/>
+      <c r="K21" s="334"/>
+      <c r="L21" s="334"/>
+      <c r="M21" s="334"/>
+      <c r="N21" s="335"/>
       <c r="O21" s="132"/>
       <c r="P21" s="39"/>
       <c r="Q21" s="39"/>
@@ -12105,12 +12101,12 @@
       <c r="F22" s="39"/>
       <c r="G22" s="39"/>
       <c r="H22" s="145"/>
-      <c r="I22" s="335"/>
-      <c r="J22" s="336"/>
-      <c r="K22" s="336"/>
-      <c r="L22" s="336"/>
-      <c r="M22" s="336"/>
-      <c r="N22" s="337"/>
+      <c r="I22" s="336"/>
+      <c r="J22" s="337"/>
+      <c r="K22" s="337"/>
+      <c r="L22" s="337"/>
+      <c r="M22" s="337"/>
+      <c r="N22" s="338"/>
       <c r="O22" s="132"/>
       <c r="P22" s="39"/>
       <c r="Q22" s="39"/>
@@ -12128,12 +12124,12 @@
       <c r="F23" s="39"/>
       <c r="G23" s="39"/>
       <c r="H23" s="145"/>
-      <c r="I23" s="335"/>
-      <c r="J23" s="336"/>
-      <c r="K23" s="336"/>
-      <c r="L23" s="336"/>
-      <c r="M23" s="336"/>
-      <c r="N23" s="337"/>
+      <c r="I23" s="336"/>
+      <c r="J23" s="337"/>
+      <c r="K23" s="337"/>
+      <c r="L23" s="337"/>
+      <c r="M23" s="337"/>
+      <c r="N23" s="338"/>
       <c r="O23" s="132"/>
       <c r="P23" s="39"/>
       <c r="Q23" s="39"/>
@@ -12151,12 +12147,12 @@
       <c r="F24" s="39"/>
       <c r="G24" s="39"/>
       <c r="H24" s="145"/>
-      <c r="I24" s="335"/>
-      <c r="J24" s="336"/>
-      <c r="K24" s="336"/>
-      <c r="L24" s="336"/>
-      <c r="M24" s="336"/>
-      <c r="N24" s="337"/>
+      <c r="I24" s="336"/>
+      <c r="J24" s="337"/>
+      <c r="K24" s="337"/>
+      <c r="L24" s="337"/>
+      <c r="M24" s="337"/>
+      <c r="N24" s="338"/>
       <c r="O24" s="132"/>
       <c r="P24" s="39"/>
       <c r="Q24" s="39"/>
@@ -12174,12 +12170,12 @@
       <c r="F25" s="39"/>
       <c r="G25" s="39"/>
       <c r="H25" s="145"/>
-      <c r="I25" s="335"/>
-      <c r="J25" s="336"/>
-      <c r="K25" s="336"/>
-      <c r="L25" s="336"/>
-      <c r="M25" s="336"/>
-      <c r="N25" s="337"/>
+      <c r="I25" s="336"/>
+      <c r="J25" s="337"/>
+      <c r="K25" s="337"/>
+      <c r="L25" s="337"/>
+      <c r="M25" s="337"/>
+      <c r="N25" s="338"/>
       <c r="O25" s="132"/>
       <c r="P25" s="39"/>
       <c r="Q25" s="39"/>
@@ -12197,12 +12193,12 @@
       <c r="F26" s="39"/>
       <c r="G26" s="39"/>
       <c r="H26" s="145"/>
-      <c r="I26" s="335"/>
-      <c r="J26" s="336"/>
-      <c r="K26" s="336"/>
-      <c r="L26" s="336"/>
-      <c r="M26" s="336"/>
-      <c r="N26" s="337"/>
+      <c r="I26" s="336"/>
+      <c r="J26" s="337"/>
+      <c r="K26" s="337"/>
+      <c r="L26" s="337"/>
+      <c r="M26" s="337"/>
+      <c r="N26" s="338"/>
       <c r="O26" s="132"/>
       <c r="P26" s="39"/>
       <c r="Q26" s="39"/>
@@ -12220,12 +12216,12 @@
       <c r="F27" s="39"/>
       <c r="G27" s="39"/>
       <c r="H27" s="145"/>
-      <c r="I27" s="335"/>
-      <c r="J27" s="336"/>
-      <c r="K27" s="336"/>
-      <c r="L27" s="336"/>
-      <c r="M27" s="336"/>
-      <c r="N27" s="337"/>
+      <c r="I27" s="336"/>
+      <c r="J27" s="337"/>
+      <c r="K27" s="337"/>
+      <c r="L27" s="337"/>
+      <c r="M27" s="337"/>
+      <c r="N27" s="338"/>
       <c r="O27" s="132"/>
       <c r="P27" s="39"/>
       <c r="Q27" s="39"/>
@@ -12243,12 +12239,12 @@
       <c r="F28" s="39"/>
       <c r="G28" s="39"/>
       <c r="H28" s="145"/>
-      <c r="I28" s="338"/>
-      <c r="J28" s="339"/>
-      <c r="K28" s="339"/>
-      <c r="L28" s="339"/>
-      <c r="M28" s="339"/>
-      <c r="N28" s="340"/>
+      <c r="I28" s="339"/>
+      <c r="J28" s="340"/>
+      <c r="K28" s="340"/>
+      <c r="L28" s="340"/>
+      <c r="M28" s="340"/>
+      <c r="N28" s="341"/>
       <c r="O28" s="132"/>
       <c r="P28" s="39"/>
       <c r="Q28" s="39"/>
@@ -12300,7 +12296,7 @@
       <c r="K30" s="145"/>
       <c r="L30" s="135"/>
       <c r="M30" s="135"/>
-      <c r="N30" s="308"/>
+      <c r="N30" s="309"/>
       <c r="O30" s="132"/>
       <c r="P30" s="39"/>
       <c r="Q30" s="39"/>
@@ -12323,7 +12319,7 @@
       <c r="K31" s="135"/>
       <c r="L31" s="135"/>
       <c r="M31" s="135"/>
-      <c r="N31" s="308"/>
+      <c r="N31" s="309"/>
       <c r="O31" s="132"/>
       <c r="P31" s="39"/>
       <c r="Q31" s="39"/>
@@ -12635,16 +12631,16 @@
       <c r="E10" s="39"/>
       <c r="F10" s="39"/>
       <c r="G10" s="39"/>
-      <c r="H10" s="309" t="s">
+      <c r="H10" s="310" t="s">
         <v>201</v>
       </c>
-      <c r="I10" s="310"/>
-      <c r="J10" s="310"/>
-      <c r="K10" s="310"/>
-      <c r="L10" s="310"/>
-      <c r="M10" s="310"/>
-      <c r="N10" s="310"/>
-      <c r="O10" s="311"/>
+      <c r="I10" s="311"/>
+      <c r="J10" s="311"/>
+      <c r="K10" s="311"/>
+      <c r="L10" s="311"/>
+      <c r="M10" s="311"/>
+      <c r="N10" s="311"/>
+      <c r="O10" s="312"/>
       <c r="P10" s="39"/>
       <c r="Q10" s="39"/>
       <c r="R10" s="39"/>
@@ -12660,14 +12656,14 @@
       <c r="E11" s="39"/>
       <c r="F11" s="39"/>
       <c r="G11" s="39"/>
-      <c r="H11" s="312"/>
-      <c r="I11" s="313"/>
-      <c r="J11" s="313"/>
-      <c r="K11" s="313"/>
-      <c r="L11" s="313"/>
-      <c r="M11" s="313"/>
-      <c r="N11" s="313"/>
-      <c r="O11" s="314"/>
+      <c r="H11" s="313"/>
+      <c r="I11" s="314"/>
+      <c r="J11" s="314"/>
+      <c r="K11" s="314"/>
+      <c r="L11" s="314"/>
+      <c r="M11" s="314"/>
+      <c r="N11" s="314"/>
+      <c r="O11" s="315"/>
       <c r="P11" s="39"/>
       <c r="Q11" s="39"/>
       <c r="R11" s="39"/>
@@ -12683,14 +12679,14 @@
       <c r="E12" s="39"/>
       <c r="F12" s="39"/>
       <c r="G12" s="39"/>
-      <c r="H12" s="312"/>
-      <c r="I12" s="313"/>
-      <c r="J12" s="313"/>
-      <c r="K12" s="313"/>
-      <c r="L12" s="313"/>
-      <c r="M12" s="313"/>
-      <c r="N12" s="313"/>
-      <c r="O12" s="314"/>
+      <c r="H12" s="313"/>
+      <c r="I12" s="314"/>
+      <c r="J12" s="314"/>
+      <c r="K12" s="314"/>
+      <c r="L12" s="314"/>
+      <c r="M12" s="314"/>
+      <c r="N12" s="314"/>
+      <c r="O12" s="315"/>
       <c r="P12" s="39"/>
       <c r="Q12" s="39"/>
       <c r="R12" s="39"/>
@@ -12706,14 +12702,14 @@
       <c r="E13" s="39"/>
       <c r="F13" s="39"/>
       <c r="G13" s="39"/>
-      <c r="H13" s="315"/>
-      <c r="I13" s="316"/>
-      <c r="J13" s="316"/>
-      <c r="K13" s="316"/>
-      <c r="L13" s="316"/>
-      <c r="M13" s="316"/>
-      <c r="N13" s="316"/>
-      <c r="O13" s="317"/>
+      <c r="H13" s="316"/>
+      <c r="I13" s="317"/>
+      <c r="J13" s="317"/>
+      <c r="K13" s="317"/>
+      <c r="L13" s="317"/>
+      <c r="M13" s="317"/>
+      <c r="N13" s="317"/>
+      <c r="O13" s="318"/>
       <c r="P13" s="39"/>
       <c r="Q13" s="39"/>
       <c r="R13" s="39"/>
@@ -12751,17 +12747,17 @@
       <c r="E15" s="39"/>
       <c r="F15" s="39"/>
       <c r="G15" s="39"/>
-      <c r="H15" s="318" t="s">
+      <c r="H15" s="319" t="s">
         <v>202</v>
       </c>
-      <c r="I15" s="319" t="s">
+      <c r="I15" s="320" t="s">
         <v>203</v>
       </c>
-      <c r="J15" s="320"/>
-      <c r="K15" s="320"/>
-      <c r="L15" s="320"/>
-      <c r="M15" s="320"/>
-      <c r="N15" s="321"/>
+      <c r="J15" s="321"/>
+      <c r="K15" s="321"/>
+      <c r="L15" s="321"/>
+      <c r="M15" s="321"/>
+      <c r="N15" s="322"/>
       <c r="O15" s="132"/>
       <c r="P15" s="39"/>
       <c r="Q15" s="39"/>
@@ -12778,13 +12774,13 @@
       <c r="E16" s="39"/>
       <c r="F16" s="39"/>
       <c r="G16" s="39"/>
-      <c r="H16" s="318"/>
-      <c r="I16" s="322"/>
-      <c r="J16" s="323"/>
-      <c r="K16" s="323"/>
-      <c r="L16" s="323"/>
-      <c r="M16" s="323"/>
-      <c r="N16" s="324"/>
+      <c r="H16" s="319"/>
+      <c r="I16" s="323"/>
+      <c r="J16" s="324"/>
+      <c r="K16" s="324"/>
+      <c r="L16" s="324"/>
+      <c r="M16" s="324"/>
+      <c r="N16" s="325"/>
       <c r="O16" s="132"/>
       <c r="P16" s="39"/>
       <c r="Q16" s="39"/>
@@ -12824,17 +12820,17 @@
       <c r="E18" s="39"/>
       <c r="F18" s="39"/>
       <c r="G18" s="39"/>
-      <c r="H18" s="325" t="s">
+      <c r="H18" s="326" t="s">
         <v>204</v>
       </c>
-      <c r="I18" s="326" t="s">
+      <c r="I18" s="327" t="s">
         <v>205</v>
       </c>
-      <c r="J18" s="320"/>
-      <c r="K18" s="320"/>
-      <c r="L18" s="320"/>
-      <c r="M18" s="320"/>
-      <c r="N18" s="321"/>
+      <c r="J18" s="321"/>
+      <c r="K18" s="321"/>
+      <c r="L18" s="321"/>
+      <c r="M18" s="321"/>
+      <c r="N18" s="322"/>
       <c r="O18" s="132"/>
       <c r="P18" s="39"/>
       <c r="Q18" s="39"/>
@@ -12851,13 +12847,13 @@
       <c r="E19" s="39"/>
       <c r="F19" s="39"/>
       <c r="G19" s="39"/>
-      <c r="H19" s="325"/>
-      <c r="I19" s="322"/>
-      <c r="J19" s="323"/>
-      <c r="K19" s="323"/>
-      <c r="L19" s="323"/>
-      <c r="M19" s="323"/>
-      <c r="N19" s="324"/>
+      <c r="H19" s="326"/>
+      <c r="I19" s="323"/>
+      <c r="J19" s="324"/>
+      <c r="K19" s="324"/>
+      <c r="L19" s="324"/>
+      <c r="M19" s="324"/>
+      <c r="N19" s="325"/>
       <c r="O19" s="132"/>
       <c r="P19" s="39"/>
       <c r="Q19" s="39"/>
@@ -12900,14 +12896,14 @@
       <c r="H21" s="145" t="s">
         <v>206</v>
       </c>
-      <c r="I21" s="351" t="s">
+      <c r="I21" s="342" t="s">
         <v>207</v>
       </c>
-      <c r="J21" s="352"/>
-      <c r="K21" s="352"/>
-      <c r="L21" s="352"/>
-      <c r="M21" s="352"/>
-      <c r="N21" s="353"/>
+      <c r="J21" s="343"/>
+      <c r="K21" s="343"/>
+      <c r="L21" s="343"/>
+      <c r="M21" s="343"/>
+      <c r="N21" s="344"/>
       <c r="O21" s="132"/>
       <c r="P21" s="39"/>
       <c r="Q21" s="39"/>
@@ -12925,12 +12921,12 @@
       <c r="F22" s="39"/>
       <c r="G22" s="39"/>
       <c r="H22" s="145"/>
-      <c r="I22" s="354"/>
-      <c r="J22" s="355"/>
-      <c r="K22" s="355"/>
-      <c r="L22" s="355"/>
-      <c r="M22" s="355"/>
-      <c r="N22" s="356"/>
+      <c r="I22" s="345"/>
+      <c r="J22" s="346"/>
+      <c r="K22" s="346"/>
+      <c r="L22" s="346"/>
+      <c r="M22" s="346"/>
+      <c r="N22" s="347"/>
       <c r="O22" s="132"/>
       <c r="P22" s="39"/>
       <c r="Q22" s="39"/>
@@ -12948,12 +12944,12 @@
       <c r="F23" s="39"/>
       <c r="G23" s="39"/>
       <c r="H23" s="145"/>
-      <c r="I23" s="357"/>
-      <c r="J23" s="358"/>
-      <c r="K23" s="358"/>
-      <c r="L23" s="358"/>
-      <c r="M23" s="358"/>
-      <c r="N23" s="359"/>
+      <c r="I23" s="348"/>
+      <c r="J23" s="349"/>
+      <c r="K23" s="349"/>
+      <c r="L23" s="349"/>
+      <c r="M23" s="349"/>
+      <c r="N23" s="350"/>
       <c r="O23" s="132"/>
       <c r="P23" s="39"/>
       <c r="Q23" s="39"/>
@@ -12996,12 +12992,12 @@
       <c r="H25" s="151" t="s">
         <v>208</v>
       </c>
-      <c r="I25" s="205"/>
-      <c r="J25" s="206"/>
-      <c r="K25" s="206"/>
-      <c r="L25" s="206"/>
-      <c r="M25" s="206"/>
-      <c r="N25" s="207"/>
+      <c r="I25" s="209"/>
+      <c r="J25" s="210"/>
+      <c r="K25" s="210"/>
+      <c r="L25" s="210"/>
+      <c r="M25" s="210"/>
+      <c r="N25" s="211"/>
       <c r="O25" s="132"/>
       <c r="P25" s="39"/>
       <c r="Q25" s="39"/>
@@ -13019,12 +13015,12 @@
       <c r="F26" s="39"/>
       <c r="G26" s="39"/>
       <c r="H26" s="151"/>
-      <c r="I26" s="210"/>
-      <c r="J26" s="211"/>
-      <c r="K26" s="211"/>
-      <c r="L26" s="211"/>
-      <c r="M26" s="211"/>
-      <c r="N26" s="212"/>
+      <c r="I26" s="214"/>
+      <c r="J26" s="215"/>
+      <c r="K26" s="215"/>
+      <c r="L26" s="215"/>
+      <c r="M26" s="215"/>
+      <c r="N26" s="216"/>
       <c r="O26" s="132"/>
       <c r="P26" s="39"/>
       <c r="Q26" s="39"/>
@@ -13064,19 +13060,19 @@
       <c r="E28" s="39"/>
       <c r="F28" s="39"/>
       <c r="G28" s="39"/>
-      <c r="H28" s="208" t="s">
+      <c r="H28" s="212" t="s">
         <v>209</v>
       </c>
-      <c r="I28" s="341" t="s">
+      <c r="I28" s="351" t="s">
         <v>210</v>
       </c>
-      <c r="J28" s="342" t="s">
+      <c r="J28" s="352" t="s">
         <v>211</v>
       </c>
-      <c r="K28" s="343"/>
-      <c r="L28" s="343"/>
-      <c r="M28" s="343"/>
-      <c r="N28" s="344"/>
+      <c r="K28" s="353"/>
+      <c r="L28" s="353"/>
+      <c r="M28" s="353"/>
+      <c r="N28" s="354"/>
       <c r="O28" s="132"/>
       <c r="P28" s="39"/>
       <c r="Q28" s="39"/>
@@ -13093,13 +13089,13 @@
       <c r="E29" s="39"/>
       <c r="F29" s="39"/>
       <c r="G29" s="39"/>
-      <c r="H29" s="208"/>
-      <c r="I29" s="341"/>
-      <c r="J29" s="345"/>
-      <c r="K29" s="346"/>
-      <c r="L29" s="346"/>
-      <c r="M29" s="346"/>
-      <c r="N29" s="347"/>
+      <c r="H29" s="212"/>
+      <c r="I29" s="351"/>
+      <c r="J29" s="355"/>
+      <c r="K29" s="356"/>
+      <c r="L29" s="356"/>
+      <c r="M29" s="356"/>
+      <c r="N29" s="357"/>
       <c r="O29" s="132"/>
       <c r="P29" s="39"/>
       <c r="Q29" s="39"/>
@@ -13116,19 +13112,19 @@
       <c r="E30" s="39"/>
       <c r="F30" s="39"/>
       <c r="G30" s="39"/>
-      <c r="H30" s="208"/>
-      <c r="I30" s="341"/>
+      <c r="H30" s="212"/>
+      <c r="I30" s="351"/>
       <c r="J30" s="152" t="s">
         <v>212</v>
       </c>
-      <c r="K30" s="348" t="s">
+      <c r="K30" s="358" t="s">
         <v>213</v>
       </c>
-      <c r="L30" s="349"/>
-      <c r="M30" s="350" t="s">
+      <c r="L30" s="359"/>
+      <c r="M30" s="360" t="s">
         <v>214</v>
       </c>
-      <c r="N30" s="349"/>
+      <c r="N30" s="359"/>
       <c r="O30" s="132"/>
       <c r="P30" s="39"/>
       <c r="Q30" s="39"/>
@@ -13372,6 +13368,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="H28:H30"/>
+    <mergeCell ref="I28:I30"/>
+    <mergeCell ref="J28:N29"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M30:N30"/>
     <mergeCell ref="N6:P6"/>
     <mergeCell ref="Q6:S6"/>
     <mergeCell ref="T6:V6"/>
@@ -13386,11 +13387,6 @@
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="F6:I6"/>
     <mergeCell ref="J6:M6"/>
-    <mergeCell ref="H28:H30"/>
-    <mergeCell ref="I28:I30"/>
-    <mergeCell ref="J28:N29"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="M30:N30"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>
@@ -13643,10 +13639,10 @@
       <c r="G14" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="H14" s="360"/>
-      <c r="I14" s="361"/>
-      <c r="J14" s="361"/>
-      <c r="K14" s="362"/>
+      <c r="H14" s="361"/>
+      <c r="I14" s="362"/>
+      <c r="J14" s="362"/>
+      <c r="K14" s="363"/>
       <c r="L14" s="91"/>
       <c r="M14" s="6"/>
       <c r="N14" s="115"/>
@@ -13686,10 +13682,10 @@
       <c r="G16" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="H16" s="360"/>
-      <c r="I16" s="361"/>
-      <c r="J16" s="361"/>
-      <c r="K16" s="362"/>
+      <c r="H16" s="361"/>
+      <c r="I16" s="362"/>
+      <c r="J16" s="362"/>
+      <c r="K16" s="363"/>
       <c r="L16" s="91"/>
       <c r="M16" s="6"/>
       <c r="N16" s="115"/>
@@ -13724,10 +13720,10 @@
       <c r="G18" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="H18" s="360"/>
-      <c r="I18" s="361"/>
-      <c r="J18" s="361"/>
-      <c r="K18" s="362"/>
+      <c r="H18" s="361"/>
+      <c r="I18" s="362"/>
+      <c r="J18" s="362"/>
+      <c r="K18" s="363"/>
       <c r="L18" s="91"/>
       <c r="M18" s="6"/>
       <c r="N18" s="115"/>
@@ -13762,10 +13758,10 @@
       <c r="G20" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="H20" s="360"/>
-      <c r="I20" s="361"/>
-      <c r="J20" s="361"/>
-      <c r="K20" s="362"/>
+      <c r="H20" s="361"/>
+      <c r="I20" s="362"/>
+      <c r="J20" s="362"/>
+      <c r="K20" s="363"/>
       <c r="L20" s="91"/>
       <c r="M20" s="6"/>
       <c r="N20" s="115"/>
@@ -13800,10 +13796,10 @@
       <c r="G22" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="H22" s="360"/>
-      <c r="I22" s="361"/>
-      <c r="J22" s="361"/>
-      <c r="K22" s="362"/>
+      <c r="H22" s="361"/>
+      <c r="I22" s="362"/>
+      <c r="J22" s="362"/>
+      <c r="K22" s="363"/>
       <c r="L22" s="91"/>
       <c r="M22" s="6"/>
       <c r="N22" s="115"/>
@@ -13872,14 +13868,14 @@
       <c r="E26" s="115"/>
       <c r="F26" s="92"/>
       <c r="G26" s="6"/>
-      <c r="H26" s="360" t="s">
+      <c r="H26" s="361" t="s">
         <v>297</v>
       </c>
-      <c r="I26" s="362"/>
-      <c r="J26" s="360" t="s">
+      <c r="I26" s="363"/>
+      <c r="J26" s="361" t="s">
         <v>280</v>
       </c>
-      <c r="K26" s="362"/>
+      <c r="K26" s="363"/>
       <c r="L26" s="91"/>
       <c r="M26" s="6"/>
       <c r="N26" s="115"/>
@@ -14142,22 +14138,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A1:A5"/>
-    <mergeCell ref="C8:D10"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="J6:M6"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="Q6:S6"/>
+    <mergeCell ref="T6:V6"/>
+    <mergeCell ref="R8:U10"/>
+    <mergeCell ref="H14:K14"/>
     <mergeCell ref="H16:K16"/>
     <mergeCell ref="H18:K18"/>
     <mergeCell ref="H20:K20"/>
     <mergeCell ref="H22:K22"/>
     <mergeCell ref="H26:I26"/>
     <mergeCell ref="J26:K26"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="Q6:S6"/>
-    <mergeCell ref="T6:V6"/>
-    <mergeCell ref="R8:U10"/>
-    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="A1:A5"/>
+    <mergeCell ref="C8:D10"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="J6:M6"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>
@@ -14408,10 +14404,10 @@
       <c r="G14" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="H14" s="360"/>
-      <c r="I14" s="361"/>
-      <c r="J14" s="361"/>
-      <c r="K14" s="362"/>
+      <c r="H14" s="361"/>
+      <c r="I14" s="362"/>
+      <c r="J14" s="362"/>
+      <c r="K14" s="363"/>
       <c r="L14" s="91"/>
       <c r="M14" s="6"/>
       <c r="N14" s="115"/>
@@ -14451,10 +14447,10 @@
       <c r="G16" s="91" t="s">
         <v>241</v>
       </c>
-      <c r="H16" s="363"/>
-      <c r="I16" s="364"/>
-      <c r="J16" s="364"/>
-      <c r="K16" s="217"/>
+      <c r="H16" s="364"/>
+      <c r="I16" s="365"/>
+      <c r="J16" s="365"/>
+      <c r="K16" s="207"/>
       <c r="L16" s="91"/>
       <c r="M16" s="6"/>
       <c r="N16" s="115"/>
@@ -14469,10 +14465,10 @@
       <c r="E17" s="115"/>
       <c r="F17" s="91"/>
       <c r="G17" s="91"/>
-      <c r="H17" s="365"/>
-      <c r="I17" s="366"/>
-      <c r="J17" s="366"/>
-      <c r="K17" s="367"/>
+      <c r="H17" s="366"/>
+      <c r="I17" s="367"/>
+      <c r="J17" s="367"/>
+      <c r="K17" s="368"/>
       <c r="L17" s="91"/>
       <c r="M17" s="6"/>
       <c r="N17" s="115"/>
@@ -14487,10 +14483,10 @@
       <c r="E18" s="115"/>
       <c r="F18" s="91"/>
       <c r="G18" s="6"/>
-      <c r="H18" s="368"/>
-      <c r="I18" s="369"/>
-      <c r="J18" s="369"/>
-      <c r="K18" s="218"/>
+      <c r="H18" s="369"/>
+      <c r="I18" s="370"/>
+      <c r="J18" s="370"/>
+      <c r="K18" s="208"/>
       <c r="L18" s="91"/>
       <c r="M18" s="6"/>
       <c r="N18" s="115"/>
@@ -14525,10 +14521,10 @@
       <c r="G20" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="H20" s="360"/>
-      <c r="I20" s="361"/>
-      <c r="J20" s="361"/>
-      <c r="K20" s="362"/>
+      <c r="H20" s="361"/>
+      <c r="I20" s="362"/>
+      <c r="J20" s="362"/>
+      <c r="K20" s="363"/>
       <c r="L20" s="91"/>
       <c r="M20" s="6"/>
       <c r="N20" s="115"/>
@@ -14563,10 +14559,10 @@
       <c r="G22" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="H22" s="360"/>
-      <c r="I22" s="361"/>
-      <c r="J22" s="361"/>
-      <c r="K22" s="362"/>
+      <c r="H22" s="361"/>
+      <c r="I22" s="362"/>
+      <c r="J22" s="362"/>
+      <c r="K22" s="363"/>
       <c r="L22" s="91"/>
       <c r="M22" s="6"/>
       <c r="N22" s="115"/>
@@ -14601,10 +14597,10 @@
       <c r="G24" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="H24" s="360"/>
-      <c r="I24" s="361"/>
-      <c r="J24" s="361"/>
-      <c r="K24" s="362"/>
+      <c r="H24" s="361"/>
+      <c r="I24" s="362"/>
+      <c r="J24" s="362"/>
+      <c r="K24" s="363"/>
       <c r="L24" s="91"/>
       <c r="M24" s="6"/>
       <c r="N24" s="115"/>
@@ -14684,10 +14680,10 @@
       <c r="G28" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="H28" s="363"/>
-      <c r="I28" s="364"/>
-      <c r="J28" s="364"/>
-      <c r="K28" s="217"/>
+      <c r="H28" s="364"/>
+      <c r="I28" s="365"/>
+      <c r="J28" s="365"/>
+      <c r="K28" s="207"/>
       <c r="L28" s="91"/>
       <c r="M28" s="6"/>
       <c r="N28" s="115"/>
@@ -14707,10 +14703,10 @@
       <c r="E29" s="115"/>
       <c r="F29" s="111"/>
       <c r="G29" s="6"/>
-      <c r="H29" s="365"/>
-      <c r="I29" s="366"/>
-      <c r="J29" s="366"/>
-      <c r="K29" s="367"/>
+      <c r="H29" s="366"/>
+      <c r="I29" s="367"/>
+      <c r="J29" s="367"/>
+      <c r="K29" s="368"/>
       <c r="L29" s="91"/>
       <c r="M29" s="115"/>
       <c r="N29" s="115"/>
@@ -14730,10 +14726,10 @@
       <c r="E30" s="115"/>
       <c r="F30" s="111"/>
       <c r="G30" s="6"/>
-      <c r="H30" s="368"/>
-      <c r="I30" s="369"/>
-      <c r="J30" s="369"/>
-      <c r="K30" s="218"/>
+      <c r="H30" s="369"/>
+      <c r="I30" s="370"/>
+      <c r="J30" s="370"/>
+      <c r="K30" s="208"/>
       <c r="L30" s="91"/>
       <c r="M30" s="115"/>
       <c r="N30" s="115"/>
@@ -14916,6 +14912,11 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="Q6:S6"/>
+    <mergeCell ref="T6:V6"/>
+    <mergeCell ref="R8:U10"/>
+    <mergeCell ref="H14:K14"/>
     <mergeCell ref="H32:K32"/>
     <mergeCell ref="A1:A5"/>
     <mergeCell ref="C8:D10"/>
@@ -14927,11 +14928,6 @@
     <mergeCell ref="H22:K22"/>
     <mergeCell ref="H24:K24"/>
     <mergeCell ref="H28:K30"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="Q6:S6"/>
-    <mergeCell ref="T6:V6"/>
-    <mergeCell ref="R8:U10"/>
-    <mergeCell ref="H14:K14"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>
@@ -15085,15 +15081,15 @@
       <c r="E10" s="70"/>
       <c r="F10" s="70"/>
       <c r="G10" s="71"/>
-      <c r="H10" s="370" t="s">
+      <c r="H10" s="371" t="s">
         <v>174</v>
       </c>
-      <c r="I10" s="371"/>
-      <c r="J10" s="376" t="s">
+      <c r="I10" s="372"/>
+      <c r="J10" s="377" t="s">
         <v>460</v>
       </c>
-      <c r="K10" s="377"/>
-      <c r="L10" s="377"/>
+      <c r="K10" s="378"/>
+      <c r="L10" s="378"/>
       <c r="M10" s="126"/>
       <c r="N10" s="127"/>
       <c r="O10" s="128"/>
@@ -15112,11 +15108,11 @@
       <c r="E11" s="70"/>
       <c r="F11" s="70"/>
       <c r="G11" s="71"/>
-      <c r="H11" s="372"/>
-      <c r="I11" s="373"/>
-      <c r="J11" s="378"/>
-      <c r="K11" s="378"/>
-      <c r="L11" s="378"/>
+      <c r="H11" s="373"/>
+      <c r="I11" s="374"/>
+      <c r="J11" s="379"/>
+      <c r="K11" s="379"/>
+      <c r="L11" s="379"/>
       <c r="M11" s="130"/>
       <c r="N11" s="131"/>
       <c r="O11" s="132"/>
@@ -15135,11 +15131,11 @@
       <c r="E12" s="70"/>
       <c r="F12" s="70"/>
       <c r="G12" s="71"/>
-      <c r="H12" s="372"/>
-      <c r="I12" s="373"/>
-      <c r="J12" s="378"/>
-      <c r="K12" s="378"/>
-      <c r="L12" s="378"/>
+      <c r="H12" s="373"/>
+      <c r="I12" s="374"/>
+      <c r="J12" s="379"/>
+      <c r="K12" s="379"/>
+      <c r="L12" s="379"/>
       <c r="M12" s="130"/>
       <c r="N12" s="130"/>
       <c r="O12" s="132"/>
@@ -15158,11 +15154,11 @@
       <c r="E13" s="70"/>
       <c r="F13" s="70"/>
       <c r="G13" s="71"/>
-      <c r="H13" s="374"/>
-      <c r="I13" s="375"/>
-      <c r="J13" s="379"/>
-      <c r="K13" s="379"/>
-      <c r="L13" s="379"/>
+      <c r="H13" s="375"/>
+      <c r="I13" s="376"/>
+      <c r="J13" s="380"/>
+      <c r="K13" s="380"/>
+      <c r="L13" s="380"/>
       <c r="M13" s="133"/>
       <c r="N13" s="133"/>
       <c r="O13" s="134"/>
@@ -15204,15 +15200,15 @@
       <c r="E15" s="70"/>
       <c r="F15" s="70"/>
       <c r="G15" s="70"/>
-      <c r="H15" s="208" t="s">
+      <c r="H15" s="212" t="s">
         <v>461</v>
       </c>
       <c r="I15" s="191"/>
-      <c r="J15" s="342" t="s">
+      <c r="J15" s="352" t="s">
         <v>175</v>
       </c>
-      <c r="K15" s="343"/>
-      <c r="L15" s="344"/>
+      <c r="K15" s="353"/>
+      <c r="L15" s="354"/>
       <c r="M15" s="135"/>
       <c r="N15" s="136" t="s">
         <v>176</v>
@@ -15233,11 +15229,11 @@
       <c r="E16" s="70"/>
       <c r="F16" s="70"/>
       <c r="G16" s="70"/>
-      <c r="H16" s="208"/>
+      <c r="H16" s="212"/>
       <c r="I16" s="191"/>
-      <c r="J16" s="325"/>
-      <c r="K16" s="308"/>
-      <c r="L16" s="341"/>
+      <c r="J16" s="326"/>
+      <c r="K16" s="309"/>
+      <c r="L16" s="351"/>
       <c r="M16" s="135"/>
       <c r="N16" s="137" t="s">
         <v>177</v>
@@ -15258,11 +15254,11 @@
       <c r="E17" s="70"/>
       <c r="F17" s="70"/>
       <c r="G17" s="70"/>
-      <c r="H17" s="208"/>
+      <c r="H17" s="212"/>
       <c r="I17" s="191"/>
-      <c r="J17" s="325"/>
-      <c r="K17" s="308"/>
-      <c r="L17" s="341"/>
+      <c r="J17" s="326"/>
+      <c r="K17" s="309"/>
+      <c r="L17" s="351"/>
       <c r="M17" s="135"/>
       <c r="N17" s="137" t="s">
         <v>178</v>
@@ -15283,11 +15279,11 @@
       <c r="E18" s="70"/>
       <c r="F18" s="70"/>
       <c r="G18" s="70"/>
-      <c r="H18" s="208"/>
+      <c r="H18" s="212"/>
       <c r="I18" s="191"/>
-      <c r="J18" s="325"/>
-      <c r="K18" s="308"/>
-      <c r="L18" s="341"/>
+      <c r="J18" s="326"/>
+      <c r="K18" s="309"/>
+      <c r="L18" s="351"/>
       <c r="M18" s="135"/>
       <c r="N18" s="137" t="s">
         <v>179</v>
@@ -15308,11 +15304,11 @@
       <c r="E19" s="70"/>
       <c r="F19" s="70"/>
       <c r="G19" s="70"/>
-      <c r="H19" s="208"/>
+      <c r="H19" s="212"/>
       <c r="I19" s="191"/>
-      <c r="J19" s="345"/>
-      <c r="K19" s="346"/>
-      <c r="L19" s="347"/>
+      <c r="J19" s="355"/>
+      <c r="K19" s="356"/>
+      <c r="L19" s="357"/>
       <c r="M19" s="135"/>
       <c r="N19" s="137" t="s">
         <v>180</v>
@@ -15356,15 +15352,15 @@
       <c r="E21" s="70"/>
       <c r="F21" s="70"/>
       <c r="G21" s="70"/>
-      <c r="H21" s="208" t="s">
+      <c r="H21" s="212" t="s">
         <v>181</v>
       </c>
       <c r="I21" s="191"/>
-      <c r="J21" s="380" t="s">
+      <c r="J21" s="381" t="s">
         <v>182</v>
       </c>
-      <c r="K21" s="381"/>
-      <c r="L21" s="382"/>
+      <c r="K21" s="382"/>
+      <c r="L21" s="383"/>
       <c r="M21" s="138"/>
       <c r="N21" s="137"/>
       <c r="O21" s="71"/>
@@ -15383,13 +15379,13 @@
       <c r="E22" s="70"/>
       <c r="F22" s="70"/>
       <c r="G22" s="70"/>
-      <c r="H22" s="208"/>
+      <c r="H22" s="212"/>
       <c r="I22" s="191"/>
-      <c r="J22" s="383" t="s">
+      <c r="J22" s="384" t="s">
         <v>183</v>
       </c>
-      <c r="K22" s="384"/>
-      <c r="L22" s="385"/>
+      <c r="K22" s="385"/>
+      <c r="L22" s="386"/>
       <c r="M22" s="138"/>
       <c r="N22" s="137"/>
       <c r="O22" s="71"/>
@@ -15408,13 +15404,13 @@
       <c r="E23" s="70"/>
       <c r="F23" s="70"/>
       <c r="G23" s="70"/>
-      <c r="H23" s="208"/>
+      <c r="H23" s="212"/>
       <c r="I23" s="191"/>
-      <c r="J23" s="380" t="s">
+      <c r="J23" s="381" t="s">
         <v>184</v>
       </c>
-      <c r="K23" s="381"/>
-      <c r="L23" s="382"/>
+      <c r="K23" s="382"/>
+      <c r="L23" s="383"/>
       <c r="M23" s="138"/>
       <c r="N23" s="137"/>
       <c r="O23" s="71"/>
@@ -15456,13 +15452,13 @@
       <c r="E25" s="70"/>
       <c r="F25" s="70"/>
       <c r="G25" s="70"/>
-      <c r="H25" s="208" t="s">
+      <c r="H25" s="212" t="s">
         <v>462</v>
       </c>
-      <c r="I25" s="209"/>
-      <c r="J25" s="205"/>
-      <c r="K25" s="206"/>
-      <c r="L25" s="207"/>
+      <c r="I25" s="213"/>
+      <c r="J25" s="209"/>
+      <c r="K25" s="210"/>
+      <c r="L25" s="211"/>
       <c r="M25" s="70"/>
       <c r="N25" s="69"/>
       <c r="O25" s="71"/>
@@ -15481,11 +15477,11 @@
       <c r="E26" s="70"/>
       <c r="F26" s="70"/>
       <c r="G26" s="70"/>
-      <c r="H26" s="208"/>
-      <c r="I26" s="209"/>
-      <c r="J26" s="210"/>
-      <c r="K26" s="211"/>
-      <c r="L26" s="212"/>
+      <c r="H26" s="212"/>
+      <c r="I26" s="213"/>
+      <c r="J26" s="214"/>
+      <c r="K26" s="215"/>
+      <c r="L26" s="216"/>
       <c r="M26" s="135"/>
       <c r="N26" s="139"/>
       <c r="O26" s="71"/>
@@ -15527,17 +15523,17 @@
       <c r="E28" s="70"/>
       <c r="F28" s="70"/>
       <c r="G28" s="70"/>
-      <c r="H28" s="208" t="s">
+      <c r="H28" s="212" t="s">
         <v>185</v>
       </c>
-      <c r="I28" s="341" t="s">
+      <c r="I28" s="351" t="s">
         <v>186</v>
       </c>
-      <c r="J28" s="342" t="s">
+      <c r="J28" s="352" t="s">
         <v>187</v>
       </c>
-      <c r="K28" s="343"/>
-      <c r="L28" s="344"/>
+      <c r="K28" s="353"/>
+      <c r="L28" s="354"/>
       <c r="M28" s="135"/>
       <c r="N28" s="139"/>
       <c r="O28" s="71"/>
@@ -15556,11 +15552,11 @@
       <c r="E29" s="70"/>
       <c r="F29" s="70"/>
       <c r="G29" s="70"/>
-      <c r="H29" s="208"/>
-      <c r="I29" s="341"/>
-      <c r="J29" s="345"/>
-      <c r="K29" s="346"/>
-      <c r="L29" s="347"/>
+      <c r="H29" s="212"/>
+      <c r="I29" s="351"/>
+      <c r="J29" s="355"/>
+      <c r="K29" s="356"/>
+      <c r="L29" s="357"/>
       <c r="M29" s="135"/>
       <c r="N29" s="140"/>
       <c r="O29" s="74"/>
@@ -15579,8 +15575,8 @@
       <c r="E30" s="70"/>
       <c r="F30" s="70"/>
       <c r="G30" s="70"/>
-      <c r="H30" s="208"/>
-      <c r="I30" s="341"/>
+      <c r="H30" s="212"/>
+      <c r="I30" s="351"/>
       <c r="J30" s="141" t="s">
         <v>188</v>
       </c>
@@ -15609,7 +15605,7 @@
       <c r="F31" s="70"/>
       <c r="G31" s="70"/>
       <c r="H31" s="69"/>
-      <c r="I31" s="308"/>
+      <c r="I31" s="309"/>
       <c r="J31" s="135"/>
       <c r="K31" s="135"/>
       <c r="L31" s="135"/>
@@ -15632,7 +15628,7 @@
       <c r="F32" s="70"/>
       <c r="G32" s="70"/>
       <c r="H32" s="72"/>
-      <c r="I32" s="346"/>
+      <c r="I32" s="356"/>
       <c r="J32" s="73"/>
       <c r="K32" s="73"/>
       <c r="L32" s="73"/>
@@ -15879,6 +15875,15 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A1:A5"/>
+    <mergeCell ref="H25:I26"/>
+    <mergeCell ref="J25:L26"/>
+    <mergeCell ref="H28:H30"/>
+    <mergeCell ref="I28:I30"/>
+    <mergeCell ref="J28:L29"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="J6:M6"/>
     <mergeCell ref="N6:P6"/>
     <mergeCell ref="Q6:S6"/>
     <mergeCell ref="T6:V6"/>
@@ -15891,15 +15896,6 @@
     <mergeCell ref="J21:L21"/>
     <mergeCell ref="J22:L22"/>
     <mergeCell ref="J23:L23"/>
-    <mergeCell ref="A1:A5"/>
-    <mergeCell ref="H25:I26"/>
-    <mergeCell ref="J25:L26"/>
-    <mergeCell ref="H28:H30"/>
-    <mergeCell ref="I28:I30"/>
-    <mergeCell ref="J28:L29"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="J6:M6"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>
@@ -16752,21 +16748,21 @@
         <v>129</v>
       </c>
       <c r="D8" s="194"/>
-      <c r="E8" s="258" t="s">
+      <c r="E8" s="240" t="s">
         <v>317</v>
       </c>
-      <c r="F8" s="259"/>
-      <c r="G8" s="259"/>
-      <c r="H8" s="259"/>
-      <c r="I8" s="259"/>
-      <c r="J8" s="259"/>
-      <c r="K8" s="259"/>
-      <c r="L8" s="259"/>
-      <c r="M8" s="259"/>
-      <c r="N8" s="259"/>
-      <c r="O8" s="259"/>
-      <c r="P8" s="259"/>
-      <c r="Q8" s="260"/>
+      <c r="F8" s="241"/>
+      <c r="G8" s="241"/>
+      <c r="H8" s="241"/>
+      <c r="I8" s="241"/>
+      <c r="J8" s="241"/>
+      <c r="K8" s="241"/>
+      <c r="L8" s="241"/>
+      <c r="M8" s="241"/>
+      <c r="N8" s="241"/>
+      <c r="O8" s="241"/>
+      <c r="P8" s="241"/>
+      <c r="Q8" s="242"/>
       <c r="R8" s="188" t="s">
         <v>131</v>
       </c>
@@ -16779,19 +16775,19 @@
       <c r="B9" s="59"/>
       <c r="C9" s="190"/>
       <c r="D9" s="195"/>
-      <c r="E9" s="261"/>
-      <c r="F9" s="262"/>
-      <c r="G9" s="262"/>
-      <c r="H9" s="262"/>
-      <c r="I9" s="262"/>
-      <c r="J9" s="262"/>
-      <c r="K9" s="262"/>
-      <c r="L9" s="262"/>
-      <c r="M9" s="262"/>
-      <c r="N9" s="262"/>
-      <c r="O9" s="262"/>
-      <c r="P9" s="262"/>
-      <c r="Q9" s="263"/>
+      <c r="E9" s="243"/>
+      <c r="F9" s="244"/>
+      <c r="G9" s="244"/>
+      <c r="H9" s="244"/>
+      <c r="I9" s="244"/>
+      <c r="J9" s="244"/>
+      <c r="K9" s="244"/>
+      <c r="L9" s="244"/>
+      <c r="M9" s="244"/>
+      <c r="N9" s="244"/>
+      <c r="O9" s="244"/>
+      <c r="P9" s="244"/>
+      <c r="Q9" s="245"/>
       <c r="R9" s="190"/>
       <c r="S9" s="191"/>
       <c r="T9" s="191"/>
@@ -16802,19 +16798,19 @@
       <c r="B10" s="59"/>
       <c r="C10" s="192"/>
       <c r="D10" s="196"/>
-      <c r="E10" s="386"/>
-      <c r="F10" s="262"/>
-      <c r="G10" s="262"/>
-      <c r="H10" s="262"/>
-      <c r="I10" s="262"/>
-      <c r="J10" s="262"/>
-      <c r="K10" s="262"/>
-      <c r="L10" s="262"/>
-      <c r="M10" s="262"/>
-      <c r="N10" s="262"/>
-      <c r="O10" s="262"/>
-      <c r="P10" s="262"/>
-      <c r="Q10" s="263"/>
+      <c r="E10" s="387"/>
+      <c r="F10" s="244"/>
+      <c r="G10" s="244"/>
+      <c r="H10" s="244"/>
+      <c r="I10" s="244"/>
+      <c r="J10" s="244"/>
+      <c r="K10" s="244"/>
+      <c r="L10" s="244"/>
+      <c r="M10" s="244"/>
+      <c r="N10" s="244"/>
+      <c r="O10" s="244"/>
+      <c r="P10" s="244"/>
+      <c r="Q10" s="245"/>
       <c r="R10" s="192"/>
       <c r="S10" s="193"/>
       <c r="T10" s="193"/>
@@ -16838,7 +16834,7 @@
       <c r="O11" s="189"/>
       <c r="P11" s="189"/>
       <c r="Q11" s="194"/>
-      <c r="R11" s="249" t="s">
+      <c r="R11" s="231" t="s">
         <v>152</v>
       </c>
       <c r="S11" s="189"/>
@@ -17009,7 +17005,7 @@
         <v>160</v>
       </c>
       <c r="K18" s="194"/>
-      <c r="L18" s="387">
+      <c r="L18" s="388">
         <v>42775</v>
       </c>
       <c r="M18" s="194"/>
@@ -17090,7 +17086,7 @@
       <c r="O21" s="195"/>
       <c r="P21" s="190"/>
       <c r="Q21" s="195"/>
-      <c r="R21" s="249" t="s">
+      <c r="R21" s="231" t="s">
         <v>133</v>
       </c>
       <c r="S21" s="189"/>
@@ -17296,7 +17292,7 @@
       <c r="O29" s="196"/>
       <c r="P29" s="192"/>
       <c r="Q29" s="196"/>
-      <c r="R29" s="249" t="s">
+      <c r="R29" s="231" t="s">
         <v>148</v>
       </c>
       <c r="S29" s="189"/>
@@ -17499,6 +17495,30 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="N18:O21"/>
+    <mergeCell ref="T6:V6"/>
+    <mergeCell ref="A1:A5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="J6:M6"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="Q6:S6"/>
+    <mergeCell ref="J26:K29"/>
+    <mergeCell ref="C8:D10"/>
+    <mergeCell ref="E8:Q10"/>
+    <mergeCell ref="R8:U10"/>
+    <mergeCell ref="C11:Q15"/>
+    <mergeCell ref="R11:U20"/>
+    <mergeCell ref="C16:G34"/>
+    <mergeCell ref="H16:I17"/>
+    <mergeCell ref="J16:K17"/>
+    <mergeCell ref="L16:M17"/>
+    <mergeCell ref="N16:O17"/>
+    <mergeCell ref="N26:O29"/>
+    <mergeCell ref="P16:Q17"/>
+    <mergeCell ref="H18:I21"/>
+    <mergeCell ref="J18:K21"/>
+    <mergeCell ref="L18:M21"/>
     <mergeCell ref="L26:M29"/>
     <mergeCell ref="P18:Q21"/>
     <mergeCell ref="P26:Q29"/>
@@ -17515,30 +17535,6 @@
     <mergeCell ref="N22:O25"/>
     <mergeCell ref="P22:Q25"/>
     <mergeCell ref="H26:I29"/>
-    <mergeCell ref="J26:K29"/>
-    <mergeCell ref="C8:D10"/>
-    <mergeCell ref="E8:Q10"/>
-    <mergeCell ref="R8:U10"/>
-    <mergeCell ref="C11:Q15"/>
-    <mergeCell ref="R11:U20"/>
-    <mergeCell ref="C16:G34"/>
-    <mergeCell ref="H16:I17"/>
-    <mergeCell ref="J16:K17"/>
-    <mergeCell ref="L16:M17"/>
-    <mergeCell ref="N16:O17"/>
-    <mergeCell ref="N26:O29"/>
-    <mergeCell ref="P16:Q17"/>
-    <mergeCell ref="H18:I21"/>
-    <mergeCell ref="J18:K21"/>
-    <mergeCell ref="L18:M21"/>
-    <mergeCell ref="N18:O21"/>
-    <mergeCell ref="T6:V6"/>
-    <mergeCell ref="A1:A5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="J6:M6"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="Q6:S6"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>
@@ -17759,7 +17755,7 @@
       <c r="C13" s="41"/>
       <c r="D13" s="39"/>
       <c r="E13" s="41"/>
-      <c r="F13" s="223" t="s">
+      <c r="F13" s="225" t="s">
         <v>102</v>
       </c>
       <c r="G13" s="190" t="s">
@@ -17786,7 +17782,7 @@
       <c r="C14" s="41"/>
       <c r="D14" s="39"/>
       <c r="E14" s="41"/>
-      <c r="F14" s="224"/>
+      <c r="F14" s="226"/>
       <c r="G14" s="190"/>
       <c r="H14" s="191"/>
       <c r="I14" s="39"/>
@@ -18517,16 +18513,16 @@
       <c r="E10" s="39"/>
       <c r="F10" s="39"/>
       <c r="G10" s="39"/>
-      <c r="H10" s="309" t="s">
+      <c r="H10" s="310" t="s">
         <v>216</v>
       </c>
-      <c r="I10" s="310"/>
-      <c r="J10" s="310"/>
-      <c r="K10" s="310"/>
-      <c r="L10" s="310"/>
-      <c r="M10" s="310"/>
-      <c r="N10" s="310"/>
-      <c r="O10" s="311"/>
+      <c r="I10" s="311"/>
+      <c r="J10" s="311"/>
+      <c r="K10" s="311"/>
+      <c r="L10" s="311"/>
+      <c r="M10" s="311"/>
+      <c r="N10" s="311"/>
+      <c r="O10" s="312"/>
       <c r="P10" s="39"/>
       <c r="Q10" s="39"/>
       <c r="R10" s="39"/>
@@ -18542,14 +18538,14 @@
       <c r="E11" s="39"/>
       <c r="F11" s="39"/>
       <c r="G11" s="39"/>
-      <c r="H11" s="312"/>
-      <c r="I11" s="313"/>
-      <c r="J11" s="313"/>
-      <c r="K11" s="313"/>
-      <c r="L11" s="313"/>
-      <c r="M11" s="313"/>
-      <c r="N11" s="313"/>
-      <c r="O11" s="314"/>
+      <c r="H11" s="313"/>
+      <c r="I11" s="314"/>
+      <c r="J11" s="314"/>
+      <c r="K11" s="314"/>
+      <c r="L11" s="314"/>
+      <c r="M11" s="314"/>
+      <c r="N11" s="314"/>
+      <c r="O11" s="315"/>
       <c r="P11" s="39"/>
       <c r="Q11" s="39"/>
       <c r="R11" s="39"/>
@@ -18565,14 +18561,14 @@
       <c r="E12" s="39"/>
       <c r="F12" s="39"/>
       <c r="G12" s="39"/>
-      <c r="H12" s="312"/>
-      <c r="I12" s="313"/>
-      <c r="J12" s="313"/>
-      <c r="K12" s="313"/>
-      <c r="L12" s="313"/>
-      <c r="M12" s="313"/>
-      <c r="N12" s="313"/>
-      <c r="O12" s="314"/>
+      <c r="H12" s="313"/>
+      <c r="I12" s="314"/>
+      <c r="J12" s="314"/>
+      <c r="K12" s="314"/>
+      <c r="L12" s="314"/>
+      <c r="M12" s="314"/>
+      <c r="N12" s="314"/>
+      <c r="O12" s="315"/>
       <c r="P12" s="39"/>
       <c r="Q12" s="39"/>
       <c r="R12" s="39"/>
@@ -18588,14 +18584,14 @@
       <c r="E13" s="39"/>
       <c r="F13" s="39"/>
       <c r="G13" s="39"/>
-      <c r="H13" s="315"/>
-      <c r="I13" s="316"/>
-      <c r="J13" s="316"/>
-      <c r="K13" s="316"/>
-      <c r="L13" s="316"/>
-      <c r="M13" s="316"/>
-      <c r="N13" s="316"/>
-      <c r="O13" s="317"/>
+      <c r="H13" s="316"/>
+      <c r="I13" s="317"/>
+      <c r="J13" s="317"/>
+      <c r="K13" s="317"/>
+      <c r="L13" s="317"/>
+      <c r="M13" s="317"/>
+      <c r="N13" s="317"/>
+      <c r="O13" s="318"/>
       <c r="P13" s="39"/>
       <c r="Q13" s="39"/>
       <c r="R13" s="39"/>
@@ -18614,11 +18610,11 @@
       <c r="H14" s="145"/>
       <c r="I14" s="146"/>
       <c r="K14" s="146"/>
-      <c r="L14" s="388" t="s">
+      <c r="L14" s="398" t="s">
         <v>217</v>
       </c>
-      <c r="M14" s="388"/>
-      <c r="N14" s="388"/>
+      <c r="M14" s="398"/>
+      <c r="N14" s="398"/>
       <c r="O14" s="153"/>
       <c r="P14" s="39"/>
       <c r="Q14" s="39"/>
@@ -18635,17 +18631,17 @@
       <c r="E15" s="39"/>
       <c r="F15" s="39"/>
       <c r="G15" s="39"/>
-      <c r="H15" s="318" t="s">
+      <c r="H15" s="319" t="s">
         <v>104</v>
       </c>
-      <c r="I15" s="342" t="s">
+      <c r="I15" s="352" t="s">
         <v>167</v>
       </c>
-      <c r="J15" s="343"/>
-      <c r="K15" s="344"/>
-      <c r="L15" s="389"/>
-      <c r="M15" s="389"/>
-      <c r="N15" s="389"/>
+      <c r="J15" s="353"/>
+      <c r="K15" s="354"/>
+      <c r="L15" s="399"/>
+      <c r="M15" s="399"/>
+      <c r="N15" s="399"/>
       <c r="O15" s="154"/>
       <c r="P15" s="39"/>
       <c r="Q15" s="39"/>
@@ -18662,13 +18658,13 @@
       <c r="E16" s="39"/>
       <c r="F16" s="39"/>
       <c r="G16" s="39"/>
-      <c r="H16" s="318"/>
-      <c r="I16" s="345"/>
-      <c r="J16" s="346"/>
-      <c r="K16" s="347"/>
-      <c r="L16" s="389"/>
-      <c r="M16" s="389"/>
-      <c r="N16" s="389"/>
+      <c r="H16" s="319"/>
+      <c r="I16" s="355"/>
+      <c r="J16" s="356"/>
+      <c r="K16" s="357"/>
+      <c r="L16" s="399"/>
+      <c r="M16" s="399"/>
+      <c r="N16" s="399"/>
       <c r="O16" s="154"/>
       <c r="P16" s="39"/>
       <c r="Q16" s="39"/>
@@ -18689,9 +18685,9 @@
       <c r="I17" s="6"/>
       <c r="J17" s="138"/>
       <c r="K17" s="138"/>
-      <c r="L17" s="389"/>
-      <c r="M17" s="389"/>
-      <c r="N17" s="389"/>
+      <c r="L17" s="399"/>
+      <c r="M17" s="399"/>
+      <c r="N17" s="399"/>
       <c r="O17" s="154"/>
       <c r="P17" s="39"/>
       <c r="Q17" s="39"/>
@@ -18711,14 +18707,14 @@
       <c r="H18" s="145" t="s">
         <v>218</v>
       </c>
-      <c r="I18" s="390" t="s">
+      <c r="I18" s="389" t="s">
         <v>219</v>
       </c>
-      <c r="J18" s="391"/>
-      <c r="K18" s="391"/>
-      <c r="L18" s="391"/>
-      <c r="M18" s="391"/>
-      <c r="N18" s="392"/>
+      <c r="J18" s="390"/>
+      <c r="K18" s="390"/>
+      <c r="L18" s="390"/>
+      <c r="M18" s="390"/>
+      <c r="N18" s="391"/>
       <c r="O18" s="132"/>
       <c r="P18" s="39"/>
       <c r="Q18" s="39"/>
@@ -18736,12 +18732,12 @@
       <c r="F19" s="39"/>
       <c r="G19" s="39"/>
       <c r="H19" s="139"/>
-      <c r="I19" s="393"/>
-      <c r="J19" s="394"/>
-      <c r="K19" s="394"/>
-      <c r="L19" s="394"/>
-      <c r="M19" s="394"/>
-      <c r="N19" s="395"/>
+      <c r="I19" s="392"/>
+      <c r="J19" s="393"/>
+      <c r="K19" s="393"/>
+      <c r="L19" s="393"/>
+      <c r="M19" s="393"/>
+      <c r="N19" s="394"/>
       <c r="O19" s="132"/>
       <c r="P19" s="39"/>
       <c r="Q19" s="39"/>
@@ -18759,12 +18755,12 @@
       <c r="F20" s="39"/>
       <c r="G20" s="39"/>
       <c r="H20" s="145"/>
-      <c r="I20" s="396"/>
-      <c r="J20" s="397"/>
-      <c r="K20" s="397"/>
-      <c r="L20" s="397"/>
-      <c r="M20" s="397"/>
-      <c r="N20" s="398"/>
+      <c r="I20" s="395"/>
+      <c r="J20" s="396"/>
+      <c r="K20" s="396"/>
+      <c r="L20" s="396"/>
+      <c r="M20" s="396"/>
+      <c r="N20" s="397"/>
       <c r="O20" s="132"/>
       <c r="P20" s="39"/>
       <c r="Q20" s="39"/>
@@ -18994,7 +18990,7 @@
       <c r="K30" s="135"/>
       <c r="L30" s="135"/>
       <c r="M30" s="135"/>
-      <c r="N30" s="308"/>
+      <c r="N30" s="309"/>
       <c r="O30" s="146"/>
       <c r="P30" s="39"/>
       <c r="Q30" s="39"/>
@@ -19017,7 +19013,7 @@
       <c r="K31" s="135"/>
       <c r="L31" s="135"/>
       <c r="M31" s="135"/>
-      <c r="N31" s="308"/>
+      <c r="N31" s="309"/>
       <c r="O31" s="146"/>
       <c r="P31" s="39"/>
       <c r="Q31" s="39"/>
@@ -19225,6 +19221,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:A5"/>
+    <mergeCell ref="H10:O13"/>
+    <mergeCell ref="L14:N17"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:K16"/>
     <mergeCell ref="Q6:S6"/>
     <mergeCell ref="T6:V6"/>
     <mergeCell ref="I18:N20"/>
@@ -19233,11 +19234,6 @@
     <mergeCell ref="F6:I6"/>
     <mergeCell ref="J6:M6"/>
     <mergeCell ref="N6:P6"/>
-    <mergeCell ref="A1:A5"/>
-    <mergeCell ref="H10:O13"/>
-    <mergeCell ref="L14:N17"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:K16"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>
@@ -19280,24 +19276,24 @@
       <c r="A5" s="198"/>
     </row>
     <row r="6" spans="1:22" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B6" s="360" t="s">
+      <c r="B6" s="361" t="s">
         <v>172</v>
       </c>
-      <c r="C6" s="361"/>
-      <c r="D6" s="361"/>
-      <c r="E6" s="399"/>
+      <c r="C6" s="362"/>
+      <c r="D6" s="362"/>
+      <c r="E6" s="400"/>
       <c r="F6" s="202" t="s">
         <v>170</v>
       </c>
       <c r="G6" s="203"/>
       <c r="H6" s="203"/>
-      <c r="I6" s="400"/>
+      <c r="I6" s="401"/>
       <c r="J6" s="202" t="s">
         <v>108</v>
       </c>
       <c r="K6" s="203"/>
       <c r="L6" s="203"/>
-      <c r="M6" s="400"/>
+      <c r="M6" s="401"/>
       <c r="N6" s="201" t="str">
         <f>VLOOKUP(F6,목록!D:G,2,FALSE)</f>
         <v>invitation.JSP</v>
@@ -19392,17 +19388,17 @@
       <c r="E10" s="39"/>
       <c r="F10" s="39"/>
       <c r="G10" s="39"/>
-      <c r="H10" s="325" t="s">
+      <c r="H10" s="326" t="s">
         <v>109</v>
       </c>
-      <c r="I10" s="341"/>
-      <c r="J10" s="342" t="s">
+      <c r="I10" s="351"/>
+      <c r="J10" s="352" t="s">
         <v>220</v>
       </c>
-      <c r="K10" s="343"/>
-      <c r="L10" s="343"/>
-      <c r="M10" s="343"/>
-      <c r="N10" s="344"/>
+      <c r="K10" s="353"/>
+      <c r="L10" s="353"/>
+      <c r="M10" s="353"/>
+      <c r="N10" s="354"/>
       <c r="O10" s="132"/>
       <c r="P10" s="39"/>
       <c r="Q10" s="39"/>
@@ -19419,13 +19415,13 @@
       <c r="E11" s="39"/>
       <c r="F11" s="39"/>
       <c r="G11" s="39"/>
-      <c r="H11" s="325"/>
-      <c r="I11" s="341"/>
-      <c r="J11" s="345"/>
-      <c r="K11" s="346"/>
-      <c r="L11" s="346"/>
-      <c r="M11" s="346"/>
-      <c r="N11" s="347"/>
+      <c r="H11" s="326"/>
+      <c r="I11" s="351"/>
+      <c r="J11" s="355"/>
+      <c r="K11" s="356"/>
+      <c r="L11" s="356"/>
+      <c r="M11" s="356"/>
+      <c r="N11" s="357"/>
       <c r="O11" s="132"/>
       <c r="P11" s="39"/>
       <c r="Q11" s="39"/>
@@ -19465,17 +19461,17 @@
       <c r="E13" s="39"/>
       <c r="F13" s="39"/>
       <c r="G13" s="39"/>
-      <c r="H13" s="325" t="s">
+      <c r="H13" s="326" t="s">
         <v>221</v>
       </c>
-      <c r="I13" s="341"/>
-      <c r="J13" s="390" t="s">
+      <c r="I13" s="351"/>
+      <c r="J13" s="389" t="s">
         <v>222</v>
       </c>
-      <c r="K13" s="391"/>
-      <c r="L13" s="391"/>
-      <c r="M13" s="391"/>
-      <c r="N13" s="392"/>
+      <c r="K13" s="390"/>
+      <c r="L13" s="390"/>
+      <c r="M13" s="390"/>
+      <c r="N13" s="391"/>
       <c r="O13" s="132"/>
       <c r="P13" s="39"/>
       <c r="Q13" s="39"/>
@@ -19492,13 +19488,13 @@
       <c r="E14" s="39"/>
       <c r="F14" s="39"/>
       <c r="G14" s="39"/>
-      <c r="H14" s="325"/>
-      <c r="I14" s="341"/>
-      <c r="J14" s="396"/>
-      <c r="K14" s="397"/>
-      <c r="L14" s="397"/>
-      <c r="M14" s="397"/>
-      <c r="N14" s="398"/>
+      <c r="H14" s="326"/>
+      <c r="I14" s="351"/>
+      <c r="J14" s="395"/>
+      <c r="K14" s="396"/>
+      <c r="L14" s="396"/>
+      <c r="M14" s="396"/>
+      <c r="N14" s="397"/>
       <c r="O14" s="132"/>
       <c r="P14" s="39"/>
       <c r="Q14" s="39"/>
@@ -19538,17 +19534,17 @@
       <c r="E16" s="39"/>
       <c r="F16" s="39"/>
       <c r="G16" s="39"/>
-      <c r="H16" s="325" t="s">
+      <c r="H16" s="326" t="s">
         <v>223</v>
       </c>
-      <c r="I16" s="341"/>
-      <c r="J16" s="351" t="s">
+      <c r="I16" s="351"/>
+      <c r="J16" s="342" t="s">
         <v>224</v>
       </c>
-      <c r="K16" s="352"/>
-      <c r="L16" s="352"/>
-      <c r="M16" s="352"/>
-      <c r="N16" s="353"/>
+      <c r="K16" s="343"/>
+      <c r="L16" s="343"/>
+      <c r="M16" s="343"/>
+      <c r="N16" s="344"/>
       <c r="O16" s="132"/>
       <c r="P16" s="39"/>
       <c r="Q16" s="39"/>
@@ -19565,13 +19561,13 @@
       <c r="E17" s="39"/>
       <c r="F17" s="39"/>
       <c r="G17" s="39"/>
-      <c r="H17" s="325"/>
-      <c r="I17" s="341"/>
-      <c r="J17" s="357"/>
-      <c r="K17" s="358"/>
-      <c r="L17" s="358"/>
-      <c r="M17" s="358"/>
-      <c r="N17" s="359"/>
+      <c r="H17" s="326"/>
+      <c r="I17" s="351"/>
+      <c r="J17" s="348"/>
+      <c r="K17" s="349"/>
+      <c r="L17" s="349"/>
+      <c r="M17" s="349"/>
+      <c r="N17" s="350"/>
       <c r="O17" s="132"/>
       <c r="P17" s="39"/>
       <c r="Q17" s="39"/>
@@ -19611,17 +19607,17 @@
       <c r="E19" s="39"/>
       <c r="F19" s="39"/>
       <c r="G19" s="39"/>
-      <c r="H19" s="325" t="s">
+      <c r="H19" s="326" t="s">
         <v>225</v>
       </c>
-      <c r="I19" s="308"/>
-      <c r="J19" s="342" t="s">
+      <c r="I19" s="309"/>
+      <c r="J19" s="352" t="s">
         <v>226</v>
       </c>
-      <c r="K19" s="343"/>
-      <c r="L19" s="343"/>
-      <c r="M19" s="343"/>
-      <c r="N19" s="344"/>
+      <c r="K19" s="353"/>
+      <c r="L19" s="353"/>
+      <c r="M19" s="353"/>
+      <c r="N19" s="354"/>
       <c r="O19" s="132"/>
       <c r="P19" s="39"/>
       <c r="Q19" s="39"/>
@@ -19638,13 +19634,13 @@
       <c r="E20" s="39"/>
       <c r="F20" s="39"/>
       <c r="G20" s="39"/>
-      <c r="H20" s="325"/>
-      <c r="I20" s="308"/>
-      <c r="J20" s="345"/>
-      <c r="K20" s="346"/>
-      <c r="L20" s="346"/>
-      <c r="M20" s="346"/>
-      <c r="N20" s="347"/>
+      <c r="H20" s="326"/>
+      <c r="I20" s="309"/>
+      <c r="J20" s="355"/>
+      <c r="K20" s="356"/>
+      <c r="L20" s="356"/>
+      <c r="M20" s="356"/>
+      <c r="N20" s="357"/>
       <c r="O20" s="132"/>
       <c r="P20" s="39"/>
       <c r="Q20" s="39"/>
@@ -19799,13 +19795,13 @@
       <c r="E27" s="39"/>
       <c r="F27" s="39"/>
       <c r="G27" s="39"/>
-      <c r="H27" s="308"/>
-      <c r="I27" s="308"/>
-      <c r="J27" s="336"/>
-      <c r="K27" s="336"/>
-      <c r="L27" s="336"/>
-      <c r="M27" s="336"/>
-      <c r="N27" s="336"/>
+      <c r="H27" s="309"/>
+      <c r="I27" s="309"/>
+      <c r="J27" s="337"/>
+      <c r="K27" s="337"/>
+      <c r="L27" s="337"/>
+      <c r="M27" s="337"/>
+      <c r="N27" s="337"/>
       <c r="O27" s="146"/>
       <c r="P27" s="39"/>
       <c r="Q27" s="39"/>
@@ -19822,8 +19818,8 @@
       <c r="E28" s="39"/>
       <c r="F28" s="39"/>
       <c r="G28" s="39"/>
-      <c r="H28" s="308"/>
-      <c r="I28" s="308"/>
+      <c r="H28" s="309"/>
+      <c r="I28" s="309"/>
       <c r="J28" s="6"/>
       <c r="K28" s="6"/>
       <c r="L28" s="6"/>
@@ -19874,7 +19870,7 @@
       <c r="K30" s="135"/>
       <c r="L30" s="135"/>
       <c r="M30" s="135"/>
-      <c r="N30" s="308"/>
+      <c r="N30" s="309"/>
       <c r="O30" s="146"/>
       <c r="P30" s="39"/>
       <c r="Q30" s="39"/>
@@ -19897,7 +19893,7 @@
       <c r="K31" s="135"/>
       <c r="L31" s="135"/>
       <c r="M31" s="135"/>
-      <c r="N31" s="308"/>
+      <c r="N31" s="309"/>
       <c r="O31" s="146"/>
       <c r="P31" s="39"/>
       <c r="Q31" s="39"/>
@@ -20116,6 +20112,15 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:A5"/>
+    <mergeCell ref="H19:I20"/>
+    <mergeCell ref="J19:N20"/>
+    <mergeCell ref="H27:I28"/>
+    <mergeCell ref="J27:N27"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="J6:M6"/>
+    <mergeCell ref="N6:P6"/>
     <mergeCell ref="Q6:S6"/>
     <mergeCell ref="T6:V6"/>
     <mergeCell ref="N30:N31"/>
@@ -20125,15 +20130,6 @@
     <mergeCell ref="J13:N14"/>
     <mergeCell ref="H16:I17"/>
     <mergeCell ref="J16:N17"/>
-    <mergeCell ref="A1:A5"/>
-    <mergeCell ref="H19:I20"/>
-    <mergeCell ref="J19:N20"/>
-    <mergeCell ref="H27:I28"/>
-    <mergeCell ref="J27:N27"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="J6:M6"/>
-    <mergeCell ref="N6:P6"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>
@@ -20149,8 +20145,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V59"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -20426,10 +20422,10 @@
         <v>300</v>
       </c>
       <c r="S16" s="191"/>
-      <c r="T16" s="215" t="s">
+      <c r="T16" s="205" t="s">
         <v>301</v>
       </c>
-      <c r="U16" s="216"/>
+      <c r="U16" s="206"/>
       <c r="V16" s="119"/>
     </row>
     <row r="17" spans="2:22">
@@ -20446,10 +20442,10 @@
         <v>302</v>
       </c>
       <c r="S17" s="191"/>
-      <c r="T17" s="215" t="s">
+      <c r="T17" s="205" t="s">
         <v>303</v>
       </c>
-      <c r="U17" s="216"/>
+      <c r="U17" s="206"/>
       <c r="V17" s="119"/>
     </row>
     <row r="18" spans="2:22">
@@ -20478,10 +20474,10 @@
         <v>307</v>
       </c>
       <c r="S18" s="191"/>
-      <c r="T18" s="215" t="s">
+      <c r="T18" s="205" t="s">
         <v>308</v>
       </c>
-      <c r="U18" s="216"/>
+      <c r="U18" s="206"/>
       <c r="V18" s="119"/>
     </row>
     <row r="19" spans="2:22" ht="17.25" thickBot="1">
@@ -20504,10 +20500,10 @@
         <v>309</v>
       </c>
       <c r="S19" s="193"/>
-      <c r="T19" s="213" t="s">
+      <c r="T19" s="217" t="s">
         <v>310</v>
       </c>
-      <c r="U19" s="214"/>
+      <c r="U19" s="218"/>
       <c r="V19" s="119"/>
     </row>
     <row r="20" spans="2:22" ht="17.25" thickBot="1">
@@ -20536,14 +20532,14 @@
       <c r="B21" s="110"/>
       <c r="C21" s="110"/>
       <c r="D21" s="110"/>
-      <c r="E21" s="205" t="s">
+      <c r="E21" s="209" t="s">
         <v>241</v>
       </c>
-      <c r="F21" s="206"/>
-      <c r="G21" s="206"/>
-      <c r="H21" s="206"/>
-      <c r="I21" s="206"/>
-      <c r="J21" s="207"/>
+      <c r="F21" s="210"/>
+      <c r="G21" s="210"/>
+      <c r="H21" s="210"/>
+      <c r="I21" s="210"/>
+      <c r="J21" s="211"/>
       <c r="K21" s="115"/>
       <c r="L21" s="111"/>
       <c r="M21" s="115"/>
@@ -20562,12 +20558,12 @@
       <c r="B22" s="110"/>
       <c r="C22" s="110"/>
       <c r="D22" s="110"/>
-      <c r="E22" s="208"/>
+      <c r="E22" s="212"/>
       <c r="F22" s="191"/>
       <c r="G22" s="191"/>
       <c r="H22" s="191"/>
       <c r="I22" s="191"/>
-      <c r="J22" s="209"/>
+      <c r="J22" s="213"/>
       <c r="K22" s="115"/>
       <c r="L22" s="111"/>
       <c r="M22" s="115"/>
@@ -20584,12 +20580,12 @@
       <c r="B23" s="110"/>
       <c r="C23" s="110"/>
       <c r="D23" s="110"/>
-      <c r="E23" s="210"/>
-      <c r="F23" s="211"/>
-      <c r="G23" s="211"/>
-      <c r="H23" s="211"/>
-      <c r="I23" s="211"/>
-      <c r="J23" s="212"/>
+      <c r="E23" s="214"/>
+      <c r="F23" s="215"/>
+      <c r="G23" s="215"/>
+      <c r="H23" s="215"/>
+      <c r="I23" s="215"/>
+      <c r="J23" s="216"/>
       <c r="K23" s="115"/>
       <c r="L23" s="111"/>
       <c r="M23" s="115"/>
@@ -20764,14 +20760,14 @@
       <c r="B31" s="110"/>
       <c r="C31" s="110"/>
       <c r="D31" s="110"/>
-      <c r="E31" s="205" t="s">
+      <c r="E31" s="209" t="s">
         <v>241</v>
       </c>
-      <c r="F31" s="206"/>
-      <c r="G31" s="206"/>
-      <c r="H31" s="206"/>
-      <c r="I31" s="206"/>
-      <c r="J31" s="207"/>
+      <c r="F31" s="210"/>
+      <c r="G31" s="210"/>
+      <c r="H31" s="210"/>
+      <c r="I31" s="210"/>
+      <c r="J31" s="211"/>
       <c r="K31" s="115"/>
       <c r="L31" s="111"/>
       <c r="M31" s="115"/>
@@ -20789,12 +20785,12 @@
       <c r="B32" s="110"/>
       <c r="C32" s="110"/>
       <c r="D32" s="110"/>
-      <c r="E32" s="208"/>
+      <c r="E32" s="212"/>
       <c r="F32" s="191"/>
       <c r="G32" s="191"/>
       <c r="H32" s="191"/>
       <c r="I32" s="191"/>
-      <c r="J32" s="209"/>
+      <c r="J32" s="213"/>
       <c r="K32" s="115"/>
       <c r="L32" s="111"/>
       <c r="M32" s="115"/>
@@ -20812,12 +20808,12 @@
       <c r="B33" s="110"/>
       <c r="C33" s="110"/>
       <c r="D33" s="110"/>
-      <c r="E33" s="210"/>
-      <c r="F33" s="211"/>
-      <c r="G33" s="211"/>
-      <c r="H33" s="211"/>
-      <c r="I33" s="211"/>
-      <c r="J33" s="212"/>
+      <c r="E33" s="214"/>
+      <c r="F33" s="215"/>
+      <c r="G33" s="215"/>
+      <c r="H33" s="215"/>
+      <c r="I33" s="215"/>
+      <c r="J33" s="216"/>
       <c r="K33" s="115"/>
       <c r="L33" s="111"/>
       <c r="M33" s="115"/>
@@ -20939,7 +20935,7 @@
     </row>
     <row r="47" spans="2:22">
       <c r="B47" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="58" spans="14:14">
@@ -20950,6 +20946,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="T6:V6"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="J6:M6"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="Q6:S6"/>
+    <mergeCell ref="R8:U10"/>
+    <mergeCell ref="R12:U14"/>
+    <mergeCell ref="G13:I14"/>
+    <mergeCell ref="J13:L14"/>
+    <mergeCell ref="R16:S16"/>
+    <mergeCell ref="T16:U16"/>
     <mergeCell ref="E31:J33"/>
     <mergeCell ref="A1:A5"/>
     <mergeCell ref="E21:J23"/>
@@ -20966,18 +20974,6 @@
     <mergeCell ref="R19:S19"/>
     <mergeCell ref="T19:U19"/>
     <mergeCell ref="C8:D10"/>
-    <mergeCell ref="R8:U10"/>
-    <mergeCell ref="R12:U14"/>
-    <mergeCell ref="G13:I14"/>
-    <mergeCell ref="J13:L14"/>
-    <mergeCell ref="R16:S16"/>
-    <mergeCell ref="T16:U16"/>
-    <mergeCell ref="T6:V6"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="J6:M6"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="Q6:S6"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>
@@ -21197,7 +21193,7 @@
         <v>74</v>
       </c>
       <c r="E13" s="189"/>
-      <c r="F13" s="217"/>
+      <c r="F13" s="207"/>
       <c r="M13" s="23"/>
       <c r="N13" s="23"/>
       <c r="O13" s="23"/>
@@ -21214,7 +21210,7 @@
       <c r="C14" s="28"/>
       <c r="D14" s="192"/>
       <c r="E14" s="193"/>
-      <c r="F14" s="218"/>
+      <c r="F14" s="208"/>
       <c r="M14" s="23"/>
       <c r="N14" s="23"/>
       <c r="O14" s="23"/>
@@ -21261,10 +21257,10 @@
         <v>66</v>
       </c>
       <c r="S16" s="191"/>
-      <c r="T16" s="215" t="s">
+      <c r="T16" s="205" t="s">
         <v>70</v>
       </c>
-      <c r="U16" s="216"/>
+      <c r="U16" s="206"/>
       <c r="V16" s="19"/>
     </row>
     <row r="17" spans="2:22">
@@ -21282,10 +21278,10 @@
         <v>68</v>
       </c>
       <c r="S17" s="191"/>
-      <c r="T17" s="215" t="s">
+      <c r="T17" s="205" t="s">
         <v>72</v>
       </c>
-      <c r="U17" s="216"/>
+      <c r="U17" s="206"/>
       <c r="V17" s="19"/>
     </row>
     <row r="18" spans="2:22">
@@ -21315,10 +21311,10 @@
         <v>67</v>
       </c>
       <c r="S18" s="191"/>
-      <c r="T18" s="215" t="s">
+      <c r="T18" s="205" t="s">
         <v>73</v>
       </c>
-      <c r="U18" s="216"/>
+      <c r="U18" s="206"/>
       <c r="V18" s="19"/>
     </row>
     <row r="19" spans="2:22" ht="17.25" thickBot="1">
@@ -21342,10 +21338,10 @@
         <v>69</v>
       </c>
       <c r="S19" s="193"/>
-      <c r="T19" s="213" t="s">
+      <c r="T19" s="217" t="s">
         <v>71</v>
       </c>
-      <c r="U19" s="214"/>
+      <c r="U19" s="218"/>
       <c r="V19" s="19"/>
     </row>
     <row r="20" spans="2:22" ht="17.25" thickBot="1">
@@ -21375,14 +21371,14 @@
       <c r="B21" s="17"/>
       <c r="C21" s="28"/>
       <c r="D21" s="28"/>
-      <c r="E21" s="205" t="s">
+      <c r="E21" s="209" t="s">
         <v>65</v>
       </c>
-      <c r="F21" s="206"/>
-      <c r="G21" s="206"/>
-      <c r="H21" s="206"/>
-      <c r="I21" s="206"/>
-      <c r="J21" s="207"/>
+      <c r="F21" s="210"/>
+      <c r="G21" s="210"/>
+      <c r="H21" s="210"/>
+      <c r="I21" s="210"/>
+      <c r="J21" s="211"/>
       <c r="K21" s="23"/>
       <c r="L21" s="24"/>
       <c r="M21" s="23"/>
@@ -21402,12 +21398,12 @@
       <c r="B22" s="17"/>
       <c r="C22" s="28"/>
       <c r="D22" s="28"/>
-      <c r="E22" s="208"/>
+      <c r="E22" s="212"/>
       <c r="F22" s="191"/>
       <c r="G22" s="191"/>
       <c r="H22" s="191"/>
       <c r="I22" s="191"/>
-      <c r="J22" s="209"/>
+      <c r="J22" s="213"/>
       <c r="K22" s="23"/>
       <c r="L22" s="24"/>
       <c r="M22" s="23"/>
@@ -21425,12 +21421,12 @@
       <c r="B23" s="17"/>
       <c r="C23" s="28"/>
       <c r="D23" s="28"/>
-      <c r="E23" s="210"/>
-      <c r="F23" s="211"/>
-      <c r="G23" s="211"/>
-      <c r="H23" s="211"/>
-      <c r="I23" s="211"/>
-      <c r="J23" s="212"/>
+      <c r="E23" s="214"/>
+      <c r="F23" s="215"/>
+      <c r="G23" s="215"/>
+      <c r="H23" s="215"/>
+      <c r="I23" s="215"/>
+      <c r="J23" s="216"/>
       <c r="K23" s="23"/>
       <c r="L23" s="24"/>
       <c r="M23" s="23"/>
@@ -21615,14 +21611,14 @@
       <c r="B31" s="17"/>
       <c r="C31" s="28"/>
       <c r="D31" s="28"/>
-      <c r="E31" s="205" t="s">
+      <c r="E31" s="209" t="s">
         <v>65</v>
       </c>
-      <c r="F31" s="206"/>
-      <c r="G31" s="206"/>
-      <c r="H31" s="206"/>
-      <c r="I31" s="206"/>
-      <c r="J31" s="207"/>
+      <c r="F31" s="210"/>
+      <c r="G31" s="210"/>
+      <c r="H31" s="210"/>
+      <c r="I31" s="210"/>
+      <c r="J31" s="211"/>
       <c r="K31" s="23"/>
       <c r="L31" s="24"/>
       <c r="M31" s="23"/>
@@ -21640,12 +21636,12 @@
       <c r="B32" s="17"/>
       <c r="C32" s="28"/>
       <c r="D32" s="28"/>
-      <c r="E32" s="208"/>
+      <c r="E32" s="212"/>
       <c r="F32" s="191"/>
       <c r="G32" s="191"/>
       <c r="H32" s="191"/>
       <c r="I32" s="191"/>
-      <c r="J32" s="209"/>
+      <c r="J32" s="213"/>
       <c r="K32" s="23"/>
       <c r="L32" s="24"/>
       <c r="M32" s="23"/>
@@ -21663,12 +21659,12 @@
       <c r="B33" s="17"/>
       <c r="C33" s="28"/>
       <c r="D33" s="28"/>
-      <c r="E33" s="210"/>
-      <c r="F33" s="211"/>
-      <c r="G33" s="211"/>
-      <c r="H33" s="211"/>
-      <c r="I33" s="211"/>
-      <c r="J33" s="212"/>
+      <c r="E33" s="214"/>
+      <c r="F33" s="215"/>
+      <c r="G33" s="215"/>
+      <c r="H33" s="215"/>
+      <c r="I33" s="215"/>
+      <c r="J33" s="216"/>
       <c r="K33" s="23"/>
       <c r="L33" s="24"/>
       <c r="M33" s="23"/>
@@ -21935,18 +21931,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="T17:U17"/>
-    <mergeCell ref="T18:U18"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="D13:E14"/>
-    <mergeCell ref="T6:V6"/>
-    <mergeCell ref="C8:D10"/>
-    <mergeCell ref="R8:U10"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="J6:M6"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="Q6:S6"/>
     <mergeCell ref="A1:A5"/>
     <mergeCell ref="E31:J33"/>
     <mergeCell ref="R25:S25"/>
@@ -21963,6 +21947,18 @@
     <mergeCell ref="E21:J23"/>
     <mergeCell ref="T19:U19"/>
     <mergeCell ref="T16:U16"/>
+    <mergeCell ref="T17:U17"/>
+    <mergeCell ref="T18:U18"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="D13:E14"/>
+    <mergeCell ref="T6:V6"/>
+    <mergeCell ref="C8:D10"/>
+    <mergeCell ref="R8:U10"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="J6:M6"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="Q6:S6"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>
@@ -24386,6 +24382,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="K18:M18"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="J6:M6"/>
+    <mergeCell ref="N6:P6"/>
     <mergeCell ref="A1:A5"/>
     <mergeCell ref="C8:D10"/>
     <mergeCell ref="R8:U10"/>
@@ -24393,13 +24396,6 @@
     <mergeCell ref="K16:M16"/>
     <mergeCell ref="Q6:S6"/>
     <mergeCell ref="T6:V6"/>
-    <mergeCell ref="K18:M18"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="J6:M6"/>
-    <mergeCell ref="N6:P6"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>
@@ -24599,10 +24595,10 @@
       <c r="B12" s="28"/>
       <c r="C12" s="28"/>
       <c r="D12" s="6"/>
-      <c r="E12" s="225" t="s">
+      <c r="E12" s="227" t="s">
         <v>79</v>
       </c>
-      <c r="F12" s="226"/>
+      <c r="F12" s="228"/>
       <c r="G12" s="6"/>
       <c r="H12" s="188" t="s">
         <v>80</v>
@@ -24613,7 +24609,7 @@
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
       <c r="N12" s="23"/>
-      <c r="O12" s="229" t="s">
+      <c r="O12" s="223" t="s">
         <v>78</v>
       </c>
       <c r="P12" s="23"/>
@@ -24630,8 +24626,8 @@
       <c r="B13" s="28"/>
       <c r="C13" s="28"/>
       <c r="D13" s="6"/>
-      <c r="E13" s="227"/>
-      <c r="F13" s="228"/>
+      <c r="E13" s="229"/>
+      <c r="F13" s="230"/>
       <c r="G13" s="6"/>
       <c r="H13" s="192"/>
       <c r="I13" s="196"/>
@@ -24640,7 +24636,7 @@
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
       <c r="N13" s="39"/>
-      <c r="O13" s="230"/>
+      <c r="O13" s="224"/>
       <c r="P13" s="23"/>
       <c r="Q13" s="24"/>
       <c r="R13" s="191"/>
@@ -24716,10 +24712,10 @@
         <v>66</v>
       </c>
       <c r="S16" s="191"/>
-      <c r="T16" s="215" t="s">
+      <c r="T16" s="205" t="s">
         <v>70</v>
       </c>
-      <c r="U16" s="216"/>
+      <c r="U16" s="206"/>
       <c r="V16" s="24"/>
     </row>
     <row r="17" spans="2:22" ht="17.25" thickBot="1">
@@ -24727,7 +24723,7 @@
       <c r="C17" s="28"/>
       <c r="D17" s="39"/>
       <c r="E17" s="41"/>
-      <c r="F17" s="223" t="s">
+      <c r="F17" s="225" t="s">
         <v>88</v>
       </c>
       <c r="G17" s="190" t="s">
@@ -24749,10 +24745,10 @@
         <v>68</v>
       </c>
       <c r="S17" s="191"/>
-      <c r="T17" s="215" t="s">
+      <c r="T17" s="205" t="s">
         <v>72</v>
       </c>
-      <c r="U17" s="216"/>
+      <c r="U17" s="206"/>
       <c r="V17" s="24"/>
     </row>
     <row r="18" spans="2:22" ht="17.25" thickBot="1">
@@ -24760,7 +24756,7 @@
       <c r="C18" s="28"/>
       <c r="D18" s="39"/>
       <c r="E18" s="41"/>
-      <c r="F18" s="224"/>
+      <c r="F18" s="226"/>
       <c r="G18" s="190"/>
       <c r="H18" s="191"/>
       <c r="I18" s="39"/>
@@ -24776,10 +24772,10 @@
         <v>67</v>
       </c>
       <c r="S18" s="191"/>
-      <c r="T18" s="215" t="s">
+      <c r="T18" s="205" t="s">
         <v>73</v>
       </c>
-      <c r="U18" s="216"/>
+      <c r="U18" s="206"/>
       <c r="V18" s="24"/>
     </row>
     <row r="19" spans="2:22" ht="16.5" customHeight="1" thickBot="1">
@@ -24803,10 +24799,10 @@
         <v>69</v>
       </c>
       <c r="S19" s="193"/>
-      <c r="T19" s="213" t="s">
+      <c r="T19" s="217" t="s">
         <v>71</v>
       </c>
-      <c r="U19" s="214"/>
+      <c r="U19" s="218"/>
       <c r="V19" s="24"/>
     </row>
     <row r="20" spans="2:22" ht="16.5" customHeight="1" thickBot="1">
@@ -24962,7 +24958,7 @@
       <c r="C26" s="28"/>
       <c r="D26" s="39"/>
       <c r="E26" s="41"/>
-      <c r="F26" s="223" t="s">
+      <c r="F26" s="225" t="s">
         <v>88</v>
       </c>
       <c r="G26" s="190" t="s">
@@ -24993,7 +24989,7 @@
       <c r="C27" s="28"/>
       <c r="D27" s="39"/>
       <c r="E27" s="41"/>
-      <c r="F27" s="224"/>
+      <c r="F27" s="226"/>
       <c r="G27" s="190"/>
       <c r="H27" s="191"/>
       <c r="I27" s="39"/>
@@ -25280,19 +25276,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="O12:O13"/>
-    <mergeCell ref="H12:I13"/>
-    <mergeCell ref="T6:V6"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="J6:M6"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="Q6:S6"/>
-    <mergeCell ref="T17:U17"/>
-    <mergeCell ref="R18:S18"/>
-    <mergeCell ref="T18:U18"/>
-    <mergeCell ref="R19:S19"/>
-    <mergeCell ref="T19:U19"/>
     <mergeCell ref="A1:A5"/>
     <mergeCell ref="R27:S27"/>
     <mergeCell ref="F26:F27"/>
@@ -25309,6 +25292,19 @@
     <mergeCell ref="R16:S16"/>
     <mergeCell ref="T16:U16"/>
     <mergeCell ref="E12:F13"/>
+    <mergeCell ref="T17:U17"/>
+    <mergeCell ref="R18:S18"/>
+    <mergeCell ref="T18:U18"/>
+    <mergeCell ref="R19:S19"/>
+    <mergeCell ref="T19:U19"/>
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="H12:I13"/>
+    <mergeCell ref="T6:V6"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="J6:M6"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="Q6:S6"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>
@@ -25415,21 +25411,21 @@
         <v>129</v>
       </c>
       <c r="D8" s="194"/>
-      <c r="E8" s="258" t="s">
+      <c r="E8" s="240" t="s">
         <v>150</v>
       </c>
-      <c r="F8" s="259"/>
-      <c r="G8" s="259"/>
-      <c r="H8" s="259"/>
-      <c r="I8" s="259"/>
-      <c r="J8" s="259"/>
-      <c r="K8" s="259"/>
-      <c r="L8" s="259"/>
-      <c r="M8" s="259"/>
-      <c r="N8" s="259"/>
-      <c r="O8" s="259"/>
-      <c r="P8" s="259"/>
-      <c r="Q8" s="260"/>
+      <c r="F8" s="241"/>
+      <c r="G8" s="241"/>
+      <c r="H8" s="241"/>
+      <c r="I8" s="241"/>
+      <c r="J8" s="241"/>
+      <c r="K8" s="241"/>
+      <c r="L8" s="241"/>
+      <c r="M8" s="241"/>
+      <c r="N8" s="241"/>
+      <c r="O8" s="241"/>
+      <c r="P8" s="241"/>
+      <c r="Q8" s="242"/>
       <c r="R8" s="188" t="s">
         <v>131</v>
       </c>
@@ -25442,19 +25438,19 @@
       <c r="B9" s="163"/>
       <c r="C9" s="190"/>
       <c r="D9" s="195"/>
-      <c r="E9" s="261"/>
-      <c r="F9" s="262"/>
-      <c r="G9" s="262"/>
-      <c r="H9" s="262"/>
-      <c r="I9" s="262"/>
-      <c r="J9" s="262"/>
-      <c r="K9" s="262"/>
-      <c r="L9" s="262"/>
-      <c r="M9" s="262"/>
-      <c r="N9" s="262"/>
-      <c r="O9" s="262"/>
-      <c r="P9" s="262"/>
-      <c r="Q9" s="263"/>
+      <c r="E9" s="243"/>
+      <c r="F9" s="244"/>
+      <c r="G9" s="244"/>
+      <c r="H9" s="244"/>
+      <c r="I9" s="244"/>
+      <c r="J9" s="244"/>
+      <c r="K9" s="244"/>
+      <c r="L9" s="244"/>
+      <c r="M9" s="244"/>
+      <c r="N9" s="244"/>
+      <c r="O9" s="244"/>
+      <c r="P9" s="244"/>
+      <c r="Q9" s="245"/>
       <c r="R9" s="190"/>
       <c r="S9" s="191"/>
       <c r="T9" s="191"/>
@@ -25465,19 +25461,19 @@
       <c r="B10" s="163"/>
       <c r="C10" s="192"/>
       <c r="D10" s="196"/>
-      <c r="E10" s="261"/>
-      <c r="F10" s="262"/>
-      <c r="G10" s="262"/>
-      <c r="H10" s="262"/>
-      <c r="I10" s="262"/>
-      <c r="J10" s="262"/>
-      <c r="K10" s="262"/>
-      <c r="L10" s="262"/>
-      <c r="M10" s="262"/>
-      <c r="N10" s="262"/>
-      <c r="O10" s="262"/>
-      <c r="P10" s="262"/>
-      <c r="Q10" s="263"/>
+      <c r="E10" s="243"/>
+      <c r="F10" s="244"/>
+      <c r="G10" s="244"/>
+      <c r="H10" s="244"/>
+      <c r="I10" s="244"/>
+      <c r="J10" s="244"/>
+      <c r="K10" s="244"/>
+      <c r="L10" s="244"/>
+      <c r="M10" s="244"/>
+      <c r="N10" s="244"/>
+      <c r="O10" s="244"/>
+      <c r="P10" s="244"/>
+      <c r="Q10" s="245"/>
       <c r="R10" s="192"/>
       <c r="S10" s="193"/>
       <c r="T10" s="193"/>
@@ -25486,24 +25482,24 @@
     </row>
     <row r="11" spans="1:22">
       <c r="B11" s="163"/>
-      <c r="C11" s="249" t="s">
+      <c r="C11" s="231" t="s">
         <v>151</v>
       </c>
-      <c r="D11" s="250"/>
-      <c r="E11" s="250"/>
-      <c r="F11" s="250"/>
-      <c r="G11" s="250"/>
-      <c r="H11" s="250"/>
-      <c r="I11" s="250"/>
-      <c r="J11" s="250"/>
-      <c r="K11" s="250"/>
-      <c r="L11" s="250"/>
-      <c r="M11" s="250"/>
-      <c r="N11" s="250"/>
-      <c r="O11" s="250"/>
-      <c r="P11" s="250"/>
-      <c r="Q11" s="251"/>
-      <c r="R11" s="249" t="s">
+      <c r="D11" s="232"/>
+      <c r="E11" s="232"/>
+      <c r="F11" s="232"/>
+      <c r="G11" s="232"/>
+      <c r="H11" s="232"/>
+      <c r="I11" s="232"/>
+      <c r="J11" s="232"/>
+      <c r="K11" s="232"/>
+      <c r="L11" s="232"/>
+      <c r="M11" s="232"/>
+      <c r="N11" s="232"/>
+      <c r="O11" s="232"/>
+      <c r="P11" s="232"/>
+      <c r="Q11" s="233"/>
+      <c r="R11" s="231" t="s">
         <v>152</v>
       </c>
       <c r="S11" s="189"/>
@@ -25513,21 +25509,21 @@
     </row>
     <row r="12" spans="1:22">
       <c r="B12" s="163"/>
-      <c r="C12" s="252"/>
-      <c r="D12" s="253"/>
-      <c r="E12" s="253"/>
-      <c r="F12" s="253"/>
-      <c r="G12" s="253"/>
-      <c r="H12" s="253"/>
-      <c r="I12" s="253"/>
-      <c r="J12" s="253"/>
-      <c r="K12" s="253"/>
-      <c r="L12" s="253"/>
-      <c r="M12" s="253"/>
-      <c r="N12" s="253"/>
-      <c r="O12" s="253"/>
-      <c r="P12" s="253"/>
-      <c r="Q12" s="254"/>
+      <c r="C12" s="234"/>
+      <c r="D12" s="235"/>
+      <c r="E12" s="235"/>
+      <c r="F12" s="235"/>
+      <c r="G12" s="235"/>
+      <c r="H12" s="235"/>
+      <c r="I12" s="235"/>
+      <c r="J12" s="235"/>
+      <c r="K12" s="235"/>
+      <c r="L12" s="235"/>
+      <c r="M12" s="235"/>
+      <c r="N12" s="235"/>
+      <c r="O12" s="235"/>
+      <c r="P12" s="235"/>
+      <c r="Q12" s="236"/>
       <c r="R12" s="190"/>
       <c r="S12" s="191"/>
       <c r="T12" s="191"/>
@@ -25536,21 +25532,21 @@
     </row>
     <row r="13" spans="1:22">
       <c r="B13" s="163"/>
-      <c r="C13" s="252"/>
-      <c r="D13" s="253"/>
-      <c r="E13" s="253"/>
-      <c r="F13" s="253"/>
-      <c r="G13" s="253"/>
-      <c r="H13" s="253"/>
-      <c r="I13" s="253"/>
-      <c r="J13" s="253"/>
-      <c r="K13" s="253"/>
-      <c r="L13" s="253"/>
-      <c r="M13" s="253"/>
-      <c r="N13" s="253"/>
-      <c r="O13" s="253"/>
-      <c r="P13" s="253"/>
-      <c r="Q13" s="254"/>
+      <c r="C13" s="234"/>
+      <c r="D13" s="235"/>
+      <c r="E13" s="235"/>
+      <c r="F13" s="235"/>
+      <c r="G13" s="235"/>
+      <c r="H13" s="235"/>
+      <c r="I13" s="235"/>
+      <c r="J13" s="235"/>
+      <c r="K13" s="235"/>
+      <c r="L13" s="235"/>
+      <c r="M13" s="235"/>
+      <c r="N13" s="235"/>
+      <c r="O13" s="235"/>
+      <c r="P13" s="235"/>
+      <c r="Q13" s="236"/>
       <c r="R13" s="190"/>
       <c r="S13" s="191"/>
       <c r="T13" s="191"/>
@@ -25559,21 +25555,21 @@
     </row>
     <row r="14" spans="1:22">
       <c r="B14" s="163"/>
-      <c r="C14" s="252"/>
-      <c r="D14" s="253"/>
-      <c r="E14" s="253"/>
-      <c r="F14" s="253"/>
-      <c r="G14" s="253"/>
-      <c r="H14" s="253"/>
-      <c r="I14" s="253"/>
-      <c r="J14" s="253"/>
-      <c r="K14" s="253"/>
-      <c r="L14" s="253"/>
-      <c r="M14" s="253"/>
-      <c r="N14" s="253"/>
-      <c r="O14" s="253"/>
-      <c r="P14" s="253"/>
-      <c r="Q14" s="254"/>
+      <c r="C14" s="234"/>
+      <c r="D14" s="235"/>
+      <c r="E14" s="235"/>
+      <c r="F14" s="235"/>
+      <c r="G14" s="235"/>
+      <c r="H14" s="235"/>
+      <c r="I14" s="235"/>
+      <c r="J14" s="235"/>
+      <c r="K14" s="235"/>
+      <c r="L14" s="235"/>
+      <c r="M14" s="235"/>
+      <c r="N14" s="235"/>
+      <c r="O14" s="235"/>
+      <c r="P14" s="235"/>
+      <c r="Q14" s="236"/>
       <c r="R14" s="190"/>
       <c r="S14" s="191"/>
       <c r="T14" s="191"/>
@@ -25582,21 +25578,21 @@
     </row>
     <row r="15" spans="1:22" ht="17.25" thickBot="1">
       <c r="B15" s="163"/>
-      <c r="C15" s="255"/>
-      <c r="D15" s="256"/>
-      <c r="E15" s="256"/>
-      <c r="F15" s="256"/>
-      <c r="G15" s="256"/>
-      <c r="H15" s="256"/>
-      <c r="I15" s="256"/>
-      <c r="J15" s="256"/>
-      <c r="K15" s="256"/>
-      <c r="L15" s="256"/>
-      <c r="M15" s="256"/>
-      <c r="N15" s="256"/>
-      <c r="O15" s="256"/>
-      <c r="P15" s="256"/>
-      <c r="Q15" s="257"/>
+      <c r="C15" s="237"/>
+      <c r="D15" s="238"/>
+      <c r="E15" s="238"/>
+      <c r="F15" s="238"/>
+      <c r="G15" s="238"/>
+      <c r="H15" s="238"/>
+      <c r="I15" s="238"/>
+      <c r="J15" s="238"/>
+      <c r="K15" s="238"/>
+      <c r="L15" s="238"/>
+      <c r="M15" s="238"/>
+      <c r="N15" s="238"/>
+      <c r="O15" s="238"/>
+      <c r="P15" s="238"/>
+      <c r="Q15" s="239"/>
       <c r="R15" s="190"/>
       <c r="S15" s="191"/>
       <c r="T15" s="191"/>
@@ -25632,25 +25628,25 @@
     </row>
     <row r="17" spans="2:22">
       <c r="B17" s="163"/>
-      <c r="C17" s="264" t="s">
+      <c r="C17" s="246" t="s">
         <v>141</v>
       </c>
-      <c r="D17" s="223" t="s">
+      <c r="D17" s="225" t="s">
         <v>497</v>
       </c>
-      <c r="E17" s="223" t="s">
+      <c r="E17" s="225" t="s">
         <v>498</v>
       </c>
-      <c r="F17" s="223" t="s">
+      <c r="F17" s="225" t="s">
         <v>499</v>
       </c>
-      <c r="G17" s="223" t="s">
+      <c r="G17" s="225" t="s">
         <v>500</v>
       </c>
-      <c r="H17" s="223" t="s">
+      <c r="H17" s="225" t="s">
         <v>501</v>
       </c>
-      <c r="I17" s="268" t="s">
+      <c r="I17" s="250" t="s">
         <v>502</v>
       </c>
       <c r="J17" s="190"/>
@@ -25669,13 +25665,13 @@
     </row>
     <row r="18" spans="2:22">
       <c r="B18" s="163"/>
-      <c r="C18" s="265"/>
-      <c r="D18" s="267"/>
-      <c r="E18" s="267"/>
-      <c r="F18" s="267"/>
-      <c r="G18" s="267"/>
-      <c r="H18" s="267"/>
-      <c r="I18" s="269"/>
+      <c r="C18" s="247"/>
+      <c r="D18" s="249"/>
+      <c r="E18" s="249"/>
+      <c r="F18" s="249"/>
+      <c r="G18" s="249"/>
+      <c r="H18" s="249"/>
+      <c r="I18" s="251"/>
       <c r="J18" s="190"/>
       <c r="K18" s="191"/>
       <c r="L18" s="191"/>
@@ -25692,13 +25688,13 @@
     </row>
     <row r="19" spans="2:22" ht="17.25" thickBot="1">
       <c r="B19" s="163"/>
-      <c r="C19" s="266"/>
-      <c r="D19" s="224"/>
-      <c r="E19" s="224"/>
-      <c r="F19" s="224"/>
-      <c r="G19" s="224"/>
-      <c r="H19" s="224"/>
-      <c r="I19" s="270"/>
+      <c r="C19" s="248"/>
+      <c r="D19" s="226"/>
+      <c r="E19" s="226"/>
+      <c r="F19" s="226"/>
+      <c r="G19" s="226"/>
+      <c r="H19" s="226"/>
+      <c r="I19" s="252"/>
       <c r="J19" s="190"/>
       <c r="K19" s="191"/>
       <c r="L19" s="191"/>
@@ -25715,23 +25711,23 @@
     </row>
     <row r="20" spans="2:22" ht="17.25" thickBot="1">
       <c r="B20" s="163"/>
-      <c r="C20" s="271"/>
-      <c r="D20" s="248">
+      <c r="C20" s="253"/>
+      <c r="D20" s="268">
         <v>1</v>
       </c>
-      <c r="E20" s="248">
+      <c r="E20" s="268">
         <v>2</v>
       </c>
-      <c r="F20" s="248">
+      <c r="F20" s="268">
         <v>3</v>
       </c>
-      <c r="G20" s="248">
+      <c r="G20" s="268">
         <v>4</v>
       </c>
-      <c r="H20" s="248">
+      <c r="H20" s="268">
         <v>5</v>
       </c>
-      <c r="I20" s="245">
+      <c r="I20" s="256">
         <v>6</v>
       </c>
       <c r="J20" s="190"/>
@@ -25750,13 +25746,13 @@
     </row>
     <row r="21" spans="2:22">
       <c r="B21" s="163"/>
-      <c r="C21" s="272"/>
-      <c r="D21" s="232"/>
-      <c r="E21" s="232"/>
-      <c r="F21" s="232"/>
-      <c r="G21" s="232"/>
-      <c r="H21" s="232"/>
-      <c r="I21" s="246"/>
+      <c r="C21" s="254"/>
+      <c r="D21" s="263"/>
+      <c r="E21" s="263"/>
+      <c r="F21" s="263"/>
+      <c r="G21" s="263"/>
+      <c r="H21" s="263"/>
+      <c r="I21" s="257"/>
       <c r="J21" s="190"/>
       <c r="K21" s="191"/>
       <c r="L21" s="191"/>
@@ -25765,7 +25761,7 @@
       <c r="O21" s="191"/>
       <c r="P21" s="191"/>
       <c r="Q21" s="195"/>
-      <c r="R21" s="249" t="s">
+      <c r="R21" s="231" t="s">
         <v>133</v>
       </c>
       <c r="S21" s="189"/>
@@ -25775,13 +25771,13 @@
     </row>
     <row r="22" spans="2:22">
       <c r="B22" s="163"/>
-      <c r="C22" s="273"/>
-      <c r="D22" s="240"/>
-      <c r="E22" s="240"/>
-      <c r="F22" s="240"/>
-      <c r="G22" s="240"/>
-      <c r="H22" s="240"/>
-      <c r="I22" s="247"/>
+      <c r="C22" s="255"/>
+      <c r="D22" s="264"/>
+      <c r="E22" s="264"/>
+      <c r="F22" s="264"/>
+      <c r="G22" s="264"/>
+      <c r="H22" s="264"/>
+      <c r="I22" s="258"/>
       <c r="J22" s="190"/>
       <c r="K22" s="191"/>
       <c r="L22" s="191"/>
@@ -25798,25 +25794,25 @@
     </row>
     <row r="23" spans="2:22">
       <c r="B23" s="163"/>
-      <c r="C23" s="237">
+      <c r="C23" s="259">
         <v>7</v>
       </c>
-      <c r="D23" s="231">
+      <c r="D23" s="262">
         <v>8</v>
       </c>
-      <c r="E23" s="231">
+      <c r="E23" s="262">
         <v>9</v>
       </c>
-      <c r="F23" s="231">
+      <c r="F23" s="262">
         <v>10</v>
       </c>
-      <c r="G23" s="231">
+      <c r="G23" s="262">
         <v>11</v>
       </c>
-      <c r="H23" s="231">
+      <c r="H23" s="262">
         <v>12</v>
       </c>
-      <c r="I23" s="241">
+      <c r="I23" s="265">
         <v>13</v>
       </c>
       <c r="J23" s="190"/>
@@ -25835,13 +25831,13 @@
     </row>
     <row r="24" spans="2:22" ht="16.5" customHeight="1">
       <c r="B24" s="163"/>
-      <c r="C24" s="238"/>
-      <c r="D24" s="232"/>
-      <c r="E24" s="232"/>
-      <c r="F24" s="232"/>
-      <c r="G24" s="232"/>
-      <c r="H24" s="232"/>
-      <c r="I24" s="242"/>
+      <c r="C24" s="260"/>
+      <c r="D24" s="263"/>
+      <c r="E24" s="263"/>
+      <c r="F24" s="263"/>
+      <c r="G24" s="263"/>
+      <c r="H24" s="263"/>
+      <c r="I24" s="266"/>
       <c r="J24" s="190"/>
       <c r="K24" s="191"/>
       <c r="L24" s="191"/>
@@ -25858,13 +25854,13 @@
     </row>
     <row r="25" spans="2:22">
       <c r="B25" s="163"/>
-      <c r="C25" s="244"/>
-      <c r="D25" s="240"/>
-      <c r="E25" s="240"/>
-      <c r="F25" s="240"/>
-      <c r="G25" s="240"/>
-      <c r="H25" s="240"/>
-      <c r="I25" s="243"/>
+      <c r="C25" s="261"/>
+      <c r="D25" s="264"/>
+      <c r="E25" s="264"/>
+      <c r="F25" s="264"/>
+      <c r="G25" s="264"/>
+      <c r="H25" s="264"/>
+      <c r="I25" s="267"/>
       <c r="J25" s="190"/>
       <c r="K25" s="191"/>
       <c r="L25" s="191"/>
@@ -25881,25 +25877,25 @@
     </row>
     <row r="26" spans="2:22" ht="16.5" customHeight="1">
       <c r="B26" s="163"/>
-      <c r="C26" s="237">
+      <c r="C26" s="259">
         <v>14</v>
       </c>
-      <c r="D26" s="231">
+      <c r="D26" s="262">
         <v>15</v>
       </c>
-      <c r="E26" s="231">
+      <c r="E26" s="262">
         <v>16</v>
       </c>
-      <c r="F26" s="231">
+      <c r="F26" s="262">
         <v>17</v>
       </c>
-      <c r="G26" s="231">
+      <c r="G26" s="262">
         <v>18</v>
       </c>
-      <c r="H26" s="231">
+      <c r="H26" s="262">
         <v>19</v>
       </c>
-      <c r="I26" s="241">
+      <c r="I26" s="265">
         <v>20</v>
       </c>
       <c r="J26" s="190"/>
@@ -25918,13 +25914,13 @@
     </row>
     <row r="27" spans="2:22">
       <c r="B27" s="163"/>
-      <c r="C27" s="238"/>
-      <c r="D27" s="232"/>
-      <c r="E27" s="232"/>
-      <c r="F27" s="232"/>
-      <c r="G27" s="232"/>
-      <c r="H27" s="232"/>
-      <c r="I27" s="242"/>
+      <c r="C27" s="260"/>
+      <c r="D27" s="263"/>
+      <c r="E27" s="263"/>
+      <c r="F27" s="263"/>
+      <c r="G27" s="263"/>
+      <c r="H27" s="263"/>
+      <c r="I27" s="266"/>
       <c r="J27" s="190"/>
       <c r="K27" s="191"/>
       <c r="L27" s="191"/>
@@ -25941,13 +25937,13 @@
     </row>
     <row r="28" spans="2:22" ht="17.25" thickBot="1">
       <c r="B28" s="163"/>
-      <c r="C28" s="244"/>
-      <c r="D28" s="240"/>
-      <c r="E28" s="240"/>
-      <c r="F28" s="240"/>
-      <c r="G28" s="240"/>
-      <c r="H28" s="240"/>
-      <c r="I28" s="243"/>
+      <c r="C28" s="261"/>
+      <c r="D28" s="264"/>
+      <c r="E28" s="264"/>
+      <c r="F28" s="264"/>
+      <c r="G28" s="264"/>
+      <c r="H28" s="264"/>
+      <c r="I28" s="267"/>
       <c r="J28" s="190"/>
       <c r="K28" s="191"/>
       <c r="L28" s="191"/>
@@ -25964,25 +25960,25 @@
     </row>
     <row r="29" spans="2:22">
       <c r="B29" s="163"/>
-      <c r="C29" s="237">
+      <c r="C29" s="259">
         <v>21</v>
       </c>
-      <c r="D29" s="231">
+      <c r="D29" s="262">
         <v>22</v>
       </c>
-      <c r="E29" s="231">
+      <c r="E29" s="262">
         <v>23</v>
       </c>
-      <c r="F29" s="231">
+      <c r="F29" s="262">
         <v>24</v>
       </c>
-      <c r="G29" s="231">
+      <c r="G29" s="262">
         <v>25</v>
       </c>
-      <c r="H29" s="231">
+      <c r="H29" s="262">
         <v>26</v>
       </c>
-      <c r="I29" s="241">
+      <c r="I29" s="265">
         <v>27</v>
       </c>
       <c r="J29" s="190"/>
@@ -25993,7 +25989,7 @@
       <c r="O29" s="191"/>
       <c r="P29" s="191"/>
       <c r="Q29" s="195"/>
-      <c r="R29" s="249" t="s">
+      <c r="R29" s="231" t="s">
         <v>148</v>
       </c>
       <c r="S29" s="189"/>
@@ -26003,13 +25999,13 @@
     </row>
     <row r="30" spans="2:22">
       <c r="B30" s="163"/>
-      <c r="C30" s="238"/>
-      <c r="D30" s="232"/>
-      <c r="E30" s="232"/>
-      <c r="F30" s="232"/>
-      <c r="G30" s="232"/>
-      <c r="H30" s="232"/>
-      <c r="I30" s="242"/>
+      <c r="C30" s="260"/>
+      <c r="D30" s="263"/>
+      <c r="E30" s="263"/>
+      <c r="F30" s="263"/>
+      <c r="G30" s="263"/>
+      <c r="H30" s="263"/>
+      <c r="I30" s="266"/>
       <c r="J30" s="190"/>
       <c r="K30" s="191"/>
       <c r="L30" s="191"/>
@@ -26026,13 +26022,13 @@
     </row>
     <row r="31" spans="2:22">
       <c r="B31" s="163"/>
-      <c r="C31" s="244"/>
-      <c r="D31" s="240"/>
-      <c r="E31" s="240"/>
-      <c r="F31" s="240"/>
-      <c r="G31" s="240"/>
-      <c r="H31" s="240"/>
-      <c r="I31" s="243"/>
+      <c r="C31" s="261"/>
+      <c r="D31" s="264"/>
+      <c r="E31" s="264"/>
+      <c r="F31" s="264"/>
+      <c r="G31" s="264"/>
+      <c r="H31" s="264"/>
+      <c r="I31" s="267"/>
       <c r="J31" s="190"/>
       <c r="K31" s="191"/>
       <c r="L31" s="191"/>
@@ -26049,21 +26045,21 @@
     </row>
     <row r="32" spans="2:22">
       <c r="B32" s="163"/>
-      <c r="C32" s="237">
+      <c r="C32" s="259">
         <v>28</v>
       </c>
-      <c r="D32" s="231">
+      <c r="D32" s="262">
         <v>29</v>
       </c>
-      <c r="E32" s="231">
+      <c r="E32" s="262">
         <v>30</v>
       </c>
-      <c r="F32" s="231">
+      <c r="F32" s="262">
         <v>31</v>
       </c>
-      <c r="G32" s="231"/>
-      <c r="H32" s="231"/>
-      <c r="I32" s="234"/>
+      <c r="G32" s="262"/>
+      <c r="H32" s="262"/>
+      <c r="I32" s="270"/>
       <c r="J32" s="190"/>
       <c r="K32" s="191"/>
       <c r="L32" s="191"/>
@@ -26080,13 +26076,13 @@
     </row>
     <row r="33" spans="2:22">
       <c r="B33" s="163"/>
-      <c r="C33" s="238"/>
-      <c r="D33" s="232"/>
-      <c r="E33" s="232"/>
-      <c r="F33" s="232"/>
-      <c r="G33" s="232"/>
-      <c r="H33" s="232"/>
-      <c r="I33" s="235"/>
+      <c r="C33" s="260"/>
+      <c r="D33" s="263"/>
+      <c r="E33" s="263"/>
+      <c r="F33" s="263"/>
+      <c r="G33" s="263"/>
+      <c r="H33" s="263"/>
+      <c r="I33" s="271"/>
       <c r="J33" s="190"/>
       <c r="K33" s="191"/>
       <c r="L33" s="191"/>
@@ -26103,13 +26099,13 @@
     </row>
     <row r="34" spans="2:22" ht="17.25" thickBot="1">
       <c r="B34" s="163"/>
-      <c r="C34" s="239"/>
-      <c r="D34" s="233"/>
-      <c r="E34" s="233"/>
-      <c r="F34" s="233"/>
-      <c r="G34" s="233"/>
-      <c r="H34" s="233"/>
-      <c r="I34" s="236"/>
+      <c r="C34" s="273"/>
+      <c r="D34" s="269"/>
+      <c r="E34" s="269"/>
+      <c r="F34" s="269"/>
+      <c r="G34" s="269"/>
+      <c r="H34" s="269"/>
+      <c r="I34" s="272"/>
       <c r="J34" s="192"/>
       <c r="K34" s="193"/>
       <c r="L34" s="193"/>
@@ -26300,6 +26296,47 @@
     </row>
   </sheetData>
   <mergeCells count="57">
+    <mergeCell ref="H32:H34"/>
+    <mergeCell ref="I32:I34"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="E32:E34"/>
+    <mergeCell ref="F32:F34"/>
+    <mergeCell ref="G32:G34"/>
+    <mergeCell ref="H26:H28"/>
+    <mergeCell ref="I26:I28"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="D29:D31"/>
+    <mergeCell ref="E29:E31"/>
+    <mergeCell ref="F29:F31"/>
+    <mergeCell ref="G29:G31"/>
+    <mergeCell ref="H29:H31"/>
+    <mergeCell ref="I29:I31"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="E26:E28"/>
+    <mergeCell ref="F26:F28"/>
+    <mergeCell ref="G26:G28"/>
+    <mergeCell ref="I20:I22"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="E23:E25"/>
+    <mergeCell ref="F23:F25"/>
+    <mergeCell ref="G23:G25"/>
+    <mergeCell ref="H23:H25"/>
+    <mergeCell ref="I23:I25"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="F20:F22"/>
+    <mergeCell ref="G20:G22"/>
+    <mergeCell ref="H20:H22"/>
+    <mergeCell ref="T6:V6"/>
+    <mergeCell ref="A1:A5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="J6:M6"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="Q6:S6"/>
     <mergeCell ref="R8:U10"/>
     <mergeCell ref="C11:Q15"/>
     <mergeCell ref="R11:U20"/>
@@ -26316,47 +26353,6 @@
     <mergeCell ref="H17:H19"/>
     <mergeCell ref="I17:I19"/>
     <mergeCell ref="C20:C22"/>
-    <mergeCell ref="T6:V6"/>
-    <mergeCell ref="A1:A5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="J6:M6"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="Q6:S6"/>
-    <mergeCell ref="I20:I22"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="D23:D25"/>
-    <mergeCell ref="E23:E25"/>
-    <mergeCell ref="F23:F25"/>
-    <mergeCell ref="G23:G25"/>
-    <mergeCell ref="H23:H25"/>
-    <mergeCell ref="I23:I25"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="E20:E22"/>
-    <mergeCell ref="F20:F22"/>
-    <mergeCell ref="G20:G22"/>
-    <mergeCell ref="H20:H22"/>
-    <mergeCell ref="H26:H28"/>
-    <mergeCell ref="I26:I28"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="D29:D31"/>
-    <mergeCell ref="E29:E31"/>
-    <mergeCell ref="F29:F31"/>
-    <mergeCell ref="G29:G31"/>
-    <mergeCell ref="H29:H31"/>
-    <mergeCell ref="I29:I31"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="D26:D28"/>
-    <mergeCell ref="E26:E28"/>
-    <mergeCell ref="F26:F28"/>
-    <mergeCell ref="G26:G28"/>
-    <mergeCell ref="H32:H34"/>
-    <mergeCell ref="I32:I34"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="D32:D34"/>
-    <mergeCell ref="E32:E34"/>
-    <mergeCell ref="F32:F34"/>
-    <mergeCell ref="G32:G34"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>
@@ -26463,21 +26459,21 @@
         <v>58</v>
       </c>
       <c r="D8" s="194"/>
-      <c r="E8" s="258" t="s">
+      <c r="E8" s="240" t="s">
         <v>150</v>
       </c>
-      <c r="F8" s="259"/>
-      <c r="G8" s="259"/>
-      <c r="H8" s="259"/>
-      <c r="I8" s="259"/>
-      <c r="J8" s="259"/>
-      <c r="K8" s="259"/>
-      <c r="L8" s="259"/>
-      <c r="M8" s="259"/>
-      <c r="N8" s="259"/>
-      <c r="O8" s="259"/>
-      <c r="P8" s="259"/>
-      <c r="Q8" s="260"/>
+      <c r="F8" s="241"/>
+      <c r="G8" s="241"/>
+      <c r="H8" s="241"/>
+      <c r="I8" s="241"/>
+      <c r="J8" s="241"/>
+      <c r="K8" s="241"/>
+      <c r="L8" s="241"/>
+      <c r="M8" s="241"/>
+      <c r="N8" s="241"/>
+      <c r="O8" s="241"/>
+      <c r="P8" s="241"/>
+      <c r="Q8" s="242"/>
       <c r="R8" s="188" t="s">
         <v>131</v>
       </c>
@@ -26490,19 +26486,19 @@
       <c r="B9" s="175"/>
       <c r="C9" s="190"/>
       <c r="D9" s="195"/>
-      <c r="E9" s="261"/>
-      <c r="F9" s="262"/>
-      <c r="G9" s="262"/>
-      <c r="H9" s="262"/>
-      <c r="I9" s="262"/>
-      <c r="J9" s="262"/>
-      <c r="K9" s="262"/>
-      <c r="L9" s="262"/>
-      <c r="M9" s="262"/>
-      <c r="N9" s="262"/>
-      <c r="O9" s="262"/>
-      <c r="P9" s="262"/>
-      <c r="Q9" s="263"/>
+      <c r="E9" s="243"/>
+      <c r="F9" s="244"/>
+      <c r="G9" s="244"/>
+      <c r="H9" s="244"/>
+      <c r="I9" s="244"/>
+      <c r="J9" s="244"/>
+      <c r="K9" s="244"/>
+      <c r="L9" s="244"/>
+      <c r="M9" s="244"/>
+      <c r="N9" s="244"/>
+      <c r="O9" s="244"/>
+      <c r="P9" s="244"/>
+      <c r="Q9" s="245"/>
       <c r="R9" s="190"/>
       <c r="S9" s="191"/>
       <c r="T9" s="191"/>
@@ -26513,19 +26509,19 @@
       <c r="B10" s="175"/>
       <c r="C10" s="192"/>
       <c r="D10" s="196"/>
-      <c r="E10" s="261"/>
-      <c r="F10" s="262"/>
-      <c r="G10" s="262"/>
-      <c r="H10" s="262"/>
-      <c r="I10" s="262"/>
-      <c r="J10" s="262"/>
-      <c r="K10" s="262"/>
-      <c r="L10" s="262"/>
-      <c r="M10" s="262"/>
-      <c r="N10" s="262"/>
-      <c r="O10" s="262"/>
-      <c r="P10" s="262"/>
-      <c r="Q10" s="263"/>
+      <c r="E10" s="243"/>
+      <c r="F10" s="244"/>
+      <c r="G10" s="244"/>
+      <c r="H10" s="244"/>
+      <c r="I10" s="244"/>
+      <c r="J10" s="244"/>
+      <c r="K10" s="244"/>
+      <c r="L10" s="244"/>
+      <c r="M10" s="244"/>
+      <c r="N10" s="244"/>
+      <c r="O10" s="244"/>
+      <c r="P10" s="244"/>
+      <c r="Q10" s="245"/>
       <c r="R10" s="192"/>
       <c r="S10" s="193"/>
       <c r="T10" s="193"/>
@@ -26534,24 +26530,24 @@
     </row>
     <row r="11" spans="1:22">
       <c r="B11" s="175"/>
-      <c r="C11" s="249" t="s">
+      <c r="C11" s="231" t="s">
         <v>151</v>
       </c>
-      <c r="D11" s="250"/>
-      <c r="E11" s="250"/>
-      <c r="F11" s="250"/>
-      <c r="G11" s="250"/>
-      <c r="H11" s="250"/>
-      <c r="I11" s="250"/>
-      <c r="J11" s="250"/>
-      <c r="K11" s="250"/>
-      <c r="L11" s="250"/>
-      <c r="M11" s="250"/>
-      <c r="N11" s="250"/>
-      <c r="O11" s="250"/>
-      <c r="P11" s="250"/>
-      <c r="Q11" s="251"/>
-      <c r="R11" s="249" t="s">
+      <c r="D11" s="232"/>
+      <c r="E11" s="232"/>
+      <c r="F11" s="232"/>
+      <c r="G11" s="232"/>
+      <c r="H11" s="232"/>
+      <c r="I11" s="232"/>
+      <c r="J11" s="232"/>
+      <c r="K11" s="232"/>
+      <c r="L11" s="232"/>
+      <c r="M11" s="232"/>
+      <c r="N11" s="232"/>
+      <c r="O11" s="232"/>
+      <c r="P11" s="232"/>
+      <c r="Q11" s="233"/>
+      <c r="R11" s="231" t="s">
         <v>152</v>
       </c>
       <c r="S11" s="189"/>
@@ -26561,21 +26557,21 @@
     </row>
     <row r="12" spans="1:22">
       <c r="B12" s="175"/>
-      <c r="C12" s="252"/>
-      <c r="D12" s="253"/>
-      <c r="E12" s="253"/>
-      <c r="F12" s="253"/>
-      <c r="G12" s="253"/>
-      <c r="H12" s="253"/>
-      <c r="I12" s="253"/>
-      <c r="J12" s="253"/>
-      <c r="K12" s="253"/>
-      <c r="L12" s="253"/>
-      <c r="M12" s="253"/>
-      <c r="N12" s="253"/>
-      <c r="O12" s="253"/>
-      <c r="P12" s="253"/>
-      <c r="Q12" s="254"/>
+      <c r="C12" s="234"/>
+      <c r="D12" s="235"/>
+      <c r="E12" s="235"/>
+      <c r="F12" s="235"/>
+      <c r="G12" s="235"/>
+      <c r="H12" s="235"/>
+      <c r="I12" s="235"/>
+      <c r="J12" s="235"/>
+      <c r="K12" s="235"/>
+      <c r="L12" s="235"/>
+      <c r="M12" s="235"/>
+      <c r="N12" s="235"/>
+      <c r="O12" s="235"/>
+      <c r="P12" s="235"/>
+      <c r="Q12" s="236"/>
       <c r="R12" s="190"/>
       <c r="S12" s="191"/>
       <c r="T12" s="191"/>
@@ -26584,21 +26580,21 @@
     </row>
     <row r="13" spans="1:22">
       <c r="B13" s="175"/>
-      <c r="C13" s="252"/>
-      <c r="D13" s="253"/>
-      <c r="E13" s="253"/>
-      <c r="F13" s="253"/>
-      <c r="G13" s="253"/>
-      <c r="H13" s="253"/>
-      <c r="I13" s="253"/>
-      <c r="J13" s="253"/>
-      <c r="K13" s="253"/>
-      <c r="L13" s="253"/>
-      <c r="M13" s="253"/>
-      <c r="N13" s="253"/>
-      <c r="O13" s="253"/>
-      <c r="P13" s="253"/>
-      <c r="Q13" s="254"/>
+      <c r="C13" s="234"/>
+      <c r="D13" s="235"/>
+      <c r="E13" s="235"/>
+      <c r="F13" s="235"/>
+      <c r="G13" s="235"/>
+      <c r="H13" s="235"/>
+      <c r="I13" s="235"/>
+      <c r="J13" s="235"/>
+      <c r="K13" s="235"/>
+      <c r="L13" s="235"/>
+      <c r="M13" s="235"/>
+      <c r="N13" s="235"/>
+      <c r="O13" s="235"/>
+      <c r="P13" s="235"/>
+      <c r="Q13" s="236"/>
       <c r="R13" s="190"/>
       <c r="S13" s="191"/>
       <c r="T13" s="191"/>
@@ -26607,21 +26603,21 @@
     </row>
     <row r="14" spans="1:22">
       <c r="B14" s="175"/>
-      <c r="C14" s="252"/>
-      <c r="D14" s="253"/>
-      <c r="E14" s="253"/>
-      <c r="F14" s="253"/>
-      <c r="G14" s="253"/>
-      <c r="H14" s="253"/>
-      <c r="I14" s="253"/>
-      <c r="J14" s="253"/>
-      <c r="K14" s="253"/>
-      <c r="L14" s="253"/>
-      <c r="M14" s="253"/>
-      <c r="N14" s="253"/>
-      <c r="O14" s="253"/>
-      <c r="P14" s="253"/>
-      <c r="Q14" s="254"/>
+      <c r="C14" s="234"/>
+      <c r="D14" s="235"/>
+      <c r="E14" s="235"/>
+      <c r="F14" s="235"/>
+      <c r="G14" s="235"/>
+      <c r="H14" s="235"/>
+      <c r="I14" s="235"/>
+      <c r="J14" s="235"/>
+      <c r="K14" s="235"/>
+      <c r="L14" s="235"/>
+      <c r="M14" s="235"/>
+      <c r="N14" s="235"/>
+      <c r="O14" s="235"/>
+      <c r="P14" s="235"/>
+      <c r="Q14" s="236"/>
       <c r="R14" s="190"/>
       <c r="S14" s="191"/>
       <c r="T14" s="191"/>
@@ -26630,21 +26626,21 @@
     </row>
     <row r="15" spans="1:22" ht="17.25" thickBot="1">
       <c r="B15" s="175"/>
-      <c r="C15" s="255"/>
-      <c r="D15" s="256"/>
-      <c r="E15" s="256"/>
-      <c r="F15" s="256"/>
-      <c r="G15" s="256"/>
-      <c r="H15" s="256"/>
-      <c r="I15" s="256"/>
-      <c r="J15" s="256"/>
-      <c r="K15" s="256"/>
-      <c r="L15" s="256"/>
-      <c r="M15" s="256"/>
-      <c r="N15" s="256"/>
-      <c r="O15" s="256"/>
-      <c r="P15" s="256"/>
-      <c r="Q15" s="257"/>
+      <c r="C15" s="237"/>
+      <c r="D15" s="238"/>
+      <c r="E15" s="238"/>
+      <c r="F15" s="238"/>
+      <c r="G15" s="238"/>
+      <c r="H15" s="238"/>
+      <c r="I15" s="238"/>
+      <c r="J15" s="238"/>
+      <c r="K15" s="238"/>
+      <c r="L15" s="238"/>
+      <c r="M15" s="238"/>
+      <c r="N15" s="238"/>
+      <c r="O15" s="238"/>
+      <c r="P15" s="238"/>
+      <c r="Q15" s="239"/>
       <c r="R15" s="190"/>
       <c r="S15" s="191"/>
       <c r="T15" s="191"/>
@@ -26682,10 +26678,10 @@
       <c r="F17" s="39"/>
       <c r="G17" s="39"/>
       <c r="I17" s="39"/>
-      <c r="J17" s="211" t="s">
+      <c r="J17" s="215" t="s">
         <v>35</v>
       </c>
-      <c r="K17" s="211"/>
+      <c r="K17" s="215"/>
       <c r="L17" s="39"/>
       <c r="M17" s="38" t="s">
         <v>115</v>
@@ -26789,7 +26785,7 @@
       <c r="O21" s="39"/>
       <c r="P21" s="39"/>
       <c r="Q21" s="54"/>
-      <c r="R21" s="249" t="s">
+      <c r="R21" s="231" t="s">
         <v>133</v>
       </c>
       <c r="S21" s="189"/>
@@ -26981,7 +26977,7 @@
       <c r="O29" s="39"/>
       <c r="P29" s="39"/>
       <c r="Q29" s="54"/>
-      <c r="R29" s="249" t="s">
+      <c r="R29" s="231" t="s">
         <v>148</v>
       </c>
       <c r="S29" s="189"/>
@@ -27089,15 +27085,15 @@
         <v>114</v>
       </c>
       <c r="H34" s="94"/>
-      <c r="I34" s="213" t="s">
+      <c r="I34" s="217" t="s">
         <v>446</v>
       </c>
-      <c r="J34" s="213"/>
-      <c r="K34" s="213"/>
-      <c r="L34" s="213"/>
-      <c r="M34" s="213"/>
-      <c r="N34" s="213"/>
-      <c r="O34" s="213"/>
+      <c r="J34" s="217"/>
+      <c r="K34" s="217"/>
+      <c r="L34" s="217"/>
+      <c r="M34" s="217"/>
+      <c r="N34" s="217"/>
+      <c r="O34" s="217"/>
       <c r="P34" s="44"/>
       <c r="Q34" s="55"/>
       <c r="R34" s="192"/>
@@ -27271,6 +27267,11 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A1:A5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="J6:M6"/>
+    <mergeCell ref="N6:P6"/>
     <mergeCell ref="J17:K17"/>
     <mergeCell ref="I34:O34"/>
     <mergeCell ref="T6:V6"/>
@@ -27282,11 +27283,6 @@
     <mergeCell ref="R21:U28"/>
     <mergeCell ref="R29:U34"/>
     <mergeCell ref="Q6:S6"/>
-    <mergeCell ref="A1:A5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="J6:M6"/>
-    <mergeCell ref="N6:P6"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>

--- a/Documents/grouppl설계서 - 종합.xlsx
+++ b/Documents/grouppl설계서 - 종합.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="911" firstSheet="9" activeTab="23"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="911"/>
   </bookViews>
   <sheets>
     <sheet name="목록" sheetId="1" r:id="rId1"/>
@@ -1630,14 +1630,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>INSERT INTO boardbase (post_seq, writer, contentss, readcount, isdeleted, writedate, project_seq)</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">VALUES (board_seq.NEXTVAL, ?, ?, 0, 'N', SYSDATE, ?) </t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>첨부파일 만들기</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -1654,9 +1646,6 @@
   </si>
   <si>
     <t>ON (B.PROJECT_SEQ = C.PROJECT_SEQ)</t>
-  </si>
-  <si>
-    <t>SELECT TITLE</t>
   </si>
   <si>
     <t>FROM MYSCHEDULE</t>
@@ -2525,6 +2514,16 @@
   <si>
     <t>WHERE EMAIL =? AND CONFIRMED = 'N'</t>
     <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT TITLE, </t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">INSERT INTO boardbase (post_seq, writer, contentss, project_seq)                           </t>
+  </si>
+  <si>
+    <t>VALUES (POST_SEQ.NEXTVAL, 'TEST2', '컨텐쯔4', 3)</t>
   </si>
 </sst>
 </file>
@@ -3943,6 +3942,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3955,36 +3984,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3997,28 +3996,82 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4096,60 +4149,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4171,30 +4170,81 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4204,57 +4254,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4354,6 +4353,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -4381,36 +4410,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4495,6 +4494,12 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4520,12 +4525,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4578,7 +4577,7 @@
         <xdr:cNvPr id="2" name="순서도: 병합 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4649,7 +4648,7 @@
         <xdr:cNvPr id="2" name="그림 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5B73F2E9-4801-46BD-BC35-4E9713E2BAF2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B73F2E9-4801-46BD-BC35-4E9713E2BAF2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4693,7 +4692,7 @@
         <xdr:cNvPr id="3" name="이등변 삼각형 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D73DF1D3-2849-46AB-B336-A326FB4901E2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D73DF1D3-2849-46AB-B336-A326FB4901E2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4761,7 +4760,7 @@
         <xdr:cNvPr id="4" name="이등변 삼각형 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{67A2E7E7-89B2-417E-B60B-FC9DB9E704D5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67A2E7E7-89B2-417E-B60B-FC9DB9E704D5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4829,7 +4828,7 @@
         <xdr:cNvPr id="5" name="이등변 삼각형 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{07B25D27-05DA-4E91-85D1-956BEAEEC4EE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07B25D27-05DA-4E91-85D1-956BEAEEC4EE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4897,7 +4896,7 @@
         <xdr:cNvPr id="6" name="이등변 삼각형 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B5D45EA9-FD67-4188-B253-C7B1B7313E73}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5D45EA9-FD67-4188-B253-C7B1B7313E73}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4965,7 +4964,7 @@
         <xdr:cNvPr id="7" name="이등변 삼각형 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CE75AAB9-84C8-44E7-A3F4-3EE9C13729AE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE75AAB9-84C8-44E7-A3F4-3EE9C13729AE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5033,7 +5032,7 @@
         <xdr:cNvPr id="8" name="이등변 삼각형 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{49586B28-A40A-445D-BE4A-FC60D22DD948}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49586B28-A40A-445D-BE4A-FC60D22DD948}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5101,7 +5100,7 @@
         <xdr:cNvPr id="9" name="이등변 삼각형 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C4019BAC-5C29-4142-85D0-D90499A51EEA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4019BAC-5C29-4142-85D0-D90499A51EEA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5174,7 +5173,7 @@
         <xdr:cNvPr id="2" name="이등변 삼각형 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0B00-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5234,7 +5233,7 @@
         <xdr:cNvPr id="3" name="이등변 삼각형 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0B00-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5294,7 +5293,7 @@
         <xdr:cNvPr id="4" name="이등변 삼각형 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0B00-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5354,7 +5353,7 @@
         <xdr:cNvPr id="5" name="이등변 삼각형 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0B00-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5414,7 +5413,7 @@
         <xdr:cNvPr id="6" name="그림 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0B00-000006000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5458,7 +5457,7 @@
         <xdr:cNvPr id="7" name="이등변 삼각형 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0B00-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5518,7 +5517,7 @@
         <xdr:cNvPr id="8" name="이등변 삼각형 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0B00-000008000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5583,7 +5582,7 @@
         <xdr:cNvPr id="3" name="그림 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0C00-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5627,7 +5626,7 @@
         <xdr:cNvPr id="4" name="그림 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0C00-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5671,7 +5670,7 @@
         <xdr:cNvPr id="5" name="그림 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0C00-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5715,7 +5714,7 @@
         <xdr:cNvPr id="6" name="그림 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0C00-000006000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5759,7 +5758,7 @@
         <xdr:cNvPr id="7" name="그림 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0C00-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5803,7 +5802,7 @@
         <xdr:cNvPr id="8" name="그림 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0C00-000008000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5847,7 +5846,7 @@
         <xdr:cNvPr id="9" name="그림 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0C00-000009000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5891,7 +5890,7 @@
         <xdr:cNvPr id="10" name="그림 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0C00-00000A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5940,7 +5939,7 @@
         <xdr:cNvPr id="2" name="모서리가 둥근 직사각형 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0E00-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6003,7 +6002,7 @@
         <xdr:cNvPr id="3" name="모서리가 둥근 직사각형 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0E00-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6080,7 +6079,7 @@
         <xdr:cNvPr id="2" name="모서리가 둥근 직사각형 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6143,7 +6142,7 @@
         <xdr:cNvPr id="3" name="모서리가 둥근 직사각형 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0F00-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6220,7 +6219,7 @@
         <xdr:cNvPr id="2" name="모서리가 둥근 직사각형 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-1200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6280,7 +6279,7 @@
         <xdr:cNvPr id="3" name="모서리가 둥근 직사각형 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-1200-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6340,7 +6339,7 @@
         <xdr:cNvPr id="4" name="모서리가 둥근 직사각형 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-1200-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1200-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6400,7 +6399,7 @@
         <xdr:cNvPr id="5" name="모서리가 둥근 직사각형 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-1200-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1200-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6460,7 +6459,7 @@
         <xdr:cNvPr id="6" name="모서리가 둥근 직사각형 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-1200-000006000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1200-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6525,7 +6524,7 @@
         <xdr:cNvPr id="2" name="모서리가 둥근 직사각형 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-1500-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6588,7 +6587,7 @@
         <xdr:cNvPr id="3" name="모서리가 둥근 직사각형 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-1500-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1500-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6656,7 +6655,7 @@
         <xdr:cNvPr id="2" name="모서리가 둥근 직사각형 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-1600-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1600-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6719,7 +6718,7 @@
         <xdr:cNvPr id="3" name="모서리가 둥근 직사각형 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-1600-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1600-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6782,7 +6781,7 @@
         <xdr:cNvPr id="4" name="모서리가 둥근 직사각형 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-1600-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1600-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7128,8 +7127,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1"/>
@@ -7163,16 +7162,16 @@
         <v>0</v>
       </c>
       <c r="C6" s="174" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="D6" s="174" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="E6" s="174" t="s">
         <v>2</v>
       </c>
       <c r="F6" s="174" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G6" s="174" t="s">
         <v>3</v>
@@ -7192,7 +7191,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="172" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>8</v>
@@ -7201,7 +7200,7 @@
         <v>9</v>
       </c>
       <c r="F7" s="172" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="G7" t="s">
         <v>51</v>
@@ -7221,7 +7220,7 @@
         <v>14</v>
       </c>
       <c r="F8" s="172" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="G8" t="s">
         <v>229</v>
@@ -7234,7 +7233,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="172" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>10</v>
@@ -7243,7 +7242,7 @@
         <v>11</v>
       </c>
       <c r="F9" s="172" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="G9" t="s">
         <v>51</v>
@@ -7263,7 +7262,7 @@
         <v>27</v>
       </c>
       <c r="F10" s="172" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="G10" t="s">
         <v>51</v>
@@ -7283,7 +7282,7 @@
         <v>16</v>
       </c>
       <c r="F11" s="172" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="G11" t="s">
         <v>52</v>
@@ -7297,13 +7296,13 @@
       </c>
       <c r="C12" s="172"/>
       <c r="D12" s="3" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="E12" t="s">
         <v>17</v>
       </c>
       <c r="F12" s="172" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="G12" t="s">
         <v>229</v>
@@ -7314,7 +7313,7 @@
         <v>7</v>
       </c>
       <c r="C13" s="172" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>21</v>
@@ -7323,7 +7322,7 @@
         <v>20</v>
       </c>
       <c r="F13" s="172" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="G13" t="s">
         <v>54</v>
@@ -7342,7 +7341,7 @@
         <v>36</v>
       </c>
       <c r="F14" s="172" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="G14" t="s">
         <v>55</v>
@@ -7360,7 +7359,7 @@
         <v>25</v>
       </c>
       <c r="F15" s="172" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="G15" t="s">
         <v>229</v>
@@ -7378,7 +7377,7 @@
         <v>24</v>
       </c>
       <c r="F16" s="172" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="G16" t="s">
         <v>52</v>
@@ -7396,7 +7395,7 @@
         <v>34</v>
       </c>
       <c r="F17" s="172" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="G17" t="s">
         <v>55</v>
@@ -7414,7 +7413,7 @@
         <v>32</v>
       </c>
       <c r="F18" s="172" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="G18" t="s">
         <v>55</v>
@@ -7425,7 +7424,7 @@
         <v>13</v>
       </c>
       <c r="C19" s="172" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>18</v>
@@ -7434,7 +7433,7 @@
         <v>19</v>
       </c>
       <c r="F19" s="172" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="G19" t="s">
         <v>54</v>
@@ -7452,7 +7451,7 @@
         <v>26</v>
       </c>
       <c r="F20" s="172" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="G20" t="s">
         <v>53</v>
@@ -7470,7 +7469,7 @@
         <v>37</v>
       </c>
       <c r="F21" s="172" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="G21" t="s">
         <v>53</v>
@@ -7488,7 +7487,7 @@
         <v>42</v>
       </c>
       <c r="F22" s="172" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="G22" t="s">
         <v>52</v>
@@ -7506,7 +7505,7 @@
         <v>43</v>
       </c>
       <c r="F23" s="172" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="G23" t="s">
         <v>52</v>
@@ -7517,16 +7516,16 @@
         <v>18</v>
       </c>
       <c r="C24" s="172" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="E24" s="14" t="s">
         <v>15</v>
       </c>
       <c r="F24" s="173" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="G24" s="14" t="s">
         <v>53</v>
@@ -7547,7 +7546,7 @@
         <v>47</v>
       </c>
       <c r="F25" s="172" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="G25" t="s">
         <v>229</v>
@@ -7565,7 +7564,7 @@
         <v>44</v>
       </c>
       <c r="F26" s="172" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="G26" t="s">
         <v>54</v>
@@ -7576,7 +7575,7 @@
         <v>21</v>
       </c>
       <c r="C27" s="172" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>48</v>
@@ -7585,7 +7584,7 @@
         <v>49</v>
       </c>
       <c r="F27" s="172" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="G27" t="s">
         <v>53</v>
@@ -7603,7 +7602,7 @@
         <v>30</v>
       </c>
       <c r="F28" s="172" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="G28" t="s">
         <v>53</v>
@@ -7621,7 +7620,7 @@
         <v>28</v>
       </c>
       <c r="F29" s="172" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="G29" t="s">
         <v>51</v>
@@ -7640,7 +7639,7 @@
     </row>
     <row r="33" spans="2:10" ht="18" customHeight="1">
       <c r="B33" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="H33" s="11"/>
       <c r="I33" s="11"/>
@@ -7648,7 +7647,7 @@
     </row>
     <row r="34" spans="2:10" ht="18" customHeight="1">
       <c r="B34" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
@@ -7883,16 +7882,16 @@
       </c>
       <c r="F12" s="275"/>
       <c r="G12" s="6"/>
-      <c r="H12" s="227" t="s">
+      <c r="H12" s="225" t="s">
         <v>80</v>
       </c>
-      <c r="I12" s="228"/>
+      <c r="I12" s="226"/>
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
       <c r="N12" s="23"/>
-      <c r="O12" s="223" t="s">
+      <c r="O12" s="229" t="s">
         <v>78</v>
       </c>
       <c r="P12" s="23"/>
@@ -7912,14 +7911,14 @@
       <c r="E13" s="276"/>
       <c r="F13" s="277"/>
       <c r="G13" s="6"/>
-      <c r="H13" s="229"/>
-      <c r="I13" s="230"/>
+      <c r="H13" s="227"/>
+      <c r="I13" s="228"/>
       <c r="J13" s="6"/>
       <c r="K13" s="39"/>
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
       <c r="N13" s="39"/>
-      <c r="O13" s="224"/>
+      <c r="O13" s="230"/>
       <c r="P13" s="23"/>
       <c r="Q13" s="24"/>
       <c r="R13" s="191"/>
@@ -8005,10 +8004,10 @@
         <v>66</v>
       </c>
       <c r="S16" s="191"/>
-      <c r="T16" s="205" t="s">
+      <c r="T16" s="215" t="s">
         <v>70</v>
       </c>
-      <c r="U16" s="206"/>
+      <c r="U16" s="216"/>
       <c r="V16" s="24"/>
     </row>
     <row r="17" spans="2:22">
@@ -8031,10 +8030,10 @@
         <v>68</v>
       </c>
       <c r="S17" s="191"/>
-      <c r="T17" s="205" t="s">
+      <c r="T17" s="215" t="s">
         <v>72</v>
       </c>
-      <c r="U17" s="206"/>
+      <c r="U17" s="216"/>
       <c r="V17" s="24"/>
     </row>
     <row r="18" spans="2:22">
@@ -8048,10 +8047,10 @@
         <v>67</v>
       </c>
       <c r="S18" s="191"/>
-      <c r="T18" s="205" t="s">
+      <c r="T18" s="215" t="s">
         <v>73</v>
       </c>
-      <c r="U18" s="206"/>
+      <c r="U18" s="216"/>
       <c r="V18" s="24"/>
     </row>
     <row r="19" spans="2:22" ht="16.5" customHeight="1" thickBot="1">
@@ -8075,10 +8074,10 @@
         <v>69</v>
       </c>
       <c r="S19" s="193"/>
-      <c r="T19" s="217" t="s">
+      <c r="T19" s="213" t="s">
         <v>71</v>
       </c>
-      <c r="U19" s="218"/>
+      <c r="U19" s="214"/>
       <c r="V19" s="24"/>
     </row>
     <row r="20" spans="2:22" ht="16.5" customHeight="1" thickBot="1">
@@ -8134,7 +8133,7 @@
       <c r="C22" s="28"/>
       <c r="D22" s="39"/>
       <c r="E22" s="41"/>
-      <c r="F22" s="225" t="s">
+      <c r="F22" s="223" t="s">
         <v>88</v>
       </c>
       <c r="G22" s="190" t="s">
@@ -8163,7 +8162,7 @@
       <c r="C23" s="28"/>
       <c r="D23" s="39"/>
       <c r="E23" s="41"/>
-      <c r="F23" s="226"/>
+      <c r="F23" s="224"/>
       <c r="G23" s="190"/>
       <c r="H23" s="191"/>
       <c r="I23" s="39"/>
@@ -8359,7 +8358,7 @@
       <c r="C31" s="28"/>
       <c r="D31" s="39"/>
       <c r="E31" s="41"/>
-      <c r="F31" s="225" t="s">
+      <c r="F31" s="223" t="s">
         <v>88</v>
       </c>
       <c r="G31" s="190" t="s">
@@ -8388,7 +8387,7 @@
       <c r="C32" s="28"/>
       <c r="D32" s="39"/>
       <c r="E32" s="41"/>
-      <c r="F32" s="226"/>
+      <c r="F32" s="224"/>
       <c r="G32" s="190"/>
       <c r="H32" s="191"/>
       <c r="I32" s="39"/>
@@ -8506,77 +8505,77 @@
     </row>
     <row r="39" spans="2:22">
       <c r="B39" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="40" spans="2:22">
       <c r="B40" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="41" spans="2:22">
       <c r="B41" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="43" spans="2:22">
       <c r="B43" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="44" spans="2:22">
       <c r="B44" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
     </row>
     <row r="45" spans="2:22" ht="18.75" customHeight="1">
       <c r="B45" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
     </row>
     <row r="46" spans="2:22">
       <c r="B46" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
     </row>
     <row r="47" spans="2:22">
       <c r="B47" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
     </row>
     <row r="48" spans="2:22">
       <c r="B48" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
     </row>
     <row r="49" spans="2:10" ht="16.5" customHeight="1">
       <c r="B49" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
     </row>
     <row r="50" spans="2:10">
       <c r="B50" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
     </row>
     <row r="51" spans="2:10">
       <c r="B51" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
     </row>
     <row r="52" spans="2:10">
       <c r="B52" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
     </row>
     <row r="53" spans="2:10">
       <c r="B53" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
     </row>
     <row r="54" spans="2:10">
       <c r="B54" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="C54" s="65"/>
       <c r="D54" s="65"/>
@@ -8599,7 +8598,7 @@
     </row>
     <row r="56" spans="2:10">
       <c r="B56" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C56" s="65"/>
       <c r="D56" s="65"/>
@@ -8612,7 +8611,7 @@
     </row>
     <row r="57" spans="2:10">
       <c r="B57" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C57" s="65"/>
       <c r="D57" s="65"/>
@@ -8625,7 +8624,7 @@
     </row>
     <row r="58" spans="2:10">
       <c r="B58" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C58" s="65"/>
       <c r="D58" s="65"/>
@@ -8638,7 +8637,7 @@
     </row>
     <row r="59" spans="2:10">
       <c r="B59" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C59" s="65"/>
       <c r="D59" s="65"/>
@@ -8664,7 +8663,7 @@
     </row>
     <row r="61" spans="2:10">
       <c r="B61" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C61" s="65"/>
       <c r="D61" s="65"/>
@@ -8677,7 +8676,7 @@
     </row>
     <row r="62" spans="2:10">
       <c r="B62" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C62" s="65"/>
       <c r="D62" s="65"/>
@@ -8690,7 +8689,7 @@
     </row>
     <row r="63" spans="2:10">
       <c r="B63" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C63" s="65"/>
       <c r="D63" s="65"/>
@@ -8703,7 +8702,7 @@
     </row>
     <row r="64" spans="2:10">
       <c r="B64" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C64" s="65"/>
       <c r="D64" s="65"/>
@@ -8716,12 +8715,17 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A1:A5"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:H23"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="G31:H32"/>
-    <mergeCell ref="C8:D10"/>
+    <mergeCell ref="T6:V6"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="J6:M6"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="Q6:S6"/>
+    <mergeCell ref="R8:U10"/>
+    <mergeCell ref="E12:F13"/>
+    <mergeCell ref="H12:I13"/>
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="R12:U14"/>
     <mergeCell ref="R27:S27"/>
     <mergeCell ref="R16:S16"/>
     <mergeCell ref="T16:U16"/>
@@ -8734,17 +8738,12 @@
     <mergeCell ref="R21:U23"/>
     <mergeCell ref="R25:S25"/>
     <mergeCell ref="R26:S26"/>
-    <mergeCell ref="R8:U10"/>
-    <mergeCell ref="E12:F13"/>
-    <mergeCell ref="H12:I13"/>
-    <mergeCell ref="O12:O13"/>
-    <mergeCell ref="R12:U14"/>
-    <mergeCell ref="T6:V6"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="J6:M6"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="Q6:S6"/>
+    <mergeCell ref="A1:A5"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:H23"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G31:H32"/>
+    <mergeCell ref="C8:D10"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>
@@ -9016,7 +9015,7 @@
       <c r="D15" s="115"/>
       <c r="E15" s="115"/>
       <c r="F15" s="115"/>
-      <c r="G15" s="225" t="s">
+      <c r="G15" s="223" t="s">
         <v>289</v>
       </c>
       <c r="H15" s="117"/>
@@ -9026,7 +9025,7 @@
       <c r="J15" s="189"/>
       <c r="K15" s="194"/>
       <c r="L15" s="117"/>
-      <c r="M15" s="225" t="s">
+      <c r="M15" s="223" t="s">
         <v>291</v>
       </c>
       <c r="N15" s="115"/>
@@ -9040,13 +9039,13 @@
       <c r="D16" s="115"/>
       <c r="E16" s="115"/>
       <c r="F16" s="115"/>
-      <c r="G16" s="226"/>
+      <c r="G16" s="224"/>
       <c r="H16" s="119"/>
       <c r="I16" s="192"/>
       <c r="J16" s="193"/>
       <c r="K16" s="196"/>
       <c r="L16" s="119"/>
-      <c r="M16" s="226"/>
+      <c r="M16" s="224"/>
       <c r="N16" s="115"/>
       <c r="Q16" s="91"/>
       <c r="U16" s="111"/>
@@ -9084,7 +9083,7 @@
       <c r="J18" s="122"/>
       <c r="K18" s="121"/>
       <c r="L18" s="115"/>
-      <c r="M18" s="225" t="s">
+      <c r="M18" s="223" t="s">
         <v>292</v>
       </c>
       <c r="N18" s="115"/>
@@ -9106,7 +9105,7 @@
       <c r="J19" s="114"/>
       <c r="K19" s="109"/>
       <c r="L19" s="115"/>
-      <c r="M19" s="226"/>
+      <c r="M19" s="224"/>
       <c r="N19" s="115"/>
       <c r="Q19" s="91"/>
       <c r="U19" s="111"/>
@@ -9162,7 +9161,7 @@
       <c r="J22" s="122"/>
       <c r="K22" s="121"/>
       <c r="L22" s="119"/>
-      <c r="M22" s="225" t="s">
+      <c r="M22" s="223" t="s">
         <v>168</v>
       </c>
       <c r="N22" s="115"/>
@@ -9184,7 +9183,7 @@
       <c r="J23" s="122"/>
       <c r="K23" s="121"/>
       <c r="L23" s="118"/>
-      <c r="M23" s="226"/>
+      <c r="M23" s="224"/>
       <c r="N23" s="115"/>
       <c r="Q23" s="91"/>
       <c r="U23" s="111"/>
@@ -9478,22 +9477,22 @@
     </row>
     <row r="39" spans="2:22">
       <c r="B39" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="40" spans="2:22">
       <c r="B40" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="41" spans="2:22">
       <c r="B41" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="42" spans="2:22">
       <c r="B42" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="58" spans="14:14">
@@ -9619,108 +9618,108 @@
     </row>
     <row r="8" spans="1:22">
       <c r="B8" s="59"/>
-      <c r="J8" s="227" t="s">
+      <c r="J8" s="225" t="s">
         <v>116</v>
       </c>
-      <c r="K8" s="287"/>
-      <c r="L8" s="287"/>
-      <c r="M8" s="287"/>
-      <c r="N8" s="287"/>
-      <c r="O8" s="287"/>
-      <c r="P8" s="287"/>
-      <c r="Q8" s="228"/>
+      <c r="K8" s="282"/>
+      <c r="L8" s="282"/>
+      <c r="M8" s="282"/>
+      <c r="N8" s="282"/>
+      <c r="O8" s="282"/>
+      <c r="P8" s="282"/>
+      <c r="Q8" s="226"/>
       <c r="V8" s="60"/>
     </row>
     <row r="9" spans="1:22" ht="17.25" thickBot="1">
       <c r="B9" s="59"/>
-      <c r="J9" s="229"/>
-      <c r="K9" s="284"/>
-      <c r="L9" s="284"/>
-      <c r="M9" s="284"/>
-      <c r="N9" s="284"/>
-      <c r="O9" s="284"/>
-      <c r="P9" s="284"/>
-      <c r="Q9" s="230"/>
+      <c r="J9" s="227"/>
+      <c r="K9" s="283"/>
+      <c r="L9" s="283"/>
+      <c r="M9" s="283"/>
+      <c r="N9" s="283"/>
+      <c r="O9" s="283"/>
+      <c r="P9" s="283"/>
+      <c r="Q9" s="228"/>
       <c r="V9" s="60"/>
     </row>
     <row r="10" spans="1:22">
       <c r="B10" s="59"/>
-      <c r="J10" s="227" t="s">
+      <c r="J10" s="225" t="s">
         <v>109</v>
       </c>
-      <c r="K10" s="228"/>
-      <c r="L10" s="227" t="s">
+      <c r="K10" s="226"/>
+      <c r="L10" s="225" t="s">
         <v>110</v>
       </c>
-      <c r="M10" s="287"/>
-      <c r="N10" s="287"/>
-      <c r="O10" s="287"/>
-      <c r="P10" s="287"/>
-      <c r="Q10" s="228"/>
+      <c r="M10" s="282"/>
+      <c r="N10" s="282"/>
+      <c r="O10" s="282"/>
+      <c r="P10" s="282"/>
+      <c r="Q10" s="226"/>
       <c r="V10" s="60"/>
     </row>
     <row r="11" spans="1:22" ht="17.25" thickBot="1">
       <c r="B11" s="59"/>
-      <c r="J11" s="229"/>
-      <c r="K11" s="230"/>
-      <c r="L11" s="229"/>
-      <c r="M11" s="284"/>
-      <c r="N11" s="284"/>
-      <c r="O11" s="284"/>
-      <c r="P11" s="284"/>
-      <c r="Q11" s="230"/>
+      <c r="J11" s="227"/>
+      <c r="K11" s="228"/>
+      <c r="L11" s="227"/>
+      <c r="M11" s="283"/>
+      <c r="N11" s="283"/>
+      <c r="O11" s="283"/>
+      <c r="P11" s="283"/>
+      <c r="Q11" s="228"/>
       <c r="V11" s="60"/>
     </row>
     <row r="12" spans="1:22">
       <c r="B12" s="59"/>
-      <c r="J12" s="227" t="s">
+      <c r="J12" s="225" t="s">
         <v>117</v>
       </c>
-      <c r="K12" s="228"/>
-      <c r="L12" s="227" t="s">
+      <c r="K12" s="226"/>
+      <c r="L12" s="225" t="s">
         <v>118</v>
       </c>
-      <c r="M12" s="287"/>
-      <c r="N12" s="287"/>
-      <c r="O12" s="287"/>
-      <c r="P12" s="287"/>
-      <c r="Q12" s="228"/>
+      <c r="M12" s="282"/>
+      <c r="N12" s="282"/>
+      <c r="O12" s="282"/>
+      <c r="P12" s="282"/>
+      <c r="Q12" s="226"/>
       <c r="V12" s="60"/>
     </row>
     <row r="13" spans="1:22">
       <c r="B13" s="59"/>
-      <c r="J13" s="281"/>
-      <c r="K13" s="283"/>
-      <c r="L13" s="281"/>
-      <c r="M13" s="282"/>
-      <c r="N13" s="282"/>
-      <c r="O13" s="282"/>
-      <c r="P13" s="282"/>
-      <c r="Q13" s="283"/>
+      <c r="J13" s="284"/>
+      <c r="K13" s="285"/>
+      <c r="L13" s="284"/>
+      <c r="M13" s="286"/>
+      <c r="N13" s="286"/>
+      <c r="O13" s="286"/>
+      <c r="P13" s="286"/>
+      <c r="Q13" s="285"/>
       <c r="V13" s="60"/>
     </row>
     <row r="14" spans="1:22">
       <c r="B14" s="59"/>
-      <c r="J14" s="281"/>
-      <c r="K14" s="283"/>
-      <c r="L14" s="281"/>
-      <c r="M14" s="282"/>
-      <c r="N14" s="282"/>
-      <c r="O14" s="282"/>
-      <c r="P14" s="282"/>
-      <c r="Q14" s="283"/>
+      <c r="J14" s="284"/>
+      <c r="K14" s="285"/>
+      <c r="L14" s="284"/>
+      <c r="M14" s="286"/>
+      <c r="N14" s="286"/>
+      <c r="O14" s="286"/>
+      <c r="P14" s="286"/>
+      <c r="Q14" s="285"/>
       <c r="V14" s="60"/>
     </row>
     <row r="15" spans="1:22" ht="17.25" thickBot="1">
       <c r="B15" s="59"/>
-      <c r="J15" s="229"/>
-      <c r="K15" s="230"/>
-      <c r="L15" s="229"/>
-      <c r="M15" s="284"/>
-      <c r="N15" s="284"/>
-      <c r="O15" s="284"/>
-      <c r="P15" s="284"/>
-      <c r="Q15" s="230"/>
+      <c r="J15" s="227"/>
+      <c r="K15" s="228"/>
+      <c r="L15" s="227"/>
+      <c r="M15" s="283"/>
+      <c r="N15" s="283"/>
+      <c r="O15" s="283"/>
+      <c r="P15" s="283"/>
+      <c r="Q15" s="228"/>
       <c r="V15" s="60"/>
     </row>
     <row r="16" spans="1:22" ht="17.25" thickBot="1">
@@ -9735,7 +9734,7 @@
         <v>2017</v>
       </c>
       <c r="O16" s="279"/>
-      <c r="P16" s="286">
+      <c r="P16" s="281">
         <v>42772</v>
       </c>
       <c r="Q16" s="279"/>
@@ -9773,144 +9772,144 @@
       <c r="B19" s="59"/>
       <c r="J19" s="192"/>
       <c r="K19" s="196"/>
-      <c r="L19" s="281"/>
-      <c r="M19" s="282"/>
-      <c r="N19" s="282"/>
-      <c r="O19" s="282"/>
-      <c r="P19" s="282"/>
-      <c r="Q19" s="283"/>
+      <c r="L19" s="284"/>
+      <c r="M19" s="286"/>
+      <c r="N19" s="286"/>
+      <c r="O19" s="286"/>
+      <c r="P19" s="286"/>
+      <c r="Q19" s="285"/>
       <c r="V19" s="60"/>
     </row>
     <row r="20" spans="2:22">
       <c r="B20" s="59"/>
       <c r="J20" s="80"/>
       <c r="K20" s="81"/>
-      <c r="L20" s="281"/>
-      <c r="M20" s="282"/>
-      <c r="N20" s="282"/>
-      <c r="O20" s="282"/>
-      <c r="P20" s="282"/>
-      <c r="Q20" s="283"/>
+      <c r="L20" s="284"/>
+      <c r="M20" s="286"/>
+      <c r="N20" s="286"/>
+      <c r="O20" s="286"/>
+      <c r="P20" s="286"/>
+      <c r="Q20" s="285"/>
       <c r="V20" s="60"/>
     </row>
     <row r="21" spans="2:22">
       <c r="B21" s="59"/>
       <c r="J21" s="82"/>
       <c r="K21" s="83"/>
-      <c r="L21" s="281"/>
-      <c r="M21" s="282"/>
-      <c r="N21" s="282"/>
-      <c r="O21" s="282"/>
-      <c r="P21" s="282"/>
-      <c r="Q21" s="283"/>
+      <c r="L21" s="284"/>
+      <c r="M21" s="286"/>
+      <c r="N21" s="286"/>
+      <c r="O21" s="286"/>
+      <c r="P21" s="286"/>
+      <c r="Q21" s="285"/>
       <c r="V21" s="60"/>
     </row>
     <row r="22" spans="2:22">
       <c r="B22" s="59"/>
       <c r="J22" s="82"/>
       <c r="K22" s="83"/>
-      <c r="L22" s="281"/>
-      <c r="M22" s="282"/>
-      <c r="N22" s="282"/>
-      <c r="O22" s="282"/>
-      <c r="P22" s="282"/>
-      <c r="Q22" s="283"/>
+      <c r="L22" s="284"/>
+      <c r="M22" s="286"/>
+      <c r="N22" s="286"/>
+      <c r="O22" s="286"/>
+      <c r="P22" s="286"/>
+      <c r="Q22" s="285"/>
       <c r="V22" s="60"/>
     </row>
     <row r="23" spans="2:22">
       <c r="B23" s="59"/>
       <c r="J23" s="82"/>
       <c r="K23" s="83"/>
-      <c r="L23" s="281"/>
-      <c r="M23" s="282"/>
-      <c r="N23" s="282"/>
-      <c r="O23" s="282"/>
-      <c r="P23" s="282"/>
-      <c r="Q23" s="283"/>
+      <c r="L23" s="284"/>
+      <c r="M23" s="286"/>
+      <c r="N23" s="286"/>
+      <c r="O23" s="286"/>
+      <c r="P23" s="286"/>
+      <c r="Q23" s="285"/>
       <c r="V23" s="60"/>
     </row>
     <row r="24" spans="2:22">
       <c r="B24" s="59"/>
       <c r="J24" s="82"/>
       <c r="K24" s="83"/>
-      <c r="L24" s="281"/>
-      <c r="M24" s="282"/>
-      <c r="N24" s="282"/>
-      <c r="O24" s="282"/>
-      <c r="P24" s="282"/>
-      <c r="Q24" s="283"/>
+      <c r="L24" s="284"/>
+      <c r="M24" s="286"/>
+      <c r="N24" s="286"/>
+      <c r="O24" s="286"/>
+      <c r="P24" s="286"/>
+      <c r="Q24" s="285"/>
       <c r="V24" s="60"/>
     </row>
     <row r="25" spans="2:22">
       <c r="B25" s="59"/>
       <c r="J25" s="82"/>
       <c r="K25" s="83"/>
-      <c r="L25" s="281"/>
-      <c r="M25" s="282"/>
-      <c r="N25" s="282"/>
-      <c r="O25" s="282"/>
-      <c r="P25" s="282"/>
-      <c r="Q25" s="283"/>
+      <c r="L25" s="284"/>
+      <c r="M25" s="286"/>
+      <c r="N25" s="286"/>
+      <c r="O25" s="286"/>
+      <c r="P25" s="286"/>
+      <c r="Q25" s="285"/>
       <c r="V25" s="60"/>
     </row>
     <row r="26" spans="2:22">
       <c r="B26" s="59"/>
       <c r="J26" s="82"/>
       <c r="K26" s="83"/>
-      <c r="L26" s="281"/>
-      <c r="M26" s="282"/>
-      <c r="N26" s="282"/>
-      <c r="O26" s="282"/>
-      <c r="P26" s="282"/>
-      <c r="Q26" s="283"/>
+      <c r="L26" s="284"/>
+      <c r="M26" s="286"/>
+      <c r="N26" s="286"/>
+      <c r="O26" s="286"/>
+      <c r="P26" s="286"/>
+      <c r="Q26" s="285"/>
       <c r="V26" s="60"/>
     </row>
     <row r="27" spans="2:22">
       <c r="B27" s="59"/>
       <c r="J27" s="82"/>
       <c r="K27" s="83"/>
-      <c r="L27" s="281"/>
-      <c r="M27" s="282"/>
-      <c r="N27" s="282"/>
-      <c r="O27" s="282"/>
-      <c r="P27" s="282"/>
-      <c r="Q27" s="283"/>
+      <c r="L27" s="284"/>
+      <c r="M27" s="286"/>
+      <c r="N27" s="286"/>
+      <c r="O27" s="286"/>
+      <c r="P27" s="286"/>
+      <c r="Q27" s="285"/>
       <c r="V27" s="60"/>
     </row>
     <row r="28" spans="2:22">
       <c r="B28" s="59"/>
       <c r="J28" s="82"/>
       <c r="K28" s="83"/>
-      <c r="L28" s="281"/>
-      <c r="M28" s="282"/>
-      <c r="N28" s="282"/>
-      <c r="O28" s="282"/>
-      <c r="P28" s="282"/>
-      <c r="Q28" s="283"/>
+      <c r="L28" s="284"/>
+      <c r="M28" s="286"/>
+      <c r="N28" s="286"/>
+      <c r="O28" s="286"/>
+      <c r="P28" s="286"/>
+      <c r="Q28" s="285"/>
       <c r="V28" s="60"/>
     </row>
     <row r="29" spans="2:22">
       <c r="B29" s="59"/>
       <c r="J29" s="82"/>
       <c r="K29" s="83"/>
-      <c r="L29" s="281"/>
-      <c r="M29" s="282"/>
-      <c r="N29" s="282"/>
-      <c r="O29" s="282"/>
-      <c r="P29" s="282"/>
-      <c r="Q29" s="283"/>
+      <c r="L29" s="284"/>
+      <c r="M29" s="286"/>
+      <c r="N29" s="286"/>
+      <c r="O29" s="286"/>
+      <c r="P29" s="286"/>
+      <c r="Q29" s="285"/>
       <c r="V29" s="60"/>
     </row>
     <row r="30" spans="2:22" ht="17.25" thickBot="1">
       <c r="B30" s="59"/>
-      <c r="J30" s="285"/>
-      <c r="K30" s="285"/>
-      <c r="L30" s="229"/>
-      <c r="M30" s="284"/>
-      <c r="N30" s="284"/>
-      <c r="O30" s="284"/>
-      <c r="P30" s="284"/>
-      <c r="Q30" s="230"/>
+      <c r="J30" s="287"/>
+      <c r="K30" s="287"/>
+      <c r="L30" s="227"/>
+      <c r="M30" s="283"/>
+      <c r="N30" s="283"/>
+      <c r="O30" s="283"/>
+      <c r="P30" s="283"/>
+      <c r="Q30" s="228"/>
       <c r="V30" s="60"/>
     </row>
     <row r="31" spans="2:22">
@@ -9945,10 +9944,10 @@
       <c r="M33" s="83"/>
       <c r="N33" s="83"/>
       <c r="O33" s="83"/>
-      <c r="P33" s="227" t="s">
+      <c r="P33" s="225" t="s">
         <v>120</v>
       </c>
-      <c r="Q33" s="228"/>
+      <c r="Q33" s="226"/>
       <c r="V33" s="60"/>
     </row>
     <row r="34" spans="2:22" ht="17.25" thickBot="1">
@@ -9959,8 +9958,8 @@
       <c r="M34" s="86"/>
       <c r="N34" s="86"/>
       <c r="O34" s="86"/>
-      <c r="P34" s="229"/>
-      <c r="Q34" s="230"/>
+      <c r="P34" s="227"/>
+      <c r="Q34" s="228"/>
       <c r="V34" s="60"/>
     </row>
     <row r="35" spans="2:22" ht="17.25" thickBot="1">
@@ -9988,7 +9987,7 @@
     </row>
     <row r="38" spans="2:22">
       <c r="B38" s="170" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C38" s="87"/>
       <c r="D38" s="87"/>
@@ -10013,37 +10012,37 @@
     </row>
     <row r="39" spans="2:22">
       <c r="B39" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="40" spans="2:22">
       <c r="B40" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="41" spans="2:22">
       <c r="B41" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="42" spans="2:22">
       <c r="B42" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="44" spans="2:22">
       <c r="B44" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="45" spans="2:22">
       <c r="B45" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="46" spans="2:22">
       <c r="B46" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="61" spans="2:2">
@@ -10051,6 +10050,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="P33:Q34"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="J18:K19"/>
+    <mergeCell ref="L19:Q30"/>
+    <mergeCell ref="J30:K30"/>
     <mergeCell ref="T6:V6"/>
     <mergeCell ref="A1:A5"/>
     <mergeCell ref="J16:K16"/>
@@ -10067,14 +10074,6 @@
     <mergeCell ref="L10:Q11"/>
     <mergeCell ref="J12:K15"/>
     <mergeCell ref="L12:Q15"/>
-    <mergeCell ref="P33:Q34"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="J18:K19"/>
-    <mergeCell ref="L19:Q30"/>
-    <mergeCell ref="J30:K30"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>
@@ -10307,7 +10306,7 @@
       <c r="J18" s="189"/>
       <c r="K18" s="189"/>
       <c r="L18" s="194"/>
-      <c r="N18" s="225" t="s">
+      <c r="N18" s="223" t="s">
         <v>123</v>
       </c>
       <c r="O18" s="91"/>
@@ -10322,7 +10321,7 @@
       <c r="J19" s="191"/>
       <c r="K19" s="191"/>
       <c r="L19" s="195"/>
-      <c r="N19" s="249"/>
+      <c r="N19" s="267"/>
       <c r="O19" s="91"/>
       <c r="V19" s="60"/>
     </row>
@@ -10335,7 +10334,7 @@
       <c r="J20" s="191"/>
       <c r="K20" s="191"/>
       <c r="L20" s="195"/>
-      <c r="N20" s="249"/>
+      <c r="N20" s="267"/>
       <c r="O20" s="91"/>
       <c r="V20" s="60"/>
     </row>
@@ -10348,7 +10347,7 @@
       <c r="J21" s="193"/>
       <c r="K21" s="193"/>
       <c r="L21" s="196"/>
-      <c r="N21" s="226"/>
+      <c r="N21" s="224"/>
       <c r="O21" s="91"/>
       <c r="V21" s="60"/>
     </row>
@@ -10375,7 +10374,7 @@
       <c r="J23" s="189"/>
       <c r="K23" s="189"/>
       <c r="L23" s="194"/>
-      <c r="N23" s="225" t="s">
+      <c r="N23" s="223" t="s">
         <v>123</v>
       </c>
       <c r="O23" s="91"/>
@@ -10390,7 +10389,7 @@
       <c r="J24" s="191"/>
       <c r="K24" s="191"/>
       <c r="L24" s="195"/>
-      <c r="N24" s="249"/>
+      <c r="N24" s="267"/>
       <c r="O24" s="91"/>
       <c r="V24" s="60"/>
     </row>
@@ -10403,7 +10402,7 @@
       <c r="J25" s="191"/>
       <c r="K25" s="191"/>
       <c r="L25" s="195"/>
-      <c r="N25" s="249"/>
+      <c r="N25" s="267"/>
       <c r="O25" s="91"/>
       <c r="V25" s="60"/>
     </row>
@@ -10416,7 +10415,7 @@
       <c r="J26" s="193"/>
       <c r="K26" s="193"/>
       <c r="L26" s="196"/>
-      <c r="N26" s="226"/>
+      <c r="N26" s="224"/>
       <c r="O26" s="91"/>
       <c r="V26" s="60"/>
     </row>
@@ -10443,7 +10442,7 @@
       <c r="J28" s="189"/>
       <c r="K28" s="189"/>
       <c r="L28" s="194"/>
-      <c r="N28" s="225" t="s">
+      <c r="N28" s="223" t="s">
         <v>123</v>
       </c>
       <c r="O28" s="91"/>
@@ -10458,7 +10457,7 @@
       <c r="J29" s="191"/>
       <c r="K29" s="191"/>
       <c r="L29" s="195"/>
-      <c r="N29" s="249"/>
+      <c r="N29" s="267"/>
       <c r="O29" s="91"/>
       <c r="V29" s="60"/>
     </row>
@@ -10471,7 +10470,7 @@
       <c r="J30" s="191"/>
       <c r="K30" s="191"/>
       <c r="L30" s="195"/>
-      <c r="N30" s="249"/>
+      <c r="N30" s="267"/>
       <c r="O30" s="91"/>
       <c r="V30" s="60"/>
     </row>
@@ -10484,7 +10483,7 @@
       <c r="J31" s="193"/>
       <c r="K31" s="193"/>
       <c r="L31" s="196"/>
-      <c r="N31" s="226"/>
+      <c r="N31" s="224"/>
       <c r="O31" s="91"/>
       <c r="V31" s="60"/>
     </row>
@@ -10543,7 +10542,7 @@
     </row>
     <row r="38" spans="2:22">
       <c r="B38" s="170" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C38" s="87"/>
       <c r="D38" s="87"/>
@@ -10568,67 +10567,67 @@
     </row>
     <row r="39" spans="2:22">
       <c r="B39" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="40" spans="2:22">
       <c r="B40" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="41" spans="2:22">
       <c r="B41" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="43" spans="2:22">
       <c r="B43" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="44" spans="2:22">
       <c r="B44" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
     </row>
     <row r="45" spans="2:22">
       <c r="B45" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
     </row>
     <row r="46" spans="2:22">
       <c r="B46" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
     </row>
     <row r="47" spans="2:22">
       <c r="B47" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
     </row>
     <row r="48" spans="2:22">
       <c r="B48" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
     </row>
     <row r="49" spans="2:12">
       <c r="B49" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
     </row>
     <row r="50" spans="2:12">
       <c r="B50" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
     </row>
     <row r="51" spans="2:12">
       <c r="B51" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
     </row>
     <row r="52" spans="2:12">
       <c r="B52" s="288" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="C52" s="288"/>
       <c r="D52" s="288"/>
@@ -10643,28 +10642,21 @@
     </row>
     <row r="53" spans="2:12">
       <c r="B53" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
     </row>
     <row r="54" spans="2:12">
       <c r="B54" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
     </row>
     <row r="55" spans="2:12">
       <c r="B55" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="T6:V6"/>
-    <mergeCell ref="A1:A5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="J6:M6"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="Q6:S6"/>
     <mergeCell ref="B52:L52"/>
     <mergeCell ref="F28:G31"/>
     <mergeCell ref="I28:L31"/>
@@ -10675,6 +10667,13 @@
     <mergeCell ref="F23:G26"/>
     <mergeCell ref="I23:L26"/>
     <mergeCell ref="N23:N26"/>
+    <mergeCell ref="T6:V6"/>
+    <mergeCell ref="A1:A5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="J6:M6"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="Q6:S6"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>
@@ -10786,21 +10785,21 @@
         <v>129</v>
       </c>
       <c r="D8" s="194"/>
-      <c r="E8" s="298" t="s">
+      <c r="E8" s="289" t="s">
         <v>130</v>
       </c>
-      <c r="F8" s="299"/>
-      <c r="G8" s="299"/>
-      <c r="H8" s="299"/>
-      <c r="I8" s="299"/>
-      <c r="J8" s="299"/>
-      <c r="K8" s="299"/>
-      <c r="L8" s="299"/>
-      <c r="M8" s="299"/>
-      <c r="N8" s="299"/>
-      <c r="O8" s="299"/>
-      <c r="P8" s="299"/>
-      <c r="Q8" s="300"/>
+      <c r="F8" s="290"/>
+      <c r="G8" s="290"/>
+      <c r="H8" s="290"/>
+      <c r="I8" s="290"/>
+      <c r="J8" s="290"/>
+      <c r="K8" s="290"/>
+      <c r="L8" s="290"/>
+      <c r="M8" s="290"/>
+      <c r="N8" s="290"/>
+      <c r="O8" s="290"/>
+      <c r="P8" s="290"/>
+      <c r="Q8" s="291"/>
       <c r="R8" s="188" t="s">
         <v>131</v>
       </c>
@@ -10813,19 +10812,19 @@
       <c r="B9" s="59"/>
       <c r="C9" s="190"/>
       <c r="D9" s="195"/>
-      <c r="E9" s="301"/>
-      <c r="F9" s="302"/>
-      <c r="G9" s="302"/>
-      <c r="H9" s="302"/>
-      <c r="I9" s="302"/>
-      <c r="J9" s="302"/>
-      <c r="K9" s="302"/>
-      <c r="L9" s="302"/>
-      <c r="M9" s="302"/>
-      <c r="N9" s="302"/>
-      <c r="O9" s="302"/>
-      <c r="P9" s="302"/>
-      <c r="Q9" s="303"/>
+      <c r="E9" s="292"/>
+      <c r="F9" s="293"/>
+      <c r="G9" s="293"/>
+      <c r="H9" s="293"/>
+      <c r="I9" s="293"/>
+      <c r="J9" s="293"/>
+      <c r="K9" s="293"/>
+      <c r="L9" s="293"/>
+      <c r="M9" s="293"/>
+      <c r="N9" s="293"/>
+      <c r="O9" s="293"/>
+      <c r="P9" s="293"/>
+      <c r="Q9" s="294"/>
       <c r="R9" s="190"/>
       <c r="S9" s="191"/>
       <c r="T9" s="191"/>
@@ -10836,19 +10835,19 @@
       <c r="B10" s="59"/>
       <c r="C10" s="192"/>
       <c r="D10" s="196"/>
-      <c r="E10" s="304"/>
-      <c r="F10" s="305"/>
-      <c r="G10" s="305"/>
-      <c r="H10" s="305"/>
-      <c r="I10" s="305"/>
-      <c r="J10" s="305"/>
-      <c r="K10" s="305"/>
-      <c r="L10" s="305"/>
-      <c r="M10" s="305"/>
-      <c r="N10" s="305"/>
-      <c r="O10" s="305"/>
-      <c r="P10" s="305"/>
-      <c r="Q10" s="306"/>
+      <c r="E10" s="295"/>
+      <c r="F10" s="296"/>
+      <c r="G10" s="296"/>
+      <c r="H10" s="296"/>
+      <c r="I10" s="296"/>
+      <c r="J10" s="296"/>
+      <c r="K10" s="296"/>
+      <c r="L10" s="296"/>
+      <c r="M10" s="296"/>
+      <c r="N10" s="296"/>
+      <c r="O10" s="296"/>
+      <c r="P10" s="296"/>
+      <c r="Q10" s="297"/>
       <c r="R10" s="192"/>
       <c r="S10" s="193"/>
       <c r="T10" s="193"/>
@@ -10874,7 +10873,7 @@
       <c r="O11" s="189"/>
       <c r="P11" s="189"/>
       <c r="Q11" s="194"/>
-      <c r="R11" s="231" t="s">
+      <c r="R11" s="249" t="s">
         <v>133</v>
       </c>
       <c r="S11" s="189"/>
@@ -10995,25 +10994,25 @@
       <c r="E16" s="39"/>
       <c r="F16" s="39"/>
       <c r="G16" s="39"/>
-      <c r="H16" s="246" t="s">
+      <c r="H16" s="264" t="s">
         <v>141</v>
       </c>
-      <c r="I16" s="225" t="s">
+      <c r="I16" s="223" t="s">
         <v>142</v>
       </c>
-      <c r="J16" s="225" t="s">
+      <c r="J16" s="223" t="s">
         <v>143</v>
       </c>
-      <c r="K16" s="225" t="s">
+      <c r="K16" s="223" t="s">
         <v>144</v>
       </c>
-      <c r="L16" s="225" t="s">
+      <c r="L16" s="223" t="s">
         <v>145</v>
       </c>
-      <c r="M16" s="225" t="s">
+      <c r="M16" s="223" t="s">
         <v>146</v>
       </c>
-      <c r="N16" s="250" t="s">
+      <c r="N16" s="268" t="s">
         <v>147</v>
       </c>
       <c r="O16" s="39"/>
@@ -11032,13 +11031,13 @@
       <c r="E17" s="39"/>
       <c r="F17" s="39"/>
       <c r="G17" s="39"/>
-      <c r="H17" s="247"/>
-      <c r="I17" s="249"/>
-      <c r="J17" s="249"/>
-      <c r="K17" s="249"/>
-      <c r="L17" s="249"/>
-      <c r="M17" s="249"/>
-      <c r="N17" s="307"/>
+      <c r="H17" s="265"/>
+      <c r="I17" s="267"/>
+      <c r="J17" s="267"/>
+      <c r="K17" s="267"/>
+      <c r="L17" s="267"/>
+      <c r="M17" s="267"/>
+      <c r="N17" s="298"/>
       <c r="O17" s="39"/>
       <c r="P17" s="39"/>
       <c r="Q17" s="54"/>
@@ -11055,13 +11054,13 @@
       <c r="E18" s="39"/>
       <c r="F18" s="39"/>
       <c r="G18" s="39"/>
-      <c r="H18" s="248"/>
-      <c r="I18" s="226"/>
-      <c r="J18" s="226"/>
-      <c r="K18" s="226"/>
-      <c r="L18" s="226"/>
-      <c r="M18" s="226"/>
-      <c r="N18" s="308"/>
+      <c r="H18" s="266"/>
+      <c r="I18" s="224"/>
+      <c r="J18" s="224"/>
+      <c r="K18" s="224"/>
+      <c r="L18" s="224"/>
+      <c r="M18" s="224"/>
+      <c r="N18" s="299"/>
       <c r="O18" s="39"/>
       <c r="P18" s="39"/>
       <c r="Q18" s="54"/>
@@ -11078,23 +11077,23 @@
       <c r="E19" s="39"/>
       <c r="F19" s="39"/>
       <c r="G19" s="39"/>
-      <c r="H19" s="268"/>
-      <c r="I19" s="268">
+      <c r="H19" s="248"/>
+      <c r="I19" s="248">
         <v>1</v>
       </c>
-      <c r="J19" s="268">
+      <c r="J19" s="248">
         <v>2</v>
       </c>
-      <c r="K19" s="268">
+      <c r="K19" s="248">
         <v>3</v>
       </c>
-      <c r="L19" s="268">
+      <c r="L19" s="248">
         <v>4</v>
       </c>
-      <c r="M19" s="268">
+      <c r="M19" s="248">
         <v>5</v>
       </c>
-      <c r="N19" s="295">
+      <c r="N19" s="300">
         <v>6</v>
       </c>
       <c r="O19" s="39"/>
@@ -11113,13 +11112,13 @@
       <c r="E20" s="39"/>
       <c r="F20" s="39"/>
       <c r="G20" s="39"/>
-      <c r="H20" s="263"/>
-      <c r="I20" s="263"/>
-      <c r="J20" s="263"/>
-      <c r="K20" s="263"/>
-      <c r="L20" s="263"/>
-      <c r="M20" s="263"/>
-      <c r="N20" s="296"/>
+      <c r="H20" s="232"/>
+      <c r="I20" s="232"/>
+      <c r="J20" s="232"/>
+      <c r="K20" s="232"/>
+      <c r="L20" s="232"/>
+      <c r="M20" s="232"/>
+      <c r="N20" s="301"/>
       <c r="O20" s="39"/>
       <c r="P20" s="39"/>
       <c r="Q20" s="54"/>
@@ -11136,17 +11135,17 @@
       <c r="E21" s="39"/>
       <c r="F21" s="39"/>
       <c r="G21" s="39"/>
-      <c r="H21" s="264"/>
-      <c r="I21" s="264"/>
-      <c r="J21" s="264"/>
-      <c r="K21" s="264"/>
-      <c r="L21" s="264"/>
-      <c r="M21" s="264"/>
-      <c r="N21" s="297"/>
+      <c r="H21" s="240"/>
+      <c r="I21" s="240"/>
+      <c r="J21" s="240"/>
+      <c r="K21" s="240"/>
+      <c r="L21" s="240"/>
+      <c r="M21" s="240"/>
+      <c r="N21" s="302"/>
       <c r="O21" s="39"/>
       <c r="P21" s="39"/>
       <c r="Q21" s="54"/>
-      <c r="R21" s="231" t="s">
+      <c r="R21" s="249" t="s">
         <v>148</v>
       </c>
       <c r="S21" s="189"/>
@@ -11161,25 +11160,25 @@
       <c r="E22" s="39"/>
       <c r="F22" s="39"/>
       <c r="G22" s="39"/>
-      <c r="H22" s="292">
+      <c r="H22" s="303">
         <v>7</v>
       </c>
-      <c r="I22" s="262">
+      <c r="I22" s="231">
         <v>8</v>
       </c>
-      <c r="J22" s="262">
+      <c r="J22" s="231">
         <v>9</v>
       </c>
-      <c r="K22" s="262">
+      <c r="K22" s="231">
         <v>10</v>
       </c>
-      <c r="L22" s="262">
+      <c r="L22" s="231">
         <v>11</v>
       </c>
-      <c r="M22" s="262">
+      <c r="M22" s="231">
         <v>12</v>
       </c>
-      <c r="N22" s="289">
+      <c r="N22" s="306">
         <v>13</v>
       </c>
       <c r="O22" s="39"/>
@@ -11198,13 +11197,13 @@
       <c r="E23" s="39"/>
       <c r="F23" s="39"/>
       <c r="G23" s="39"/>
-      <c r="H23" s="293"/>
-      <c r="I23" s="263"/>
-      <c r="J23" s="263"/>
-      <c r="K23" s="263"/>
-      <c r="L23" s="263"/>
-      <c r="M23" s="263"/>
-      <c r="N23" s="290"/>
+      <c r="H23" s="304"/>
+      <c r="I23" s="232"/>
+      <c r="J23" s="232"/>
+      <c r="K23" s="232"/>
+      <c r="L23" s="232"/>
+      <c r="M23" s="232"/>
+      <c r="N23" s="307"/>
       <c r="O23" s="39"/>
       <c r="P23" s="39"/>
       <c r="Q23" s="54"/>
@@ -11221,13 +11220,13 @@
       <c r="E24" s="39"/>
       <c r="F24" s="39"/>
       <c r="G24" s="39"/>
-      <c r="H24" s="294"/>
-      <c r="I24" s="264"/>
-      <c r="J24" s="264"/>
-      <c r="K24" s="264"/>
-      <c r="L24" s="264"/>
-      <c r="M24" s="264"/>
-      <c r="N24" s="291"/>
+      <c r="H24" s="305"/>
+      <c r="I24" s="240"/>
+      <c r="J24" s="240"/>
+      <c r="K24" s="240"/>
+      <c r="L24" s="240"/>
+      <c r="M24" s="240"/>
+      <c r="N24" s="308"/>
       <c r="O24" s="39"/>
       <c r="P24" s="39"/>
       <c r="Q24" s="54"/>
@@ -11244,25 +11243,25 @@
       <c r="E25" s="39"/>
       <c r="F25" s="39"/>
       <c r="G25" s="39"/>
-      <c r="H25" s="292">
+      <c r="H25" s="303">
         <v>14</v>
       </c>
-      <c r="I25" s="262">
+      <c r="I25" s="231">
         <v>15</v>
       </c>
-      <c r="J25" s="262">
+      <c r="J25" s="231">
         <v>16</v>
       </c>
-      <c r="K25" s="262">
+      <c r="K25" s="231">
         <v>17</v>
       </c>
-      <c r="L25" s="262">
+      <c r="L25" s="231">
         <v>18</v>
       </c>
-      <c r="M25" s="262">
+      <c r="M25" s="231">
         <v>19</v>
       </c>
-      <c r="N25" s="289">
+      <c r="N25" s="306">
         <v>20</v>
       </c>
       <c r="O25" s="39"/>
@@ -11281,13 +11280,13 @@
       <c r="E26" s="39"/>
       <c r="F26" s="39"/>
       <c r="G26" s="39"/>
-      <c r="H26" s="293"/>
-      <c r="I26" s="263"/>
-      <c r="J26" s="263"/>
-      <c r="K26" s="263"/>
-      <c r="L26" s="263"/>
-      <c r="M26" s="263"/>
-      <c r="N26" s="290"/>
+      <c r="H26" s="304"/>
+      <c r="I26" s="232"/>
+      <c r="J26" s="232"/>
+      <c r="K26" s="232"/>
+      <c r="L26" s="232"/>
+      <c r="M26" s="232"/>
+      <c r="N26" s="307"/>
       <c r="O26" s="39"/>
       <c r="P26" s="39"/>
       <c r="Q26" s="54"/>
@@ -11304,13 +11303,13 @@
       <c r="E27" s="39"/>
       <c r="F27" s="39"/>
       <c r="G27" s="39"/>
-      <c r="H27" s="294"/>
-      <c r="I27" s="264"/>
-      <c r="J27" s="264"/>
-      <c r="K27" s="264"/>
-      <c r="L27" s="264"/>
-      <c r="M27" s="264"/>
-      <c r="N27" s="291"/>
+      <c r="H27" s="305"/>
+      <c r="I27" s="240"/>
+      <c r="J27" s="240"/>
+      <c r="K27" s="240"/>
+      <c r="L27" s="240"/>
+      <c r="M27" s="240"/>
+      <c r="N27" s="308"/>
       <c r="O27" s="39"/>
       <c r="P27" s="39"/>
       <c r="Q27" s="54"/>
@@ -11327,25 +11326,25 @@
       <c r="E28" s="39"/>
       <c r="F28" s="39"/>
       <c r="G28" s="39"/>
-      <c r="H28" s="292">
+      <c r="H28" s="303">
         <v>21</v>
       </c>
-      <c r="I28" s="262">
+      <c r="I28" s="231">
         <v>22</v>
       </c>
-      <c r="J28" s="262">
+      <c r="J28" s="231">
         <v>23</v>
       </c>
-      <c r="K28" s="262">
+      <c r="K28" s="231">
         <v>24</v>
       </c>
-      <c r="L28" s="262">
+      <c r="L28" s="231">
         <v>25</v>
       </c>
-      <c r="M28" s="262">
+      <c r="M28" s="231">
         <v>26</v>
       </c>
-      <c r="N28" s="289">
+      <c r="N28" s="306">
         <v>27</v>
       </c>
       <c r="O28" s="39"/>
@@ -11364,13 +11363,13 @@
       <c r="E29" s="39"/>
       <c r="F29" s="39"/>
       <c r="G29" s="39"/>
-      <c r="H29" s="293"/>
-      <c r="I29" s="263"/>
-      <c r="J29" s="263"/>
-      <c r="K29" s="263"/>
-      <c r="L29" s="263"/>
-      <c r="M29" s="263"/>
-      <c r="N29" s="290"/>
+      <c r="H29" s="304"/>
+      <c r="I29" s="232"/>
+      <c r="J29" s="232"/>
+      <c r="K29" s="232"/>
+      <c r="L29" s="232"/>
+      <c r="M29" s="232"/>
+      <c r="N29" s="307"/>
       <c r="O29" s="39"/>
       <c r="P29" s="39"/>
       <c r="Q29" s="39"/>
@@ -11387,13 +11386,13 @@
       <c r="E30" s="39"/>
       <c r="F30" s="39"/>
       <c r="G30" s="39"/>
-      <c r="H30" s="294"/>
-      <c r="I30" s="264"/>
-      <c r="J30" s="264"/>
-      <c r="K30" s="264"/>
-      <c r="L30" s="264"/>
-      <c r="M30" s="264"/>
-      <c r="N30" s="291"/>
+      <c r="H30" s="305"/>
+      <c r="I30" s="240"/>
+      <c r="J30" s="240"/>
+      <c r="K30" s="240"/>
+      <c r="L30" s="240"/>
+      <c r="M30" s="240"/>
+      <c r="N30" s="308"/>
       <c r="O30" s="39"/>
       <c r="P30" s="39"/>
       <c r="Q30" s="39"/>
@@ -11410,21 +11409,21 @@
       <c r="E31" s="39"/>
       <c r="F31" s="39"/>
       <c r="G31" s="39"/>
-      <c r="H31" s="292">
+      <c r="H31" s="303">
         <v>28</v>
       </c>
-      <c r="I31" s="262">
+      <c r="I31" s="231">
         <v>29</v>
       </c>
-      <c r="J31" s="262">
+      <c r="J31" s="231">
         <v>30</v>
       </c>
-      <c r="K31" s="262">
+      <c r="K31" s="231">
         <v>31</v>
       </c>
-      <c r="L31" s="262"/>
-      <c r="M31" s="262"/>
-      <c r="N31" s="262"/>
+      <c r="L31" s="231"/>
+      <c r="M31" s="231"/>
+      <c r="N31" s="231"/>
       <c r="O31" s="39"/>
       <c r="P31" s="39"/>
       <c r="Q31" s="39"/>
@@ -11441,13 +11440,13 @@
       <c r="E32" s="39"/>
       <c r="F32" s="39"/>
       <c r="G32" s="39"/>
-      <c r="H32" s="293"/>
-      <c r="I32" s="263"/>
-      <c r="J32" s="263"/>
-      <c r="K32" s="263"/>
-      <c r="L32" s="263"/>
-      <c r="M32" s="263"/>
-      <c r="N32" s="263"/>
+      <c r="H32" s="304"/>
+      <c r="I32" s="232"/>
+      <c r="J32" s="232"/>
+      <c r="K32" s="232"/>
+      <c r="L32" s="232"/>
+      <c r="M32" s="232"/>
+      <c r="N32" s="232"/>
       <c r="O32" s="39"/>
       <c r="P32" s="39"/>
       <c r="Q32" s="39"/>
@@ -11464,13 +11463,13 @@
       <c r="E33" s="39"/>
       <c r="F33" s="39"/>
       <c r="G33" s="39"/>
-      <c r="H33" s="294"/>
-      <c r="I33" s="264"/>
-      <c r="J33" s="264"/>
-      <c r="K33" s="264"/>
-      <c r="L33" s="264"/>
-      <c r="M33" s="264"/>
-      <c r="N33" s="264"/>
+      <c r="H33" s="305"/>
+      <c r="I33" s="240"/>
+      <c r="J33" s="240"/>
+      <c r="K33" s="240"/>
+      <c r="L33" s="240"/>
+      <c r="M33" s="240"/>
+      <c r="N33" s="240"/>
       <c r="O33" s="39"/>
       <c r="P33" s="39"/>
       <c r="Q33" s="39"/>
@@ -11553,25 +11552,25 @@
     </row>
     <row r="39" spans="2:22">
       <c r="B39" s="99" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="D39" s="99"/>
     </row>
     <row r="40" spans="2:22">
       <c r="B40" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="D40" s="99"/>
     </row>
     <row r="41" spans="2:22">
       <c r="B41" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="D41" s="99"/>
     </row>
     <row r="42" spans="2:22">
       <c r="B42" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="D42" s="99"/>
     </row>
@@ -11580,13 +11579,13 @@
     </row>
     <row r="44" spans="2:22">
       <c r="B44" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="F44" s="99"/>
     </row>
     <row r="45" spans="2:22">
       <c r="B45" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="F45" s="99"/>
     </row>
@@ -11597,18 +11596,43 @@
     </row>
     <row r="47" spans="2:22">
       <c r="B47" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="T6:V6"/>
-    <mergeCell ref="A1:A5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="J6:M6"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="Q6:S6"/>
+    <mergeCell ref="M25:M27"/>
+    <mergeCell ref="N25:N27"/>
+    <mergeCell ref="M28:M30"/>
+    <mergeCell ref="N28:N30"/>
+    <mergeCell ref="H31:H33"/>
+    <mergeCell ref="I31:I33"/>
+    <mergeCell ref="J31:J33"/>
+    <mergeCell ref="K31:K33"/>
+    <mergeCell ref="L31:L33"/>
+    <mergeCell ref="M31:M33"/>
+    <mergeCell ref="N31:N33"/>
+    <mergeCell ref="H28:H30"/>
+    <mergeCell ref="I28:I30"/>
+    <mergeCell ref="J28:J30"/>
+    <mergeCell ref="K28:K30"/>
+    <mergeCell ref="L28:L30"/>
+    <mergeCell ref="L19:L21"/>
+    <mergeCell ref="M19:M21"/>
+    <mergeCell ref="N19:N21"/>
+    <mergeCell ref="R21:U28"/>
+    <mergeCell ref="H22:H24"/>
+    <mergeCell ref="I22:I24"/>
+    <mergeCell ref="J22:J24"/>
+    <mergeCell ref="K22:K24"/>
+    <mergeCell ref="L22:L24"/>
+    <mergeCell ref="M22:M24"/>
+    <mergeCell ref="N22:N24"/>
+    <mergeCell ref="H25:H27"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="J25:J27"/>
+    <mergeCell ref="K25:K27"/>
+    <mergeCell ref="L25:L27"/>
     <mergeCell ref="C8:D10"/>
     <mergeCell ref="E8:Q10"/>
     <mergeCell ref="R8:U10"/>
@@ -11625,38 +11649,13 @@
     <mergeCell ref="I19:I21"/>
     <mergeCell ref="J19:J21"/>
     <mergeCell ref="K19:K21"/>
-    <mergeCell ref="L19:L21"/>
-    <mergeCell ref="M19:M21"/>
-    <mergeCell ref="N19:N21"/>
-    <mergeCell ref="R21:U28"/>
-    <mergeCell ref="H22:H24"/>
-    <mergeCell ref="I22:I24"/>
-    <mergeCell ref="J22:J24"/>
-    <mergeCell ref="K22:K24"/>
-    <mergeCell ref="L22:L24"/>
-    <mergeCell ref="M22:M24"/>
-    <mergeCell ref="N22:N24"/>
-    <mergeCell ref="H25:H27"/>
-    <mergeCell ref="I25:I27"/>
-    <mergeCell ref="J25:J27"/>
-    <mergeCell ref="K25:K27"/>
-    <mergeCell ref="L25:L27"/>
-    <mergeCell ref="M25:M27"/>
-    <mergeCell ref="N25:N27"/>
-    <mergeCell ref="M28:M30"/>
-    <mergeCell ref="N28:N30"/>
-    <mergeCell ref="H31:H33"/>
-    <mergeCell ref="I31:I33"/>
-    <mergeCell ref="J31:J33"/>
-    <mergeCell ref="K31:K33"/>
-    <mergeCell ref="L31:L33"/>
-    <mergeCell ref="M31:M33"/>
-    <mergeCell ref="N31:N33"/>
-    <mergeCell ref="H28:H30"/>
-    <mergeCell ref="I28:I30"/>
-    <mergeCell ref="J28:J30"/>
-    <mergeCell ref="K28:K30"/>
-    <mergeCell ref="L28:L30"/>
+    <mergeCell ref="T6:V6"/>
+    <mergeCell ref="A1:A5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="J6:M6"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="Q6:S6"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>
@@ -12423,7 +12422,7 @@
     </row>
     <row r="38" spans="2:22">
       <c r="B38" s="184" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="C38" s="143"/>
       <c r="D38" s="143"/>
@@ -12448,17 +12447,17 @@
     </row>
     <row r="39" spans="2:22">
       <c r="B39" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="40" spans="2:22">
       <c r="B40" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
     </row>
     <row r="41" spans="2:22">
       <c r="B41" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
     </row>
   </sheetData>
@@ -12896,14 +12895,14 @@
       <c r="H21" s="145" t="s">
         <v>206</v>
       </c>
-      <c r="I21" s="342" t="s">
+      <c r="I21" s="352" t="s">
         <v>207</v>
       </c>
-      <c r="J21" s="343"/>
-      <c r="K21" s="343"/>
-      <c r="L21" s="343"/>
-      <c r="M21" s="343"/>
-      <c r="N21" s="344"/>
+      <c r="J21" s="353"/>
+      <c r="K21" s="353"/>
+      <c r="L21" s="353"/>
+      <c r="M21" s="353"/>
+      <c r="N21" s="354"/>
       <c r="O21" s="132"/>
       <c r="P21" s="39"/>
       <c r="Q21" s="39"/>
@@ -12921,12 +12920,12 @@
       <c r="F22" s="39"/>
       <c r="G22" s="39"/>
       <c r="H22" s="145"/>
-      <c r="I22" s="345"/>
-      <c r="J22" s="346"/>
-      <c r="K22" s="346"/>
-      <c r="L22" s="346"/>
-      <c r="M22" s="346"/>
-      <c r="N22" s="347"/>
+      <c r="I22" s="355"/>
+      <c r="J22" s="356"/>
+      <c r="K22" s="356"/>
+      <c r="L22" s="356"/>
+      <c r="M22" s="356"/>
+      <c r="N22" s="357"/>
       <c r="O22" s="132"/>
       <c r="P22" s="39"/>
       <c r="Q22" s="39"/>
@@ -12944,12 +12943,12 @@
       <c r="F23" s="39"/>
       <c r="G23" s="39"/>
       <c r="H23" s="145"/>
-      <c r="I23" s="348"/>
-      <c r="J23" s="349"/>
-      <c r="K23" s="349"/>
-      <c r="L23" s="349"/>
-      <c r="M23" s="349"/>
-      <c r="N23" s="350"/>
+      <c r="I23" s="358"/>
+      <c r="J23" s="359"/>
+      <c r="K23" s="359"/>
+      <c r="L23" s="359"/>
+      <c r="M23" s="359"/>
+      <c r="N23" s="360"/>
       <c r="O23" s="132"/>
       <c r="P23" s="39"/>
       <c r="Q23" s="39"/>
@@ -12992,12 +12991,12 @@
       <c r="H25" s="151" t="s">
         <v>208</v>
       </c>
-      <c r="I25" s="209"/>
-      <c r="J25" s="210"/>
-      <c r="K25" s="210"/>
-      <c r="L25" s="210"/>
-      <c r="M25" s="210"/>
-      <c r="N25" s="211"/>
+      <c r="I25" s="205"/>
+      <c r="J25" s="206"/>
+      <c r="K25" s="206"/>
+      <c r="L25" s="206"/>
+      <c r="M25" s="206"/>
+      <c r="N25" s="207"/>
       <c r="O25" s="132"/>
       <c r="P25" s="39"/>
       <c r="Q25" s="39"/>
@@ -13015,12 +13014,12 @@
       <c r="F26" s="39"/>
       <c r="G26" s="39"/>
       <c r="H26" s="151"/>
-      <c r="I26" s="214"/>
-      <c r="J26" s="215"/>
-      <c r="K26" s="215"/>
-      <c r="L26" s="215"/>
-      <c r="M26" s="215"/>
-      <c r="N26" s="216"/>
+      <c r="I26" s="210"/>
+      <c r="J26" s="211"/>
+      <c r="K26" s="211"/>
+      <c r="L26" s="211"/>
+      <c r="M26" s="211"/>
+      <c r="N26" s="212"/>
       <c r="O26" s="132"/>
       <c r="P26" s="39"/>
       <c r="Q26" s="39"/>
@@ -13060,19 +13059,19 @@
       <c r="E28" s="39"/>
       <c r="F28" s="39"/>
       <c r="G28" s="39"/>
-      <c r="H28" s="212" t="s">
+      <c r="H28" s="208" t="s">
         <v>209</v>
       </c>
-      <c r="I28" s="351" t="s">
+      <c r="I28" s="342" t="s">
         <v>210</v>
       </c>
-      <c r="J28" s="352" t="s">
+      <c r="J28" s="343" t="s">
         <v>211</v>
       </c>
-      <c r="K28" s="353"/>
-      <c r="L28" s="353"/>
-      <c r="M28" s="353"/>
-      <c r="N28" s="354"/>
+      <c r="K28" s="344"/>
+      <c r="L28" s="344"/>
+      <c r="M28" s="344"/>
+      <c r="N28" s="345"/>
       <c r="O28" s="132"/>
       <c r="P28" s="39"/>
       <c r="Q28" s="39"/>
@@ -13089,13 +13088,13 @@
       <c r="E29" s="39"/>
       <c r="F29" s="39"/>
       <c r="G29" s="39"/>
-      <c r="H29" s="212"/>
-      <c r="I29" s="351"/>
-      <c r="J29" s="355"/>
-      <c r="K29" s="356"/>
-      <c r="L29" s="356"/>
-      <c r="M29" s="356"/>
-      <c r="N29" s="357"/>
+      <c r="H29" s="208"/>
+      <c r="I29" s="342"/>
+      <c r="J29" s="346"/>
+      <c r="K29" s="347"/>
+      <c r="L29" s="347"/>
+      <c r="M29" s="347"/>
+      <c r="N29" s="348"/>
       <c r="O29" s="132"/>
       <c r="P29" s="39"/>
       <c r="Q29" s="39"/>
@@ -13112,19 +13111,19 @@
       <c r="E30" s="39"/>
       <c r="F30" s="39"/>
       <c r="G30" s="39"/>
-      <c r="H30" s="212"/>
-      <c r="I30" s="351"/>
+      <c r="H30" s="208"/>
+      <c r="I30" s="342"/>
       <c r="J30" s="152" t="s">
         <v>212</v>
       </c>
-      <c r="K30" s="358" t="s">
+      <c r="K30" s="349" t="s">
         <v>213</v>
       </c>
-      <c r="L30" s="359"/>
-      <c r="M30" s="360" t="s">
+      <c r="L30" s="350"/>
+      <c r="M30" s="351" t="s">
         <v>214</v>
       </c>
-      <c r="N30" s="359"/>
+      <c r="N30" s="350"/>
       <c r="O30" s="132"/>
       <c r="P30" s="39"/>
       <c r="Q30" s="39"/>
@@ -13251,7 +13250,7 @@
     </row>
     <row r="38" spans="2:22">
       <c r="B38" s="184" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C38" s="143"/>
       <c r="D38" s="143"/>
@@ -13276,7 +13275,7 @@
     </row>
     <row r="39" spans="2:22">
       <c r="B39" s="144" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="C39" s="144"/>
       <c r="D39" s="144"/>
@@ -13288,91 +13287,86 @@
     </row>
     <row r="40" spans="2:22">
       <c r="B40" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
     </row>
     <row r="41" spans="2:22">
       <c r="B41" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
     </row>
     <row r="42" spans="2:22">
       <c r="B42" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="43" spans="2:22">
       <c r="B43" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="45" spans="2:22">
       <c r="B45" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
     </row>
     <row r="46" spans="2:22">
       <c r="B46" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
     </row>
     <row r="47" spans="2:22">
       <c r="B47" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
     </row>
     <row r="48" spans="2:22">
       <c r="B48" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="54" spans="2:2">
       <c r="B54" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="55" spans="2:2">
       <c r="B55" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
     </row>
     <row r="56" spans="2:2">
       <c r="B56" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="57" spans="2:2">
       <c r="B57" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="58" spans="2:2">
       <c r="B58" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="H28:H30"/>
-    <mergeCell ref="I28:I30"/>
-    <mergeCell ref="J28:N29"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="M30:N30"/>
     <mergeCell ref="N6:P6"/>
     <mergeCell ref="Q6:S6"/>
     <mergeCell ref="T6:V6"/>
@@ -13387,6 +13381,11 @@
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="F6:I6"/>
     <mergeCell ref="J6:M6"/>
+    <mergeCell ref="H28:H30"/>
+    <mergeCell ref="I28:I30"/>
+    <mergeCell ref="J28:N29"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M30:N30"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>
@@ -14117,17 +14116,17 @@
     </row>
     <row r="39" spans="2:22">
       <c r="B39" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="40" spans="2:22">
       <c r="B40" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
     </row>
     <row r="41" spans="2:22">
       <c r="B41" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
     </row>
     <row r="58" spans="14:14">
@@ -14138,22 +14137,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="Q6:S6"/>
-    <mergeCell ref="T6:V6"/>
-    <mergeCell ref="R8:U10"/>
-    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="A1:A5"/>
+    <mergeCell ref="C8:D10"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="J6:M6"/>
     <mergeCell ref="H16:K16"/>
     <mergeCell ref="H18:K18"/>
     <mergeCell ref="H20:K20"/>
     <mergeCell ref="H22:K22"/>
     <mergeCell ref="H26:I26"/>
     <mergeCell ref="J26:K26"/>
-    <mergeCell ref="A1:A5"/>
-    <mergeCell ref="C8:D10"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="J6:M6"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="Q6:S6"/>
+    <mergeCell ref="T6:V6"/>
+    <mergeCell ref="R8:U10"/>
+    <mergeCell ref="H14:K14"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>
@@ -14450,7 +14449,7 @@
       <c r="H16" s="364"/>
       <c r="I16" s="365"/>
       <c r="J16" s="365"/>
-      <c r="K16" s="207"/>
+      <c r="K16" s="217"/>
       <c r="L16" s="91"/>
       <c r="M16" s="6"/>
       <c r="N16" s="115"/>
@@ -14486,7 +14485,7 @@
       <c r="H18" s="369"/>
       <c r="I18" s="370"/>
       <c r="J18" s="370"/>
-      <c r="K18" s="208"/>
+      <c r="K18" s="218"/>
       <c r="L18" s="91"/>
       <c r="M18" s="6"/>
       <c r="N18" s="115"/>
@@ -14683,7 +14682,7 @@
       <c r="H28" s="364"/>
       <c r="I28" s="365"/>
       <c r="J28" s="365"/>
-      <c r="K28" s="207"/>
+      <c r="K28" s="217"/>
       <c r="L28" s="91"/>
       <c r="M28" s="6"/>
       <c r="N28" s="115"/>
@@ -14729,7 +14728,7 @@
       <c r="H30" s="369"/>
       <c r="I30" s="370"/>
       <c r="J30" s="370"/>
-      <c r="K30" s="208"/>
+      <c r="K30" s="218"/>
       <c r="L30" s="91"/>
       <c r="M30" s="115"/>
       <c r="N30" s="115"/>
@@ -14886,12 +14885,12 @@
     </row>
     <row r="39" spans="2:22">
       <c r="B39" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="40" spans="2:22">
       <c r="B40" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="41" spans="2:22">
@@ -14901,7 +14900,7 @@
     </row>
     <row r="42" spans="2:22">
       <c r="B42" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
     <row r="58" spans="14:14">
@@ -14912,11 +14911,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="Q6:S6"/>
-    <mergeCell ref="T6:V6"/>
-    <mergeCell ref="R8:U10"/>
-    <mergeCell ref="H14:K14"/>
     <mergeCell ref="H32:K32"/>
     <mergeCell ref="A1:A5"/>
     <mergeCell ref="C8:D10"/>
@@ -14928,6 +14922,11 @@
     <mergeCell ref="H22:K22"/>
     <mergeCell ref="H24:K24"/>
     <mergeCell ref="H28:K30"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="Q6:S6"/>
+    <mergeCell ref="T6:V6"/>
+    <mergeCell ref="R8:U10"/>
+    <mergeCell ref="H14:K14"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>
@@ -14976,7 +14975,7 @@
       <c r="D6" s="200"/>
       <c r="E6" s="200"/>
       <c r="F6" s="201" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="G6" s="201"/>
       <c r="H6" s="201"/>
@@ -15086,7 +15085,7 @@
       </c>
       <c r="I10" s="372"/>
       <c r="J10" s="377" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="K10" s="378"/>
       <c r="L10" s="378"/>
@@ -15200,15 +15199,15 @@
       <c r="E15" s="70"/>
       <c r="F15" s="70"/>
       <c r="G15" s="70"/>
-      <c r="H15" s="212" t="s">
-        <v>461</v>
+      <c r="H15" s="208" t="s">
+        <v>458</v>
       </c>
       <c r="I15" s="191"/>
-      <c r="J15" s="352" t="s">
+      <c r="J15" s="343" t="s">
         <v>175</v>
       </c>
-      <c r="K15" s="353"/>
-      <c r="L15" s="354"/>
+      <c r="K15" s="344"/>
+      <c r="L15" s="345"/>
       <c r="M15" s="135"/>
       <c r="N15" s="136" t="s">
         <v>176</v>
@@ -15229,11 +15228,11 @@
       <c r="E16" s="70"/>
       <c r="F16" s="70"/>
       <c r="G16" s="70"/>
-      <c r="H16" s="212"/>
+      <c r="H16" s="208"/>
       <c r="I16" s="191"/>
       <c r="J16" s="326"/>
       <c r="K16" s="309"/>
-      <c r="L16" s="351"/>
+      <c r="L16" s="342"/>
       <c r="M16" s="135"/>
       <c r="N16" s="137" t="s">
         <v>177</v>
@@ -15254,11 +15253,11 @@
       <c r="E17" s="70"/>
       <c r="F17" s="70"/>
       <c r="G17" s="70"/>
-      <c r="H17" s="212"/>
+      <c r="H17" s="208"/>
       <c r="I17" s="191"/>
       <c r="J17" s="326"/>
       <c r="K17" s="309"/>
-      <c r="L17" s="351"/>
+      <c r="L17" s="342"/>
       <c r="M17" s="135"/>
       <c r="N17" s="137" t="s">
         <v>178</v>
@@ -15279,11 +15278,11 @@
       <c r="E18" s="70"/>
       <c r="F18" s="70"/>
       <c r="G18" s="70"/>
-      <c r="H18" s="212"/>
+      <c r="H18" s="208"/>
       <c r="I18" s="191"/>
       <c r="J18" s="326"/>
       <c r="K18" s="309"/>
-      <c r="L18" s="351"/>
+      <c r="L18" s="342"/>
       <c r="M18" s="135"/>
       <c r="N18" s="137" t="s">
         <v>179</v>
@@ -15304,11 +15303,11 @@
       <c r="E19" s="70"/>
       <c r="F19" s="70"/>
       <c r="G19" s="70"/>
-      <c r="H19" s="212"/>
+      <c r="H19" s="208"/>
       <c r="I19" s="191"/>
-      <c r="J19" s="355"/>
-      <c r="K19" s="356"/>
-      <c r="L19" s="357"/>
+      <c r="J19" s="346"/>
+      <c r="K19" s="347"/>
+      <c r="L19" s="348"/>
       <c r="M19" s="135"/>
       <c r="N19" s="137" t="s">
         <v>180</v>
@@ -15352,7 +15351,7 @@
       <c r="E21" s="70"/>
       <c r="F21" s="70"/>
       <c r="G21" s="70"/>
-      <c r="H21" s="212" t="s">
+      <c r="H21" s="208" t="s">
         <v>181</v>
       </c>
       <c r="I21" s="191"/>
@@ -15379,7 +15378,7 @@
       <c r="E22" s="70"/>
       <c r="F22" s="70"/>
       <c r="G22" s="70"/>
-      <c r="H22" s="212"/>
+      <c r="H22" s="208"/>
       <c r="I22" s="191"/>
       <c r="J22" s="384" t="s">
         <v>183</v>
@@ -15404,7 +15403,7 @@
       <c r="E23" s="70"/>
       <c r="F23" s="70"/>
       <c r="G23" s="70"/>
-      <c r="H23" s="212"/>
+      <c r="H23" s="208"/>
       <c r="I23" s="191"/>
       <c r="J23" s="381" t="s">
         <v>184</v>
@@ -15452,13 +15451,13 @@
       <c r="E25" s="70"/>
       <c r="F25" s="70"/>
       <c r="G25" s="70"/>
-      <c r="H25" s="212" t="s">
-        <v>462</v>
-      </c>
-      <c r="I25" s="213"/>
-      <c r="J25" s="209"/>
-      <c r="K25" s="210"/>
-      <c r="L25" s="211"/>
+      <c r="H25" s="208" t="s">
+        <v>459</v>
+      </c>
+      <c r="I25" s="209"/>
+      <c r="J25" s="205"/>
+      <c r="K25" s="206"/>
+      <c r="L25" s="207"/>
       <c r="M25" s="70"/>
       <c r="N25" s="69"/>
       <c r="O25" s="71"/>
@@ -15477,11 +15476,11 @@
       <c r="E26" s="70"/>
       <c r="F26" s="70"/>
       <c r="G26" s="70"/>
-      <c r="H26" s="212"/>
-      <c r="I26" s="213"/>
-      <c r="J26" s="214"/>
-      <c r="K26" s="215"/>
-      <c r="L26" s="216"/>
+      <c r="H26" s="208"/>
+      <c r="I26" s="209"/>
+      <c r="J26" s="210"/>
+      <c r="K26" s="211"/>
+      <c r="L26" s="212"/>
       <c r="M26" s="135"/>
       <c r="N26" s="139"/>
       <c r="O26" s="71"/>
@@ -15523,17 +15522,17 @@
       <c r="E28" s="70"/>
       <c r="F28" s="70"/>
       <c r="G28" s="70"/>
-      <c r="H28" s="212" t="s">
+      <c r="H28" s="208" t="s">
         <v>185</v>
       </c>
-      <c r="I28" s="351" t="s">
+      <c r="I28" s="342" t="s">
         <v>186</v>
       </c>
-      <c r="J28" s="352" t="s">
+      <c r="J28" s="343" t="s">
         <v>187</v>
       </c>
-      <c r="K28" s="353"/>
-      <c r="L28" s="354"/>
+      <c r="K28" s="344"/>
+      <c r="L28" s="345"/>
       <c r="M28" s="135"/>
       <c r="N28" s="139"/>
       <c r="O28" s="71"/>
@@ -15552,11 +15551,11 @@
       <c r="E29" s="70"/>
       <c r="F29" s="70"/>
       <c r="G29" s="70"/>
-      <c r="H29" s="212"/>
-      <c r="I29" s="351"/>
-      <c r="J29" s="355"/>
-      <c r="K29" s="356"/>
-      <c r="L29" s="357"/>
+      <c r="H29" s="208"/>
+      <c r="I29" s="342"/>
+      <c r="J29" s="346"/>
+      <c r="K29" s="347"/>
+      <c r="L29" s="348"/>
       <c r="M29" s="135"/>
       <c r="N29" s="140"/>
       <c r="O29" s="74"/>
@@ -15575,8 +15574,8 @@
       <c r="E30" s="70"/>
       <c r="F30" s="70"/>
       <c r="G30" s="70"/>
-      <c r="H30" s="212"/>
-      <c r="I30" s="351"/>
+      <c r="H30" s="208"/>
+      <c r="I30" s="342"/>
       <c r="J30" s="141" t="s">
         <v>188</v>
       </c>
@@ -15628,7 +15627,7 @@
       <c r="F32" s="70"/>
       <c r="G32" s="70"/>
       <c r="H32" s="72"/>
-      <c r="I32" s="356"/>
+      <c r="I32" s="347"/>
       <c r="J32" s="73"/>
       <c r="K32" s="73"/>
       <c r="L32" s="73"/>
@@ -15715,7 +15714,7 @@
     <row r="38" spans="1:22">
       <c r="A38" s="142"/>
       <c r="B38" s="184" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="C38" s="143"/>
       <c r="D38" s="143"/>
@@ -15750,140 +15749,131 @@
     </row>
     <row r="40" spans="1:22">
       <c r="B40" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="41" spans="1:22">
       <c r="B41" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="42" spans="1:22">
       <c r="B42" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="43" spans="1:22">
       <c r="B43" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="45" spans="1:22">
       <c r="B45" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="46" spans="1:22">
       <c r="B46" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
     <row r="47" spans="1:22">
       <c r="B47" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="48" spans="1:22">
       <c r="B48" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="54" spans="2:2">
       <c r="B54" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
     </row>
     <row r="55" spans="2:2">
       <c r="B55" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="57" spans="2:2">
       <c r="B57" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
     <row r="58" spans="2:2">
       <c r="B58" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
     </row>
     <row r="59" spans="2:2">
       <c r="B59" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="61" spans="2:2">
       <c r="B61" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
     </row>
     <row r="62" spans="2:2">
       <c r="B62" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="63" spans="2:2">
       <c r="B63" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="64" spans="2:2">
       <c r="B64" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
     </row>
     <row r="65" spans="2:2">
       <c r="B65" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="66" spans="2:2">
       <c r="B66" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="67" spans="2:2">
       <c r="B67" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
     </row>
     <row r="68" spans="2:2">
       <c r="B68" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A1:A5"/>
-    <mergeCell ref="H25:I26"/>
-    <mergeCell ref="J25:L26"/>
-    <mergeCell ref="H28:H30"/>
-    <mergeCell ref="I28:I30"/>
-    <mergeCell ref="J28:L29"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="J6:M6"/>
     <mergeCell ref="N6:P6"/>
     <mergeCell ref="Q6:S6"/>
     <mergeCell ref="T6:V6"/>
@@ -15896,6 +15886,15 @@
     <mergeCell ref="J21:L21"/>
     <mergeCell ref="J22:L22"/>
     <mergeCell ref="J23:L23"/>
+    <mergeCell ref="A1:A5"/>
+    <mergeCell ref="H25:I26"/>
+    <mergeCell ref="J25:L26"/>
+    <mergeCell ref="H28:H30"/>
+    <mergeCell ref="I28:I30"/>
+    <mergeCell ref="J28:L29"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="J6:M6"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>
@@ -16748,21 +16747,21 @@
         <v>129</v>
       </c>
       <c r="D8" s="194"/>
-      <c r="E8" s="240" t="s">
+      <c r="E8" s="258" t="s">
         <v>317</v>
       </c>
-      <c r="F8" s="241"/>
-      <c r="G8" s="241"/>
-      <c r="H8" s="241"/>
-      <c r="I8" s="241"/>
-      <c r="J8" s="241"/>
-      <c r="K8" s="241"/>
-      <c r="L8" s="241"/>
-      <c r="M8" s="241"/>
-      <c r="N8" s="241"/>
-      <c r="O8" s="241"/>
-      <c r="P8" s="241"/>
-      <c r="Q8" s="242"/>
+      <c r="F8" s="259"/>
+      <c r="G8" s="259"/>
+      <c r="H8" s="259"/>
+      <c r="I8" s="259"/>
+      <c r="J8" s="259"/>
+      <c r="K8" s="259"/>
+      <c r="L8" s="259"/>
+      <c r="M8" s="259"/>
+      <c r="N8" s="259"/>
+      <c r="O8" s="259"/>
+      <c r="P8" s="259"/>
+      <c r="Q8" s="260"/>
       <c r="R8" s="188" t="s">
         <v>131</v>
       </c>
@@ -16775,19 +16774,19 @@
       <c r="B9" s="59"/>
       <c r="C9" s="190"/>
       <c r="D9" s="195"/>
-      <c r="E9" s="243"/>
-      <c r="F9" s="244"/>
-      <c r="G9" s="244"/>
-      <c r="H9" s="244"/>
-      <c r="I9" s="244"/>
-      <c r="J9" s="244"/>
-      <c r="K9" s="244"/>
-      <c r="L9" s="244"/>
-      <c r="M9" s="244"/>
-      <c r="N9" s="244"/>
-      <c r="O9" s="244"/>
-      <c r="P9" s="244"/>
-      <c r="Q9" s="245"/>
+      <c r="E9" s="261"/>
+      <c r="F9" s="262"/>
+      <c r="G9" s="262"/>
+      <c r="H9" s="262"/>
+      <c r="I9" s="262"/>
+      <c r="J9" s="262"/>
+      <c r="K9" s="262"/>
+      <c r="L9" s="262"/>
+      <c r="M9" s="262"/>
+      <c r="N9" s="262"/>
+      <c r="O9" s="262"/>
+      <c r="P9" s="262"/>
+      <c r="Q9" s="263"/>
       <c r="R9" s="190"/>
       <c r="S9" s="191"/>
       <c r="T9" s="191"/>
@@ -16799,18 +16798,18 @@
       <c r="C10" s="192"/>
       <c r="D10" s="196"/>
       <c r="E10" s="387"/>
-      <c r="F10" s="244"/>
-      <c r="G10" s="244"/>
-      <c r="H10" s="244"/>
-      <c r="I10" s="244"/>
-      <c r="J10" s="244"/>
-      <c r="K10" s="244"/>
-      <c r="L10" s="244"/>
-      <c r="M10" s="244"/>
-      <c r="N10" s="244"/>
-      <c r="O10" s="244"/>
-      <c r="P10" s="244"/>
-      <c r="Q10" s="245"/>
+      <c r="F10" s="262"/>
+      <c r="G10" s="262"/>
+      <c r="H10" s="262"/>
+      <c r="I10" s="262"/>
+      <c r="J10" s="262"/>
+      <c r="K10" s="262"/>
+      <c r="L10" s="262"/>
+      <c r="M10" s="262"/>
+      <c r="N10" s="262"/>
+      <c r="O10" s="262"/>
+      <c r="P10" s="262"/>
+      <c r="Q10" s="263"/>
       <c r="R10" s="192"/>
       <c r="S10" s="193"/>
       <c r="T10" s="193"/>
@@ -16834,7 +16833,7 @@
       <c r="O11" s="189"/>
       <c r="P11" s="189"/>
       <c r="Q11" s="194"/>
-      <c r="R11" s="231" t="s">
+      <c r="R11" s="249" t="s">
         <v>152</v>
       </c>
       <c r="S11" s="189"/>
@@ -17086,7 +17085,7 @@
       <c r="O21" s="195"/>
       <c r="P21" s="190"/>
       <c r="Q21" s="195"/>
-      <c r="R21" s="231" t="s">
+      <c r="R21" s="249" t="s">
         <v>133</v>
       </c>
       <c r="S21" s="189"/>
@@ -17292,7 +17291,7 @@
       <c r="O29" s="196"/>
       <c r="P29" s="192"/>
       <c r="Q29" s="196"/>
-      <c r="R29" s="231" t="s">
+      <c r="R29" s="249" t="s">
         <v>148</v>
       </c>
       <c r="S29" s="189"/>
@@ -17475,34 +17474,42 @@
     </row>
     <row r="39" spans="2:22">
       <c r="B39" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="40" spans="2:22">
       <c r="B40" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="41" spans="2:22">
       <c r="B41" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="42" spans="2:22">
       <c r="B42" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="N18:O21"/>
-    <mergeCell ref="T6:V6"/>
-    <mergeCell ref="A1:A5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="J6:M6"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="Q6:S6"/>
+    <mergeCell ref="L26:M29"/>
+    <mergeCell ref="P18:Q21"/>
+    <mergeCell ref="P26:Q29"/>
+    <mergeCell ref="R29:U34"/>
+    <mergeCell ref="H30:I34"/>
+    <mergeCell ref="J30:K34"/>
+    <mergeCell ref="L30:M34"/>
+    <mergeCell ref="N30:O34"/>
+    <mergeCell ref="P30:Q34"/>
+    <mergeCell ref="R21:U28"/>
+    <mergeCell ref="H22:I25"/>
+    <mergeCell ref="J22:K25"/>
+    <mergeCell ref="L22:M25"/>
+    <mergeCell ref="N22:O25"/>
+    <mergeCell ref="P22:Q25"/>
+    <mergeCell ref="H26:I29"/>
     <mergeCell ref="J26:K29"/>
     <mergeCell ref="C8:D10"/>
     <mergeCell ref="E8:Q10"/>
@@ -17519,22 +17526,14 @@
     <mergeCell ref="H18:I21"/>
     <mergeCell ref="J18:K21"/>
     <mergeCell ref="L18:M21"/>
-    <mergeCell ref="L26:M29"/>
-    <mergeCell ref="P18:Q21"/>
-    <mergeCell ref="P26:Q29"/>
-    <mergeCell ref="R29:U34"/>
-    <mergeCell ref="H30:I34"/>
-    <mergeCell ref="J30:K34"/>
-    <mergeCell ref="L30:M34"/>
-    <mergeCell ref="N30:O34"/>
-    <mergeCell ref="P30:Q34"/>
-    <mergeCell ref="R21:U28"/>
-    <mergeCell ref="H22:I25"/>
-    <mergeCell ref="J22:K25"/>
-    <mergeCell ref="L22:M25"/>
-    <mergeCell ref="N22:O25"/>
-    <mergeCell ref="P22:Q25"/>
-    <mergeCell ref="H26:I29"/>
+    <mergeCell ref="N18:O21"/>
+    <mergeCell ref="T6:V6"/>
+    <mergeCell ref="A1:A5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="J6:M6"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="Q6:S6"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>
@@ -17549,8 +17548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V45"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:A5"/>
+    <sheetView showGridLines="0" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47:B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -17755,7 +17754,7 @@
       <c r="C13" s="41"/>
       <c r="D13" s="39"/>
       <c r="E13" s="41"/>
-      <c r="F13" s="225" t="s">
+      <c r="F13" s="223" t="s">
         <v>102</v>
       </c>
       <c r="G13" s="190" t="s">
@@ -17782,7 +17781,7 @@
       <c r="C14" s="41"/>
       <c r="D14" s="39"/>
       <c r="E14" s="41"/>
-      <c r="F14" s="226"/>
+      <c r="F14" s="224"/>
       <c r="G14" s="190"/>
       <c r="H14" s="191"/>
       <c r="I14" s="39"/>
@@ -18324,27 +18323,27 @@
     </row>
     <row r="40" spans="2:22">
       <c r="B40" t="s">
-        <v>322</v>
+        <v>569</v>
       </c>
     </row>
     <row r="41" spans="2:22">
       <c r="B41" t="s">
-        <v>323</v>
+        <v>570</v>
       </c>
     </row>
     <row r="43" spans="2:22">
       <c r="B43" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="44" spans="2:22">
       <c r="B44" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="45" spans="2:22">
       <c r="B45" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
   </sheetData>
@@ -18610,11 +18609,11 @@
       <c r="H14" s="145"/>
       <c r="I14" s="146"/>
       <c r="K14" s="146"/>
-      <c r="L14" s="398" t="s">
+      <c r="L14" s="389" t="s">
         <v>217</v>
       </c>
-      <c r="M14" s="398"/>
-      <c r="N14" s="398"/>
+      <c r="M14" s="389"/>
+      <c r="N14" s="389"/>
       <c r="O14" s="153"/>
       <c r="P14" s="39"/>
       <c r="Q14" s="39"/>
@@ -18634,14 +18633,14 @@
       <c r="H15" s="319" t="s">
         <v>104</v>
       </c>
-      <c r="I15" s="352" t="s">
+      <c r="I15" s="343" t="s">
         <v>167</v>
       </c>
-      <c r="J15" s="353"/>
-      <c r="K15" s="354"/>
-      <c r="L15" s="399"/>
-      <c r="M15" s="399"/>
-      <c r="N15" s="399"/>
+      <c r="J15" s="344"/>
+      <c r="K15" s="345"/>
+      <c r="L15" s="390"/>
+      <c r="M15" s="390"/>
+      <c r="N15" s="390"/>
       <c r="O15" s="154"/>
       <c r="P15" s="39"/>
       <c r="Q15" s="39"/>
@@ -18659,12 +18658,12 @@
       <c r="F16" s="39"/>
       <c r="G16" s="39"/>
       <c r="H16" s="319"/>
-      <c r="I16" s="355"/>
-      <c r="J16" s="356"/>
-      <c r="K16" s="357"/>
-      <c r="L16" s="399"/>
-      <c r="M16" s="399"/>
-      <c r="N16" s="399"/>
+      <c r="I16" s="346"/>
+      <c r="J16" s="347"/>
+      <c r="K16" s="348"/>
+      <c r="L16" s="390"/>
+      <c r="M16" s="390"/>
+      <c r="N16" s="390"/>
       <c r="O16" s="154"/>
       <c r="P16" s="39"/>
       <c r="Q16" s="39"/>
@@ -18685,9 +18684,9 @@
       <c r="I17" s="6"/>
       <c r="J17" s="138"/>
       <c r="K17" s="138"/>
-      <c r="L17" s="399"/>
-      <c r="M17" s="399"/>
-      <c r="N17" s="399"/>
+      <c r="L17" s="390"/>
+      <c r="M17" s="390"/>
+      <c r="N17" s="390"/>
       <c r="O17" s="154"/>
       <c r="P17" s="39"/>
       <c r="Q17" s="39"/>
@@ -18707,14 +18706,14 @@
       <c r="H18" s="145" t="s">
         <v>218</v>
       </c>
-      <c r="I18" s="389" t="s">
+      <c r="I18" s="391" t="s">
         <v>219</v>
       </c>
-      <c r="J18" s="390"/>
-      <c r="K18" s="390"/>
-      <c r="L18" s="390"/>
-      <c r="M18" s="390"/>
-      <c r="N18" s="391"/>
+      <c r="J18" s="392"/>
+      <c r="K18" s="392"/>
+      <c r="L18" s="392"/>
+      <c r="M18" s="392"/>
+      <c r="N18" s="393"/>
       <c r="O18" s="132"/>
       <c r="P18" s="39"/>
       <c r="Q18" s="39"/>
@@ -18732,12 +18731,12 @@
       <c r="F19" s="39"/>
       <c r="G19" s="39"/>
       <c r="H19" s="139"/>
-      <c r="I19" s="392"/>
-      <c r="J19" s="393"/>
-      <c r="K19" s="393"/>
-      <c r="L19" s="393"/>
-      <c r="M19" s="393"/>
-      <c r="N19" s="394"/>
+      <c r="I19" s="394"/>
+      <c r="J19" s="395"/>
+      <c r="K19" s="395"/>
+      <c r="L19" s="395"/>
+      <c r="M19" s="395"/>
+      <c r="N19" s="396"/>
       <c r="O19" s="132"/>
       <c r="P19" s="39"/>
       <c r="Q19" s="39"/>
@@ -18755,12 +18754,12 @@
       <c r="F20" s="39"/>
       <c r="G20" s="39"/>
       <c r="H20" s="145"/>
-      <c r="I20" s="395"/>
-      <c r="J20" s="396"/>
-      <c r="K20" s="396"/>
-      <c r="L20" s="396"/>
-      <c r="M20" s="396"/>
-      <c r="N20" s="397"/>
+      <c r="I20" s="397"/>
+      <c r="J20" s="398"/>
+      <c r="K20" s="398"/>
+      <c r="L20" s="398"/>
+      <c r="M20" s="398"/>
+      <c r="N20" s="399"/>
       <c r="O20" s="132"/>
       <c r="P20" s="39"/>
       <c r="Q20" s="39"/>
@@ -19117,7 +19116,7 @@
     </row>
     <row r="38" spans="2:22">
       <c r="B38" s="186" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="C38" s="143"/>
       <c r="D38" s="143"/>
@@ -19142,7 +19141,7 @@
     </row>
     <row r="39" spans="2:22">
       <c r="B39" s="157" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="C39" s="144"/>
       <c r="D39" s="144"/>
@@ -19151,81 +19150,76 @@
     </row>
     <row r="40" spans="2:22">
       <c r="B40" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
     </row>
     <row r="41" spans="2:22">
       <c r="B41" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
     </row>
     <row r="42" spans="2:22">
       <c r="B42" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
     </row>
     <row r="43" spans="2:22">
       <c r="B43" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
     </row>
     <row r="45" spans="2:22">
       <c r="B45" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
     </row>
     <row r="46" spans="2:22">
       <c r="B46" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
     </row>
     <row r="47" spans="2:22">
       <c r="B47" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="54" spans="2:2">
       <c r="B54" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
     </row>
     <row r="55" spans="2:2">
       <c r="B55" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
     </row>
     <row r="56" spans="2:2">
       <c r="B56" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:A5"/>
-    <mergeCell ref="H10:O13"/>
-    <mergeCell ref="L14:N17"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:K16"/>
     <mergeCell ref="Q6:S6"/>
     <mergeCell ref="T6:V6"/>
     <mergeCell ref="I18:N20"/>
@@ -19234,6 +19228,11 @@
     <mergeCell ref="F6:I6"/>
     <mergeCell ref="J6:M6"/>
     <mergeCell ref="N6:P6"/>
+    <mergeCell ref="A1:A5"/>
+    <mergeCell ref="H10:O13"/>
+    <mergeCell ref="L14:N17"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:K16"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>
@@ -19391,14 +19390,14 @@
       <c r="H10" s="326" t="s">
         <v>109</v>
       </c>
-      <c r="I10" s="351"/>
-      <c r="J10" s="352" t="s">
+      <c r="I10" s="342"/>
+      <c r="J10" s="343" t="s">
         <v>220</v>
       </c>
-      <c r="K10" s="353"/>
-      <c r="L10" s="353"/>
-      <c r="M10" s="353"/>
-      <c r="N10" s="354"/>
+      <c r="K10" s="344"/>
+      <c r="L10" s="344"/>
+      <c r="M10" s="344"/>
+      <c r="N10" s="345"/>
       <c r="O10" s="132"/>
       <c r="P10" s="39"/>
       <c r="Q10" s="39"/>
@@ -19416,12 +19415,12 @@
       <c r="F11" s="39"/>
       <c r="G11" s="39"/>
       <c r="H11" s="326"/>
-      <c r="I11" s="351"/>
-      <c r="J11" s="355"/>
-      <c r="K11" s="356"/>
-      <c r="L11" s="356"/>
-      <c r="M11" s="356"/>
-      <c r="N11" s="357"/>
+      <c r="I11" s="342"/>
+      <c r="J11" s="346"/>
+      <c r="K11" s="347"/>
+      <c r="L11" s="347"/>
+      <c r="M11" s="347"/>
+      <c r="N11" s="348"/>
       <c r="O11" s="132"/>
       <c r="P11" s="39"/>
       <c r="Q11" s="39"/>
@@ -19464,14 +19463,14 @@
       <c r="H13" s="326" t="s">
         <v>221</v>
       </c>
-      <c r="I13" s="351"/>
-      <c r="J13" s="389" t="s">
+      <c r="I13" s="342"/>
+      <c r="J13" s="391" t="s">
         <v>222</v>
       </c>
-      <c r="K13" s="390"/>
-      <c r="L13" s="390"/>
-      <c r="M13" s="390"/>
-      <c r="N13" s="391"/>
+      <c r="K13" s="392"/>
+      <c r="L13" s="392"/>
+      <c r="M13" s="392"/>
+      <c r="N13" s="393"/>
       <c r="O13" s="132"/>
       <c r="P13" s="39"/>
       <c r="Q13" s="39"/>
@@ -19489,12 +19488,12 @@
       <c r="F14" s="39"/>
       <c r="G14" s="39"/>
       <c r="H14" s="326"/>
-      <c r="I14" s="351"/>
-      <c r="J14" s="395"/>
-      <c r="K14" s="396"/>
-      <c r="L14" s="396"/>
-      <c r="M14" s="396"/>
-      <c r="N14" s="397"/>
+      <c r="I14" s="342"/>
+      <c r="J14" s="397"/>
+      <c r="K14" s="398"/>
+      <c r="L14" s="398"/>
+      <c r="M14" s="398"/>
+      <c r="N14" s="399"/>
       <c r="O14" s="132"/>
       <c r="P14" s="39"/>
       <c r="Q14" s="39"/>
@@ -19537,14 +19536,14 @@
       <c r="H16" s="326" t="s">
         <v>223</v>
       </c>
-      <c r="I16" s="351"/>
-      <c r="J16" s="342" t="s">
+      <c r="I16" s="342"/>
+      <c r="J16" s="352" t="s">
         <v>224</v>
       </c>
-      <c r="K16" s="343"/>
-      <c r="L16" s="343"/>
-      <c r="M16" s="343"/>
-      <c r="N16" s="344"/>
+      <c r="K16" s="353"/>
+      <c r="L16" s="353"/>
+      <c r="M16" s="353"/>
+      <c r="N16" s="354"/>
       <c r="O16" s="132"/>
       <c r="P16" s="39"/>
       <c r="Q16" s="39"/>
@@ -19562,12 +19561,12 @@
       <c r="F17" s="39"/>
       <c r="G17" s="39"/>
       <c r="H17" s="326"/>
-      <c r="I17" s="351"/>
-      <c r="J17" s="348"/>
-      <c r="K17" s="349"/>
-      <c r="L17" s="349"/>
-      <c r="M17" s="349"/>
-      <c r="N17" s="350"/>
+      <c r="I17" s="342"/>
+      <c r="J17" s="358"/>
+      <c r="K17" s="359"/>
+      <c r="L17" s="359"/>
+      <c r="M17" s="359"/>
+      <c r="N17" s="360"/>
       <c r="O17" s="132"/>
       <c r="P17" s="39"/>
       <c r="Q17" s="39"/>
@@ -19611,13 +19610,13 @@
         <v>225</v>
       </c>
       <c r="I19" s="309"/>
-      <c r="J19" s="352" t="s">
+      <c r="J19" s="343" t="s">
         <v>226</v>
       </c>
-      <c r="K19" s="353"/>
-      <c r="L19" s="353"/>
-      <c r="M19" s="353"/>
-      <c r="N19" s="354"/>
+      <c r="K19" s="344"/>
+      <c r="L19" s="344"/>
+      <c r="M19" s="344"/>
+      <c r="N19" s="345"/>
       <c r="O19" s="132"/>
       <c r="P19" s="39"/>
       <c r="Q19" s="39"/>
@@ -19636,11 +19635,11 @@
       <c r="G20" s="39"/>
       <c r="H20" s="326"/>
       <c r="I20" s="309"/>
-      <c r="J20" s="355"/>
-      <c r="K20" s="356"/>
-      <c r="L20" s="356"/>
-      <c r="M20" s="356"/>
-      <c r="N20" s="357"/>
+      <c r="J20" s="346"/>
+      <c r="K20" s="347"/>
+      <c r="L20" s="347"/>
+      <c r="M20" s="347"/>
+      <c r="N20" s="348"/>
       <c r="O20" s="132"/>
       <c r="P20" s="39"/>
       <c r="Q20" s="39"/>
@@ -19997,7 +19996,7 @@
     </row>
     <row r="38" spans="2:22">
       <c r="B38" s="186" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="C38" s="143"/>
       <c r="D38" s="143"/>
@@ -20022,96 +20021,105 @@
     </row>
     <row r="39" spans="2:22">
       <c r="B39" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="40" spans="2:22">
       <c r="B40" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
     </row>
     <row r="41" spans="2:22">
       <c r="B41" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="42" spans="2:22">
       <c r="B42" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
     </row>
     <row r="43" spans="2:22">
       <c r="B43" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="44" spans="2:22">
       <c r="B44" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="45" spans="2:22">
       <c r="B45" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
     </row>
     <row r="46" spans="2:22">
       <c r="B46" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="47" spans="2:22">
       <c r="B47" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
     </row>
     <row r="54" spans="2:2">
       <c r="B54" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
     </row>
     <row r="55" spans="2:2">
       <c r="B55" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
     </row>
     <row r="57" spans="2:2">
       <c r="B57" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
     </row>
     <row r="58" spans="2:2">
       <c r="B58" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
     </row>
     <row r="59" spans="2:2">
       <c r="B59" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="Q6:S6"/>
+    <mergeCell ref="T6:V6"/>
+    <mergeCell ref="N30:N31"/>
+    <mergeCell ref="H10:I11"/>
+    <mergeCell ref="J10:N11"/>
+    <mergeCell ref="H13:I14"/>
+    <mergeCell ref="J13:N14"/>
+    <mergeCell ref="H16:I17"/>
+    <mergeCell ref="J16:N17"/>
     <mergeCell ref="A1:A5"/>
     <mergeCell ref="H19:I20"/>
     <mergeCell ref="J19:N20"/>
@@ -20121,15 +20129,6 @@
     <mergeCell ref="F6:I6"/>
     <mergeCell ref="J6:M6"/>
     <mergeCell ref="N6:P6"/>
-    <mergeCell ref="Q6:S6"/>
-    <mergeCell ref="T6:V6"/>
-    <mergeCell ref="N30:N31"/>
-    <mergeCell ref="H10:I11"/>
-    <mergeCell ref="J10:N11"/>
-    <mergeCell ref="H13:I14"/>
-    <mergeCell ref="J13:N14"/>
-    <mergeCell ref="H16:I17"/>
-    <mergeCell ref="J16:N17"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>
@@ -20145,8 +20144,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -20422,10 +20421,10 @@
         <v>300</v>
       </c>
       <c r="S16" s="191"/>
-      <c r="T16" s="205" t="s">
+      <c r="T16" s="215" t="s">
         <v>301</v>
       </c>
-      <c r="U16" s="206"/>
+      <c r="U16" s="216"/>
       <c r="V16" s="119"/>
     </row>
     <row r="17" spans="2:22">
@@ -20442,10 +20441,10 @@
         <v>302</v>
       </c>
       <c r="S17" s="191"/>
-      <c r="T17" s="205" t="s">
+      <c r="T17" s="215" t="s">
         <v>303</v>
       </c>
-      <c r="U17" s="206"/>
+      <c r="U17" s="216"/>
       <c r="V17" s="119"/>
     </row>
     <row r="18" spans="2:22">
@@ -20474,10 +20473,10 @@
         <v>307</v>
       </c>
       <c r="S18" s="191"/>
-      <c r="T18" s="205" t="s">
+      <c r="T18" s="215" t="s">
         <v>308</v>
       </c>
-      <c r="U18" s="206"/>
+      <c r="U18" s="216"/>
       <c r="V18" s="119"/>
     </row>
     <row r="19" spans="2:22" ht="17.25" thickBot="1">
@@ -20500,10 +20499,10 @@
         <v>309</v>
       </c>
       <c r="S19" s="193"/>
-      <c r="T19" s="217" t="s">
+      <c r="T19" s="213" t="s">
         <v>310</v>
       </c>
-      <c r="U19" s="218"/>
+      <c r="U19" s="214"/>
       <c r="V19" s="119"/>
     </row>
     <row r="20" spans="2:22" ht="17.25" thickBot="1">
@@ -20532,14 +20531,14 @@
       <c r="B21" s="110"/>
       <c r="C21" s="110"/>
       <c r="D21" s="110"/>
-      <c r="E21" s="209" t="s">
+      <c r="E21" s="205" t="s">
         <v>241</v>
       </c>
-      <c r="F21" s="210"/>
-      <c r="G21" s="210"/>
-      <c r="H21" s="210"/>
-      <c r="I21" s="210"/>
-      <c r="J21" s="211"/>
+      <c r="F21" s="206"/>
+      <c r="G21" s="206"/>
+      <c r="H21" s="206"/>
+      <c r="I21" s="206"/>
+      <c r="J21" s="207"/>
       <c r="K21" s="115"/>
       <c r="L21" s="111"/>
       <c r="M21" s="115"/>
@@ -20558,12 +20557,12 @@
       <c r="B22" s="110"/>
       <c r="C22" s="110"/>
       <c r="D22" s="110"/>
-      <c r="E22" s="212"/>
+      <c r="E22" s="208"/>
       <c r="F22" s="191"/>
       <c r="G22" s="191"/>
       <c r="H22" s="191"/>
       <c r="I22" s="191"/>
-      <c r="J22" s="213"/>
+      <c r="J22" s="209"/>
       <c r="K22" s="115"/>
       <c r="L22" s="111"/>
       <c r="M22" s="115"/>
@@ -20580,12 +20579,12 @@
       <c r="B23" s="110"/>
       <c r="C23" s="110"/>
       <c r="D23" s="110"/>
-      <c r="E23" s="214"/>
-      <c r="F23" s="215"/>
-      <c r="G23" s="215"/>
-      <c r="H23" s="215"/>
-      <c r="I23" s="215"/>
-      <c r="J23" s="216"/>
+      <c r="E23" s="210"/>
+      <c r="F23" s="211"/>
+      <c r="G23" s="211"/>
+      <c r="H23" s="211"/>
+      <c r="I23" s="211"/>
+      <c r="J23" s="212"/>
       <c r="K23" s="115"/>
       <c r="L23" s="111"/>
       <c r="M23" s="115"/>
@@ -20760,14 +20759,14 @@
       <c r="B31" s="110"/>
       <c r="C31" s="110"/>
       <c r="D31" s="110"/>
-      <c r="E31" s="209" t="s">
+      <c r="E31" s="205" t="s">
         <v>241</v>
       </c>
-      <c r="F31" s="210"/>
-      <c r="G31" s="210"/>
-      <c r="H31" s="210"/>
-      <c r="I31" s="210"/>
-      <c r="J31" s="211"/>
+      <c r="F31" s="206"/>
+      <c r="G31" s="206"/>
+      <c r="H31" s="206"/>
+      <c r="I31" s="206"/>
+      <c r="J31" s="207"/>
       <c r="K31" s="115"/>
       <c r="L31" s="111"/>
       <c r="M31" s="115"/>
@@ -20785,12 +20784,12 @@
       <c r="B32" s="110"/>
       <c r="C32" s="110"/>
       <c r="D32" s="110"/>
-      <c r="E32" s="212"/>
+      <c r="E32" s="208"/>
       <c r="F32" s="191"/>
       <c r="G32" s="191"/>
       <c r="H32" s="191"/>
       <c r="I32" s="191"/>
-      <c r="J32" s="213"/>
+      <c r="J32" s="209"/>
       <c r="K32" s="115"/>
       <c r="L32" s="111"/>
       <c r="M32" s="115"/>
@@ -20808,12 +20807,12 @@
       <c r="B33" s="110"/>
       <c r="C33" s="110"/>
       <c r="D33" s="110"/>
-      <c r="E33" s="214"/>
-      <c r="F33" s="215"/>
-      <c r="G33" s="215"/>
-      <c r="H33" s="215"/>
-      <c r="I33" s="215"/>
-      <c r="J33" s="216"/>
+      <c r="E33" s="210"/>
+      <c r="F33" s="211"/>
+      <c r="G33" s="211"/>
+      <c r="H33" s="211"/>
+      <c r="I33" s="211"/>
+      <c r="J33" s="212"/>
       <c r="K33" s="115"/>
       <c r="L33" s="111"/>
       <c r="M33" s="115"/>
@@ -20900,12 +20899,12 @@
     </row>
     <row r="39" spans="2:22">
       <c r="B39" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="40" spans="2:22">
       <c r="B40" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
     </row>
     <row r="41" spans="2:22">
@@ -20915,17 +20914,17 @@
     </row>
     <row r="42" spans="2:22">
       <c r="B42" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
     </row>
     <row r="44" spans="2:22">
       <c r="B44" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
     </row>
     <row r="45" spans="2:22">
       <c r="B45" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
     </row>
     <row r="46" spans="2:22">
@@ -20935,7 +20934,7 @@
     </row>
     <row r="47" spans="2:22">
       <c r="B47" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
     </row>
     <row r="58" spans="14:14">
@@ -20946,18 +20945,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="T6:V6"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="J6:M6"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="Q6:S6"/>
-    <mergeCell ref="R8:U10"/>
-    <mergeCell ref="R12:U14"/>
-    <mergeCell ref="G13:I14"/>
-    <mergeCell ref="J13:L14"/>
-    <mergeCell ref="R16:S16"/>
-    <mergeCell ref="T16:U16"/>
     <mergeCell ref="E31:J33"/>
     <mergeCell ref="A1:A5"/>
     <mergeCell ref="E21:J23"/>
@@ -20974,6 +20961,18 @@
     <mergeCell ref="R19:S19"/>
     <mergeCell ref="T19:U19"/>
     <mergeCell ref="C8:D10"/>
+    <mergeCell ref="R8:U10"/>
+    <mergeCell ref="R12:U14"/>
+    <mergeCell ref="G13:I14"/>
+    <mergeCell ref="J13:L14"/>
+    <mergeCell ref="R16:S16"/>
+    <mergeCell ref="T16:U16"/>
+    <mergeCell ref="T6:V6"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="J6:M6"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="Q6:S6"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>
@@ -20988,8 +20987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V77"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -21193,7 +21192,7 @@
         <v>74</v>
       </c>
       <c r="E13" s="189"/>
-      <c r="F13" s="207"/>
+      <c r="F13" s="217"/>
       <c r="M13" s="23"/>
       <c r="N13" s="23"/>
       <c r="O13" s="23"/>
@@ -21210,7 +21209,7 @@
       <c r="C14" s="28"/>
       <c r="D14" s="192"/>
       <c r="E14" s="193"/>
-      <c r="F14" s="208"/>
+      <c r="F14" s="218"/>
       <c r="M14" s="23"/>
       <c r="N14" s="23"/>
       <c r="O14" s="23"/>
@@ -21257,10 +21256,10 @@
         <v>66</v>
       </c>
       <c r="S16" s="191"/>
-      <c r="T16" s="205" t="s">
+      <c r="T16" s="215" t="s">
         <v>70</v>
       </c>
-      <c r="U16" s="206"/>
+      <c r="U16" s="216"/>
       <c r="V16" s="19"/>
     </row>
     <row r="17" spans="2:22">
@@ -21278,10 +21277,10 @@
         <v>68</v>
       </c>
       <c r="S17" s="191"/>
-      <c r="T17" s="205" t="s">
+      <c r="T17" s="215" t="s">
         <v>72</v>
       </c>
-      <c r="U17" s="206"/>
+      <c r="U17" s="216"/>
       <c r="V17" s="19"/>
     </row>
     <row r="18" spans="2:22">
@@ -21311,10 +21310,10 @@
         <v>67</v>
       </c>
       <c r="S18" s="191"/>
-      <c r="T18" s="205" t="s">
+      <c r="T18" s="215" t="s">
         <v>73</v>
       </c>
-      <c r="U18" s="206"/>
+      <c r="U18" s="216"/>
       <c r="V18" s="19"/>
     </row>
     <row r="19" spans="2:22" ht="17.25" thickBot="1">
@@ -21338,10 +21337,10 @@
         <v>69</v>
       </c>
       <c r="S19" s="193"/>
-      <c r="T19" s="217" t="s">
+      <c r="T19" s="213" t="s">
         <v>71</v>
       </c>
-      <c r="U19" s="218"/>
+      <c r="U19" s="214"/>
       <c r="V19" s="19"/>
     </row>
     <row r="20" spans="2:22" ht="17.25" thickBot="1">
@@ -21371,14 +21370,14 @@
       <c r="B21" s="17"/>
       <c r="C21" s="28"/>
       <c r="D21" s="28"/>
-      <c r="E21" s="209" t="s">
+      <c r="E21" s="205" t="s">
         <v>65</v>
       </c>
-      <c r="F21" s="210"/>
-      <c r="G21" s="210"/>
-      <c r="H21" s="210"/>
-      <c r="I21" s="210"/>
-      <c r="J21" s="211"/>
+      <c r="F21" s="206"/>
+      <c r="G21" s="206"/>
+      <c r="H21" s="206"/>
+      <c r="I21" s="206"/>
+      <c r="J21" s="207"/>
       <c r="K21" s="23"/>
       <c r="L21" s="24"/>
       <c r="M21" s="23"/>
@@ -21398,12 +21397,12 @@
       <c r="B22" s="17"/>
       <c r="C22" s="28"/>
       <c r="D22" s="28"/>
-      <c r="E22" s="212"/>
+      <c r="E22" s="208"/>
       <c r="F22" s="191"/>
       <c r="G22" s="191"/>
       <c r="H22" s="191"/>
       <c r="I22" s="191"/>
-      <c r="J22" s="213"/>
+      <c r="J22" s="209"/>
       <c r="K22" s="23"/>
       <c r="L22" s="24"/>
       <c r="M22" s="23"/>
@@ -21421,12 +21420,12 @@
       <c r="B23" s="17"/>
       <c r="C23" s="28"/>
       <c r="D23" s="28"/>
-      <c r="E23" s="214"/>
-      <c r="F23" s="215"/>
-      <c r="G23" s="215"/>
-      <c r="H23" s="215"/>
-      <c r="I23" s="215"/>
-      <c r="J23" s="216"/>
+      <c r="E23" s="210"/>
+      <c r="F23" s="211"/>
+      <c r="G23" s="211"/>
+      <c r="H23" s="211"/>
+      <c r="I23" s="211"/>
+      <c r="J23" s="212"/>
       <c r="K23" s="23"/>
       <c r="L23" s="24"/>
       <c r="M23" s="23"/>
@@ -21611,14 +21610,14 @@
       <c r="B31" s="17"/>
       <c r="C31" s="28"/>
       <c r="D31" s="28"/>
-      <c r="E31" s="209" t="s">
+      <c r="E31" s="205" t="s">
         <v>65</v>
       </c>
-      <c r="F31" s="210"/>
-      <c r="G31" s="210"/>
-      <c r="H31" s="210"/>
-      <c r="I31" s="210"/>
-      <c r="J31" s="211"/>
+      <c r="F31" s="206"/>
+      <c r="G31" s="206"/>
+      <c r="H31" s="206"/>
+      <c r="I31" s="206"/>
+      <c r="J31" s="207"/>
       <c r="K31" s="23"/>
       <c r="L31" s="24"/>
       <c r="M31" s="23"/>
@@ -21636,12 +21635,12 @@
       <c r="B32" s="17"/>
       <c r="C32" s="28"/>
       <c r="D32" s="28"/>
-      <c r="E32" s="212"/>
+      <c r="E32" s="208"/>
       <c r="F32" s="191"/>
       <c r="G32" s="191"/>
       <c r="H32" s="191"/>
       <c r="I32" s="191"/>
-      <c r="J32" s="213"/>
+      <c r="J32" s="209"/>
       <c r="K32" s="23"/>
       <c r="L32" s="24"/>
       <c r="M32" s="23"/>
@@ -21659,12 +21658,12 @@
       <c r="B33" s="17"/>
       <c r="C33" s="28"/>
       <c r="D33" s="28"/>
-      <c r="E33" s="214"/>
-      <c r="F33" s="215"/>
-      <c r="G33" s="215"/>
-      <c r="H33" s="215"/>
-      <c r="I33" s="215"/>
-      <c r="J33" s="216"/>
+      <c r="E33" s="210"/>
+      <c r="F33" s="211"/>
+      <c r="G33" s="211"/>
+      <c r="H33" s="211"/>
+      <c r="I33" s="211"/>
+      <c r="J33" s="212"/>
       <c r="K33" s="23"/>
       <c r="L33" s="24"/>
       <c r="M33" s="23"/>
@@ -21751,92 +21750,92 @@
     </row>
     <row r="39" spans="2:22">
       <c r="B39" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="40" spans="2:22">
       <c r="B40" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
     </row>
     <row r="41" spans="2:22">
       <c r="B41" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
     </row>
     <row r="42" spans="2:22">
       <c r="B42" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
     </row>
     <row r="43" spans="2:22">
       <c r="B43" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
     </row>
     <row r="44" spans="2:22">
       <c r="B44" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
     </row>
     <row r="45" spans="2:22">
       <c r="B45" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="46" spans="2:22">
       <c r="B46" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
     </row>
     <row r="47" spans="2:22">
       <c r="B47" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="48" spans="2:22">
       <c r="B48" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="54" spans="2:2">
       <c r="B54" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
     </row>
     <row r="55" spans="2:2">
       <c r="B55" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
     </row>
     <row r="56" spans="2:2">
       <c r="B56" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
     </row>
     <row r="58" spans="2:2">
@@ -21846,17 +21845,17 @@
     </row>
     <row r="59" spans="2:2">
       <c r="B59" t="s">
-        <v>329</v>
+        <v>568</v>
       </c>
     </row>
     <row r="60" spans="2:2">
       <c r="B60" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="61" spans="2:2">
       <c r="B61" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="63" spans="2:2">
@@ -21866,71 +21865,83 @@
     </row>
     <row r="64" spans="2:2">
       <c r="B64" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="65" spans="2:2">
       <c r="B65" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="66" spans="2:2">
       <c r="B66" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="67" spans="2:2">
       <c r="B67" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="68" spans="2:2">
       <c r="B68" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="69" spans="2:2">
       <c r="B69" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="70" spans="2:2">
       <c r="B70" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="72" spans="2:2">
       <c r="B72" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="73" spans="2:2">
       <c r="B73" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="74" spans="2:2">
       <c r="B74" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="75" spans="2:2">
       <c r="B75" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="76" spans="2:2">
       <c r="B76" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="77" spans="2:2">
       <c r="B77" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="T17:U17"/>
+    <mergeCell ref="T18:U18"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="D13:E14"/>
+    <mergeCell ref="T6:V6"/>
+    <mergeCell ref="C8:D10"/>
+    <mergeCell ref="R8:U10"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="J6:M6"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="Q6:S6"/>
     <mergeCell ref="A1:A5"/>
     <mergeCell ref="E31:J33"/>
     <mergeCell ref="R25:S25"/>
@@ -21947,18 +21958,6 @@
     <mergeCell ref="E21:J23"/>
     <mergeCell ref="T19:U19"/>
     <mergeCell ref="T16:U16"/>
-    <mergeCell ref="T17:U17"/>
-    <mergeCell ref="T18:U18"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="D13:E14"/>
-    <mergeCell ref="T6:V6"/>
-    <mergeCell ref="C8:D10"/>
-    <mergeCell ref="R8:U10"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="J6:M6"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="Q6:S6"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>
@@ -22747,37 +22746,37 @@
     </row>
     <row r="39" spans="2:22">
       <c r="B39" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="40" spans="2:22">
       <c r="B40" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="41" spans="2:22">
       <c r="B41" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="42" spans="2:22">
       <c r="B42" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="44" spans="2:22">
       <c r="B44" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="45" spans="2:22">
       <c r="B45" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="46" spans="2:22">
       <c r="B46" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="58" spans="14:14">
@@ -23530,17 +23529,17 @@
     </row>
     <row r="39" spans="1:22">
       <c r="B39" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
     <row r="40" spans="1:22">
       <c r="B40" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="41" spans="1:22">
       <c r="B41" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="42" spans="1:22">
@@ -23548,42 +23547,42 @@
         <v>281</v>
       </c>
       <c r="B42" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="44" spans="1:22">
       <c r="B44" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="45" spans="1:22">
       <c r="B45" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="46" spans="1:22">
       <c r="B46" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="48" spans="1:22">
       <c r="B48" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
     </row>
     <row r="49" spans="2:14">
       <c r="B49" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
     </row>
     <row r="51" spans="2:14">
       <c r="B51" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
     </row>
     <row r="52" spans="2:14">
       <c r="B52" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="58" spans="2:14">
@@ -24331,32 +24330,32 @@
     </row>
     <row r="39" spans="2:22">
       <c r="B39" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="40" spans="2:22">
       <c r="B40" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
     </row>
     <row r="41" spans="2:22">
       <c r="B41" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="42" spans="2:22">
       <c r="B42" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="43" spans="2:22">
       <c r="B43" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="44" spans="2:22">
       <c r="B44" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="45" spans="2:22">
@@ -24366,12 +24365,12 @@
     </row>
     <row r="46" spans="2:22">
       <c r="B46" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
     </row>
     <row r="47" spans="2:22">
       <c r="B47" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="58" spans="14:14">
@@ -24382,6 +24381,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A1:A5"/>
+    <mergeCell ref="C8:D10"/>
+    <mergeCell ref="R8:U10"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="K16:M16"/>
+    <mergeCell ref="Q6:S6"/>
+    <mergeCell ref="T6:V6"/>
     <mergeCell ref="K18:M18"/>
     <mergeCell ref="J33:K33"/>
     <mergeCell ref="M33:N33"/>
@@ -24389,13 +24395,6 @@
     <mergeCell ref="F6:I6"/>
     <mergeCell ref="J6:M6"/>
     <mergeCell ref="N6:P6"/>
-    <mergeCell ref="A1:A5"/>
-    <mergeCell ref="C8:D10"/>
-    <mergeCell ref="R8:U10"/>
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="K16:M16"/>
-    <mergeCell ref="Q6:S6"/>
-    <mergeCell ref="T6:V6"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>
@@ -24443,7 +24442,7 @@
       <c r="D6" s="200"/>
       <c r="E6" s="200"/>
       <c r="F6" s="201" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="G6" s="201"/>
       <c r="H6" s="201"/>
@@ -24595,10 +24594,10 @@
       <c r="B12" s="28"/>
       <c r="C12" s="28"/>
       <c r="D12" s="6"/>
-      <c r="E12" s="227" t="s">
+      <c r="E12" s="225" t="s">
         <v>79</v>
       </c>
-      <c r="F12" s="228"/>
+      <c r="F12" s="226"/>
       <c r="G12" s="6"/>
       <c r="H12" s="188" t="s">
         <v>80</v>
@@ -24609,7 +24608,7 @@
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
       <c r="N12" s="23"/>
-      <c r="O12" s="223" t="s">
+      <c r="O12" s="229" t="s">
         <v>78</v>
       </c>
       <c r="P12" s="23"/>
@@ -24626,8 +24625,8 @@
       <c r="B13" s="28"/>
       <c r="C13" s="28"/>
       <c r="D13" s="6"/>
-      <c r="E13" s="229"/>
-      <c r="F13" s="230"/>
+      <c r="E13" s="227"/>
+      <c r="F13" s="228"/>
       <c r="G13" s="6"/>
       <c r="H13" s="192"/>
       <c r="I13" s="196"/>
@@ -24636,7 +24635,7 @@
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
       <c r="N13" s="39"/>
-      <c r="O13" s="224"/>
+      <c r="O13" s="230"/>
       <c r="P13" s="23"/>
       <c r="Q13" s="24"/>
       <c r="R13" s="191"/>
@@ -24712,10 +24711,10 @@
         <v>66</v>
       </c>
       <c r="S16" s="191"/>
-      <c r="T16" s="205" t="s">
+      <c r="T16" s="215" t="s">
         <v>70</v>
       </c>
-      <c r="U16" s="206"/>
+      <c r="U16" s="216"/>
       <c r="V16" s="24"/>
     </row>
     <row r="17" spans="2:22" ht="17.25" thickBot="1">
@@ -24723,7 +24722,7 @@
       <c r="C17" s="28"/>
       <c r="D17" s="39"/>
       <c r="E17" s="41"/>
-      <c r="F17" s="225" t="s">
+      <c r="F17" s="223" t="s">
         <v>88</v>
       </c>
       <c r="G17" s="190" t="s">
@@ -24745,10 +24744,10 @@
         <v>68</v>
       </c>
       <c r="S17" s="191"/>
-      <c r="T17" s="205" t="s">
+      <c r="T17" s="215" t="s">
         <v>72</v>
       </c>
-      <c r="U17" s="206"/>
+      <c r="U17" s="216"/>
       <c r="V17" s="24"/>
     </row>
     <row r="18" spans="2:22" ht="17.25" thickBot="1">
@@ -24756,7 +24755,7 @@
       <c r="C18" s="28"/>
       <c r="D18" s="39"/>
       <c r="E18" s="41"/>
-      <c r="F18" s="226"/>
+      <c r="F18" s="224"/>
       <c r="G18" s="190"/>
       <c r="H18" s="191"/>
       <c r="I18" s="39"/>
@@ -24772,10 +24771,10 @@
         <v>67</v>
       </c>
       <c r="S18" s="191"/>
-      <c r="T18" s="205" t="s">
+      <c r="T18" s="215" t="s">
         <v>73</v>
       </c>
-      <c r="U18" s="206"/>
+      <c r="U18" s="216"/>
       <c r="V18" s="24"/>
     </row>
     <row r="19" spans="2:22" ht="16.5" customHeight="1" thickBot="1">
@@ -24799,10 +24798,10 @@
         <v>69</v>
       </c>
       <c r="S19" s="193"/>
-      <c r="T19" s="217" t="s">
+      <c r="T19" s="213" t="s">
         <v>71</v>
       </c>
-      <c r="U19" s="218"/>
+      <c r="U19" s="214"/>
       <c r="V19" s="24"/>
     </row>
     <row r="20" spans="2:22" ht="16.5" customHeight="1" thickBot="1">
@@ -24958,7 +24957,7 @@
       <c r="C26" s="28"/>
       <c r="D26" s="39"/>
       <c r="E26" s="41"/>
-      <c r="F26" s="225" t="s">
+      <c r="F26" s="223" t="s">
         <v>88</v>
       </c>
       <c r="G26" s="190" t="s">
@@ -24989,7 +24988,7 @@
       <c r="C27" s="28"/>
       <c r="D27" s="39"/>
       <c r="E27" s="41"/>
-      <c r="F27" s="226"/>
+      <c r="F27" s="224"/>
       <c r="G27" s="190"/>
       <c r="H27" s="191"/>
       <c r="I27" s="39"/>
@@ -25226,56 +25225,69 @@
     </row>
     <row r="39" spans="2:22">
       <c r="B39" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="40" spans="2:22">
       <c r="B40" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
     </row>
     <row r="41" spans="2:22">
       <c r="B41" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="42" spans="2:22">
       <c r="B42" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="43" spans="2:22">
       <c r="B43" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="44" spans="2:22">
       <c r="B44" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="45" spans="2:22">
       <c r="B45" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="47" spans="2:22">
       <c r="B47" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="48" spans="2:22">
       <c r="B48" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="H12:I13"/>
+    <mergeCell ref="T6:V6"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="J6:M6"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="Q6:S6"/>
+    <mergeCell ref="T17:U17"/>
+    <mergeCell ref="R18:S18"/>
+    <mergeCell ref="T18:U18"/>
+    <mergeCell ref="R19:S19"/>
+    <mergeCell ref="T19:U19"/>
     <mergeCell ref="A1:A5"/>
     <mergeCell ref="R27:S27"/>
     <mergeCell ref="F26:F27"/>
@@ -25292,19 +25304,6 @@
     <mergeCell ref="R16:S16"/>
     <mergeCell ref="T16:U16"/>
     <mergeCell ref="E12:F13"/>
-    <mergeCell ref="T17:U17"/>
-    <mergeCell ref="R18:S18"/>
-    <mergeCell ref="T18:U18"/>
-    <mergeCell ref="R19:S19"/>
-    <mergeCell ref="T19:U19"/>
-    <mergeCell ref="O12:O13"/>
-    <mergeCell ref="H12:I13"/>
-    <mergeCell ref="T6:V6"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="J6:M6"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="Q6:S6"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>
@@ -25411,21 +25410,21 @@
         <v>129</v>
       </c>
       <c r="D8" s="194"/>
-      <c r="E8" s="240" t="s">
+      <c r="E8" s="258" t="s">
         <v>150</v>
       </c>
-      <c r="F8" s="241"/>
-      <c r="G8" s="241"/>
-      <c r="H8" s="241"/>
-      <c r="I8" s="241"/>
-      <c r="J8" s="241"/>
-      <c r="K8" s="241"/>
-      <c r="L8" s="241"/>
-      <c r="M8" s="241"/>
-      <c r="N8" s="241"/>
-      <c r="O8" s="241"/>
-      <c r="P8" s="241"/>
-      <c r="Q8" s="242"/>
+      <c r="F8" s="259"/>
+      <c r="G8" s="259"/>
+      <c r="H8" s="259"/>
+      <c r="I8" s="259"/>
+      <c r="J8" s="259"/>
+      <c r="K8" s="259"/>
+      <c r="L8" s="259"/>
+      <c r="M8" s="259"/>
+      <c r="N8" s="259"/>
+      <c r="O8" s="259"/>
+      <c r="P8" s="259"/>
+      <c r="Q8" s="260"/>
       <c r="R8" s="188" t="s">
         <v>131</v>
       </c>
@@ -25438,19 +25437,19 @@
       <c r="B9" s="163"/>
       <c r="C9" s="190"/>
       <c r="D9" s="195"/>
-      <c r="E9" s="243"/>
-      <c r="F9" s="244"/>
-      <c r="G9" s="244"/>
-      <c r="H9" s="244"/>
-      <c r="I9" s="244"/>
-      <c r="J9" s="244"/>
-      <c r="K9" s="244"/>
-      <c r="L9" s="244"/>
-      <c r="M9" s="244"/>
-      <c r="N9" s="244"/>
-      <c r="O9" s="244"/>
-      <c r="P9" s="244"/>
-      <c r="Q9" s="245"/>
+      <c r="E9" s="261"/>
+      <c r="F9" s="262"/>
+      <c r="G9" s="262"/>
+      <c r="H9" s="262"/>
+      <c r="I9" s="262"/>
+      <c r="J9" s="262"/>
+      <c r="K9" s="262"/>
+      <c r="L9" s="262"/>
+      <c r="M9" s="262"/>
+      <c r="N9" s="262"/>
+      <c r="O9" s="262"/>
+      <c r="P9" s="262"/>
+      <c r="Q9" s="263"/>
       <c r="R9" s="190"/>
       <c r="S9" s="191"/>
       <c r="T9" s="191"/>
@@ -25461,19 +25460,19 @@
       <c r="B10" s="163"/>
       <c r="C10" s="192"/>
       <c r="D10" s="196"/>
-      <c r="E10" s="243"/>
-      <c r="F10" s="244"/>
-      <c r="G10" s="244"/>
-      <c r="H10" s="244"/>
-      <c r="I10" s="244"/>
-      <c r="J10" s="244"/>
-      <c r="K10" s="244"/>
-      <c r="L10" s="244"/>
-      <c r="M10" s="244"/>
-      <c r="N10" s="244"/>
-      <c r="O10" s="244"/>
-      <c r="P10" s="244"/>
-      <c r="Q10" s="245"/>
+      <c r="E10" s="261"/>
+      <c r="F10" s="262"/>
+      <c r="G10" s="262"/>
+      <c r="H10" s="262"/>
+      <c r="I10" s="262"/>
+      <c r="J10" s="262"/>
+      <c r="K10" s="262"/>
+      <c r="L10" s="262"/>
+      <c r="M10" s="262"/>
+      <c r="N10" s="262"/>
+      <c r="O10" s="262"/>
+      <c r="P10" s="262"/>
+      <c r="Q10" s="263"/>
       <c r="R10" s="192"/>
       <c r="S10" s="193"/>
       <c r="T10" s="193"/>
@@ -25482,24 +25481,24 @@
     </row>
     <row r="11" spans="1:22">
       <c r="B11" s="163"/>
-      <c r="C11" s="231" t="s">
+      <c r="C11" s="249" t="s">
         <v>151</v>
       </c>
-      <c r="D11" s="232"/>
-      <c r="E11" s="232"/>
-      <c r="F11" s="232"/>
-      <c r="G11" s="232"/>
-      <c r="H11" s="232"/>
-      <c r="I11" s="232"/>
-      <c r="J11" s="232"/>
-      <c r="K11" s="232"/>
-      <c r="L11" s="232"/>
-      <c r="M11" s="232"/>
-      <c r="N11" s="232"/>
-      <c r="O11" s="232"/>
-      <c r="P11" s="232"/>
-      <c r="Q11" s="233"/>
-      <c r="R11" s="231" t="s">
+      <c r="D11" s="250"/>
+      <c r="E11" s="250"/>
+      <c r="F11" s="250"/>
+      <c r="G11" s="250"/>
+      <c r="H11" s="250"/>
+      <c r="I11" s="250"/>
+      <c r="J11" s="250"/>
+      <c r="K11" s="250"/>
+      <c r="L11" s="250"/>
+      <c r="M11" s="250"/>
+      <c r="N11" s="250"/>
+      <c r="O11" s="250"/>
+      <c r="P11" s="250"/>
+      <c r="Q11" s="251"/>
+      <c r="R11" s="249" t="s">
         <v>152</v>
       </c>
       <c r="S11" s="189"/>
@@ -25509,21 +25508,21 @@
     </row>
     <row r="12" spans="1:22">
       <c r="B12" s="163"/>
-      <c r="C12" s="234"/>
-      <c r="D12" s="235"/>
-      <c r="E12" s="235"/>
-      <c r="F12" s="235"/>
-      <c r="G12" s="235"/>
-      <c r="H12" s="235"/>
-      <c r="I12" s="235"/>
-      <c r="J12" s="235"/>
-      <c r="K12" s="235"/>
-      <c r="L12" s="235"/>
-      <c r="M12" s="235"/>
-      <c r="N12" s="235"/>
-      <c r="O12" s="235"/>
-      <c r="P12" s="235"/>
-      <c r="Q12" s="236"/>
+      <c r="C12" s="252"/>
+      <c r="D12" s="253"/>
+      <c r="E12" s="253"/>
+      <c r="F12" s="253"/>
+      <c r="G12" s="253"/>
+      <c r="H12" s="253"/>
+      <c r="I12" s="253"/>
+      <c r="J12" s="253"/>
+      <c r="K12" s="253"/>
+      <c r="L12" s="253"/>
+      <c r="M12" s="253"/>
+      <c r="N12" s="253"/>
+      <c r="O12" s="253"/>
+      <c r="P12" s="253"/>
+      <c r="Q12" s="254"/>
       <c r="R12" s="190"/>
       <c r="S12" s="191"/>
       <c r="T12" s="191"/>
@@ -25532,21 +25531,21 @@
     </row>
     <row r="13" spans="1:22">
       <c r="B13" s="163"/>
-      <c r="C13" s="234"/>
-      <c r="D13" s="235"/>
-      <c r="E13" s="235"/>
-      <c r="F13" s="235"/>
-      <c r="G13" s="235"/>
-      <c r="H13" s="235"/>
-      <c r="I13" s="235"/>
-      <c r="J13" s="235"/>
-      <c r="K13" s="235"/>
-      <c r="L13" s="235"/>
-      <c r="M13" s="235"/>
-      <c r="N13" s="235"/>
-      <c r="O13" s="235"/>
-      <c r="P13" s="235"/>
-      <c r="Q13" s="236"/>
+      <c r="C13" s="252"/>
+      <c r="D13" s="253"/>
+      <c r="E13" s="253"/>
+      <c r="F13" s="253"/>
+      <c r="G13" s="253"/>
+      <c r="H13" s="253"/>
+      <c r="I13" s="253"/>
+      <c r="J13" s="253"/>
+      <c r="K13" s="253"/>
+      <c r="L13" s="253"/>
+      <c r="M13" s="253"/>
+      <c r="N13" s="253"/>
+      <c r="O13" s="253"/>
+      <c r="P13" s="253"/>
+      <c r="Q13" s="254"/>
       <c r="R13" s="190"/>
       <c r="S13" s="191"/>
       <c r="T13" s="191"/>
@@ -25555,21 +25554,21 @@
     </row>
     <row r="14" spans="1:22">
       <c r="B14" s="163"/>
-      <c r="C14" s="234"/>
-      <c r="D14" s="235"/>
-      <c r="E14" s="235"/>
-      <c r="F14" s="235"/>
-      <c r="G14" s="235"/>
-      <c r="H14" s="235"/>
-      <c r="I14" s="235"/>
-      <c r="J14" s="235"/>
-      <c r="K14" s="235"/>
-      <c r="L14" s="235"/>
-      <c r="M14" s="235"/>
-      <c r="N14" s="235"/>
-      <c r="O14" s="235"/>
-      <c r="P14" s="235"/>
-      <c r="Q14" s="236"/>
+      <c r="C14" s="252"/>
+      <c r="D14" s="253"/>
+      <c r="E14" s="253"/>
+      <c r="F14" s="253"/>
+      <c r="G14" s="253"/>
+      <c r="H14" s="253"/>
+      <c r="I14" s="253"/>
+      <c r="J14" s="253"/>
+      <c r="K14" s="253"/>
+      <c r="L14" s="253"/>
+      <c r="M14" s="253"/>
+      <c r="N14" s="253"/>
+      <c r="O14" s="253"/>
+      <c r="P14" s="253"/>
+      <c r="Q14" s="254"/>
       <c r="R14" s="190"/>
       <c r="S14" s="191"/>
       <c r="T14" s="191"/>
@@ -25578,21 +25577,21 @@
     </row>
     <row r="15" spans="1:22" ht="17.25" thickBot="1">
       <c r="B15" s="163"/>
-      <c r="C15" s="237"/>
-      <c r="D15" s="238"/>
-      <c r="E15" s="238"/>
-      <c r="F15" s="238"/>
-      <c r="G15" s="238"/>
-      <c r="H15" s="238"/>
-      <c r="I15" s="238"/>
-      <c r="J15" s="238"/>
-      <c r="K15" s="238"/>
-      <c r="L15" s="238"/>
-      <c r="M15" s="238"/>
-      <c r="N15" s="238"/>
-      <c r="O15" s="238"/>
-      <c r="P15" s="238"/>
-      <c r="Q15" s="239"/>
+      <c r="C15" s="255"/>
+      <c r="D15" s="256"/>
+      <c r="E15" s="256"/>
+      <c r="F15" s="256"/>
+      <c r="G15" s="256"/>
+      <c r="H15" s="256"/>
+      <c r="I15" s="256"/>
+      <c r="J15" s="256"/>
+      <c r="K15" s="256"/>
+      <c r="L15" s="256"/>
+      <c r="M15" s="256"/>
+      <c r="N15" s="256"/>
+      <c r="O15" s="256"/>
+      <c r="P15" s="256"/>
+      <c r="Q15" s="257"/>
       <c r="R15" s="190"/>
       <c r="S15" s="191"/>
       <c r="T15" s="191"/>
@@ -25602,7 +25601,7 @@
     <row r="16" spans="1:22" ht="17.25" thickBot="1">
       <c r="B16" s="163"/>
       <c r="C16" s="45" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="D16" s="47"/>
       <c r="E16" s="47"/>
@@ -25611,7 +25610,7 @@
       <c r="H16" s="47"/>
       <c r="I16" s="185"/>
       <c r="J16" s="188" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="K16" s="189"/>
       <c r="L16" s="189"/>
@@ -25628,26 +25627,26 @@
     </row>
     <row r="17" spans="2:22">
       <c r="B17" s="163"/>
-      <c r="C17" s="246" t="s">
+      <c r="C17" s="264" t="s">
         <v>141</v>
       </c>
-      <c r="D17" s="225" t="s">
+      <c r="D17" s="223" t="s">
+        <v>494</v>
+      </c>
+      <c r="E17" s="223" t="s">
+        <v>495</v>
+      </c>
+      <c r="F17" s="223" t="s">
+        <v>496</v>
+      </c>
+      <c r="G17" s="223" t="s">
         <v>497</v>
       </c>
-      <c r="E17" s="225" t="s">
+      <c r="H17" s="223" t="s">
         <v>498</v>
       </c>
-      <c r="F17" s="225" t="s">
+      <c r="I17" s="268" t="s">
         <v>499</v>
-      </c>
-      <c r="G17" s="225" t="s">
-        <v>500</v>
-      </c>
-      <c r="H17" s="225" t="s">
-        <v>501</v>
-      </c>
-      <c r="I17" s="250" t="s">
-        <v>502</v>
       </c>
       <c r="J17" s="190"/>
       <c r="K17" s="191"/>
@@ -25665,13 +25664,13 @@
     </row>
     <row r="18" spans="2:22">
       <c r="B18" s="163"/>
-      <c r="C18" s="247"/>
-      <c r="D18" s="249"/>
-      <c r="E18" s="249"/>
-      <c r="F18" s="249"/>
-      <c r="G18" s="249"/>
-      <c r="H18" s="249"/>
-      <c r="I18" s="251"/>
+      <c r="C18" s="265"/>
+      <c r="D18" s="267"/>
+      <c r="E18" s="267"/>
+      <c r="F18" s="267"/>
+      <c r="G18" s="267"/>
+      <c r="H18" s="267"/>
+      <c r="I18" s="269"/>
       <c r="J18" s="190"/>
       <c r="K18" s="191"/>
       <c r="L18" s="191"/>
@@ -25688,13 +25687,13 @@
     </row>
     <row r="19" spans="2:22" ht="17.25" thickBot="1">
       <c r="B19" s="163"/>
-      <c r="C19" s="248"/>
-      <c r="D19" s="226"/>
-      <c r="E19" s="226"/>
-      <c r="F19" s="226"/>
-      <c r="G19" s="226"/>
-      <c r="H19" s="226"/>
-      <c r="I19" s="252"/>
+      <c r="C19" s="266"/>
+      <c r="D19" s="224"/>
+      <c r="E19" s="224"/>
+      <c r="F19" s="224"/>
+      <c r="G19" s="224"/>
+      <c r="H19" s="224"/>
+      <c r="I19" s="270"/>
       <c r="J19" s="190"/>
       <c r="K19" s="191"/>
       <c r="L19" s="191"/>
@@ -25711,23 +25710,23 @@
     </row>
     <row r="20" spans="2:22" ht="17.25" thickBot="1">
       <c r="B20" s="163"/>
-      <c r="C20" s="253"/>
-      <c r="D20" s="268">
+      <c r="C20" s="271"/>
+      <c r="D20" s="248">
         <v>1</v>
       </c>
-      <c r="E20" s="268">
+      <c r="E20" s="248">
         <v>2</v>
       </c>
-      <c r="F20" s="268">
+      <c r="F20" s="248">
         <v>3</v>
       </c>
-      <c r="G20" s="268">
+      <c r="G20" s="248">
         <v>4</v>
       </c>
-      <c r="H20" s="268">
+      <c r="H20" s="248">
         <v>5</v>
       </c>
-      <c r="I20" s="256">
+      <c r="I20" s="245">
         <v>6</v>
       </c>
       <c r="J20" s="190"/>
@@ -25746,13 +25745,13 @@
     </row>
     <row r="21" spans="2:22">
       <c r="B21" s="163"/>
-      <c r="C21" s="254"/>
-      <c r="D21" s="263"/>
-      <c r="E21" s="263"/>
-      <c r="F21" s="263"/>
-      <c r="G21" s="263"/>
-      <c r="H21" s="263"/>
-      <c r="I21" s="257"/>
+      <c r="C21" s="272"/>
+      <c r="D21" s="232"/>
+      <c r="E21" s="232"/>
+      <c r="F21" s="232"/>
+      <c r="G21" s="232"/>
+      <c r="H21" s="232"/>
+      <c r="I21" s="246"/>
       <c r="J21" s="190"/>
       <c r="K21" s="191"/>
       <c r="L21" s="191"/>
@@ -25761,7 +25760,7 @@
       <c r="O21" s="191"/>
       <c r="P21" s="191"/>
       <c r="Q21" s="195"/>
-      <c r="R21" s="231" t="s">
+      <c r="R21" s="249" t="s">
         <v>133</v>
       </c>
       <c r="S21" s="189"/>
@@ -25771,13 +25770,13 @@
     </row>
     <row r="22" spans="2:22">
       <c r="B22" s="163"/>
-      <c r="C22" s="255"/>
-      <c r="D22" s="264"/>
-      <c r="E22" s="264"/>
-      <c r="F22" s="264"/>
-      <c r="G22" s="264"/>
-      <c r="H22" s="264"/>
-      <c r="I22" s="258"/>
+      <c r="C22" s="273"/>
+      <c r="D22" s="240"/>
+      <c r="E22" s="240"/>
+      <c r="F22" s="240"/>
+      <c r="G22" s="240"/>
+      <c r="H22" s="240"/>
+      <c r="I22" s="247"/>
       <c r="J22" s="190"/>
       <c r="K22" s="191"/>
       <c r="L22" s="191"/>
@@ -25794,25 +25793,25 @@
     </row>
     <row r="23" spans="2:22">
       <c r="B23" s="163"/>
-      <c r="C23" s="259">
+      <c r="C23" s="237">
         <v>7</v>
       </c>
-      <c r="D23" s="262">
+      <c r="D23" s="231">
         <v>8</v>
       </c>
-      <c r="E23" s="262">
+      <c r="E23" s="231">
         <v>9</v>
       </c>
-      <c r="F23" s="262">
+      <c r="F23" s="231">
         <v>10</v>
       </c>
-      <c r="G23" s="262">
+      <c r="G23" s="231">
         <v>11</v>
       </c>
-      <c r="H23" s="262">
+      <c r="H23" s="231">
         <v>12</v>
       </c>
-      <c r="I23" s="265">
+      <c r="I23" s="241">
         <v>13</v>
       </c>
       <c r="J23" s="190"/>
@@ -25831,13 +25830,13 @@
     </row>
     <row r="24" spans="2:22" ht="16.5" customHeight="1">
       <c r="B24" s="163"/>
-      <c r="C24" s="260"/>
-      <c r="D24" s="263"/>
-      <c r="E24" s="263"/>
-      <c r="F24" s="263"/>
-      <c r="G24" s="263"/>
-      <c r="H24" s="263"/>
-      <c r="I24" s="266"/>
+      <c r="C24" s="238"/>
+      <c r="D24" s="232"/>
+      <c r="E24" s="232"/>
+      <c r="F24" s="232"/>
+      <c r="G24" s="232"/>
+      <c r="H24" s="232"/>
+      <c r="I24" s="242"/>
       <c r="J24" s="190"/>
       <c r="K24" s="191"/>
       <c r="L24" s="191"/>
@@ -25854,13 +25853,13 @@
     </row>
     <row r="25" spans="2:22">
       <c r="B25" s="163"/>
-      <c r="C25" s="261"/>
-      <c r="D25" s="264"/>
-      <c r="E25" s="264"/>
-      <c r="F25" s="264"/>
-      <c r="G25" s="264"/>
-      <c r="H25" s="264"/>
-      <c r="I25" s="267"/>
+      <c r="C25" s="244"/>
+      <c r="D25" s="240"/>
+      <c r="E25" s="240"/>
+      <c r="F25" s="240"/>
+      <c r="G25" s="240"/>
+      <c r="H25" s="240"/>
+      <c r="I25" s="243"/>
       <c r="J25" s="190"/>
       <c r="K25" s="191"/>
       <c r="L25" s="191"/>
@@ -25877,25 +25876,25 @@
     </row>
     <row r="26" spans="2:22" ht="16.5" customHeight="1">
       <c r="B26" s="163"/>
-      <c r="C26" s="259">
+      <c r="C26" s="237">
         <v>14</v>
       </c>
-      <c r="D26" s="262">
+      <c r="D26" s="231">
         <v>15</v>
       </c>
-      <c r="E26" s="262">
+      <c r="E26" s="231">
         <v>16</v>
       </c>
-      <c r="F26" s="262">
+      <c r="F26" s="231">
         <v>17</v>
       </c>
-      <c r="G26" s="262">
+      <c r="G26" s="231">
         <v>18</v>
       </c>
-      <c r="H26" s="262">
+      <c r="H26" s="231">
         <v>19</v>
       </c>
-      <c r="I26" s="265">
+      <c r="I26" s="241">
         <v>20</v>
       </c>
       <c r="J26" s="190"/>
@@ -25914,13 +25913,13 @@
     </row>
     <row r="27" spans="2:22">
       <c r="B27" s="163"/>
-      <c r="C27" s="260"/>
-      <c r="D27" s="263"/>
-      <c r="E27" s="263"/>
-      <c r="F27" s="263"/>
-      <c r="G27" s="263"/>
-      <c r="H27" s="263"/>
-      <c r="I27" s="266"/>
+      <c r="C27" s="238"/>
+      <c r="D27" s="232"/>
+      <c r="E27" s="232"/>
+      <c r="F27" s="232"/>
+      <c r="G27" s="232"/>
+      <c r="H27" s="232"/>
+      <c r="I27" s="242"/>
       <c r="J27" s="190"/>
       <c r="K27" s="191"/>
       <c r="L27" s="191"/>
@@ -25937,13 +25936,13 @@
     </row>
     <row r="28" spans="2:22" ht="17.25" thickBot="1">
       <c r="B28" s="163"/>
-      <c r="C28" s="261"/>
-      <c r="D28" s="264"/>
-      <c r="E28" s="264"/>
-      <c r="F28" s="264"/>
-      <c r="G28" s="264"/>
-      <c r="H28" s="264"/>
-      <c r="I28" s="267"/>
+      <c r="C28" s="244"/>
+      <c r="D28" s="240"/>
+      <c r="E28" s="240"/>
+      <c r="F28" s="240"/>
+      <c r="G28" s="240"/>
+      <c r="H28" s="240"/>
+      <c r="I28" s="243"/>
       <c r="J28" s="190"/>
       <c r="K28" s="191"/>
       <c r="L28" s="191"/>
@@ -25960,25 +25959,25 @@
     </row>
     <row r="29" spans="2:22">
       <c r="B29" s="163"/>
-      <c r="C29" s="259">
+      <c r="C29" s="237">
         <v>21</v>
       </c>
-      <c r="D29" s="262">
+      <c r="D29" s="231">
         <v>22</v>
       </c>
-      <c r="E29" s="262">
+      <c r="E29" s="231">
         <v>23</v>
       </c>
-      <c r="F29" s="262">
+      <c r="F29" s="231">
         <v>24</v>
       </c>
-      <c r="G29" s="262">
+      <c r="G29" s="231">
         <v>25</v>
       </c>
-      <c r="H29" s="262">
+      <c r="H29" s="231">
         <v>26</v>
       </c>
-      <c r="I29" s="265">
+      <c r="I29" s="241">
         <v>27</v>
       </c>
       <c r="J29" s="190"/>
@@ -25989,7 +25988,7 @@
       <c r="O29" s="191"/>
       <c r="P29" s="191"/>
       <c r="Q29" s="195"/>
-      <c r="R29" s="231" t="s">
+      <c r="R29" s="249" t="s">
         <v>148</v>
       </c>
       <c r="S29" s="189"/>
@@ -25999,13 +25998,13 @@
     </row>
     <row r="30" spans="2:22">
       <c r="B30" s="163"/>
-      <c r="C30" s="260"/>
-      <c r="D30" s="263"/>
-      <c r="E30" s="263"/>
-      <c r="F30" s="263"/>
-      <c r="G30" s="263"/>
-      <c r="H30" s="263"/>
-      <c r="I30" s="266"/>
+      <c r="C30" s="238"/>
+      <c r="D30" s="232"/>
+      <c r="E30" s="232"/>
+      <c r="F30" s="232"/>
+      <c r="G30" s="232"/>
+      <c r="H30" s="232"/>
+      <c r="I30" s="242"/>
       <c r="J30" s="190"/>
       <c r="K30" s="191"/>
       <c r="L30" s="191"/>
@@ -26022,13 +26021,13 @@
     </row>
     <row r="31" spans="2:22">
       <c r="B31" s="163"/>
-      <c r="C31" s="261"/>
-      <c r="D31" s="264"/>
-      <c r="E31" s="264"/>
-      <c r="F31" s="264"/>
-      <c r="G31" s="264"/>
-      <c r="H31" s="264"/>
-      <c r="I31" s="267"/>
+      <c r="C31" s="244"/>
+      <c r="D31" s="240"/>
+      <c r="E31" s="240"/>
+      <c r="F31" s="240"/>
+      <c r="G31" s="240"/>
+      <c r="H31" s="240"/>
+      <c r="I31" s="243"/>
       <c r="J31" s="190"/>
       <c r="K31" s="191"/>
       <c r="L31" s="191"/>
@@ -26045,21 +26044,21 @@
     </row>
     <row r="32" spans="2:22">
       <c r="B32" s="163"/>
-      <c r="C32" s="259">
+      <c r="C32" s="237">
         <v>28</v>
       </c>
-      <c r="D32" s="262">
+      <c r="D32" s="231">
         <v>29</v>
       </c>
-      <c r="E32" s="262">
+      <c r="E32" s="231">
         <v>30</v>
       </c>
-      <c r="F32" s="262">
+      <c r="F32" s="231">
         <v>31</v>
       </c>
-      <c r="G32" s="262"/>
-      <c r="H32" s="262"/>
-      <c r="I32" s="270"/>
+      <c r="G32" s="231"/>
+      <c r="H32" s="231"/>
+      <c r="I32" s="234"/>
       <c r="J32" s="190"/>
       <c r="K32" s="191"/>
       <c r="L32" s="191"/>
@@ -26076,13 +26075,13 @@
     </row>
     <row r="33" spans="2:22">
       <c r="B33" s="163"/>
-      <c r="C33" s="260"/>
-      <c r="D33" s="263"/>
-      <c r="E33" s="263"/>
-      <c r="F33" s="263"/>
-      <c r="G33" s="263"/>
-      <c r="H33" s="263"/>
-      <c r="I33" s="271"/>
+      <c r="C33" s="238"/>
+      <c r="D33" s="232"/>
+      <c r="E33" s="232"/>
+      <c r="F33" s="232"/>
+      <c r="G33" s="232"/>
+      <c r="H33" s="232"/>
+      <c r="I33" s="235"/>
       <c r="J33" s="190"/>
       <c r="K33" s="191"/>
       <c r="L33" s="191"/>
@@ -26099,13 +26098,13 @@
     </row>
     <row r="34" spans="2:22" ht="17.25" thickBot="1">
       <c r="B34" s="163"/>
-      <c r="C34" s="273"/>
-      <c r="D34" s="269"/>
-      <c r="E34" s="269"/>
-      <c r="F34" s="269"/>
-      <c r="G34" s="269"/>
-      <c r="H34" s="269"/>
-      <c r="I34" s="272"/>
+      <c r="C34" s="239"/>
+      <c r="D34" s="233"/>
+      <c r="E34" s="233"/>
+      <c r="F34" s="233"/>
+      <c r="G34" s="233"/>
+      <c r="H34" s="233"/>
+      <c r="I34" s="236"/>
       <c r="J34" s="192"/>
       <c r="K34" s="193"/>
       <c r="L34" s="193"/>
@@ -26170,52 +26169,52 @@
     </row>
     <row r="39" spans="2:22">
       <c r="B39" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="40" spans="2:22">
       <c r="B40" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="41" spans="2:22">
       <c r="B41" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="42" spans="2:22">
       <c r="B42" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="44" spans="2:22">
       <c r="B44" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
     </row>
     <row r="45" spans="2:22">
       <c r="B45" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="46" spans="2:22">
       <c r="B46" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
     </row>
     <row r="47" spans="2:22">
       <c r="B47" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="48" spans="2:22">
       <c r="B48" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="49" spans="2:15">
       <c r="B49" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="H49" s="6"/>
       <c r="I49" s="6"/>
@@ -26226,14 +26225,14 @@
     </row>
     <row r="51" spans="2:15">
       <c r="B51" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="H51" s="6"/>
       <c r="I51" s="6"/>
     </row>
     <row r="52" spans="2:15">
       <c r="B52" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="H52" s="6"/>
       <c r="I52" s="6"/>
@@ -26247,7 +26246,7 @@
     </row>
     <row r="54" spans="2:15">
       <c r="B54" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="H54" s="6"/>
       <c r="I54" s="6"/>
@@ -26296,47 +26295,6 @@
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="H32:H34"/>
-    <mergeCell ref="I32:I34"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="D32:D34"/>
-    <mergeCell ref="E32:E34"/>
-    <mergeCell ref="F32:F34"/>
-    <mergeCell ref="G32:G34"/>
-    <mergeCell ref="H26:H28"/>
-    <mergeCell ref="I26:I28"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="D29:D31"/>
-    <mergeCell ref="E29:E31"/>
-    <mergeCell ref="F29:F31"/>
-    <mergeCell ref="G29:G31"/>
-    <mergeCell ref="H29:H31"/>
-    <mergeCell ref="I29:I31"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="D26:D28"/>
-    <mergeCell ref="E26:E28"/>
-    <mergeCell ref="F26:F28"/>
-    <mergeCell ref="G26:G28"/>
-    <mergeCell ref="I20:I22"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="D23:D25"/>
-    <mergeCell ref="E23:E25"/>
-    <mergeCell ref="F23:F25"/>
-    <mergeCell ref="G23:G25"/>
-    <mergeCell ref="H23:H25"/>
-    <mergeCell ref="I23:I25"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="E20:E22"/>
-    <mergeCell ref="F20:F22"/>
-    <mergeCell ref="G20:G22"/>
-    <mergeCell ref="H20:H22"/>
-    <mergeCell ref="T6:V6"/>
-    <mergeCell ref="A1:A5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="J6:M6"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="Q6:S6"/>
     <mergeCell ref="R8:U10"/>
     <mergeCell ref="C11:Q15"/>
     <mergeCell ref="R11:U20"/>
@@ -26353,6 +26311,47 @@
     <mergeCell ref="H17:H19"/>
     <mergeCell ref="I17:I19"/>
     <mergeCell ref="C20:C22"/>
+    <mergeCell ref="T6:V6"/>
+    <mergeCell ref="A1:A5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="J6:M6"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="Q6:S6"/>
+    <mergeCell ref="I20:I22"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="E23:E25"/>
+    <mergeCell ref="F23:F25"/>
+    <mergeCell ref="G23:G25"/>
+    <mergeCell ref="H23:H25"/>
+    <mergeCell ref="I23:I25"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="F20:F22"/>
+    <mergeCell ref="G20:G22"/>
+    <mergeCell ref="H20:H22"/>
+    <mergeCell ref="H26:H28"/>
+    <mergeCell ref="I26:I28"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="D29:D31"/>
+    <mergeCell ref="E29:E31"/>
+    <mergeCell ref="F29:F31"/>
+    <mergeCell ref="G29:G31"/>
+    <mergeCell ref="H29:H31"/>
+    <mergeCell ref="I29:I31"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="E26:E28"/>
+    <mergeCell ref="F26:F28"/>
+    <mergeCell ref="G26:G28"/>
+    <mergeCell ref="H32:H34"/>
+    <mergeCell ref="I32:I34"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="E32:E34"/>
+    <mergeCell ref="F32:F34"/>
+    <mergeCell ref="G32:G34"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>
@@ -26459,21 +26458,21 @@
         <v>58</v>
       </c>
       <c r="D8" s="194"/>
-      <c r="E8" s="240" t="s">
+      <c r="E8" s="258" t="s">
         <v>150</v>
       </c>
-      <c r="F8" s="241"/>
-      <c r="G8" s="241"/>
-      <c r="H8" s="241"/>
-      <c r="I8" s="241"/>
-      <c r="J8" s="241"/>
-      <c r="K8" s="241"/>
-      <c r="L8" s="241"/>
-      <c r="M8" s="241"/>
-      <c r="N8" s="241"/>
-      <c r="O8" s="241"/>
-      <c r="P8" s="241"/>
-      <c r="Q8" s="242"/>
+      <c r="F8" s="259"/>
+      <c r="G8" s="259"/>
+      <c r="H8" s="259"/>
+      <c r="I8" s="259"/>
+      <c r="J8" s="259"/>
+      <c r="K8" s="259"/>
+      <c r="L8" s="259"/>
+      <c r="M8" s="259"/>
+      <c r="N8" s="259"/>
+      <c r="O8" s="259"/>
+      <c r="P8" s="259"/>
+      <c r="Q8" s="260"/>
       <c r="R8" s="188" t="s">
         <v>131</v>
       </c>
@@ -26486,19 +26485,19 @@
       <c r="B9" s="175"/>
       <c r="C9" s="190"/>
       <c r="D9" s="195"/>
-      <c r="E9" s="243"/>
-      <c r="F9" s="244"/>
-      <c r="G9" s="244"/>
-      <c r="H9" s="244"/>
-      <c r="I9" s="244"/>
-      <c r="J9" s="244"/>
-      <c r="K9" s="244"/>
-      <c r="L9" s="244"/>
-      <c r="M9" s="244"/>
-      <c r="N9" s="244"/>
-      <c r="O9" s="244"/>
-      <c r="P9" s="244"/>
-      <c r="Q9" s="245"/>
+      <c r="E9" s="261"/>
+      <c r="F9" s="262"/>
+      <c r="G9" s="262"/>
+      <c r="H9" s="262"/>
+      <c r="I9" s="262"/>
+      <c r="J9" s="262"/>
+      <c r="K9" s="262"/>
+      <c r="L9" s="262"/>
+      <c r="M9" s="262"/>
+      <c r="N9" s="262"/>
+      <c r="O9" s="262"/>
+      <c r="P9" s="262"/>
+      <c r="Q9" s="263"/>
       <c r="R9" s="190"/>
       <c r="S9" s="191"/>
       <c r="T9" s="191"/>
@@ -26509,19 +26508,19 @@
       <c r="B10" s="175"/>
       <c r="C10" s="192"/>
       <c r="D10" s="196"/>
-      <c r="E10" s="243"/>
-      <c r="F10" s="244"/>
-      <c r="G10" s="244"/>
-      <c r="H10" s="244"/>
-      <c r="I10" s="244"/>
-      <c r="J10" s="244"/>
-      <c r="K10" s="244"/>
-      <c r="L10" s="244"/>
-      <c r="M10" s="244"/>
-      <c r="N10" s="244"/>
-      <c r="O10" s="244"/>
-      <c r="P10" s="244"/>
-      <c r="Q10" s="245"/>
+      <c r="E10" s="261"/>
+      <c r="F10" s="262"/>
+      <c r="G10" s="262"/>
+      <c r="H10" s="262"/>
+      <c r="I10" s="262"/>
+      <c r="J10" s="262"/>
+      <c r="K10" s="262"/>
+      <c r="L10" s="262"/>
+      <c r="M10" s="262"/>
+      <c r="N10" s="262"/>
+      <c r="O10" s="262"/>
+      <c r="P10" s="262"/>
+      <c r="Q10" s="263"/>
       <c r="R10" s="192"/>
       <c r="S10" s="193"/>
       <c r="T10" s="193"/>
@@ -26530,24 +26529,24 @@
     </row>
     <row r="11" spans="1:22">
       <c r="B11" s="175"/>
-      <c r="C11" s="231" t="s">
+      <c r="C11" s="249" t="s">
         <v>151</v>
       </c>
-      <c r="D11" s="232"/>
-      <c r="E11" s="232"/>
-      <c r="F11" s="232"/>
-      <c r="G11" s="232"/>
-      <c r="H11" s="232"/>
-      <c r="I11" s="232"/>
-      <c r="J11" s="232"/>
-      <c r="K11" s="232"/>
-      <c r="L11" s="232"/>
-      <c r="M11" s="232"/>
-      <c r="N11" s="232"/>
-      <c r="O11" s="232"/>
-      <c r="P11" s="232"/>
-      <c r="Q11" s="233"/>
-      <c r="R11" s="231" t="s">
+      <c r="D11" s="250"/>
+      <c r="E11" s="250"/>
+      <c r="F11" s="250"/>
+      <c r="G11" s="250"/>
+      <c r="H11" s="250"/>
+      <c r="I11" s="250"/>
+      <c r="J11" s="250"/>
+      <c r="K11" s="250"/>
+      <c r="L11" s="250"/>
+      <c r="M11" s="250"/>
+      <c r="N11" s="250"/>
+      <c r="O11" s="250"/>
+      <c r="P11" s="250"/>
+      <c r="Q11" s="251"/>
+      <c r="R11" s="249" t="s">
         <v>152</v>
       </c>
       <c r="S11" s="189"/>
@@ -26557,21 +26556,21 @@
     </row>
     <row r="12" spans="1:22">
       <c r="B12" s="175"/>
-      <c r="C12" s="234"/>
-      <c r="D12" s="235"/>
-      <c r="E12" s="235"/>
-      <c r="F12" s="235"/>
-      <c r="G12" s="235"/>
-      <c r="H12" s="235"/>
-      <c r="I12" s="235"/>
-      <c r="J12" s="235"/>
-      <c r="K12" s="235"/>
-      <c r="L12" s="235"/>
-      <c r="M12" s="235"/>
-      <c r="N12" s="235"/>
-      <c r="O12" s="235"/>
-      <c r="P12" s="235"/>
-      <c r="Q12" s="236"/>
+      <c r="C12" s="252"/>
+      <c r="D12" s="253"/>
+      <c r="E12" s="253"/>
+      <c r="F12" s="253"/>
+      <c r="G12" s="253"/>
+      <c r="H12" s="253"/>
+      <c r="I12" s="253"/>
+      <c r="J12" s="253"/>
+      <c r="K12" s="253"/>
+      <c r="L12" s="253"/>
+      <c r="M12" s="253"/>
+      <c r="N12" s="253"/>
+      <c r="O12" s="253"/>
+      <c r="P12" s="253"/>
+      <c r="Q12" s="254"/>
       <c r="R12" s="190"/>
       <c r="S12" s="191"/>
       <c r="T12" s="191"/>
@@ -26580,21 +26579,21 @@
     </row>
     <row r="13" spans="1:22">
       <c r="B13" s="175"/>
-      <c r="C13" s="234"/>
-      <c r="D13" s="235"/>
-      <c r="E13" s="235"/>
-      <c r="F13" s="235"/>
-      <c r="G13" s="235"/>
-      <c r="H13" s="235"/>
-      <c r="I13" s="235"/>
-      <c r="J13" s="235"/>
-      <c r="K13" s="235"/>
-      <c r="L13" s="235"/>
-      <c r="M13" s="235"/>
-      <c r="N13" s="235"/>
-      <c r="O13" s="235"/>
-      <c r="P13" s="235"/>
-      <c r="Q13" s="236"/>
+      <c r="C13" s="252"/>
+      <c r="D13" s="253"/>
+      <c r="E13" s="253"/>
+      <c r="F13" s="253"/>
+      <c r="G13" s="253"/>
+      <c r="H13" s="253"/>
+      <c r="I13" s="253"/>
+      <c r="J13" s="253"/>
+      <c r="K13" s="253"/>
+      <c r="L13" s="253"/>
+      <c r="M13" s="253"/>
+      <c r="N13" s="253"/>
+      <c r="O13" s="253"/>
+      <c r="P13" s="253"/>
+      <c r="Q13" s="254"/>
       <c r="R13" s="190"/>
       <c r="S13" s="191"/>
       <c r="T13" s="191"/>
@@ -26603,21 +26602,21 @@
     </row>
     <row r="14" spans="1:22">
       <c r="B14" s="175"/>
-      <c r="C14" s="234"/>
-      <c r="D14" s="235"/>
-      <c r="E14" s="235"/>
-      <c r="F14" s="235"/>
-      <c r="G14" s="235"/>
-      <c r="H14" s="235"/>
-      <c r="I14" s="235"/>
-      <c r="J14" s="235"/>
-      <c r="K14" s="235"/>
-      <c r="L14" s="235"/>
-      <c r="M14" s="235"/>
-      <c r="N14" s="235"/>
-      <c r="O14" s="235"/>
-      <c r="P14" s="235"/>
-      <c r="Q14" s="236"/>
+      <c r="C14" s="252"/>
+      <c r="D14" s="253"/>
+      <c r="E14" s="253"/>
+      <c r="F14" s="253"/>
+      <c r="G14" s="253"/>
+      <c r="H14" s="253"/>
+      <c r="I14" s="253"/>
+      <c r="J14" s="253"/>
+      <c r="K14" s="253"/>
+      <c r="L14" s="253"/>
+      <c r="M14" s="253"/>
+      <c r="N14" s="253"/>
+      <c r="O14" s="253"/>
+      <c r="P14" s="253"/>
+      <c r="Q14" s="254"/>
       <c r="R14" s="190"/>
       <c r="S14" s="191"/>
       <c r="T14" s="191"/>
@@ -26626,21 +26625,21 @@
     </row>
     <row r="15" spans="1:22" ht="17.25" thickBot="1">
       <c r="B15" s="175"/>
-      <c r="C15" s="237"/>
-      <c r="D15" s="238"/>
-      <c r="E15" s="238"/>
-      <c r="F15" s="238"/>
-      <c r="G15" s="238"/>
-      <c r="H15" s="238"/>
-      <c r="I15" s="238"/>
-      <c r="J15" s="238"/>
-      <c r="K15" s="238"/>
-      <c r="L15" s="238"/>
-      <c r="M15" s="238"/>
-      <c r="N15" s="238"/>
-      <c r="O15" s="238"/>
-      <c r="P15" s="238"/>
-      <c r="Q15" s="239"/>
+      <c r="C15" s="255"/>
+      <c r="D15" s="256"/>
+      <c r="E15" s="256"/>
+      <c r="F15" s="256"/>
+      <c r="G15" s="256"/>
+      <c r="H15" s="256"/>
+      <c r="I15" s="256"/>
+      <c r="J15" s="256"/>
+      <c r="K15" s="256"/>
+      <c r="L15" s="256"/>
+      <c r="M15" s="256"/>
+      <c r="N15" s="256"/>
+      <c r="O15" s="256"/>
+      <c r="P15" s="256"/>
+      <c r="Q15" s="257"/>
       <c r="R15" s="190"/>
       <c r="S15" s="191"/>
       <c r="T15" s="191"/>
@@ -26678,10 +26677,10 @@
       <c r="F17" s="39"/>
       <c r="G17" s="39"/>
       <c r="I17" s="39"/>
-      <c r="J17" s="215" t="s">
+      <c r="J17" s="211" t="s">
         <v>35</v>
       </c>
-      <c r="K17" s="215"/>
+      <c r="K17" s="211"/>
       <c r="L17" s="39"/>
       <c r="M17" s="38" t="s">
         <v>115</v>
@@ -26773,7 +26772,7 @@
       <c r="E21" s="39"/>
       <c r="F21" s="39"/>
       <c r="G21" s="39" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="H21" s="39"/>
       <c r="I21" s="39"/>
@@ -26785,7 +26784,7 @@
       <c r="O21" s="39"/>
       <c r="P21" s="39"/>
       <c r="Q21" s="54"/>
-      <c r="R21" s="231" t="s">
+      <c r="R21" s="249" t="s">
         <v>133</v>
       </c>
       <c r="S21" s="189"/>
@@ -26977,7 +26976,7 @@
       <c r="O29" s="39"/>
       <c r="P29" s="39"/>
       <c r="Q29" s="54"/>
-      <c r="R29" s="231" t="s">
+      <c r="R29" s="249" t="s">
         <v>148</v>
       </c>
       <c r="S29" s="189"/>
@@ -27039,11 +27038,11 @@
       <c r="E32" s="39"/>
       <c r="F32" s="39"/>
       <c r="G32" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="H32" s="39"/>
       <c r="I32" s="39" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="J32" s="39"/>
       <c r="K32" s="39"/>
@@ -27085,15 +27084,15 @@
         <v>114</v>
       </c>
       <c r="H34" s="94"/>
-      <c r="I34" s="217" t="s">
-        <v>446</v>
-      </c>
-      <c r="J34" s="217"/>
-      <c r="K34" s="217"/>
-      <c r="L34" s="217"/>
-      <c r="M34" s="217"/>
-      <c r="N34" s="217"/>
-      <c r="O34" s="217"/>
+      <c r="I34" s="213" t="s">
+        <v>443</v>
+      </c>
+      <c r="J34" s="213"/>
+      <c r="K34" s="213"/>
+      <c r="L34" s="213"/>
+      <c r="M34" s="213"/>
+      <c r="N34" s="213"/>
+      <c r="O34" s="213"/>
       <c r="P34" s="44"/>
       <c r="Q34" s="55"/>
       <c r="R34" s="192"/>
@@ -27127,7 +27126,7 @@
     </row>
     <row r="38" spans="2:22">
       <c r="B38" s="182" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C38" s="97"/>
       <c r="D38" s="97"/>
@@ -27152,47 +27151,47 @@
     </row>
     <row r="39" spans="2:22">
       <c r="B39" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="40" spans="2:22">
       <c r="B40" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="42" spans="2:22">
       <c r="B42" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="43" spans="2:22">
       <c r="B43" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="44" spans="2:22">
       <c r="B44" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="45" spans="2:22">
       <c r="B45" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="47" spans="2:22">
       <c r="B47" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="48" spans="2:22">
       <c r="B48" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="49" spans="2:15">
       <c r="B49" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="H49" s="6"/>
       <c r="I49" s="6"/>
@@ -27203,14 +27202,14 @@
     </row>
     <row r="51" spans="2:15">
       <c r="B51" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="H51" s="6"/>
       <c r="I51" s="6"/>
     </row>
     <row r="52" spans="2:15">
       <c r="B52" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="H52" s="6"/>
       <c r="I52" s="6"/>
@@ -27267,11 +27266,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A1:A5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="J6:M6"/>
-    <mergeCell ref="N6:P6"/>
     <mergeCell ref="J17:K17"/>
     <mergeCell ref="I34:O34"/>
     <mergeCell ref="T6:V6"/>
@@ -27283,6 +27277,11 @@
     <mergeCell ref="R21:U28"/>
     <mergeCell ref="R29:U34"/>
     <mergeCell ref="Q6:S6"/>
+    <mergeCell ref="A1:A5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="J6:M6"/>
+    <mergeCell ref="N6:P6"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>

--- a/Documents/grouppl설계서 - 종합.xlsx
+++ b/Documents/grouppl설계서 - 종합.xlsx
@@ -345,7 +345,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="574">
   <si>
     <t>No</t>
     <phoneticPr fontId="9" type="noConversion"/>
@@ -1634,14 +1634,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>INSERT INTO files (file_seq, ORIGINAL_FILE_NAME, STORED_FILE_NAME,  FILE_SIZE, CREA_DTM, CREA_ID, Post_seq)</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">VALUES (file_seq.NEXTVAL, ?, ?, ?, SYSDATE, ?, ?) </t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>INNER JOIN PROJECTS C</t>
   </si>
   <si>
@@ -1654,9 +1646,6 @@
     <t>WHERE EMAIL = ? AND ISDELETED = 'N' AND DODATE = ?</t>
   </si>
   <si>
-    <t>SELECT B.PROJECTNAME, C.TITLE</t>
-  </si>
-  <si>
     <t>FROM MEMBERS A</t>
   </si>
   <si>
@@ -1730,12 +1719,6 @@
   </si>
   <si>
     <t>WHEN NOT MATCHED THEN</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> INSERT (APPL_SEQ, SENDID, CONTENTSS, APPLY_DATE, CONFIRMED, PROJECT_SEQ, EMAIL)</t>
-  </si>
-  <si>
-    <t>VALUES(APPLICATION_SEQ.NEXTVAL, ?, ?, SYSDATE, 'N', ?, ?)</t>
   </si>
   <si>
     <r>
@@ -2516,14 +2499,45 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">SELECT TITLE, </t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">INSERT INTO boardbase (post_seq, writer, contentss, project_seq)                           </t>
-  </si>
-  <si>
     <t>VALUES (POST_SEQ.NEXTVAL, 'TEST2', '컨텐쯔4', 3)</t>
+  </si>
+  <si>
+    <t>SELECT TITLE, MYSCHEDULE_SEQ</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT B.PROJECTNAME, C.TITLE, C.PJSCHEDULE_SEQ</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> INSERT (APPL_SEQ, SENDID, CONTENTSS, PROJECT_SEQ, EMAIL)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>VALUES(APPLICATION_SEQ.NEXTVAL, ?, ?, ?, ?)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT DODATE, REASON, PJSCHEDULE_SEQ         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FROM PROJECTSCHEDULE         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">INSERT INTO BOARDBASE (POST_SEQ, WRITER, CONTENTSS, PROJECT_SEQ)                           </t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>INSERT INTO FILES (FILE_SEQ, ORIGINAL_FILE_NAME, STORED_FILE_NAME, CREA_ID, POST_SEQ)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">VALUES (FILE_SEQ.NEXTVAL, ?, ?, ?, ?) </t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>PW확인</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -7162,16 +7176,16 @@
         <v>0</v>
       </c>
       <c r="C6" s="174" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="D6" s="174" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="E6" s="174" t="s">
         <v>2</v>
       </c>
       <c r="F6" s="174" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="G6" s="174" t="s">
         <v>3</v>
@@ -7191,7 +7205,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="172" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>8</v>
@@ -7200,7 +7214,7 @@
         <v>9</v>
       </c>
       <c r="F7" s="172" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="G7" t="s">
         <v>51</v>
@@ -7220,7 +7234,7 @@
         <v>14</v>
       </c>
       <c r="F8" s="172" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="G8" t="s">
         <v>229</v>
@@ -7233,7 +7247,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="172" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>10</v>
@@ -7242,7 +7256,7 @@
         <v>11</v>
       </c>
       <c r="F9" s="172" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="G9" t="s">
         <v>51</v>
@@ -7262,7 +7276,7 @@
         <v>27</v>
       </c>
       <c r="F10" s="172" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="G10" t="s">
         <v>51</v>
@@ -7282,7 +7296,7 @@
         <v>16</v>
       </c>
       <c r="F11" s="172" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="G11" t="s">
         <v>52</v>
@@ -7296,13 +7310,13 @@
       </c>
       <c r="C12" s="172"/>
       <c r="D12" s="3" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="E12" t="s">
         <v>17</v>
       </c>
       <c r="F12" s="172" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="G12" t="s">
         <v>229</v>
@@ -7313,7 +7327,7 @@
         <v>7</v>
       </c>
       <c r="C13" s="172" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>21</v>
@@ -7322,7 +7336,7 @@
         <v>20</v>
       </c>
       <c r="F13" s="172" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="G13" t="s">
         <v>54</v>
@@ -7341,7 +7355,7 @@
         <v>36</v>
       </c>
       <c r="F14" s="172" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="G14" t="s">
         <v>55</v>
@@ -7359,7 +7373,7 @@
         <v>25</v>
       </c>
       <c r="F15" s="172" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="G15" t="s">
         <v>229</v>
@@ -7377,7 +7391,7 @@
         <v>24</v>
       </c>
       <c r="F16" s="172" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="G16" t="s">
         <v>52</v>
@@ -7395,7 +7409,7 @@
         <v>34</v>
       </c>
       <c r="F17" s="172" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="G17" t="s">
         <v>55</v>
@@ -7413,7 +7427,7 @@
         <v>32</v>
       </c>
       <c r="F18" s="172" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="G18" t="s">
         <v>55</v>
@@ -7424,7 +7438,7 @@
         <v>13</v>
       </c>
       <c r="C19" s="172" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>18</v>
@@ -7433,7 +7447,7 @@
         <v>19</v>
       </c>
       <c r="F19" s="172" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="G19" t="s">
         <v>54</v>
@@ -7451,7 +7465,7 @@
         <v>26</v>
       </c>
       <c r="F20" s="172" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="G20" t="s">
         <v>53</v>
@@ -7469,7 +7483,7 @@
         <v>37</v>
       </c>
       <c r="F21" s="172" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="G21" t="s">
         <v>53</v>
@@ -7487,7 +7501,7 @@
         <v>42</v>
       </c>
       <c r="F22" s="172" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="G22" t="s">
         <v>52</v>
@@ -7505,7 +7519,7 @@
         <v>43</v>
       </c>
       <c r="F23" s="172" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="G23" t="s">
         <v>52</v>
@@ -7516,16 +7530,16 @@
         <v>18</v>
       </c>
       <c r="C24" s="172" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="E24" s="14" t="s">
         <v>15</v>
       </c>
       <c r="F24" s="173" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="G24" s="14" t="s">
         <v>53</v>
@@ -7546,7 +7560,7 @@
         <v>47</v>
       </c>
       <c r="F25" s="172" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="G25" t="s">
         <v>229</v>
@@ -7564,7 +7578,7 @@
         <v>44</v>
       </c>
       <c r="F26" s="172" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="G26" t="s">
         <v>54</v>
@@ -7575,7 +7589,7 @@
         <v>21</v>
       </c>
       <c r="C27" s="172" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>48</v>
@@ -7584,7 +7598,7 @@
         <v>49</v>
       </c>
       <c r="F27" s="172" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="G27" t="s">
         <v>53</v>
@@ -7602,7 +7616,7 @@
         <v>30</v>
       </c>
       <c r="F28" s="172" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="G28" t="s">
         <v>53</v>
@@ -7620,7 +7634,7 @@
         <v>28</v>
       </c>
       <c r="F29" s="172" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="G29" t="s">
         <v>51</v>
@@ -7639,7 +7653,7 @@
     </row>
     <row r="33" spans="2:10" ht="18" customHeight="1">
       <c r="B33" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="H33" s="11"/>
       <c r="I33" s="11"/>
@@ -7647,7 +7661,7 @@
     </row>
     <row r="34" spans="2:10" ht="18" customHeight="1">
       <c r="B34" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
@@ -7689,7 +7703,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V64"/>
+  <dimension ref="A1:V65"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:A5"/>
@@ -8505,88 +8519,93 @@
     </row>
     <row r="39" spans="2:22">
       <c r="B39" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="40" spans="2:22">
       <c r="B40" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="41" spans="2:22">
       <c r="B41" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="43" spans="2:22">
       <c r="B43" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="44" spans="2:22">
       <c r="B44" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
     </row>
     <row r="45" spans="2:22" ht="18.75" customHeight="1">
       <c r="B45" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
     </row>
     <row r="46" spans="2:22">
       <c r="B46" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
     </row>
     <row r="47" spans="2:22">
       <c r="B47" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
     </row>
     <row r="48" spans="2:22">
       <c r="B48" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="49" spans="2:10" ht="16.5" customHeight="1">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="49" spans="2:12" ht="16.5" customHeight="1">
       <c r="B49" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="50" spans="2:10">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="50" spans="2:12">
       <c r="B50" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="51" spans="2:10">
-      <c r="B51" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="52" spans="2:10">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="51" spans="2:12">
+      <c r="B51" s="288" t="s">
+        <v>559</v>
+      </c>
+      <c r="C51" s="288"/>
+      <c r="D51" s="288"/>
+      <c r="E51" s="288"/>
+      <c r="F51" s="288"/>
+      <c r="G51" s="288"/>
+      <c r="H51" s="288"/>
+      <c r="I51" s="288"/>
+      <c r="J51" s="288"/>
+      <c r="K51" s="288"/>
+      <c r="L51" s="288"/>
+    </row>
+    <row r="52" spans="2:12">
       <c r="B52" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="53" spans="2:10">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="53" spans="2:12">
       <c r="B53" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="54" spans="2:10">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="54" spans="2:12">
       <c r="B54" t="s">
-        <v>537</v>
-      </c>
-      <c r="C54" s="65"/>
-      <c r="D54" s="65"/>
-      <c r="E54" s="65"/>
-      <c r="F54" s="65"/>
-      <c r="G54" s="65"/>
-      <c r="H54" s="65"/>
-      <c r="I54" s="65"/>
-      <c r="J54" s="65"/>
-    </row>
-    <row r="55" spans="2:10">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="55" spans="2:12">
+      <c r="B55" t="s">
+        <v>532</v>
+      </c>
       <c r="C55" s="65"/>
       <c r="D55" s="65"/>
       <c r="E55" s="65"/>
@@ -8596,10 +8615,7 @@
       <c r="I55" s="65"/>
       <c r="J55" s="65"/>
     </row>
-    <row r="56" spans="2:10">
-      <c r="B56" t="s">
-        <v>349</v>
-      </c>
+    <row r="56" spans="2:12">
       <c r="C56" s="65"/>
       <c r="D56" s="65"/>
       <c r="E56" s="65"/>
@@ -8609,9 +8625,9 @@
       <c r="I56" s="65"/>
       <c r="J56" s="65"/>
     </row>
-    <row r="57" spans="2:10">
+    <row r="57" spans="2:12">
       <c r="B57" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C57" s="65"/>
       <c r="D57" s="65"/>
@@ -8622,9 +8638,9 @@
       <c r="I57" s="65"/>
       <c r="J57" s="65"/>
     </row>
-    <row r="58" spans="2:10">
+    <row r="58" spans="2:12">
       <c r="B58" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C58" s="65"/>
       <c r="D58" s="65"/>
@@ -8635,9 +8651,9 @@
       <c r="I58" s="65"/>
       <c r="J58" s="65"/>
     </row>
-    <row r="59" spans="2:10">
+    <row r="59" spans="2:12">
       <c r="B59" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C59" s="65"/>
       <c r="D59" s="65"/>
@@ -8648,9 +8664,9 @@
       <c r="I59" s="65"/>
       <c r="J59" s="65"/>
     </row>
-    <row r="60" spans="2:10">
+    <row r="60" spans="2:12">
       <c r="B60" t="s">
-        <v>106</v>
+        <v>349</v>
       </c>
       <c r="C60" s="65"/>
       <c r="D60" s="65"/>
@@ -8661,9 +8677,9 @@
       <c r="I60" s="65"/>
       <c r="J60" s="65"/>
     </row>
-    <row r="61" spans="2:10">
+    <row r="61" spans="2:12">
       <c r="B61" t="s">
-        <v>353</v>
+        <v>106</v>
       </c>
       <c r="C61" s="65"/>
       <c r="D61" s="65"/>
@@ -8674,9 +8690,9 @@
       <c r="I61" s="65"/>
       <c r="J61" s="65"/>
     </row>
-    <row r="62" spans="2:10">
+    <row r="62" spans="2:12">
       <c r="B62" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C62" s="65"/>
       <c r="D62" s="65"/>
@@ -8687,9 +8703,9 @@
       <c r="I62" s="65"/>
       <c r="J62" s="65"/>
     </row>
-    <row r="63" spans="2:10">
+    <row r="63" spans="2:12">
       <c r="B63" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="C63" s="65"/>
       <c r="D63" s="65"/>
@@ -8700,9 +8716,9 @@
       <c r="I63" s="65"/>
       <c r="J63" s="65"/>
     </row>
-    <row r="64" spans="2:10">
+    <row r="64" spans="2:12">
       <c r="B64" t="s">
-        <v>356</v>
+        <v>566</v>
       </c>
       <c r="C64" s="65"/>
       <c r="D64" s="65"/>
@@ -8713,8 +8729,22 @@
       <c r="I64" s="65"/>
       <c r="J64" s="65"/>
     </row>
+    <row r="65" spans="2:10">
+      <c r="B65" t="s">
+        <v>567</v>
+      </c>
+      <c r="C65" s="65"/>
+      <c r="D65" s="65"/>
+      <c r="E65" s="65"/>
+      <c r="F65" s="65"/>
+      <c r="G65" s="65"/>
+      <c r="H65" s="65"/>
+      <c r="I65" s="65"/>
+      <c r="J65" s="65"/>
+    </row>
   </sheetData>
-  <mergeCells count="29">
+  <mergeCells count="30">
+    <mergeCell ref="B51:L51"/>
     <mergeCell ref="T6:V6"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="F6:I6"/>
@@ -9477,22 +9507,22 @@
     </row>
     <row r="39" spans="2:22">
       <c r="B39" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
     </row>
     <row r="40" spans="2:22">
       <c r="B40" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
     </row>
     <row r="41" spans="2:22">
       <c r="B41" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="42" spans="2:22">
       <c r="B42" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
     </row>
     <row r="58" spans="14:14">
@@ -9987,7 +10017,7 @@
     </row>
     <row r="38" spans="2:22">
       <c r="B38" s="170" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="C38" s="87"/>
       <c r="D38" s="87"/>
@@ -10012,37 +10042,37 @@
     </row>
     <row r="39" spans="2:22">
       <c r="B39" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="40" spans="2:22">
       <c r="B40" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
     </row>
     <row r="41" spans="2:22">
       <c r="B41" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
     </row>
     <row r="42" spans="2:22">
       <c r="B42" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
     </row>
     <row r="44" spans="2:22">
       <c r="B44" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
     </row>
     <row r="45" spans="2:22">
       <c r="B45" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
     </row>
     <row r="46" spans="2:22">
       <c r="B46" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
     </row>
     <row r="61" spans="2:2">
@@ -10089,8 +10119,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V55"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:A5"/>
+    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52:L52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -10542,7 +10572,7 @@
     </row>
     <row r="38" spans="2:22">
       <c r="B38" s="170" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="C38" s="87"/>
       <c r="D38" s="87"/>
@@ -10567,67 +10597,67 @@
     </row>
     <row r="39" spans="2:22">
       <c r="B39" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
     </row>
     <row r="40" spans="2:22">
       <c r="B40" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
     </row>
     <row r="41" spans="2:22">
       <c r="B41" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
     </row>
     <row r="43" spans="2:22">
       <c r="B43" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
     </row>
     <row r="44" spans="2:22">
       <c r="B44" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
     </row>
     <row r="45" spans="2:22">
       <c r="B45" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
     </row>
     <row r="46" spans="2:22">
       <c r="B46" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
     </row>
     <row r="47" spans="2:22">
       <c r="B47" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
     </row>
     <row r="48" spans="2:22">
       <c r="B48" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
     </row>
     <row r="49" spans="2:12">
       <c r="B49" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
     </row>
     <row r="50" spans="2:12">
       <c r="B50" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
     </row>
     <row r="51" spans="2:12">
       <c r="B51" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
     </row>
     <row r="52" spans="2:12">
       <c r="B52" s="288" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="C52" s="288"/>
       <c r="D52" s="288"/>
@@ -10642,17 +10672,17 @@
     </row>
     <row r="53" spans="2:12">
       <c r="B53" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
     </row>
     <row r="54" spans="2:12">
       <c r="B54" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
     </row>
     <row r="55" spans="2:12">
       <c r="B55" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
     </row>
   </sheetData>
@@ -11552,25 +11582,25 @@
     </row>
     <row r="39" spans="2:22">
       <c r="B39" s="99" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="D39" s="99"/>
     </row>
     <row r="40" spans="2:22">
       <c r="B40" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="D40" s="99"/>
     </row>
     <row r="41" spans="2:22">
       <c r="B41" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D41" s="99"/>
     </row>
     <row r="42" spans="2:22">
       <c r="B42" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="D42" s="99"/>
     </row>
@@ -11579,24 +11609,24 @@
     </row>
     <row r="44" spans="2:22">
       <c r="B44" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="F44" s="99"/>
     </row>
     <row r="45" spans="2:22">
       <c r="B45" t="s">
-        <v>433</v>
+        <v>568</v>
       </c>
       <c r="F45" s="99"/>
     </row>
     <row r="46" spans="2:22">
       <c r="B46" t="s">
-        <v>249</v>
+        <v>569</v>
       </c>
     </row>
     <row r="47" spans="2:22">
       <c r="B47" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
     </row>
   </sheetData>
@@ -12422,7 +12452,7 @@
     </row>
     <row r="38" spans="2:22">
       <c r="B38" s="184" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="C38" s="143"/>
       <c r="D38" s="143"/>
@@ -12447,17 +12477,17 @@
     </row>
     <row r="39" spans="2:22">
       <c r="B39" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
     </row>
     <row r="40" spans="2:22">
       <c r="B40" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
     </row>
     <row r="41" spans="2:22">
       <c r="B41" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
     </row>
   </sheetData>
@@ -13250,7 +13280,7 @@
     </row>
     <row r="38" spans="2:22">
       <c r="B38" s="184" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="C38" s="143"/>
       <c r="D38" s="143"/>
@@ -13275,7 +13305,7 @@
     </row>
     <row r="39" spans="2:22">
       <c r="B39" s="144" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="C39" s="144"/>
       <c r="D39" s="144"/>
@@ -13287,82 +13317,82 @@
     </row>
     <row r="40" spans="2:22">
       <c r="B40" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
     </row>
     <row r="41" spans="2:22">
       <c r="B41" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
     </row>
     <row r="42" spans="2:22">
       <c r="B42" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
     </row>
     <row r="43" spans="2:22">
       <c r="B43" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
     </row>
     <row r="45" spans="2:22">
       <c r="B45" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
     </row>
     <row r="46" spans="2:22">
       <c r="B46" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
     </row>
     <row r="47" spans="2:22">
       <c r="B47" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
     </row>
     <row r="48" spans="2:22">
       <c r="B48" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
     </row>
     <row r="54" spans="2:2">
       <c r="B54" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
     </row>
     <row r="55" spans="2:2">
       <c r="B55" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
     </row>
     <row r="56" spans="2:2">
       <c r="B56" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
     </row>
     <row r="57" spans="2:2">
       <c r="B57" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
     </row>
     <row r="58" spans="2:2">
       <c r="B58" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
     </row>
   </sheetData>
@@ -14116,17 +14146,17 @@
     </row>
     <row r="39" spans="2:22">
       <c r="B39" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
     </row>
     <row r="40" spans="2:22">
       <c r="B40" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
     </row>
     <row r="41" spans="2:22">
       <c r="B41" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
     </row>
     <row r="58" spans="14:14">
@@ -14885,12 +14915,12 @@
     </row>
     <row r="39" spans="2:22">
       <c r="B39" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
     </row>
     <row r="40" spans="2:22">
       <c r="B40" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
     </row>
     <row r="41" spans="2:22">
@@ -14900,7 +14930,7 @@
     </row>
     <row r="42" spans="2:22">
       <c r="B42" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
     </row>
     <row r="58" spans="14:14">
@@ -14975,7 +15005,7 @@
       <c r="D6" s="200"/>
       <c r="E6" s="200"/>
       <c r="F6" s="201" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="G6" s="201"/>
       <c r="H6" s="201"/>
@@ -15085,7 +15115,7 @@
       </c>
       <c r="I10" s="372"/>
       <c r="J10" s="377" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="K10" s="378"/>
       <c r="L10" s="378"/>
@@ -15200,7 +15230,7 @@
       <c r="F15" s="70"/>
       <c r="G15" s="70"/>
       <c r="H15" s="208" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="I15" s="191"/>
       <c r="J15" s="343" t="s">
@@ -15452,7 +15482,7 @@
       <c r="F25" s="70"/>
       <c r="G25" s="70"/>
       <c r="H25" s="208" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="I25" s="209"/>
       <c r="J25" s="205"/>
@@ -15714,7 +15744,7 @@
     <row r="38" spans="1:22">
       <c r="A38" s="142"/>
       <c r="B38" s="184" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="C38" s="143"/>
       <c r="D38" s="143"/>
@@ -15749,127 +15779,127 @@
     </row>
     <row r="40" spans="1:22">
       <c r="B40" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
     </row>
     <row r="41" spans="1:22">
       <c r="B41" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
     </row>
     <row r="42" spans="1:22">
       <c r="B42" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
     </row>
     <row r="43" spans="1:22">
       <c r="B43" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
     </row>
     <row r="45" spans="1:22">
       <c r="B45" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
     </row>
     <row r="46" spans="1:22">
       <c r="B46" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
     </row>
     <row r="47" spans="1:22">
       <c r="B47" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
     </row>
     <row r="48" spans="1:22">
       <c r="B48" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
     </row>
     <row r="54" spans="2:2">
       <c r="B54" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
     </row>
     <row r="55" spans="2:2">
       <c r="B55" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
     </row>
     <row r="57" spans="2:2">
       <c r="B57" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
     </row>
     <row r="58" spans="2:2">
       <c r="B58" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
     </row>
     <row r="59" spans="2:2">
       <c r="B59" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
     </row>
     <row r="61" spans="2:2">
       <c r="B61" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
     </row>
     <row r="62" spans="2:2">
       <c r="B62" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
     </row>
     <row r="63" spans="2:2">
       <c r="B63" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
     </row>
     <row r="64" spans="2:2">
       <c r="B64" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
     </row>
     <row r="65" spans="2:2">
       <c r="B65" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
     </row>
     <row r="66" spans="2:2">
       <c r="B66" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
     </row>
     <row r="67" spans="2:2">
       <c r="B67" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
     </row>
     <row r="68" spans="2:2">
       <c r="B68" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
     </row>
   </sheetData>
@@ -17474,22 +17504,22 @@
     </row>
     <row r="39" spans="2:22">
       <c r="B39" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
     </row>
     <row r="40" spans="2:22">
       <c r="B40" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
     </row>
     <row r="41" spans="2:22">
       <c r="B41" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
     </row>
     <row r="42" spans="2:22">
       <c r="B42" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
     </row>
   </sheetData>
@@ -17548,8 +17578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V45"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47:B48"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -18323,12 +18353,12 @@
     </row>
     <row r="40" spans="2:22">
       <c r="B40" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="41" spans="2:22">
       <c r="B41" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
     </row>
     <row r="43" spans="2:22">
@@ -18338,12 +18368,12 @@
     </row>
     <row r="44" spans="2:22">
       <c r="B44" t="s">
-        <v>323</v>
+        <v>571</v>
       </c>
     </row>
     <row r="45" spans="2:22">
       <c r="B45" t="s">
-        <v>324</v>
+        <v>572</v>
       </c>
     </row>
   </sheetData>
@@ -19116,7 +19146,7 @@
     </row>
     <row r="38" spans="2:22">
       <c r="B38" s="186" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="C38" s="143"/>
       <c r="D38" s="143"/>
@@ -19141,7 +19171,7 @@
     </row>
     <row r="39" spans="2:22">
       <c r="B39" s="157" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="C39" s="144"/>
       <c r="D39" s="144"/>
@@ -19150,72 +19180,72 @@
     </row>
     <row r="40" spans="2:22">
       <c r="B40" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
     </row>
     <row r="41" spans="2:22">
       <c r="B41" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
     </row>
     <row r="42" spans="2:22">
       <c r="B42" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
     </row>
     <row r="43" spans="2:22">
       <c r="B43" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
     </row>
     <row r="45" spans="2:22">
       <c r="B45" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
     </row>
     <row r="46" spans="2:22">
       <c r="B46" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
     </row>
     <row r="47" spans="2:22">
       <c r="B47" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
     </row>
     <row r="54" spans="2:2">
       <c r="B54" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
     </row>
     <row r="55" spans="2:2">
       <c r="B55" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
     </row>
     <row r="56" spans="2:2">
       <c r="B56" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
     </row>
   </sheetData>
@@ -19996,7 +20026,7 @@
     </row>
     <row r="38" spans="2:22">
       <c r="B38" s="186" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="C38" s="143"/>
       <c r="D38" s="143"/>
@@ -20021,92 +20051,92 @@
     </row>
     <row r="39" spans="2:22">
       <c r="B39" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
     </row>
     <row r="40" spans="2:22">
       <c r="B40" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
     </row>
     <row r="41" spans="2:22">
       <c r="B41" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
     </row>
     <row r="42" spans="2:22">
       <c r="B42" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
     </row>
     <row r="43" spans="2:22">
       <c r="B43" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
     </row>
     <row r="44" spans="2:22">
       <c r="B44" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
     </row>
     <row r="45" spans="2:22">
       <c r="B45" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
     </row>
     <row r="46" spans="2:22">
       <c r="B46" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
     </row>
     <row r="47" spans="2:22">
       <c r="B47" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
     </row>
     <row r="54" spans="2:2">
       <c r="B54" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
     </row>
     <row r="55" spans="2:2">
       <c r="B55" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
     </row>
     <row r="57" spans="2:2">
       <c r="B57" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
     </row>
     <row r="58" spans="2:2">
       <c r="B58" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
     </row>
     <row r="59" spans="2:2">
       <c r="B59" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
     </row>
   </sheetData>
@@ -20899,12 +20929,12 @@
     </row>
     <row r="39" spans="2:22">
       <c r="B39" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
     </row>
     <row r="40" spans="2:22">
       <c r="B40" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
     </row>
     <row r="41" spans="2:22">
@@ -20914,17 +20944,17 @@
     </row>
     <row r="42" spans="2:22">
       <c r="B42" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
     </row>
     <row r="44" spans="2:22">
       <c r="B44" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
     </row>
     <row r="45" spans="2:22">
       <c r="B45" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
     </row>
     <row r="46" spans="2:22">
@@ -20934,7 +20964,7 @@
     </row>
     <row r="47" spans="2:22">
       <c r="B47" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
     </row>
     <row r="58" spans="14:14">
@@ -21750,92 +21780,92 @@
     </row>
     <row r="39" spans="2:22">
       <c r="B39" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
     </row>
     <row r="40" spans="2:22">
       <c r="B40" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
     </row>
     <row r="41" spans="2:22">
       <c r="B41" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
     </row>
     <row r="42" spans="2:22">
       <c r="B42" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
     </row>
     <row r="43" spans="2:22">
       <c r="B43" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
     </row>
     <row r="44" spans="2:22">
       <c r="B44" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
     </row>
     <row r="45" spans="2:22">
       <c r="B45" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
     </row>
     <row r="46" spans="2:22">
       <c r="B46" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
     </row>
     <row r="47" spans="2:22">
       <c r="B47" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
     </row>
     <row r="48" spans="2:22">
       <c r="B48" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
     </row>
     <row r="54" spans="2:2">
       <c r="B54" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
     </row>
     <row r="55" spans="2:2">
       <c r="B55" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
     </row>
     <row r="56" spans="2:2">
       <c r="B56" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
     </row>
     <row r="58" spans="2:2">
@@ -21845,17 +21875,17 @@
     </row>
     <row r="59" spans="2:2">
       <c r="B59" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
     </row>
     <row r="60" spans="2:2">
       <c r="B60" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="61" spans="2:2">
       <c r="B61" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="63" spans="2:2">
@@ -21865,67 +21895,67 @@
     </row>
     <row r="64" spans="2:2">
       <c r="B64" t="s">
-        <v>329</v>
+        <v>565</v>
       </c>
     </row>
     <row r="65" spans="2:2">
       <c r="B65" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="66" spans="2:2">
       <c r="B66" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="67" spans="2:2">
       <c r="B67" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="68" spans="2:2">
       <c r="B68" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="69" spans="2:2">
       <c r="B69" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="70" spans="2:2">
       <c r="B70" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="72" spans="2:2">
       <c r="B72" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="73" spans="2:2">
       <c r="B73" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
     </row>
     <row r="74" spans="2:2">
       <c r="B74" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="75" spans="2:2">
       <c r="B75" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="76" spans="2:2">
       <c r="B76" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="77" spans="2:2">
       <c r="B77" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
   </sheetData>
@@ -22407,7 +22437,7 @@
       <c r="N22" s="115"/>
       <c r="O22" s="111"/>
       <c r="P22" s="115" t="s">
-        <v>235</v>
+        <v>573</v>
       </c>
       <c r="Q22" s="120"/>
       <c r="R22" s="122"/>
@@ -22746,37 +22776,37 @@
     </row>
     <row r="39" spans="2:22">
       <c r="B39" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
     </row>
     <row r="40" spans="2:22">
       <c r="B40" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="41" spans="2:22">
       <c r="B41" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="42" spans="2:22">
       <c r="B42" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
     </row>
     <row r="44" spans="2:22">
       <c r="B44" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
     </row>
     <row r="45" spans="2:22">
       <c r="B45" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="46" spans="2:22">
       <c r="B46" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
     </row>
     <row r="58" spans="14:14">
@@ -23529,17 +23559,17 @@
     </row>
     <row r="39" spans="1:22">
       <c r="B39" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
     </row>
     <row r="40" spans="1:22">
       <c r="B40" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
     </row>
     <row r="41" spans="1:22">
       <c r="B41" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="42" spans="1:22">
@@ -23547,42 +23577,42 @@
         <v>281</v>
       </c>
       <c r="B42" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="44" spans="1:22">
       <c r="B44" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
     </row>
     <row r="45" spans="1:22">
       <c r="B45" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
     </row>
     <row r="46" spans="1:22">
       <c r="B46" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="48" spans="1:22">
       <c r="B48" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
     </row>
     <row r="49" spans="2:14">
       <c r="B49" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
     </row>
     <row r="51" spans="2:14">
       <c r="B51" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
     </row>
     <row r="52" spans="2:14">
       <c r="B52" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
     </row>
     <row r="58" spans="2:14">
@@ -24330,32 +24360,32 @@
     </row>
     <row r="39" spans="2:22">
       <c r="B39" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
     </row>
     <row r="40" spans="2:22">
       <c r="B40" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
     </row>
     <row r="41" spans="2:22">
       <c r="B41" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
     </row>
     <row r="42" spans="2:22">
       <c r="B42" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
     </row>
     <row r="43" spans="2:22">
       <c r="B43" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="44" spans="2:22">
       <c r="B44" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="45" spans="2:22">
@@ -24365,12 +24395,12 @@
     </row>
     <row r="46" spans="2:22">
       <c r="B46" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
     </row>
     <row r="47" spans="2:22">
       <c r="B47" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="58" spans="14:14">
@@ -24442,7 +24472,7 @@
       <c r="D6" s="200"/>
       <c r="E6" s="200"/>
       <c r="F6" s="201" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="G6" s="201"/>
       <c r="H6" s="201"/>
@@ -25225,52 +25255,52 @@
     </row>
     <row r="39" spans="2:22">
       <c r="B39" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="40" spans="2:22">
       <c r="B40" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="41" spans="2:22">
       <c r="B41" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="42" spans="2:22">
       <c r="B42" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="43" spans="2:22">
       <c r="B43" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="44" spans="2:22">
       <c r="B44" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="45" spans="2:22">
       <c r="B45" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="47" spans="2:22">
       <c r="B47" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="48" spans="2:22">
       <c r="B48" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
   </sheetData>
@@ -25601,7 +25631,7 @@
     <row r="16" spans="1:22" ht="17.25" thickBot="1">
       <c r="B16" s="163"/>
       <c r="C16" s="45" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="D16" s="47"/>
       <c r="E16" s="47"/>
@@ -25610,7 +25640,7 @@
       <c r="H16" s="47"/>
       <c r="I16" s="185"/>
       <c r="J16" s="188" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="K16" s="189"/>
       <c r="L16" s="189"/>
@@ -25631,22 +25661,22 @@
         <v>141</v>
       </c>
       <c r="D17" s="223" t="s">
+        <v>489</v>
+      </c>
+      <c r="E17" s="223" t="s">
+        <v>490</v>
+      </c>
+      <c r="F17" s="223" t="s">
+        <v>491</v>
+      </c>
+      <c r="G17" s="223" t="s">
+        <v>492</v>
+      </c>
+      <c r="H17" s="223" t="s">
+        <v>493</v>
+      </c>
+      <c r="I17" s="268" t="s">
         <v>494</v>
-      </c>
-      <c r="E17" s="223" t="s">
-        <v>495</v>
-      </c>
-      <c r="F17" s="223" t="s">
-        <v>496</v>
-      </c>
-      <c r="G17" s="223" t="s">
-        <v>497</v>
-      </c>
-      <c r="H17" s="223" t="s">
-        <v>498</v>
-      </c>
-      <c r="I17" s="268" t="s">
-        <v>499</v>
       </c>
       <c r="J17" s="190"/>
       <c r="K17" s="191"/>
@@ -26169,52 +26199,52 @@
     </row>
     <row r="39" spans="2:22">
       <c r="B39" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
     </row>
     <row r="40" spans="2:22">
       <c r="B40" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
     </row>
     <row r="41" spans="2:22">
       <c r="B41" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="42" spans="2:22">
       <c r="B42" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
     </row>
     <row r="44" spans="2:22">
       <c r="B44" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
     </row>
     <row r="45" spans="2:22">
       <c r="B45" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
     </row>
     <row r="46" spans="2:22">
       <c r="B46" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
     </row>
     <row r="47" spans="2:22">
       <c r="B47" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
     </row>
     <row r="48" spans="2:22">
       <c r="B48" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
     </row>
     <row r="49" spans="2:15">
       <c r="B49" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="H49" s="6"/>
       <c r="I49" s="6"/>
@@ -26225,14 +26255,14 @@
     </row>
     <row r="51" spans="2:15">
       <c r="B51" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="H51" s="6"/>
       <c r="I51" s="6"/>
     </row>
     <row r="52" spans="2:15">
       <c r="B52" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="H52" s="6"/>
       <c r="I52" s="6"/>
@@ -26246,7 +26276,7 @@
     </row>
     <row r="54" spans="2:15">
       <c r="B54" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="H54" s="6"/>
       <c r="I54" s="6"/>
@@ -26772,7 +26802,7 @@
       <c r="E21" s="39"/>
       <c r="F21" s="39"/>
       <c r="G21" s="39" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="H21" s="39"/>
       <c r="I21" s="39"/>
@@ -27038,11 +27068,11 @@
       <c r="E32" s="39"/>
       <c r="F32" s="39"/>
       <c r="G32" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="H32" s="39"/>
       <c r="I32" s="39" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="J32" s="39"/>
       <c r="K32" s="39"/>
@@ -27085,7 +27115,7 @@
       </c>
       <c r="H34" s="94"/>
       <c r="I34" s="213" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="J34" s="213"/>
       <c r="K34" s="213"/>
@@ -27126,7 +27156,7 @@
     </row>
     <row r="38" spans="2:22">
       <c r="B38" s="182" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="C38" s="97"/>
       <c r="D38" s="97"/>
@@ -27151,47 +27181,47 @@
     </row>
     <row r="39" spans="2:22">
       <c r="B39" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
     </row>
     <row r="40" spans="2:22">
       <c r="B40" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
     </row>
     <row r="42" spans="2:22">
       <c r="B42" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
     </row>
     <row r="43" spans="2:22">
       <c r="B43" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
     </row>
     <row r="44" spans="2:22">
       <c r="B44" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="45" spans="2:22">
       <c r="B45" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
     </row>
     <row r="47" spans="2:22">
       <c r="B47" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
     </row>
     <row r="48" spans="2:22">
       <c r="B48" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
     </row>
     <row r="49" spans="2:15">
       <c r="B49" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="H49" s="6"/>
       <c r="I49" s="6"/>
@@ -27202,14 +27232,14 @@
     </row>
     <row r="51" spans="2:15">
       <c r="B51" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="H51" s="6"/>
       <c r="I51" s="6"/>
     </row>
     <row r="52" spans="2:15">
       <c r="B52" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="H52" s="6"/>
       <c r="I52" s="6"/>

--- a/Documents/grouppl설계서 - 종합.xlsx
+++ b/Documents/grouppl설계서 - 종합.xlsx
@@ -345,7 +345,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="585">
   <si>
     <t>No</t>
     <phoneticPr fontId="9" type="noConversion"/>
@@ -1297,9 +1297,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>INNER JOIN USER_TAG D</t>
-  </si>
-  <si>
     <t>프로젝트일정읽기</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -1635,9 +1632,6 @@
   </si>
   <si>
     <t>INNER JOIN PROJECTS C</t>
-  </si>
-  <si>
-    <t>ON (B.PROJECT_SEQ = C.PROJECT_SEQ)</t>
   </si>
   <si>
     <t>FROM MYSCHEDULE</t>
@@ -1904,24 +1898,9 @@
     <t>멤버정보보기</t>
   </si>
   <si>
-    <t>SELECT A.EMAIL A.WEB, C.PROJECTNAME, D.TAGNAME</t>
-  </si>
-  <si>
-    <t>FROM CUSTOMUSER  A INNER JOIN MEMBERS B</t>
-  </si>
-  <si>
-    <t>ON (A.EMAIL  = B.EMAIL)</t>
-  </si>
-  <si>
-    <t>ON(A.EMAIL = D.EMAIL)</t>
-  </si>
-  <si>
     <t>SELECT IMAGE, PROJECTNAME, STARTDATE, ENDDATE, PROGRESS, README, ISOPEN</t>
   </si>
   <si>
-    <t>WHERE PROJECT_SEQ</t>
-  </si>
-  <si>
     <t>프로젝트 간단정보 불러오기</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -1929,19 +1908,7 @@
     <t>프로젝트 일정쓰기</t>
   </si>
   <si>
-    <t>INSERT INTO PROJECTSCHEDULE (SCHEDULE_SEQ, DODATES, WRITER, DOPERSON, REASON, PROJECT_SEQ, ISDELETED)</t>
-  </si>
-  <si>
-    <t>VALUES(시퀀스, ?, ?, ?, ?, ?, ?)</t>
-  </si>
-  <si>
     <t>프로젝트 일정읽기</t>
-  </si>
-  <si>
-    <t>SELECT SCHEDULE_SEQ, DODATES, WRITER, DOPERSON, REASON, PROJECT_SEQ, ISDELETED</t>
-  </si>
-  <si>
-    <t>WHERE SCHEDULE_SEQ = ?</t>
   </si>
   <si>
     <t>초대장보기</t>
@@ -2181,30 +2148,17 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>INSERT INTO COMMENTS(COMMENT_SEQ, SCHEDULE_SEQ, DATES, WRITER, CONTENTSS)</t>
-  </si>
-  <si>
     <t xml:space="preserve">SELECT B.WRITER, B.CONTENTSS, B.DATES </t>
   </si>
   <si>
     <t xml:space="preserve">FROM MYSCHEDULE A INNER JOIN COMMENTS B </t>
   </si>
   <si>
-    <t>ON( A.SCHEDULE_SEQ = B.SCHEDULE_SEQ)</t>
-  </si>
-  <si>
-    <t>WHERE A.SCHEDULE_SEQ = ?</t>
-  </si>
-  <si>
     <t xml:space="preserve">댓글쓰기 </t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>댓글보기</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>VALUES(MYCOMMENT_SEQ.NEXTVAL, ?, SYSDATE, ?, ?)</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -2537,6 +2491,106 @@
   </si>
   <si>
     <t>PW확인</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>FROM CUSTOMUSER</t>
+  </si>
+  <si>
+    <t>WHERE EMAIL = ?</t>
+  </si>
+  <si>
+    <t>SELECT EMAIL, WEB, USERNAME, NICKNAME</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>과거 경력</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ON(A.EMAIL = B.EMAIL)</t>
+  </si>
+  <si>
+    <t>FROM CUSTOMUSER A</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">INNER JOIN MEMBERS B </t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT C.PROJECTNAME, C.PROJECT_SEQ</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>보유 기술</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT B.TAGNAME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FROM CUSTOMUSER A </t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>INNER JOIN USER_TAG B</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>INSERT INTO PROJECTSCHEDULE(PJSCHEDULE_SEQ, DODATE, WRITER, DOPERSON, REASON, PROJECT_SEQ)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>VALUES(PJSCHEDULE_SEQ.NEXT, ?, ?, ?, ?, ?, ?)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>WHERE PJSCHEDULE_SEQ = ?</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT PJSCHEDULE_SEQ, DODATE, WRITER, DOPERSON, REASON, PROJECT_SEQ, ISDELETED, TITLE, PROGRESS</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>VALUES(MYCOMMENT_SEQ.NEXTVAL, ?, ?, ?)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT B.WRITER, B.CONTENTSS, B.DATES </t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">FROM PROJECTSCHEDULE A INNER JOIN SCHEDULECOMMENTS B </t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>WHERE A.PJSCHEDULE_SEQ = ?</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ON( A.PJSCHEDULE_SEQ = B.PJSCHEDULE_SEQ)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>VALUES(PJCOMMENT_SEQ.NEXTVAL, ?, ?, ?)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>INSERT INTO SCHEDULECOMMENTS(COMMENT_SEQ, PJSCHEDULE_SEQ, WRITER, CONTENTSS)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>INSERT INTO COMMENTS(COMMENT_SEQ, MYSCHEDULE_SEQ, WRITER, CONTENTSS)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>WHERE A.MYSCHEDULE_SEQ = ?</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ON( A.MYSCHEDULE_SEQ = B.MYSCHEDULE_SEQ)</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -7176,16 +7230,16 @@
         <v>0</v>
       </c>
       <c r="C6" s="174" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D6" s="174" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E6" s="174" t="s">
         <v>2</v>
       </c>
       <c r="F6" s="174" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G6" s="174" t="s">
         <v>3</v>
@@ -7205,7 +7259,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="172" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>8</v>
@@ -7214,7 +7268,7 @@
         <v>9</v>
       </c>
       <c r="F7" s="172" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="G7" t="s">
         <v>51</v>
@@ -7234,7 +7288,7 @@
         <v>14</v>
       </c>
       <c r="F8" s="172" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="G8" t="s">
         <v>229</v>
@@ -7247,7 +7301,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="172" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>10</v>
@@ -7256,7 +7310,7 @@
         <v>11</v>
       </c>
       <c r="F9" s="172" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="G9" t="s">
         <v>51</v>
@@ -7276,7 +7330,7 @@
         <v>27</v>
       </c>
       <c r="F10" s="172" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="G10" t="s">
         <v>51</v>
@@ -7296,7 +7350,7 @@
         <v>16</v>
       </c>
       <c r="F11" s="172" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G11" t="s">
         <v>52</v>
@@ -7310,13 +7364,13 @@
       </c>
       <c r="C12" s="172"/>
       <c r="D12" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E12" t="s">
         <v>17</v>
       </c>
       <c r="F12" s="172" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="G12" t="s">
         <v>229</v>
@@ -7327,7 +7381,7 @@
         <v>7</v>
       </c>
       <c r="C13" s="172" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>21</v>
@@ -7336,7 +7390,7 @@
         <v>20</v>
       </c>
       <c r="F13" s="172" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="G13" t="s">
         <v>54</v>
@@ -7355,7 +7409,7 @@
         <v>36</v>
       </c>
       <c r="F14" s="172" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="G14" t="s">
         <v>55</v>
@@ -7373,7 +7427,7 @@
         <v>25</v>
       </c>
       <c r="F15" s="172" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="G15" t="s">
         <v>229</v>
@@ -7391,7 +7445,7 @@
         <v>24</v>
       </c>
       <c r="F16" s="172" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G16" t="s">
         <v>52</v>
@@ -7409,7 +7463,7 @@
         <v>34</v>
       </c>
       <c r="F17" s="172" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G17" t="s">
         <v>55</v>
@@ -7427,7 +7481,7 @@
         <v>32</v>
       </c>
       <c r="F18" s="172" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G18" t="s">
         <v>55</v>
@@ -7438,7 +7492,7 @@
         <v>13</v>
       </c>
       <c r="C19" s="172" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>18</v>
@@ -7447,7 +7501,7 @@
         <v>19</v>
       </c>
       <c r="F19" s="172" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="G19" t="s">
         <v>54</v>
@@ -7465,7 +7519,7 @@
         <v>26</v>
       </c>
       <c r="F20" s="172" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G20" t="s">
         <v>53</v>
@@ -7483,7 +7537,7 @@
         <v>37</v>
       </c>
       <c r="F21" s="172" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G21" t="s">
         <v>53</v>
@@ -7501,7 +7555,7 @@
         <v>42</v>
       </c>
       <c r="F22" s="172" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G22" t="s">
         <v>52</v>
@@ -7519,7 +7573,7 @@
         <v>43</v>
       </c>
       <c r="F23" s="172" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G23" t="s">
         <v>52</v>
@@ -7530,16 +7584,16 @@
         <v>18</v>
       </c>
       <c r="C24" s="172" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E24" s="14" t="s">
         <v>15</v>
       </c>
       <c r="F24" s="173" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G24" s="14" t="s">
         <v>53</v>
@@ -7560,7 +7614,7 @@
         <v>47</v>
       </c>
       <c r="F25" s="172" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G25" t="s">
         <v>229</v>
@@ -7578,7 +7632,7 @@
         <v>44</v>
       </c>
       <c r="F26" s="172" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="G26" t="s">
         <v>54</v>
@@ -7589,7 +7643,7 @@
         <v>21</v>
       </c>
       <c r="C27" s="172" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>48</v>
@@ -7598,7 +7652,7 @@
         <v>49</v>
       </c>
       <c r="F27" s="172" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G27" t="s">
         <v>53</v>
@@ -7616,7 +7670,7 @@
         <v>30</v>
       </c>
       <c r="F28" s="172" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G28" t="s">
         <v>53</v>
@@ -7634,7 +7688,7 @@
         <v>28</v>
       </c>
       <c r="F29" s="172" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="G29" t="s">
         <v>51</v>
@@ -7653,7 +7707,7 @@
     </row>
     <row r="33" spans="2:10" ht="18" customHeight="1">
       <c r="B33" t="s">
-        <v>485</v>
+        <v>470</v>
       </c>
       <c r="H33" s="11"/>
       <c r="I33" s="11"/>
@@ -7661,7 +7715,7 @@
     </row>
     <row r="34" spans="2:10" ht="18" customHeight="1">
       <c r="B34" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
@@ -7739,7 +7793,7 @@
       <c r="D6" s="200"/>
       <c r="E6" s="200"/>
       <c r="F6" s="201" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G6" s="201"/>
       <c r="H6" s="201"/>
@@ -8519,62 +8573,62 @@
     </row>
     <row r="39" spans="2:22">
       <c r="B39" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="40" spans="2:22">
       <c r="B40" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="41" spans="2:22">
       <c r="B41" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="43" spans="2:22">
       <c r="B43" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="44" spans="2:22">
       <c r="B44" t="s">
-        <v>529</v>
+        <v>514</v>
       </c>
     </row>
     <row r="45" spans="2:22" ht="18.75" customHeight="1">
       <c r="B45" t="s">
-        <v>533</v>
+        <v>518</v>
       </c>
     </row>
     <row r="46" spans="2:22">
       <c r="B46" t="s">
-        <v>548</v>
+        <v>533</v>
       </c>
     </row>
     <row r="47" spans="2:22">
       <c r="B47" t="s">
-        <v>533</v>
+        <v>518</v>
       </c>
     </row>
     <row r="48" spans="2:22">
       <c r="B48" t="s">
-        <v>550</v>
+        <v>535</v>
       </c>
     </row>
     <row r="49" spans="2:12" ht="16.5" customHeight="1">
       <c r="B49" t="s">
-        <v>551</v>
+        <v>536</v>
       </c>
     </row>
     <row r="50" spans="2:12">
       <c r="B50" t="s">
-        <v>552</v>
+        <v>537</v>
       </c>
     </row>
     <row r="51" spans="2:12">
       <c r="B51" s="288" t="s">
-        <v>559</v>
+        <v>544</v>
       </c>
       <c r="C51" s="288"/>
       <c r="D51" s="288"/>
@@ -8589,22 +8643,22 @@
     </row>
     <row r="52" spans="2:12">
       <c r="B52" t="s">
-        <v>553</v>
+        <v>538</v>
       </c>
     </row>
     <row r="53" spans="2:12">
       <c r="B53" t="s">
-        <v>530</v>
+        <v>515</v>
       </c>
     </row>
     <row r="54" spans="2:12">
       <c r="B54" t="s">
-        <v>531</v>
+        <v>516</v>
       </c>
     </row>
     <row r="55" spans="2:12">
       <c r="B55" t="s">
-        <v>532</v>
+        <v>517</v>
       </c>
       <c r="C55" s="65"/>
       <c r="D55" s="65"/>
@@ -8627,7 +8681,7 @@
     </row>
     <row r="57" spans="2:12">
       <c r="B57" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C57" s="65"/>
       <c r="D57" s="65"/>
@@ -8640,7 +8694,7 @@
     </row>
     <row r="58" spans="2:12">
       <c r="B58" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C58" s="65"/>
       <c r="D58" s="65"/>
@@ -8653,7 +8707,7 @@
     </row>
     <row r="59" spans="2:12">
       <c r="B59" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C59" s="65"/>
       <c r="D59" s="65"/>
@@ -8666,7 +8720,7 @@
     </row>
     <row r="60" spans="2:12">
       <c r="B60" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C60" s="65"/>
       <c r="D60" s="65"/>
@@ -8692,7 +8746,7 @@
     </row>
     <row r="62" spans="2:12">
       <c r="B62" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C62" s="65"/>
       <c r="D62" s="65"/>
@@ -8705,7 +8759,7 @@
     </row>
     <row r="63" spans="2:12">
       <c r="B63" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C63" s="65"/>
       <c r="D63" s="65"/>
@@ -8718,7 +8772,7 @@
     </row>
     <row r="64" spans="2:12">
       <c r="B64" t="s">
-        <v>566</v>
+        <v>551</v>
       </c>
       <c r="C64" s="65"/>
       <c r="D64" s="65"/>
@@ -8731,7 +8785,7 @@
     </row>
     <row r="65" spans="2:10">
       <c r="B65" t="s">
-        <v>567</v>
+        <v>552</v>
       </c>
       <c r="C65" s="65"/>
       <c r="D65" s="65"/>
@@ -8822,7 +8876,7 @@
       <c r="D6" s="200"/>
       <c r="E6" s="200"/>
       <c r="F6" s="201" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G6" s="201"/>
       <c r="H6" s="201"/>
@@ -8894,7 +8948,7 @@
       <c r="P8" s="114"/>
       <c r="Q8" s="114"/>
       <c r="R8" s="188" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="S8" s="189"/>
       <c r="T8" s="189"/>
@@ -9046,17 +9100,17 @@
       <c r="E15" s="115"/>
       <c r="F15" s="115"/>
       <c r="G15" s="223" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H15" s="117"/>
       <c r="I15" s="188" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="J15" s="189"/>
       <c r="K15" s="194"/>
       <c r="L15" s="117"/>
       <c r="M15" s="223" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="N15" s="115"/>
       <c r="Q15" s="91"/>
@@ -9106,7 +9160,7 @@
       <c r="E18" s="115"/>
       <c r="F18" s="115"/>
       <c r="G18" s="38" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H18" s="119"/>
       <c r="I18" s="122"/>
@@ -9114,7 +9168,7 @@
       <c r="K18" s="121"/>
       <c r="L18" s="115"/>
       <c r="M18" s="223" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="N18" s="115"/>
       <c r="Q18" s="91"/>
@@ -9128,7 +9182,7 @@
       <c r="E19" s="115"/>
       <c r="F19" s="115"/>
       <c r="G19" s="38" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H19" s="115"/>
       <c r="I19" s="108"/>
@@ -9184,7 +9238,7 @@
       <c r="E22" s="115"/>
       <c r="F22" s="115"/>
       <c r="G22" s="38" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H22" s="119"/>
       <c r="I22" s="122"/>
@@ -9206,7 +9260,7 @@
       <c r="E23" s="115"/>
       <c r="F23" s="115"/>
       <c r="G23" s="38" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H23" s="118"/>
       <c r="I23" s="122"/>
@@ -9482,7 +9536,7 @@
     </row>
     <row r="38" spans="2:22">
       <c r="B38" s="160" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C38" s="160"/>
       <c r="D38" s="160"/>
@@ -9507,22 +9561,22 @@
     </row>
     <row r="39" spans="2:22">
       <c r="B39" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
     </row>
     <row r="40" spans="2:22">
       <c r="B40" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
     </row>
     <row r="41" spans="2:22">
       <c r="B41" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="42" spans="2:22">
       <c r="B42" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
     </row>
     <row r="58" spans="14:14">
@@ -10017,7 +10071,7 @@
     </row>
     <row r="38" spans="2:22">
       <c r="B38" s="170" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C38" s="87"/>
       <c r="D38" s="87"/>
@@ -10042,37 +10096,37 @@
     </row>
     <row r="39" spans="2:22">
       <c r="B39" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="40" spans="2:22">
       <c r="B40" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="41" spans="2:22">
       <c r="B41" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="42" spans="2:22">
       <c r="B42" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="44" spans="2:22">
       <c r="B44" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="45" spans="2:22">
       <c r="B45" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="46" spans="2:22">
       <c r="B46" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="61" spans="2:2">
@@ -10572,7 +10626,7 @@
     </row>
     <row r="38" spans="2:22">
       <c r="B38" s="170" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C38" s="87"/>
       <c r="D38" s="87"/>
@@ -10597,67 +10651,67 @@
     </row>
     <row r="39" spans="2:22">
       <c r="B39" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="40" spans="2:22">
       <c r="B40" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="41" spans="2:22">
       <c r="B41" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="43" spans="2:22">
       <c r="B43" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="44" spans="2:22">
       <c r="B44" t="s">
-        <v>529</v>
+        <v>514</v>
       </c>
     </row>
     <row r="45" spans="2:22">
       <c r="B45" t="s">
-        <v>533</v>
+        <v>518</v>
       </c>
     </row>
     <row r="46" spans="2:22">
       <c r="B46" t="s">
-        <v>548</v>
+        <v>533</v>
       </c>
     </row>
     <row r="47" spans="2:22">
       <c r="B47" t="s">
-        <v>533</v>
+        <v>518</v>
       </c>
     </row>
     <row r="48" spans="2:22">
       <c r="B48" t="s">
-        <v>556</v>
+        <v>541</v>
       </c>
     </row>
     <row r="49" spans="2:12">
       <c r="B49" t="s">
-        <v>557</v>
+        <v>542</v>
       </c>
     </row>
     <row r="50" spans="2:12">
       <c r="B50" t="s">
-        <v>554</v>
+        <v>539</v>
       </c>
     </row>
     <row r="51" spans="2:12">
       <c r="B51" t="s">
-        <v>555</v>
+        <v>540</v>
       </c>
     </row>
     <row r="52" spans="2:12">
       <c r="B52" s="288" t="s">
-        <v>559</v>
+        <v>544</v>
       </c>
       <c r="C52" s="288"/>
       <c r="D52" s="288"/>
@@ -10672,17 +10726,17 @@
     </row>
     <row r="53" spans="2:12">
       <c r="B53" t="s">
-        <v>530</v>
+        <v>515</v>
       </c>
     </row>
     <row r="54" spans="2:12">
       <c r="B54" t="s">
-        <v>531</v>
+        <v>516</v>
       </c>
     </row>
     <row r="55" spans="2:12">
       <c r="B55" t="s">
-        <v>558</v>
+        <v>543</v>
       </c>
     </row>
   </sheetData>
@@ -11582,25 +11636,25 @@
     </row>
     <row r="39" spans="2:22">
       <c r="B39" s="99" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="D39" s="99"/>
     </row>
     <row r="40" spans="2:22">
       <c r="B40" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
       <c r="D40" s="99"/>
     </row>
     <row r="41" spans="2:22">
       <c r="B41" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D41" s="99"/>
     </row>
     <row r="42" spans="2:22">
       <c r="B42" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="D42" s="99"/>
     </row>
@@ -11609,24 +11663,24 @@
     </row>
     <row r="44" spans="2:22">
       <c r="B44" t="s">
-        <v>421</v>
+        <v>410</v>
       </c>
       <c r="F44" s="99"/>
     </row>
     <row r="45" spans="2:22">
       <c r="B45" t="s">
-        <v>568</v>
+        <v>553</v>
       </c>
       <c r="F45" s="99"/>
     </row>
     <row r="46" spans="2:22">
       <c r="B46" t="s">
-        <v>569</v>
+        <v>554</v>
       </c>
     </row>
     <row r="47" spans="2:22">
       <c r="B47" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
     </row>
   </sheetData>
@@ -12452,7 +12506,7 @@
     </row>
     <row r="38" spans="2:22">
       <c r="B38" s="184" t="s">
-        <v>464</v>
+        <v>453</v>
       </c>
       <c r="C38" s="143"/>
       <c r="D38" s="143"/>
@@ -12477,17 +12531,17 @@
     </row>
     <row r="39" spans="2:22">
       <c r="B39" t="s">
-        <v>467</v>
+        <v>456</v>
       </c>
     </row>
     <row r="40" spans="2:22">
       <c r="B40" t="s">
-        <v>465</v>
+        <v>454</v>
       </c>
     </row>
     <row r="41" spans="2:22">
       <c r="B41" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
     </row>
   </sheetData>
@@ -13280,7 +13334,7 @@
     </row>
     <row r="38" spans="2:22">
       <c r="B38" s="184" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C38" s="143"/>
       <c r="D38" s="143"/>
@@ -13305,7 +13359,7 @@
     </row>
     <row r="39" spans="2:22">
       <c r="B39" s="144" t="s">
-        <v>468</v>
+        <v>457</v>
       </c>
       <c r="C39" s="144"/>
       <c r="D39" s="144"/>
@@ -13317,82 +13371,82 @@
     </row>
     <row r="40" spans="2:22">
       <c r="B40" t="s">
-        <v>469</v>
+        <v>458</v>
       </c>
     </row>
     <row r="41" spans="2:22">
       <c r="B41" t="s">
-        <v>470</v>
+        <v>459</v>
       </c>
     </row>
     <row r="42" spans="2:22">
       <c r="B42" t="s">
-        <v>471</v>
+        <v>460</v>
       </c>
     </row>
     <row r="43" spans="2:22">
       <c r="B43" t="s">
-        <v>472</v>
+        <v>461</v>
       </c>
     </row>
     <row r="45" spans="2:22">
       <c r="B45" t="s">
-        <v>473</v>
+        <v>462</v>
       </c>
     </row>
     <row r="46" spans="2:22">
       <c r="B46" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
     </row>
     <row r="47" spans="2:22">
       <c r="B47" t="s">
-        <v>475</v>
+        <v>464</v>
       </c>
     </row>
     <row r="48" spans="2:22">
       <c r="B48" t="s">
-        <v>476</v>
+        <v>465</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50" t="s">
-        <v>482</v>
+        <v>468</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51" t="s">
-        <v>477</v>
+        <v>582</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" t="s">
-        <v>484</v>
+        <v>575</v>
       </c>
     </row>
     <row r="54" spans="2:2">
       <c r="B54" t="s">
-        <v>483</v>
+        <v>469</v>
       </c>
     </row>
     <row r="55" spans="2:2">
       <c r="B55" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
     </row>
     <row r="56" spans="2:2">
       <c r="B56" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
     </row>
     <row r="57" spans="2:2">
       <c r="B57" t="s">
-        <v>480</v>
+        <v>584</v>
       </c>
     </row>
     <row r="58" spans="2:2">
       <c r="B58" t="s">
-        <v>481</v>
+        <v>583</v>
       </c>
     </row>
   </sheetData>
@@ -13465,7 +13519,7 @@
       <c r="D6" s="200"/>
       <c r="E6" s="200"/>
       <c r="F6" s="201" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G6" s="201"/>
       <c r="H6" s="201"/>
@@ -13537,7 +13591,7 @@
       <c r="P8" s="114"/>
       <c r="Q8" s="114"/>
       <c r="R8" s="188" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="S8" s="189"/>
       <c r="T8" s="189"/>
@@ -13666,7 +13720,7 @@
       <c r="E14" s="115"/>
       <c r="F14" s="92"/>
       <c r="G14" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H14" s="361"/>
       <c r="I14" s="362"/>
@@ -13709,7 +13763,7 @@
       <c r="E16" s="115"/>
       <c r="F16" s="92"/>
       <c r="G16" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H16" s="361"/>
       <c r="I16" s="362"/>
@@ -13747,7 +13801,7 @@
       <c r="E18" s="115"/>
       <c r="F18" s="92"/>
       <c r="G18" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H18" s="361"/>
       <c r="I18" s="362"/>
@@ -13785,7 +13839,7 @@
       <c r="E20" s="115"/>
       <c r="F20" s="92"/>
       <c r="G20" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H20" s="361"/>
       <c r="I20" s="362"/>
@@ -13823,7 +13877,7 @@
       <c r="E22" s="115"/>
       <c r="F22" s="92"/>
       <c r="G22" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H22" s="361"/>
       <c r="I22" s="362"/>
@@ -13898,11 +13952,11 @@
       <c r="F26" s="92"/>
       <c r="G26" s="6"/>
       <c r="H26" s="361" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I26" s="363"/>
       <c r="J26" s="361" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K26" s="363"/>
       <c r="L26" s="91"/>
@@ -14121,7 +14175,7 @@
     </row>
     <row r="38" spans="2:22">
       <c r="B38" s="160" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C38" s="160"/>
       <c r="D38" s="160"/>
@@ -14146,17 +14200,17 @@
     </row>
     <row r="39" spans="2:22">
       <c r="B39" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
     </row>
     <row r="40" spans="2:22">
       <c r="B40" t="s">
-        <v>410</v>
+        <v>571</v>
       </c>
     </row>
     <row r="41" spans="2:22">
       <c r="B41" t="s">
-        <v>411</v>
+        <v>572</v>
       </c>
     </row>
     <row r="58" spans="14:14">
@@ -14230,7 +14284,7 @@
       <c r="D6" s="200"/>
       <c r="E6" s="200"/>
       <c r="F6" s="201" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G6" s="201"/>
       <c r="H6" s="201"/>
@@ -14302,7 +14356,7 @@
       <c r="P8" s="114"/>
       <c r="Q8" s="114"/>
       <c r="R8" s="188" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="S8" s="189"/>
       <c r="T8" s="189"/>
@@ -14431,7 +14485,7 @@
       <c r="E14" s="115"/>
       <c r="F14" s="91"/>
       <c r="G14" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H14" s="361"/>
       <c r="I14" s="362"/>
@@ -14474,7 +14528,7 @@
       <c r="E16" s="115"/>
       <c r="F16" s="91"/>
       <c r="G16" s="91" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H16" s="364"/>
       <c r="I16" s="365"/>
@@ -14548,7 +14602,7 @@
       <c r="E20" s="115"/>
       <c r="F20" s="91"/>
       <c r="G20" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H20" s="361"/>
       <c r="I20" s="362"/>
@@ -14586,7 +14640,7 @@
       <c r="E22" s="115"/>
       <c r="F22" s="91"/>
       <c r="G22" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H22" s="361"/>
       <c r="I22" s="362"/>
@@ -14624,7 +14678,7 @@
       <c r="E24" s="115"/>
       <c r="F24" s="91"/>
       <c r="G24" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H24" s="361"/>
       <c r="I24" s="362"/>
@@ -14662,14 +14716,14 @@
       <c r="E26" s="115"/>
       <c r="F26" s="91"/>
       <c r="G26" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H26" s="100"/>
       <c r="I26" s="101"/>
       <c r="J26" s="101"/>
       <c r="K26" s="102"/>
       <c r="L26" s="106" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="M26" s="6"/>
       <c r="N26" s="115"/>
@@ -14806,7 +14860,7 @@
       <c r="J32" s="203"/>
       <c r="K32" s="204"/>
       <c r="L32" s="121" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M32" s="115"/>
       <c r="N32" s="115"/>
@@ -14890,7 +14944,7 @@
     </row>
     <row r="38" spans="2:22">
       <c r="B38" s="161" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C38" s="160"/>
       <c r="D38" s="160"/>
@@ -14915,28 +14969,68 @@
     </row>
     <row r="39" spans="2:22">
       <c r="B39" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
     </row>
     <row r="40" spans="2:22">
       <c r="B40" t="s">
-        <v>413</v>
+        <v>574</v>
       </c>
     </row>
     <row r="41" spans="2:22">
       <c r="B41" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="42" spans="2:22">
       <c r="B42" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="58" spans="14:14">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22">
+      <c r="B44" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22">
+      <c r="B45" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22">
+      <c r="B46" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22">
+      <c r="B48" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14">
+      <c r="B49" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14">
+      <c r="B50" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14">
+      <c r="B51" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14">
+      <c r="B52" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14">
       <c r="N58" s="6"/>
     </row>
-    <row r="59" spans="14:14">
+    <row r="59" spans="2:14">
       <c r="N59" s="6"/>
     </row>
   </sheetData>
@@ -15005,7 +15099,7 @@
       <c r="D6" s="200"/>
       <c r="E6" s="200"/>
       <c r="F6" s="201" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="G6" s="201"/>
       <c r="H6" s="201"/>
@@ -15115,7 +15209,7 @@
       </c>
       <c r="I10" s="372"/>
       <c r="J10" s="377" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
       <c r="K10" s="378"/>
       <c r="L10" s="378"/>
@@ -15230,7 +15324,7 @@
       <c r="F15" s="70"/>
       <c r="G15" s="70"/>
       <c r="H15" s="208" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
       <c r="I15" s="191"/>
       <c r="J15" s="343" t="s">
@@ -15482,7 +15576,7 @@
       <c r="F25" s="70"/>
       <c r="G25" s="70"/>
       <c r="H25" s="208" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="I25" s="209"/>
       <c r="J25" s="205"/>
@@ -15744,7 +15838,7 @@
     <row r="38" spans="1:22">
       <c r="A38" s="142"/>
       <c r="B38" s="184" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
       <c r="C38" s="143"/>
       <c r="D38" s="143"/>
@@ -15769,7 +15863,7 @@
     </row>
     <row r="39" spans="1:22">
       <c r="B39" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C39" s="144"/>
       <c r="D39" s="144"/>
@@ -15779,127 +15873,127 @@
     </row>
     <row r="40" spans="1:22">
       <c r="B40" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
     </row>
     <row r="41" spans="1:22">
       <c r="B41" t="s">
-        <v>440</v>
+        <v>429</v>
       </c>
     </row>
     <row r="42" spans="1:22">
       <c r="B42" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
     </row>
     <row r="43" spans="1:22">
       <c r="B43" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
     </row>
     <row r="45" spans="1:22">
       <c r="B45" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="46" spans="1:22">
       <c r="B46" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
     </row>
     <row r="47" spans="1:22">
       <c r="B47" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
     </row>
     <row r="48" spans="1:22">
       <c r="B48" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49" t="s">
-        <v>447</v>
+        <v>436</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" t="s">
-        <v>448</v>
+        <v>437</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
     </row>
     <row r="54" spans="2:2">
       <c r="B54" t="s">
-        <v>450</v>
+        <v>439</v>
       </c>
     </row>
     <row r="55" spans="2:2">
       <c r="B55" t="s">
-        <v>447</v>
+        <v>436</v>
       </c>
     </row>
     <row r="57" spans="2:2">
       <c r="B57" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
     </row>
     <row r="58" spans="2:2">
       <c r="B58" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
     </row>
     <row r="59" spans="2:2">
       <c r="B59" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
     </row>
     <row r="61" spans="2:2">
       <c r="B61" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
     </row>
     <row r="62" spans="2:2">
       <c r="B62" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
     </row>
     <row r="63" spans="2:2">
       <c r="B63" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
     </row>
     <row r="64" spans="2:2">
       <c r="B64" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
     </row>
     <row r="65" spans="2:2">
       <c r="B65" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
     </row>
     <row r="66" spans="2:2">
       <c r="B66" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
     </row>
     <row r="67" spans="2:2">
       <c r="B67" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
     </row>
     <row r="68" spans="2:2">
       <c r="B68" t="s">
-        <v>463</v>
+        <v>452</v>
       </c>
     </row>
   </sheetData>
@@ -15974,7 +16068,7 @@
       <c r="D6" s="200"/>
       <c r="E6" s="200"/>
       <c r="F6" s="201" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G6" s="201"/>
       <c r="H6" s="201"/>
@@ -16195,7 +16289,7 @@
       <c r="N15" s="115"/>
       <c r="O15" s="111"/>
       <c r="P15" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Q15" s="90"/>
       <c r="R15" s="88"/>
@@ -16278,7 +16372,7 @@
       <c r="N19" s="115"/>
       <c r="O19" s="111"/>
       <c r="P19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="Q19" s="90"/>
       <c r="R19" s="88"/>
@@ -16379,7 +16473,7 @@
       <c r="N24" s="115"/>
       <c r="O24" s="111"/>
       <c r="R24" s="90" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="S24" s="98"/>
       <c r="U24" s="111"/>
@@ -16439,7 +16533,7 @@
       <c r="N27" s="115"/>
       <c r="O27" s="111"/>
       <c r="R27" s="90" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="S27" s="98"/>
       <c r="U27" s="111"/>
@@ -16631,7 +16725,7 @@
     </row>
     <row r="38" spans="2:22">
       <c r="B38" s="160" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C38" s="160"/>
       <c r="D38" s="160"/>
@@ -16778,7 +16872,7 @@
       </c>
       <c r="D8" s="194"/>
       <c r="E8" s="258" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F8" s="259"/>
       <c r="G8" s="259"/>
@@ -17504,22 +17598,22 @@
     </row>
     <row r="39" spans="2:22">
       <c r="B39" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
     </row>
     <row r="40" spans="2:22">
       <c r="B40" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
     </row>
     <row r="41" spans="2:22">
       <c r="B41" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
     </row>
     <row r="42" spans="2:22">
       <c r="B42" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
     </row>
   </sheetData>
@@ -18348,32 +18442,32 @@
     </row>
     <row r="39" spans="2:22">
       <c r="B39" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="40" spans="2:22">
       <c r="B40" t="s">
-        <v>570</v>
+        <v>555</v>
       </c>
     </row>
     <row r="41" spans="2:22">
       <c r="B41" t="s">
-        <v>563</v>
+        <v>548</v>
       </c>
     </row>
     <row r="43" spans="2:22">
       <c r="B43" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="44" spans="2:22">
       <c r="B44" t="s">
-        <v>571</v>
+        <v>556</v>
       </c>
     </row>
     <row r="45" spans="2:22">
       <c r="B45" t="s">
-        <v>572</v>
+        <v>557</v>
       </c>
     </row>
   </sheetData>
@@ -19146,7 +19240,7 @@
     </row>
     <row r="38" spans="2:22">
       <c r="B38" s="186" t="s">
-        <v>497</v>
+        <v>482</v>
       </c>
       <c r="C38" s="143"/>
       <c r="D38" s="143"/>
@@ -19171,7 +19265,7 @@
     </row>
     <row r="39" spans="2:22">
       <c r="B39" s="157" t="s">
-        <v>498</v>
+        <v>483</v>
       </c>
       <c r="C39" s="144"/>
       <c r="D39" s="144"/>
@@ -19180,72 +19274,72 @@
     </row>
     <row r="40" spans="2:22">
       <c r="B40" t="s">
-        <v>499</v>
+        <v>484</v>
       </c>
     </row>
     <row r="41" spans="2:22">
       <c r="B41" t="s">
-        <v>500</v>
+        <v>485</v>
       </c>
     </row>
     <row r="42" spans="2:22">
       <c r="B42" t="s">
-        <v>501</v>
+        <v>486</v>
       </c>
     </row>
     <row r="43" spans="2:22">
       <c r="B43" t="s">
-        <v>502</v>
+        <v>487</v>
       </c>
     </row>
     <row r="45" spans="2:22">
       <c r="B45" t="s">
-        <v>503</v>
+        <v>488</v>
       </c>
     </row>
     <row r="46" spans="2:22">
       <c r="B46" t="s">
-        <v>504</v>
+        <v>489</v>
       </c>
     </row>
     <row r="47" spans="2:22">
       <c r="B47" t="s">
-        <v>505</v>
+        <v>490</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49" t="s">
-        <v>506</v>
+        <v>491</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50" t="s">
-        <v>507</v>
+        <v>492</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51" t="s">
-        <v>508</v>
+        <v>493</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" t="s">
-        <v>509</v>
+        <v>494</v>
       </c>
     </row>
     <row r="54" spans="2:2">
       <c r="B54" t="s">
-        <v>510</v>
+        <v>495</v>
       </c>
     </row>
     <row r="55" spans="2:2">
       <c r="B55" t="s">
-        <v>511</v>
+        <v>496</v>
       </c>
     </row>
     <row r="56" spans="2:2">
       <c r="B56" t="s">
-        <v>512</v>
+        <v>497</v>
       </c>
     </row>
   </sheetData>
@@ -20026,7 +20120,7 @@
     </row>
     <row r="38" spans="2:22">
       <c r="B38" s="186" t="s">
-        <v>497</v>
+        <v>482</v>
       </c>
       <c r="C38" s="143"/>
       <c r="D38" s="143"/>
@@ -20051,92 +20145,92 @@
     </row>
     <row r="39" spans="2:22">
       <c r="B39" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
     </row>
     <row r="40" spans="2:22">
       <c r="B40" t="s">
-        <v>516</v>
+        <v>501</v>
       </c>
     </row>
     <row r="41" spans="2:22">
       <c r="B41" t="s">
-        <v>517</v>
+        <v>502</v>
       </c>
     </row>
     <row r="42" spans="2:22">
       <c r="B42" t="s">
-        <v>518</v>
+        <v>503</v>
       </c>
     </row>
     <row r="43" spans="2:22">
       <c r="B43" t="s">
-        <v>519</v>
+        <v>504</v>
       </c>
     </row>
     <row r="44" spans="2:22">
       <c r="B44" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
     </row>
     <row r="45" spans="2:22">
       <c r="B45" t="s">
-        <v>520</v>
+        <v>505</v>
       </c>
     </row>
     <row r="46" spans="2:22">
       <c r="B46" t="s">
-        <v>521</v>
+        <v>506</v>
       </c>
     </row>
     <row r="47" spans="2:22">
       <c r="B47" t="s">
-        <v>522</v>
+        <v>507</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49" t="s">
-        <v>503</v>
+        <v>488</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50" t="s">
-        <v>504</v>
+        <v>489</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51" t="s">
-        <v>525</v>
+        <v>510</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" t="s">
-        <v>513</v>
+        <v>498</v>
       </c>
     </row>
     <row r="54" spans="2:2">
       <c r="B54" t="s">
-        <v>523</v>
+        <v>508</v>
       </c>
     </row>
     <row r="55" spans="2:2">
       <c r="B55" t="s">
-        <v>524</v>
+        <v>509</v>
       </c>
     </row>
     <row r="57" spans="2:2">
       <c r="B57" t="s">
-        <v>514</v>
+        <v>499</v>
       </c>
     </row>
     <row r="58" spans="2:2">
       <c r="B58" t="s">
-        <v>515</v>
+        <v>500</v>
       </c>
     </row>
     <row r="59" spans="2:2">
       <c r="B59" t="s">
-        <v>524</v>
+        <v>509</v>
       </c>
     </row>
   </sheetData>
@@ -20174,8 +20268,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V59"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -20208,7 +20302,7 @@
       <c r="D6" s="200"/>
       <c r="E6" s="200"/>
       <c r="F6" s="201" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G6" s="201"/>
       <c r="H6" s="201"/>
@@ -20280,7 +20374,7 @@
       <c r="P8" s="114"/>
       <c r="Q8" s="114"/>
       <c r="R8" s="188" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="S8" s="189"/>
       <c r="T8" s="189"/>
@@ -20363,7 +20457,7 @@
       <c r="O12" s="115"/>
       <c r="Q12" s="91"/>
       <c r="R12" s="191" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="S12" s="191"/>
       <c r="T12" s="191"/>
@@ -20377,12 +20471,12 @@
       <c r="E13" s="39"/>
       <c r="F13" s="107"/>
       <c r="G13" s="189" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H13" s="189"/>
       <c r="I13" s="194"/>
       <c r="J13" s="188" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="K13" s="189"/>
       <c r="L13" s="194"/>
@@ -20448,11 +20542,11 @@
       <c r="O16" s="115"/>
       <c r="Q16" s="91"/>
       <c r="R16" s="190" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="S16" s="191"/>
       <c r="T16" s="215" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="U16" s="216"/>
       <c r="V16" s="119"/>
@@ -20468,11 +20562,11 @@
       <c r="O17" s="115"/>
       <c r="Q17" s="91"/>
       <c r="R17" s="190" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="S17" s="191"/>
       <c r="T17" s="215" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="U17" s="216"/>
       <c r="V17" s="119"/>
@@ -20482,13 +20576,13 @@
       <c r="C18" s="110"/>
       <c r="D18" s="110"/>
       <c r="E18" s="115" t="s">
+        <v>303</v>
+      </c>
+      <c r="F18" s="115" t="s">
         <v>304</v>
       </c>
-      <c r="F18" s="115" t="s">
+      <c r="G18" s="191" t="s">
         <v>305</v>
-      </c>
-      <c r="G18" s="191" t="s">
-        <v>306</v>
       </c>
       <c r="H18" s="191"/>
       <c r="I18" s="191"/>
@@ -20500,11 +20594,11 @@
       <c r="O18" s="115"/>
       <c r="Q18" s="91"/>
       <c r="R18" s="190" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="S18" s="191"/>
       <c r="T18" s="215" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="U18" s="216"/>
       <c r="V18" s="119"/>
@@ -20526,11 +20620,11 @@
       <c r="O19" s="115"/>
       <c r="Q19" s="91"/>
       <c r="R19" s="192" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="S19" s="193"/>
       <c r="T19" s="213" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="U19" s="214"/>
       <c r="V19" s="119"/>
@@ -20562,7 +20656,7 @@
       <c r="C21" s="110"/>
       <c r="D21" s="110"/>
       <c r="E21" s="205" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F21" s="206"/>
       <c r="G21" s="206"/>
@@ -20576,7 +20670,7 @@
       <c r="O21" s="115"/>
       <c r="Q21" s="91"/>
       <c r="R21" s="188" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="S21" s="189"/>
       <c r="T21" s="189"/>
@@ -20666,7 +20760,7 @@
       <c r="O25" s="115"/>
       <c r="Q25" s="91"/>
       <c r="R25" s="190" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="S25" s="191"/>
       <c r="T25" s="115"/>
@@ -20690,7 +20784,7 @@
       <c r="O26" s="115"/>
       <c r="Q26" s="91"/>
       <c r="R26" s="190" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="S26" s="191"/>
       <c r="T26" s="115"/>
@@ -20708,7 +20802,7 @@
       <c r="O27" s="115"/>
       <c r="Q27" s="91"/>
       <c r="R27" s="190" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="S27" s="191"/>
       <c r="T27" s="115"/>
@@ -20720,13 +20814,13 @@
       <c r="C28" s="110"/>
       <c r="D28" s="110"/>
       <c r="E28" s="115" t="s">
+        <v>311</v>
+      </c>
+      <c r="F28" s="115" t="s">
+        <v>304</v>
+      </c>
+      <c r="G28" s="191" t="s">
         <v>312</v>
-      </c>
-      <c r="F28" s="115" t="s">
-        <v>305</v>
-      </c>
-      <c r="G28" s="191" t="s">
-        <v>313</v>
       </c>
       <c r="H28" s="191"/>
       <c r="I28" s="191"/>
@@ -20790,7 +20884,7 @@
       <c r="C31" s="110"/>
       <c r="D31" s="110"/>
       <c r="E31" s="205" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F31" s="206"/>
       <c r="G31" s="206"/>
@@ -20904,7 +20998,7 @@
     </row>
     <row r="38" spans="2:22">
       <c r="B38" s="160" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C38" s="160"/>
       <c r="D38" s="160"/>
@@ -20929,42 +21023,42 @@
     </row>
     <row r="39" spans="2:22">
       <c r="B39" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
     </row>
     <row r="40" spans="2:22">
       <c r="B40" t="s">
-        <v>561</v>
+        <v>546</v>
       </c>
     </row>
     <row r="41" spans="2:22">
       <c r="B41" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="42" spans="2:22">
       <c r="B42" t="s">
-        <v>562</v>
+        <v>547</v>
       </c>
     </row>
     <row r="44" spans="2:22">
       <c r="B44" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
     </row>
     <row r="45" spans="2:22">
       <c r="B45" t="s">
-        <v>560</v>
+        <v>545</v>
       </c>
     </row>
     <row r="46" spans="2:22">
       <c r="B46" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="47" spans="2:22">
       <c r="B47" t="s">
-        <v>562</v>
+        <v>547</v>
       </c>
     </row>
     <row r="58" spans="14:14">
@@ -21780,182 +21874,182 @@
     </row>
     <row r="39" spans="2:22">
       <c r="B39" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="40" spans="2:22">
       <c r="B40" t="s">
-        <v>529</v>
+        <v>514</v>
       </c>
     </row>
     <row r="41" spans="2:22">
       <c r="B41" t="s">
-        <v>533</v>
+        <v>518</v>
       </c>
     </row>
     <row r="42" spans="2:22">
       <c r="B42" t="s">
-        <v>548</v>
+        <v>533</v>
       </c>
     </row>
     <row r="43" spans="2:22">
       <c r="B43" t="s">
-        <v>533</v>
+        <v>518</v>
       </c>
     </row>
     <row r="44" spans="2:22">
       <c r="B44" t="s">
-        <v>538</v>
+        <v>523</v>
       </c>
     </row>
     <row r="45" spans="2:22">
       <c r="B45" t="s">
-        <v>539</v>
+        <v>524</v>
       </c>
     </row>
     <row r="46" spans="2:22">
       <c r="B46" t="s">
-        <v>540</v>
+        <v>525</v>
       </c>
     </row>
     <row r="47" spans="2:22">
       <c r="B47" t="s">
-        <v>541</v>
+        <v>526</v>
       </c>
     </row>
     <row r="48" spans="2:22">
       <c r="B48" t="s">
-        <v>542</v>
+        <v>527</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49" t="s">
-        <v>543</v>
+        <v>528</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50" t="s">
-        <v>544</v>
+        <v>529</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51" t="s">
-        <v>545</v>
+        <v>530</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" t="s">
-        <v>546</v>
+        <v>531</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" t="s">
-        <v>547</v>
+        <v>532</v>
       </c>
     </row>
     <row r="54" spans="2:2">
       <c r="B54" t="s">
-        <v>530</v>
+        <v>515</v>
       </c>
     </row>
     <row r="55" spans="2:2">
       <c r="B55" t="s">
-        <v>531</v>
+        <v>516</v>
       </c>
     </row>
     <row r="56" spans="2:2">
       <c r="B56" t="s">
-        <v>532</v>
+        <v>517</v>
       </c>
     </row>
     <row r="58" spans="2:2">
       <c r="B58" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="59" spans="2:2">
       <c r="B59" t="s">
-        <v>564</v>
+        <v>549</v>
       </c>
     </row>
     <row r="60" spans="2:2">
       <c r="B60" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="61" spans="2:2">
       <c r="B61" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="63" spans="2:2">
       <c r="B63" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="64" spans="2:2">
       <c r="B64" t="s">
-        <v>565</v>
+        <v>550</v>
       </c>
     </row>
     <row r="65" spans="2:2">
       <c r="B65" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="66" spans="2:2">
       <c r="B66" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="67" spans="2:2">
       <c r="B67" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="68" spans="2:2">
       <c r="B68" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="69" spans="2:2">
       <c r="B69" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="70" spans="2:2">
       <c r="B70" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="72" spans="2:2">
       <c r="B72" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="73" spans="2:2">
       <c r="B73" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
     </row>
     <row r="74" spans="2:2">
       <c r="B74" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="75" spans="2:2">
       <c r="B75" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="76" spans="2:2">
       <c r="B76" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="77" spans="2:2">
       <c r="B77" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
   </sheetData>
@@ -22037,7 +22131,7 @@
       <c r="D6" s="200"/>
       <c r="E6" s="200"/>
       <c r="F6" s="201" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G6" s="201"/>
       <c r="H6" s="201"/>
@@ -22297,7 +22391,7 @@
       <c r="R16" s="122"/>
       <c r="S16" s="121"/>
       <c r="T16" s="38" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="U16" s="111"/>
       <c r="V16" s="111"/>
@@ -22437,7 +22531,7 @@
       <c r="N22" s="115"/>
       <c r="O22" s="111"/>
       <c r="P22" s="115" t="s">
-        <v>573</v>
+        <v>558</v>
       </c>
       <c r="Q22" s="120"/>
       <c r="R22" s="122"/>
@@ -22486,11 +22580,11 @@
       <c r="O24" s="111"/>
       <c r="P24" s="110"/>
       <c r="Q24" s="38" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="R24" s="39"/>
       <c r="S24" s="45" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="T24" s="115"/>
       <c r="U24" s="111"/>
@@ -22751,7 +22845,7 @@
     </row>
     <row r="38" spans="2:22">
       <c r="B38" s="160" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C38" s="160"/>
       <c r="D38" s="160"/>
@@ -22776,37 +22870,37 @@
     </row>
     <row r="39" spans="2:22">
       <c r="B39" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="40" spans="2:22">
       <c r="B40" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="41" spans="2:22">
       <c r="B41" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="42" spans="2:22">
       <c r="B42" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="44" spans="2:22">
       <c r="B44" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="45" spans="2:22">
       <c r="B45" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="46" spans="2:22">
       <c r="B46" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="58" spans="14:14">
@@ -22946,7 +23040,7 @@
       <c r="P8" s="114"/>
       <c r="Q8" s="114"/>
       <c r="R8" s="188" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="S8" s="189"/>
       <c r="T8" s="189"/>
@@ -23007,7 +23101,7 @@
       <c r="F11" s="115"/>
       <c r="G11" s="115"/>
       <c r="H11" s="119" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I11" s="110"/>
       <c r="J11" s="120"/>
@@ -23053,7 +23147,7 @@
       <c r="F13" s="115"/>
       <c r="G13" s="115"/>
       <c r="H13" s="119" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I13" s="110"/>
       <c r="J13" s="120"/>
@@ -23099,7 +23193,7 @@
       <c r="F15" s="115"/>
       <c r="G15" s="115"/>
       <c r="H15" s="119" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I15" s="110"/>
       <c r="J15" s="120"/>
@@ -23141,7 +23235,7 @@
       <c r="F17" s="115"/>
       <c r="G17" s="115"/>
       <c r="H17" s="119" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I17" s="110"/>
       <c r="J17" s="120"/>
@@ -23179,7 +23273,7 @@
       <c r="F19" s="115"/>
       <c r="G19" s="115"/>
       <c r="H19" s="119" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I19" s="110"/>
       <c r="J19" s="120"/>
@@ -23217,7 +23311,7 @@
       <c r="F21" s="115"/>
       <c r="G21" s="115"/>
       <c r="H21" s="119" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I21" s="110"/>
       <c r="J21" s="120"/>
@@ -23255,7 +23349,7 @@
       <c r="F23" s="115"/>
       <c r="G23" s="111"/>
       <c r="H23" s="119" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I23" s="110"/>
       <c r="J23" s="117"/>
@@ -23315,7 +23409,7 @@
       <c r="F26" s="115"/>
       <c r="G26" s="111"/>
       <c r="H26" s="111" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I26" s="110"/>
       <c r="J26" s="120"/>
@@ -23355,25 +23449,25 @@
       <c r="F28" s="115"/>
       <c r="G28" s="115"/>
       <c r="H28" s="119" t="s">
+        <v>269</v>
+      </c>
+      <c r="I28" s="115" t="s">
         <v>270</v>
       </c>
-      <c r="I28" s="115" t="s">
+      <c r="J28" s="38" t="s">
         <v>271</v>
       </c>
-      <c r="J28" s="38" t="s">
+      <c r="K28" s="115" t="s">
         <v>272</v>
       </c>
-      <c r="K28" s="115" t="s">
+      <c r="L28" s="38" t="s">
         <v>273</v>
-      </c>
-      <c r="L28" s="38" t="s">
-        <v>274</v>
       </c>
       <c r="M28" s="115" t="s">
         <v>166</v>
       </c>
       <c r="N28" s="38" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O28" s="115"/>
       <c r="P28" s="111"/>
@@ -23392,19 +23486,19 @@
       <c r="F29" s="115"/>
       <c r="G29" s="115"/>
       <c r="H29" s="104" t="s">
+        <v>275</v>
+      </c>
+      <c r="I29" s="124" t="s">
+        <v>272</v>
+      </c>
+      <c r="J29" s="105" t="s">
         <v>276</v>
       </c>
-      <c r="I29" s="124" t="s">
-        <v>273</v>
-      </c>
-      <c r="J29" s="105" t="s">
+      <c r="K29" s="124" t="s">
+        <v>270</v>
+      </c>
+      <c r="L29" s="105" t="s">
         <v>277</v>
-      </c>
-      <c r="K29" s="124" t="s">
-        <v>271</v>
-      </c>
-      <c r="L29" s="105" t="s">
-        <v>278</v>
       </c>
       <c r="M29" s="94"/>
       <c r="N29" s="94"/>
@@ -23427,12 +23521,12 @@
       <c r="H30" s="115"/>
       <c r="I30" s="115"/>
       <c r="J30" s="120" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="K30" s="121"/>
       <c r="L30" s="115"/>
       <c r="M30" s="120" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="N30" s="121"/>
       <c r="O30" s="115"/>
@@ -23534,7 +23628,7 @@
     </row>
     <row r="38" spans="1:22">
       <c r="B38" s="160" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C38" s="160"/>
       <c r="D38" s="160"/>
@@ -23559,60 +23653,60 @@
     </row>
     <row r="39" spans="1:22">
       <c r="B39" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="40" spans="1:22">
       <c r="B40" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="41" spans="1:22">
       <c r="B41" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="42" spans="1:22">
       <c r="A42" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B42" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="44" spans="1:22">
       <c r="B44" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="45" spans="1:22">
       <c r="B45" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="46" spans="1:22">
       <c r="B46" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="48" spans="1:22">
       <c r="B48" t="s">
-        <v>534</v>
+        <v>519</v>
       </c>
     </row>
     <row r="49" spans="2:14">
       <c r="B49" t="s">
-        <v>535</v>
+        <v>520</v>
       </c>
     </row>
     <row r="51" spans="2:14">
       <c r="B51" t="s">
-        <v>536</v>
+        <v>521</v>
       </c>
     </row>
     <row r="52" spans="2:14">
       <c r="B52" t="s">
-        <v>537</v>
+        <v>522</v>
       </c>
     </row>
     <row r="58" spans="2:14">
@@ -23680,7 +23774,7 @@
       <c r="D6" s="200"/>
       <c r="E6" s="200"/>
       <c r="F6" s="201" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G6" s="201"/>
       <c r="H6" s="201"/>
@@ -23752,7 +23846,7 @@
       <c r="P8" s="114"/>
       <c r="Q8" s="114"/>
       <c r="R8" s="188" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="S8" s="189"/>
       <c r="T8" s="189"/>
@@ -23884,10 +23978,10 @@
       <c r="H14" s="115"/>
       <c r="I14" s="115"/>
       <c r="J14" s="110" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K14" s="219" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L14" s="203"/>
       <c r="M14" s="204"/>
@@ -23929,7 +24023,7 @@
       <c r="H16" s="115"/>
       <c r="I16" s="115"/>
       <c r="J16" s="110" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K16" s="220"/>
       <c r="L16" s="221"/>
@@ -23967,7 +24061,7 @@
       <c r="H18" s="115"/>
       <c r="I18" s="115"/>
       <c r="J18" s="110" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K18" s="219"/>
       <c r="L18" s="203"/>
@@ -24005,13 +24099,13 @@
       <c r="H20" s="115"/>
       <c r="I20" s="115"/>
       <c r="J20" s="110" t="s">
+        <v>283</v>
+      </c>
+      <c r="K20" s="120" t="s">
         <v>284</v>
       </c>
-      <c r="K20" s="120" t="s">
+      <c r="L20" s="122" t="s">
         <v>285</v>
-      </c>
-      <c r="L20" s="122" t="s">
-        <v>286</v>
       </c>
       <c r="M20" s="121"/>
       <c r="N20" s="111"/>
@@ -24047,7 +24141,7 @@
       <c r="H22" s="115"/>
       <c r="I22" s="115"/>
       <c r="J22" s="110" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="K22" s="108"/>
       <c r="L22" s="114"/>
@@ -24160,7 +24254,7 @@
       <c r="K28" s="115"/>
       <c r="L28" s="115"/>
       <c r="M28" s="38" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="N28" s="111"/>
       <c r="O28" s="115"/>
@@ -24335,7 +24429,7 @@
     </row>
     <row r="38" spans="2:22">
       <c r="B38" s="160" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C38" s="160"/>
       <c r="D38" s="160"/>
@@ -24360,53 +24454,96 @@
     </row>
     <row r="39" spans="2:22">
       <c r="B39" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="40" spans="2:22">
       <c r="B40" t="s">
-        <v>402</v>
+        <v>561</v>
       </c>
     </row>
     <row r="41" spans="2:22">
       <c r="B41" t="s">
-        <v>403</v>
+        <v>559</v>
       </c>
     </row>
     <row r="42" spans="2:22">
       <c r="B42" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="43" spans="2:22">
-      <c r="B43" t="s">
-        <v>323</v>
+        <v>560</v>
       </c>
     </row>
     <row r="44" spans="2:22">
       <c r="B44" t="s">
-        <v>324</v>
+        <v>562</v>
       </c>
     </row>
     <row r="45" spans="2:22">
       <c r="B45" t="s">
-        <v>237</v>
+        <v>566</v>
       </c>
     </row>
     <row r="46" spans="2:22">
       <c r="B46" t="s">
-        <v>405</v>
+        <v>564</v>
       </c>
     </row>
     <row r="47" spans="2:22">
       <c r="B47" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="58" spans="14:14">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22">
+      <c r="B48" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14">
+      <c r="B49" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14">
+      <c r="B50" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14">
+      <c r="B51" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14">
+      <c r="B53" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14">
+      <c r="B54" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14">
+      <c r="B55" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14">
+      <c r="B56" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14">
+      <c r="B57" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14">
+      <c r="B58" t="s">
+        <v>334</v>
+      </c>
       <c r="N58" s="6"/>
     </row>
-    <row r="59" spans="14:14">
+    <row r="59" spans="2:14">
       <c r="N59" s="6"/>
     </row>
   </sheetData>
@@ -24472,7 +24609,7 @@
       <c r="D6" s="200"/>
       <c r="E6" s="200"/>
       <c r="F6" s="201" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="G6" s="201"/>
       <c r="H6" s="201"/>
@@ -25255,52 +25392,52 @@
     </row>
     <row r="39" spans="2:22">
       <c r="B39" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="40" spans="2:22">
       <c r="B40" t="s">
-        <v>549</v>
+        <v>534</v>
       </c>
     </row>
     <row r="41" spans="2:22">
       <c r="B41" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="42" spans="2:22">
       <c r="B42" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="43" spans="2:22">
       <c r="B43" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="44" spans="2:22">
       <c r="B44" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="45" spans="2:22">
       <c r="B45" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="47" spans="2:22">
       <c r="B47" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="48" spans="2:22">
       <c r="B48" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
   </sheetData>
@@ -25631,7 +25768,7 @@
     <row r="16" spans="1:22" ht="17.25" thickBot="1">
       <c r="B16" s="163"/>
       <c r="C16" s="45" t="s">
-        <v>487</v>
+        <v>472</v>
       </c>
       <c r="D16" s="47"/>
       <c r="E16" s="47"/>
@@ -25640,7 +25777,7 @@
       <c r="H16" s="47"/>
       <c r="I16" s="185"/>
       <c r="J16" s="188" t="s">
-        <v>488</v>
+        <v>473</v>
       </c>
       <c r="K16" s="189"/>
       <c r="L16" s="189"/>
@@ -25661,22 +25798,22 @@
         <v>141</v>
       </c>
       <c r="D17" s="223" t="s">
-        <v>489</v>
+        <v>474</v>
       </c>
       <c r="E17" s="223" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="F17" s="223" t="s">
-        <v>491</v>
+        <v>476</v>
       </c>
       <c r="G17" s="223" t="s">
-        <v>492</v>
+        <v>477</v>
       </c>
       <c r="H17" s="223" t="s">
-        <v>493</v>
+        <v>478</v>
       </c>
       <c r="I17" s="268" t="s">
-        <v>494</v>
+        <v>479</v>
       </c>
       <c r="J17" s="190"/>
       <c r="K17" s="191"/>
@@ -26199,52 +26336,52 @@
     </row>
     <row r="39" spans="2:22">
       <c r="B39" t="s">
-        <v>417</v>
+        <v>406</v>
       </c>
     </row>
     <row r="40" spans="2:22">
       <c r="B40" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
     </row>
     <row r="41" spans="2:22">
       <c r="B41" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="42" spans="2:22">
       <c r="B42" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
     </row>
     <row r="44" spans="2:22">
       <c r="B44" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
     </row>
     <row r="45" spans="2:22">
       <c r="B45" t="s">
-        <v>495</v>
+        <v>480</v>
       </c>
     </row>
     <row r="46" spans="2:22">
       <c r="B46" t="s">
-        <v>496</v>
+        <v>481</v>
       </c>
     </row>
     <row r="47" spans="2:22">
       <c r="B47" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
     </row>
     <row r="48" spans="2:22">
       <c r="B48" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="49" spans="2:15">
       <c r="B49" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
       <c r="H49" s="6"/>
       <c r="I49" s="6"/>
@@ -26255,28 +26392,28 @@
     </row>
     <row r="51" spans="2:15">
       <c r="B51" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="H51" s="6"/>
       <c r="I51" s="6"/>
     </row>
     <row r="52" spans="2:15">
       <c r="B52" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="H52" s="6"/>
       <c r="I52" s="6"/>
     </row>
     <row r="53" spans="2:15">
       <c r="B53" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H53" s="6"/>
       <c r="I53" s="6"/>
     </row>
     <row r="54" spans="2:15">
       <c r="B54" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
       <c r="H54" s="6"/>
       <c r="I54" s="6"/>
@@ -26802,7 +26939,7 @@
       <c r="E21" s="39"/>
       <c r="F21" s="39"/>
       <c r="G21" s="39" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="H21" s="39"/>
       <c r="I21" s="39"/>
@@ -27068,11 +27205,11 @@
       <c r="E32" s="39"/>
       <c r="F32" s="39"/>
       <c r="G32" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="H32" s="39"/>
       <c r="I32" s="39" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="J32" s="39"/>
       <c r="K32" s="39"/>
@@ -27115,7 +27252,7 @@
       </c>
       <c r="H34" s="94"/>
       <c r="I34" s="213" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
       <c r="J34" s="213"/>
       <c r="K34" s="213"/>
@@ -27156,7 +27293,7 @@
     </row>
     <row r="38" spans="2:22">
       <c r="B38" s="182" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="C38" s="97"/>
       <c r="D38" s="97"/>
@@ -27181,47 +27318,47 @@
     </row>
     <row r="39" spans="2:22">
       <c r="B39" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="40" spans="2:22">
       <c r="B40" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="42" spans="2:22">
       <c r="B42" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="43" spans="2:22">
       <c r="B43" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="44" spans="2:22">
       <c r="B44" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="45" spans="2:22">
       <c r="B45" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="47" spans="2:22">
       <c r="B47" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="48" spans="2:22">
       <c r="B48" t="s">
-        <v>526</v>
+        <v>511</v>
       </c>
     </row>
     <row r="49" spans="2:15">
       <c r="B49" t="s">
-        <v>527</v>
+        <v>512</v>
       </c>
       <c r="H49" s="6"/>
       <c r="I49" s="6"/>
@@ -27232,14 +27369,14 @@
     </row>
     <row r="51" spans="2:15">
       <c r="B51" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="H51" s="6"/>
       <c r="I51" s="6"/>
     </row>
     <row r="52" spans="2:15">
       <c r="B52" t="s">
-        <v>525</v>
+        <v>510</v>
       </c>
       <c r="H52" s="6"/>
       <c r="I52" s="6"/>

--- a/Documents/grouppl설계서 - 종합.xlsx
+++ b/Documents/grouppl설계서 - 종합.xlsx
@@ -2202,10 +2202,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>SELECT B.USERNAME, B.EMAIL</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>FROM MEMBERS A</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -2591,6 +2587,10 @@
   </si>
   <si>
     <t>ON( A.MYSCHEDULE_SEQ = B.MYSCHEDULE_SEQ)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT B.NICKNAME, B.EMAIL</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -8593,42 +8593,42 @@
     </row>
     <row r="44" spans="2:22">
       <c r="B44" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="45" spans="2:22" ht="18.75" customHeight="1">
       <c r="B45" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="46" spans="2:22">
       <c r="B46" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="47" spans="2:22">
       <c r="B47" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="48" spans="2:22">
       <c r="B48" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="49" spans="2:12" ht="16.5" customHeight="1">
       <c r="B49" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="50" spans="2:12">
       <c r="B50" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="51" spans="2:12">
       <c r="B51" s="288" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C51" s="288"/>
       <c r="D51" s="288"/>
@@ -8643,22 +8643,22 @@
     </row>
     <row r="52" spans="2:12">
       <c r="B52" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="53" spans="2:12">
       <c r="B53" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="54" spans="2:12">
       <c r="B54" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="55" spans="2:12">
       <c r="B55" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C55" s="65"/>
       <c r="D55" s="65"/>
@@ -8772,7 +8772,7 @@
     </row>
     <row r="64" spans="2:12">
       <c r="B64" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C64" s="65"/>
       <c r="D64" s="65"/>
@@ -8785,7 +8785,7 @@
     </row>
     <row r="65" spans="2:10">
       <c r="B65" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C65" s="65"/>
       <c r="D65" s="65"/>
@@ -10671,47 +10671,47 @@
     </row>
     <row r="44" spans="2:22">
       <c r="B44" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="45" spans="2:22">
       <c r="B45" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="46" spans="2:22">
       <c r="B46" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="47" spans="2:22">
       <c r="B47" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="48" spans="2:22">
       <c r="B48" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="49" spans="2:12">
       <c r="B49" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="50" spans="2:12">
       <c r="B50" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="51" spans="2:12">
       <c r="B51" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="52" spans="2:12">
       <c r="B52" s="288" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C52" s="288"/>
       <c r="D52" s="288"/>
@@ -10726,17 +10726,17 @@
     </row>
     <row r="53" spans="2:12">
       <c r="B53" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="54" spans="2:12">
       <c r="B54" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="55" spans="2:12">
       <c r="B55" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
   </sheetData>
@@ -11669,13 +11669,13 @@
     </row>
     <row r="45" spans="2:22">
       <c r="B45" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="F45" s="99"/>
     </row>
     <row r="46" spans="2:22">
       <c r="B46" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="47" spans="2:22">
@@ -13416,12 +13416,12 @@
     </row>
     <row r="51" spans="2:2">
       <c r="B51" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="54" spans="2:2">
@@ -13441,12 +13441,12 @@
     </row>
     <row r="57" spans="2:2">
       <c r="B57" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="58" spans="2:2">
       <c r="B58" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
   </sheetData>
@@ -14205,12 +14205,12 @@
     </row>
     <row r="40" spans="2:22">
       <c r="B40" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="41" spans="2:22">
       <c r="B41" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="58" spans="14:14">
@@ -14974,7 +14974,7 @@
     </row>
     <row r="40" spans="2:22">
       <c r="B40" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="41" spans="2:22">
@@ -14984,7 +14984,7 @@
     </row>
     <row r="42" spans="2:22">
       <c r="B42" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="44" spans="2:22">
@@ -14994,12 +14994,12 @@
     </row>
     <row r="45" spans="2:22">
       <c r="B45" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="46" spans="2:22">
       <c r="B46" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="48" spans="2:22">
@@ -15009,22 +15009,22 @@
     </row>
     <row r="49" spans="2:14">
       <c r="B49" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="50" spans="2:14">
       <c r="B50" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="51" spans="2:14">
       <c r="B51" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="52" spans="2:14">
       <c r="B52" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="58" spans="2:14">
@@ -16035,7 +16035,7 @@
   <dimension ref="A1:V59"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X11" sqref="X11"/>
+      <selection sqref="A1:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -18447,12 +18447,12 @@
     </row>
     <row r="40" spans="2:22">
       <c r="B40" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="41" spans="2:22">
       <c r="B41" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="43" spans="2:22">
@@ -18462,12 +18462,12 @@
     </row>
     <row r="44" spans="2:22">
       <c r="B44" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="45" spans="2:22">
       <c r="B45" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
   </sheetData>
@@ -19240,7 +19240,7 @@
     </row>
     <row r="38" spans="2:22">
       <c r="B38" s="186" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C38" s="143"/>
       <c r="D38" s="143"/>
@@ -19265,7 +19265,7 @@
     </row>
     <row r="39" spans="2:22">
       <c r="B39" s="157" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C39" s="144"/>
       <c r="D39" s="144"/>
@@ -19274,72 +19274,72 @@
     </row>
     <row r="40" spans="2:22">
       <c r="B40" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="41" spans="2:22">
       <c r="B41" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="42" spans="2:22">
       <c r="B42" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="43" spans="2:22">
       <c r="B43" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="45" spans="2:22">
       <c r="B45" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="46" spans="2:22">
       <c r="B46" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="47" spans="2:22">
       <c r="B47" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="54" spans="2:2">
       <c r="B54" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="55" spans="2:2">
       <c r="B55" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="56" spans="2:2">
       <c r="B56" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
   </sheetData>
@@ -20120,7 +20120,7 @@
     </row>
     <row r="38" spans="2:22">
       <c r="B38" s="186" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C38" s="143"/>
       <c r="D38" s="143"/>
@@ -20150,22 +20150,22 @@
     </row>
     <row r="40" spans="2:22">
       <c r="B40" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="41" spans="2:22">
       <c r="B41" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="42" spans="2:22">
       <c r="B42" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="43" spans="2:22">
       <c r="B43" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="44" spans="2:22">
@@ -20175,62 +20175,62 @@
     </row>
     <row r="45" spans="2:22">
       <c r="B45" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="46" spans="2:22">
       <c r="B46" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="47" spans="2:22">
       <c r="B47" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="54" spans="2:2">
       <c r="B54" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="55" spans="2:2">
       <c r="B55" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="57" spans="2:2">
       <c r="B57" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="58" spans="2:2">
       <c r="B58" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="59" spans="2:2">
       <c r="B59" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
   </sheetData>
@@ -21028,7 +21028,7 @@
     </row>
     <row r="40" spans="2:22">
       <c r="B40" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="41" spans="2:22">
@@ -21038,7 +21038,7 @@
     </row>
     <row r="42" spans="2:22">
       <c r="B42" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="44" spans="2:22">
@@ -21048,7 +21048,7 @@
     </row>
     <row r="45" spans="2:22">
       <c r="B45" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="46" spans="2:22">
@@ -21058,7 +21058,7 @@
     </row>
     <row r="47" spans="2:22">
       <c r="B47" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="58" spans="14:14">
@@ -21879,87 +21879,87 @@
     </row>
     <row r="40" spans="2:22">
       <c r="B40" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="41" spans="2:22">
       <c r="B41" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="42" spans="2:22">
       <c r="B42" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="43" spans="2:22">
       <c r="B43" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="44" spans="2:22">
       <c r="B44" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="45" spans="2:22">
       <c r="B45" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="46" spans="2:22">
       <c r="B46" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="47" spans="2:22">
       <c r="B47" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="48" spans="2:22">
       <c r="B48" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="54" spans="2:2">
       <c r="B54" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="55" spans="2:2">
       <c r="B55" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="56" spans="2:2">
       <c r="B56" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="58" spans="2:2">
@@ -21969,7 +21969,7 @@
     </row>
     <row r="59" spans="2:2">
       <c r="B59" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="60" spans="2:2">
@@ -21989,7 +21989,7 @@
     </row>
     <row r="64" spans="2:2">
       <c r="B64" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="65" spans="2:2">
@@ -22531,7 +22531,7 @@
       <c r="N22" s="115"/>
       <c r="O22" s="111"/>
       <c r="P22" s="115" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="Q22" s="120"/>
       <c r="R22" s="122"/>
@@ -22934,7 +22934,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V59"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:A5"/>
     </sheetView>
   </sheetViews>
@@ -23691,22 +23691,22 @@
     </row>
     <row r="48" spans="1:22">
       <c r="B48" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="49" spans="2:14">
       <c r="B49" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="51" spans="2:14">
       <c r="B51" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="52" spans="2:14">
       <c r="B52" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="58" spans="2:14">
@@ -23740,7 +23740,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V59"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:A5"/>
     </sheetView>
   </sheetViews>
@@ -24459,42 +24459,42 @@
     </row>
     <row r="40" spans="2:22">
       <c r="B40" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="41" spans="2:22">
       <c r="B41" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="42" spans="2:22">
       <c r="B42" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="44" spans="2:22">
       <c r="B44" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="45" spans="2:22">
       <c r="B45" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="46" spans="2:22">
       <c r="B46" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="47" spans="2:22">
       <c r="B47" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="48" spans="2:22">
       <c r="B48" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="49" spans="2:14">
@@ -24504,7 +24504,7 @@
     </row>
     <row r="50" spans="2:14">
       <c r="B50" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="51" spans="2:14">
@@ -24514,27 +24514,27 @@
     </row>
     <row r="53" spans="2:14">
       <c r="B53" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="54" spans="2:14">
       <c r="B54" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="55" spans="2:14">
       <c r="B55" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="56" spans="2:14">
       <c r="B56" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="57" spans="2:14">
       <c r="B57" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="58" spans="2:14">
@@ -25397,7 +25397,7 @@
     </row>
     <row r="40" spans="2:22">
       <c r="B40" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="41" spans="2:22">
@@ -26361,12 +26361,12 @@
     </row>
     <row r="45" spans="2:22">
       <c r="B45" t="s">
-        <v>480</v>
+        <v>584</v>
       </c>
     </row>
     <row r="46" spans="2:22">
       <c r="B46" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="47" spans="2:22">
@@ -27353,12 +27353,12 @@
     </row>
     <row r="48" spans="2:22">
       <c r="B48" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="49" spans="2:15">
       <c r="B49" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H49" s="6"/>
       <c r="I49" s="6"/>
@@ -27369,14 +27369,14 @@
     </row>
     <row r="51" spans="2:15">
       <c r="B51" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H51" s="6"/>
       <c r="I51" s="6"/>
     </row>
     <row r="52" spans="2:15">
       <c r="B52" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="H52" s="6"/>
       <c r="I52" s="6"/>

--- a/Documents/grouppl설계서 - 종합.xlsx
+++ b/Documents/grouppl설계서 - 종합.xlsx
@@ -345,7 +345,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="585">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="587">
   <si>
     <t>No</t>
     <phoneticPr fontId="9" type="noConversion"/>
@@ -1738,9 +1738,6 @@
     <t>( PROJECT_SEQ, PROJECTNAME, LEADER, STARTDATE, ENDDATE, README, ISOPEN, IMAGE )</t>
   </si>
   <si>
-    <t xml:space="preserve"> VALUES ( SEQ_PROJECT.NEXTVAL, ? ,?, ?, ?, ?, ?, ? );</t>
-  </si>
-  <si>
     <t>스킬값 인설트</t>
   </si>
   <si>
@@ -2012,9 +2009,6 @@
     <t>SELECT A.CONTENTSS, A.WRITER, B.PROJECTNAME</t>
   </si>
   <si>
-    <t>FROM BOARDBASE A INNER JOIN PROJECTS B</t>
-  </si>
-  <si>
     <t>ON(A.PROJECT_SEQ = B.PROJECT_SEQ)</t>
   </si>
   <si>
@@ -2043,12 +2037,6 @@
     <t>FROM BOARDBASE A</t>
   </si>
   <si>
-    <t>INNER JOIN MEMBERS B ON(A.PROJECT_SEQ = B.PROJECT_SEQ)</t>
-  </si>
-  <si>
-    <t>INSERT INTO BOARDCOMMENT(COMMENT_SEQ, CONTENTSS, WRITER, DATES, POST_SEQ)</t>
-  </si>
-  <si>
     <t>프로젝트 팀 A</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -2062,10 +2050,6 @@
   </si>
   <si>
     <t>댓글쓰기</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>VALUES(BOARDCOMMENT_SEQ.NEXTVAL, ?, ?, SYSDATE, ?)</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -2108,12 +2092,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">INSERT INTO MYSCHEDULE(schedule_seq,TITLE, DATES, REASON, PUBLICRANGE ) </t>
-  </si>
-  <si>
-    <t>VALUE (SEQ_ MYSCHEDULE.NEXTVAL,?, ?, ? ,?)</t>
-  </si>
-  <si>
     <t>일정 쓰기</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -2226,18 +2204,9 @@
     <t xml:space="preserve">지원서 보기 </t>
   </si>
   <si>
-    <t>SELECT A.USERNAME, A.IMAGE, B.CONTENTSS, B.SENDID, B.PROJECT_SEQ</t>
-  </si>
-  <si>
     <t xml:space="preserve">FROM CUSTOMUSER A   </t>
   </si>
   <si>
-    <t>INNER JOIN application B ON(A.email = B.sendid)</t>
-  </si>
-  <si>
-    <t>WHERE  b.appl_seq =?;</t>
-  </si>
-  <si>
     <t>수락</t>
   </si>
   <si>
@@ -2259,15 +2228,6 @@
     <t>거부</t>
   </si>
   <si>
-    <t>UPDATE application</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SET confirmed = 'Y' </t>
-  </si>
-  <si>
-    <t>WHERE appl_seq = ?</t>
-  </si>
-  <si>
     <t>UPDATE INVITATION</t>
   </si>
   <si>
@@ -2591,6 +2551,66 @@
   </si>
   <si>
     <t>SELECT B.NICKNAME, B.EMAIL</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> VALUES ( PROJECT_SEQ.NEXTVAL, ? ,?, ?, ?, ?, ?, ? );</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">INSERT INTO MYSCHEDULE(MYSCHEDULE_SEQ, TITLE, CONTENTSS, PUBLICRANGE ) </t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>VALUE MYSCHEDULE_SEQ.NEXTVAL,?, ? ,?)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">INNER JOIN MEMBERS B </t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ON(A.PROJECT_SEQ = B.PROJECT_SEQ)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">FROM BOARDBASE A </t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>INNER JOIN PROJECTS B</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>VALUES(BOCOMMENT_SEQ.NEXTVAL, ?, ?, ?)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>INSERT INTO BOARDCOMMENT(COMMENT_SEQ, CONTENTSS, WRITER, POST_SEQ)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>INNER JOIN APPLICATION B ON(A.EMAIL = B.SENDID)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>WHERE  B.APPL_SEQ =?;</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT A.USERNAME, A.IMAGE, B.CONTENTSS, B.SENDID, B.PROJECT_SEQ, A.EMAIL</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE APPLICATION</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">SET CONFIRMED = 'Y' </t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>WHERE APPL_SEQ = ?</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -7230,16 +7250,16 @@
         <v>0</v>
       </c>
       <c r="C6" s="174" t="s">
+        <v>373</v>
+      </c>
+      <c r="D6" s="174" t="s">
         <v>374</v>
-      </c>
-      <c r="D6" s="174" t="s">
-        <v>375</v>
       </c>
       <c r="E6" s="174" t="s">
         <v>2</v>
       </c>
       <c r="F6" s="174" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G6" s="174" t="s">
         <v>3</v>
@@ -7259,7 +7279,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="172" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>8</v>
@@ -7268,7 +7288,7 @@
         <v>9</v>
       </c>
       <c r="F7" s="172" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G7" t="s">
         <v>51</v>
@@ -7288,7 +7308,7 @@
         <v>14</v>
       </c>
       <c r="F8" s="172" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G8" t="s">
         <v>229</v>
@@ -7301,7 +7321,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="172" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>10</v>
@@ -7310,7 +7330,7 @@
         <v>11</v>
       </c>
       <c r="F9" s="172" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G9" t="s">
         <v>51</v>
@@ -7330,7 +7350,7 @@
         <v>27</v>
       </c>
       <c r="F10" s="172" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G10" t="s">
         <v>51</v>
@@ -7350,7 +7370,7 @@
         <v>16</v>
       </c>
       <c r="F11" s="172" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G11" t="s">
         <v>52</v>
@@ -7364,13 +7384,13 @@
       </c>
       <c r="C12" s="172"/>
       <c r="D12" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E12" t="s">
         <v>17</v>
       </c>
       <c r="F12" s="172" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G12" t="s">
         <v>229</v>
@@ -7381,7 +7401,7 @@
         <v>7</v>
       </c>
       <c r="C13" s="172" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>21</v>
@@ -7390,7 +7410,7 @@
         <v>20</v>
       </c>
       <c r="F13" s="172" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G13" t="s">
         <v>54</v>
@@ -7409,7 +7429,7 @@
         <v>36</v>
       </c>
       <c r="F14" s="172" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G14" t="s">
         <v>55</v>
@@ -7427,7 +7447,7 @@
         <v>25</v>
       </c>
       <c r="F15" s="172" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G15" t="s">
         <v>229</v>
@@ -7445,7 +7465,7 @@
         <v>24</v>
       </c>
       <c r="F16" s="172" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G16" t="s">
         <v>52</v>
@@ -7463,7 +7483,7 @@
         <v>34</v>
       </c>
       <c r="F17" s="172" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G17" t="s">
         <v>55</v>
@@ -7481,7 +7501,7 @@
         <v>32</v>
       </c>
       <c r="F18" s="172" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G18" t="s">
         <v>55</v>
@@ -7492,7 +7512,7 @@
         <v>13</v>
       </c>
       <c r="C19" s="172" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>18</v>
@@ -7501,7 +7521,7 @@
         <v>19</v>
       </c>
       <c r="F19" s="172" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G19" t="s">
         <v>54</v>
@@ -7519,7 +7539,7 @@
         <v>26</v>
       </c>
       <c r="F20" s="172" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G20" t="s">
         <v>53</v>
@@ -7537,7 +7557,7 @@
         <v>37</v>
       </c>
       <c r="F21" s="172" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G21" t="s">
         <v>53</v>
@@ -7555,7 +7575,7 @@
         <v>42</v>
       </c>
       <c r="F22" s="172" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G22" t="s">
         <v>52</v>
@@ -7573,7 +7593,7 @@
         <v>43</v>
       </c>
       <c r="F23" s="172" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G23" t="s">
         <v>52</v>
@@ -7584,16 +7604,16 @@
         <v>18</v>
       </c>
       <c r="C24" s="172" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E24" s="14" t="s">
         <v>15</v>
       </c>
       <c r="F24" s="173" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G24" s="14" t="s">
         <v>53</v>
@@ -7614,7 +7634,7 @@
         <v>47</v>
       </c>
       <c r="F25" s="172" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G25" t="s">
         <v>229</v>
@@ -7632,7 +7652,7 @@
         <v>44</v>
       </c>
       <c r="F26" s="172" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G26" t="s">
         <v>54</v>
@@ -7643,7 +7663,7 @@
         <v>21</v>
       </c>
       <c r="C27" s="172" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>48</v>
@@ -7652,7 +7672,7 @@
         <v>49</v>
       </c>
       <c r="F27" s="172" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G27" t="s">
         <v>53</v>
@@ -7670,7 +7690,7 @@
         <v>30</v>
       </c>
       <c r="F28" s="172" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G28" t="s">
         <v>53</v>
@@ -7688,7 +7708,7 @@
         <v>28</v>
       </c>
       <c r="F29" s="172" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G29" t="s">
         <v>51</v>
@@ -7707,7 +7727,7 @@
     </row>
     <row r="33" spans="2:10" ht="18" customHeight="1">
       <c r="B33" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="H33" s="11"/>
       <c r="I33" s="11"/>
@@ -7715,7 +7735,7 @@
     </row>
     <row r="34" spans="2:10" ht="18" customHeight="1">
       <c r="B34" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
@@ -8593,42 +8613,42 @@
     </row>
     <row r="44" spans="2:22">
       <c r="B44" t="s">
-        <v>513</v>
+        <v>500</v>
       </c>
     </row>
     <row r="45" spans="2:22" ht="18.75" customHeight="1">
       <c r="B45" t="s">
-        <v>517</v>
+        <v>504</v>
       </c>
     </row>
     <row r="46" spans="2:22">
       <c r="B46" t="s">
-        <v>532</v>
+        <v>519</v>
       </c>
     </row>
     <row r="47" spans="2:22">
       <c r="B47" t="s">
-        <v>517</v>
+        <v>504</v>
       </c>
     </row>
     <row r="48" spans="2:22">
       <c r="B48" t="s">
-        <v>534</v>
+        <v>521</v>
       </c>
     </row>
     <row r="49" spans="2:12" ht="16.5" customHeight="1">
       <c r="B49" t="s">
-        <v>535</v>
+        <v>522</v>
       </c>
     </row>
     <row r="50" spans="2:12">
       <c r="B50" t="s">
-        <v>536</v>
+        <v>523</v>
       </c>
     </row>
     <row r="51" spans="2:12">
       <c r="B51" s="288" t="s">
-        <v>543</v>
+        <v>530</v>
       </c>
       <c r="C51" s="288"/>
       <c r="D51" s="288"/>
@@ -8643,22 +8663,22 @@
     </row>
     <row r="52" spans="2:12">
       <c r="B52" t="s">
-        <v>537</v>
+        <v>524</v>
       </c>
     </row>
     <row r="53" spans="2:12">
       <c r="B53" t="s">
-        <v>514</v>
+        <v>501</v>
       </c>
     </row>
     <row r="54" spans="2:12">
       <c r="B54" t="s">
-        <v>515</v>
+        <v>502</v>
       </c>
     </row>
     <row r="55" spans="2:12">
       <c r="B55" t="s">
-        <v>516</v>
+        <v>503</v>
       </c>
       <c r="C55" s="65"/>
       <c r="D55" s="65"/>
@@ -8772,7 +8792,7 @@
     </row>
     <row r="64" spans="2:12">
       <c r="B64" t="s">
-        <v>550</v>
+        <v>537</v>
       </c>
       <c r="C64" s="65"/>
       <c r="D64" s="65"/>
@@ -8785,7 +8805,7 @@
     </row>
     <row r="65" spans="2:10">
       <c r="B65" t="s">
-        <v>551</v>
+        <v>538</v>
       </c>
       <c r="C65" s="65"/>
       <c r="D65" s="65"/>
@@ -9561,12 +9581,12 @@
     </row>
     <row r="39" spans="2:22">
       <c r="B39" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="40" spans="2:22">
       <c r="B40" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="41" spans="2:22">
@@ -9576,7 +9596,7 @@
     </row>
     <row r="42" spans="2:22">
       <c r="B42" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="58" spans="14:14">
@@ -10101,7 +10121,7 @@
     </row>
     <row r="40" spans="2:22">
       <c r="B40" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="41" spans="2:22">
@@ -10111,22 +10131,22 @@
     </row>
     <row r="42" spans="2:22">
       <c r="B42" t="s">
-        <v>353</v>
+        <v>572</v>
       </c>
     </row>
     <row r="44" spans="2:22">
       <c r="B44" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="45" spans="2:22">
       <c r="B45" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="46" spans="2:22">
       <c r="B46" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="61" spans="2:2">
@@ -10651,67 +10671,67 @@
     </row>
     <row r="39" spans="2:22">
       <c r="B39" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="40" spans="2:22">
       <c r="B40" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="41" spans="2:22">
       <c r="B41" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="43" spans="2:22">
       <c r="B43" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="44" spans="2:22">
       <c r="B44" t="s">
-        <v>513</v>
+        <v>500</v>
       </c>
     </row>
     <row r="45" spans="2:22">
       <c r="B45" t="s">
-        <v>517</v>
+        <v>504</v>
       </c>
     </row>
     <row r="46" spans="2:22">
       <c r="B46" t="s">
-        <v>532</v>
+        <v>519</v>
       </c>
     </row>
     <row r="47" spans="2:22">
       <c r="B47" t="s">
-        <v>517</v>
+        <v>504</v>
       </c>
     </row>
     <row r="48" spans="2:22">
       <c r="B48" t="s">
-        <v>540</v>
+        <v>527</v>
       </c>
     </row>
     <row r="49" spans="2:12">
       <c r="B49" t="s">
-        <v>541</v>
+        <v>528</v>
       </c>
     </row>
     <row r="50" spans="2:12">
       <c r="B50" t="s">
-        <v>538</v>
+        <v>525</v>
       </c>
     </row>
     <row r="51" spans="2:12">
       <c r="B51" t="s">
-        <v>539</v>
+        <v>526</v>
       </c>
     </row>
     <row r="52" spans="2:12">
       <c r="B52" s="288" t="s">
-        <v>543</v>
+        <v>530</v>
       </c>
       <c r="C52" s="288"/>
       <c r="D52" s="288"/>
@@ -10726,17 +10746,17 @@
     </row>
     <row r="53" spans="2:12">
       <c r="B53" t="s">
-        <v>514</v>
+        <v>501</v>
       </c>
     </row>
     <row r="54" spans="2:12">
       <c r="B54" t="s">
-        <v>515</v>
+        <v>502</v>
       </c>
     </row>
     <row r="55" spans="2:12">
       <c r="B55" t="s">
-        <v>542</v>
+        <v>529</v>
       </c>
     </row>
   </sheetData>
@@ -11636,13 +11656,13 @@
     </row>
     <row r="39" spans="2:22">
       <c r="B39" s="99" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D39" s="99"/>
     </row>
     <row r="40" spans="2:22">
       <c r="B40" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D40" s="99"/>
     </row>
@@ -11654,7 +11674,7 @@
     </row>
     <row r="42" spans="2:22">
       <c r="B42" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D42" s="99"/>
     </row>
@@ -11663,24 +11683,24 @@
     </row>
     <row r="44" spans="2:22">
       <c r="B44" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F44" s="99"/>
     </row>
     <row r="45" spans="2:22">
       <c r="B45" t="s">
-        <v>552</v>
+        <v>539</v>
       </c>
       <c r="F45" s="99"/>
     </row>
     <row r="46" spans="2:22">
       <c r="B46" t="s">
-        <v>553</v>
+        <v>540</v>
       </c>
     </row>
     <row r="47" spans="2:22">
       <c r="B47" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
   </sheetData>
@@ -12506,7 +12526,7 @@
     </row>
     <row r="38" spans="2:22">
       <c r="B38" s="184" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="C38" s="143"/>
       <c r="D38" s="143"/>
@@ -12531,17 +12551,17 @@
     </row>
     <row r="39" spans="2:22">
       <c r="B39" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
     </row>
     <row r="40" spans="2:22">
       <c r="B40" t="s">
-        <v>454</v>
+        <v>573</v>
       </c>
     </row>
     <row r="41" spans="2:22">
       <c r="B41" t="s">
-        <v>455</v>
+        <v>574</v>
       </c>
     </row>
   </sheetData>
@@ -13359,7 +13379,7 @@
     </row>
     <row r="39" spans="2:22">
       <c r="B39" s="144" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="C39" s="144"/>
       <c r="D39" s="144"/>
@@ -13371,82 +13391,82 @@
     </row>
     <row r="40" spans="2:22">
       <c r="B40" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
     </row>
     <row r="41" spans="2:22">
       <c r="B41" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
     </row>
     <row r="42" spans="2:22">
       <c r="B42" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
     </row>
     <row r="43" spans="2:22">
       <c r="B43" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
     </row>
     <row r="45" spans="2:22">
       <c r="B45" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
     </row>
     <row r="46" spans="2:22">
       <c r="B46" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
     </row>
     <row r="47" spans="2:22">
       <c r="B47" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
     </row>
     <row r="48" spans="2:22">
       <c r="B48" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51" t="s">
-        <v>581</v>
+        <v>568</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" t="s">
-        <v>574</v>
+        <v>561</v>
       </c>
     </row>
     <row r="54" spans="2:2">
       <c r="B54" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
     </row>
     <row r="55" spans="2:2">
       <c r="B55" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
     </row>
     <row r="56" spans="2:2">
       <c r="B56" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
     </row>
     <row r="57" spans="2:2">
       <c r="B57" t="s">
-        <v>583</v>
+        <v>570</v>
       </c>
     </row>
     <row r="58" spans="2:2">
       <c r="B58" t="s">
-        <v>582</v>
+        <v>569</v>
       </c>
     </row>
   </sheetData>
@@ -14200,17 +14220,17 @@
     </row>
     <row r="39" spans="2:22">
       <c r="B39" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="40" spans="2:22">
       <c r="B40" t="s">
-        <v>570</v>
+        <v>557</v>
       </c>
     </row>
     <row r="41" spans="2:22">
       <c r="B41" t="s">
-        <v>571</v>
+        <v>558</v>
       </c>
     </row>
     <row r="58" spans="14:14">
@@ -14969,12 +14989,12 @@
     </row>
     <row r="39" spans="2:22">
       <c r="B39" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="40" spans="2:22">
       <c r="B40" t="s">
-        <v>573</v>
+        <v>560</v>
       </c>
     </row>
     <row r="41" spans="2:22">
@@ -14984,47 +15004,47 @@
     </row>
     <row r="42" spans="2:22">
       <c r="B42" t="s">
-        <v>572</v>
+        <v>559</v>
       </c>
     </row>
     <row r="44" spans="2:22">
       <c r="B44" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
     </row>
     <row r="45" spans="2:22">
       <c r="B45" t="s">
-        <v>580</v>
+        <v>567</v>
       </c>
     </row>
     <row r="46" spans="2:22">
       <c r="B46" t="s">
-        <v>579</v>
+        <v>566</v>
       </c>
     </row>
     <row r="48" spans="2:22">
       <c r="B48" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
     </row>
     <row r="49" spans="2:14">
       <c r="B49" t="s">
-        <v>575</v>
+        <v>562</v>
       </c>
     </row>
     <row r="50" spans="2:14">
       <c r="B50" t="s">
-        <v>576</v>
+        <v>563</v>
       </c>
     </row>
     <row r="51" spans="2:14">
       <c r="B51" t="s">
-        <v>578</v>
+        <v>565</v>
       </c>
     </row>
     <row r="52" spans="2:14">
       <c r="B52" t="s">
-        <v>577</v>
+        <v>564</v>
       </c>
     </row>
     <row r="58" spans="2:14">
@@ -15063,7 +15083,7 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V68"/>
+  <dimension ref="A1:V70"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:A5"/>
@@ -15099,7 +15119,7 @@
       <c r="D6" s="200"/>
       <c r="E6" s="200"/>
       <c r="F6" s="201" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G6" s="201"/>
       <c r="H6" s="201"/>
@@ -15209,7 +15229,7 @@
       </c>
       <c r="I10" s="372"/>
       <c r="J10" s="377" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="K10" s="378"/>
       <c r="L10" s="378"/>
@@ -15324,7 +15344,7 @@
       <c r="F15" s="70"/>
       <c r="G15" s="70"/>
       <c r="H15" s="208" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="I15" s="191"/>
       <c r="J15" s="343" t="s">
@@ -15576,7 +15596,7 @@
       <c r="F25" s="70"/>
       <c r="G25" s="70"/>
       <c r="H25" s="208" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="I25" s="209"/>
       <c r="J25" s="205"/>
@@ -15838,7 +15858,7 @@
     <row r="38" spans="1:22">
       <c r="A38" s="142"/>
       <c r="B38" s="184" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C38" s="143"/>
       <c r="D38" s="143"/>
@@ -15873,127 +15893,137 @@
     </row>
     <row r="40" spans="1:22">
       <c r="B40" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="41" spans="1:22">
       <c r="B41" t="s">
-        <v>429</v>
+        <v>577</v>
       </c>
     </row>
     <row r="42" spans="1:22">
       <c r="B42" t="s">
-        <v>430</v>
+        <v>578</v>
       </c>
     </row>
     <row r="43" spans="1:22">
       <c r="B43" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="45" spans="1:22">
-      <c r="B45" t="s">
-        <v>366</v>
+        <v>428</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22">
+      <c r="B44" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="46" spans="1:22">
       <c r="B46" t="s">
-        <v>433</v>
+        <v>365</v>
       </c>
     </row>
     <row r="47" spans="1:22">
       <c r="B47" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="48" spans="1:22">
       <c r="B48" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2">
-      <c r="B51" t="s">
-        <v>367</v>
+        <v>433</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" t="s">
-        <v>437</v>
+        <v>366</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="54" spans="2:2">
       <c r="B54" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="55" spans="2:2">
       <c r="B55" t="s">
-        <v>436</v>
+        <v>575</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2">
+      <c r="B56" t="s">
+        <v>576</v>
       </c>
     </row>
     <row r="57" spans="2:2">
       <c r="B57" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="58" spans="2:2">
-      <c r="B58" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
     </row>
     <row r="59" spans="2:2">
       <c r="B59" t="s">
-        <v>445</v>
+        <v>440</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2">
+      <c r="B60" t="s">
+        <v>580</v>
       </c>
     </row>
     <row r="61" spans="2:2">
       <c r="B61" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="62" spans="2:2">
-      <c r="B62" t="s">
-        <v>447</v>
+        <v>579</v>
       </c>
     </row>
     <row r="63" spans="2:2">
       <c r="B63" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
     </row>
     <row r="64" spans="2:2">
       <c r="B64" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
     </row>
     <row r="65" spans="2:2">
       <c r="B65" t="s">
-        <v>449</v>
+        <v>436</v>
       </c>
     </row>
     <row r="66" spans="2:2">
       <c r="B66" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
     </row>
     <row r="67" spans="2:2">
       <c r="B67" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
     </row>
     <row r="68" spans="2:2">
       <c r="B68" t="s">
-        <v>452</v>
+        <v>445</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2">
+      <c r="B69" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2">
+      <c r="B70" t="s">
+        <v>447</v>
       </c>
     </row>
   </sheetData>
@@ -17598,22 +17628,22 @@
     </row>
     <row r="39" spans="2:22">
       <c r="B39" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="40" spans="2:22">
       <c r="B40" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="41" spans="2:22">
       <c r="B41" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="42" spans="2:22">
       <c r="B42" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
   </sheetData>
@@ -18447,12 +18477,12 @@
     </row>
     <row r="40" spans="2:22">
       <c r="B40" t="s">
-        <v>554</v>
+        <v>541</v>
       </c>
     </row>
     <row r="41" spans="2:22">
       <c r="B41" t="s">
-        <v>547</v>
+        <v>534</v>
       </c>
     </row>
     <row r="43" spans="2:22">
@@ -18462,12 +18492,12 @@
     </row>
     <row r="44" spans="2:22">
       <c r="B44" t="s">
-        <v>555</v>
+        <v>542</v>
       </c>
     </row>
     <row r="45" spans="2:22">
       <c r="B45" t="s">
-        <v>556</v>
+        <v>543</v>
       </c>
     </row>
   </sheetData>
@@ -19240,7 +19270,7 @@
     </row>
     <row r="38" spans="2:22">
       <c r="B38" s="186" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="C38" s="143"/>
       <c r="D38" s="143"/>
@@ -19265,7 +19295,7 @@
     </row>
     <row r="39" spans="2:22">
       <c r="B39" s="157" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="C39" s="144"/>
       <c r="D39" s="144"/>
@@ -19274,72 +19304,72 @@
     </row>
     <row r="40" spans="2:22">
       <c r="B40" t="s">
-        <v>483</v>
+        <v>583</v>
       </c>
     </row>
     <row r="41" spans="2:22">
       <c r="B41" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
     </row>
     <row r="42" spans="2:22">
       <c r="B42" t="s">
-        <v>485</v>
+        <v>581</v>
       </c>
     </row>
     <row r="43" spans="2:22">
       <c r="B43" t="s">
-        <v>486</v>
+        <v>582</v>
       </c>
     </row>
     <row r="45" spans="2:22">
       <c r="B45" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
     </row>
     <row r="46" spans="2:22">
       <c r="B46" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
     </row>
     <row r="47" spans="2:22">
       <c r="B47" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
     </row>
     <row r="54" spans="2:2">
       <c r="B54" t="s">
-        <v>494</v>
+        <v>584</v>
       </c>
     </row>
     <row r="55" spans="2:2">
       <c r="B55" t="s">
-        <v>495</v>
+        <v>585</v>
       </c>
     </row>
     <row r="56" spans="2:2">
       <c r="B56" t="s">
-        <v>496</v>
+        <v>586</v>
       </c>
     </row>
   </sheetData>
@@ -20120,7 +20150,7 @@
     </row>
     <row r="38" spans="2:22">
       <c r="B38" s="186" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="C38" s="143"/>
       <c r="D38" s="143"/>
@@ -20145,92 +20175,92 @@
     </row>
     <row r="39" spans="2:22">
       <c r="B39" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="40" spans="2:22">
       <c r="B40" t="s">
-        <v>500</v>
+        <v>487</v>
       </c>
     </row>
     <row r="41" spans="2:22">
       <c r="B41" t="s">
-        <v>501</v>
+        <v>488</v>
       </c>
     </row>
     <row r="42" spans="2:22">
       <c r="B42" t="s">
-        <v>502</v>
+        <v>489</v>
       </c>
     </row>
     <row r="43" spans="2:22">
       <c r="B43" t="s">
-        <v>503</v>
+        <v>490</v>
       </c>
     </row>
     <row r="44" spans="2:22">
       <c r="B44" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="45" spans="2:22">
       <c r="B45" t="s">
-        <v>504</v>
+        <v>491</v>
       </c>
     </row>
     <row r="46" spans="2:22">
       <c r="B46" t="s">
-        <v>505</v>
+        <v>492</v>
       </c>
     </row>
     <row r="47" spans="2:22">
       <c r="B47" t="s">
-        <v>506</v>
+        <v>493</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51" t="s">
-        <v>509</v>
+        <v>496</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" t="s">
-        <v>497</v>
+        <v>484</v>
       </c>
     </row>
     <row r="54" spans="2:2">
       <c r="B54" t="s">
-        <v>507</v>
+        <v>494</v>
       </c>
     </row>
     <row r="55" spans="2:2">
       <c r="B55" t="s">
-        <v>508</v>
+        <v>495</v>
       </c>
     </row>
     <row r="57" spans="2:2">
       <c r="B57" t="s">
-        <v>498</v>
+        <v>485</v>
       </c>
     </row>
     <row r="58" spans="2:2">
       <c r="B58" t="s">
-        <v>499</v>
+        <v>486</v>
       </c>
     </row>
     <row r="59" spans="2:2">
       <c r="B59" t="s">
-        <v>508</v>
+        <v>495</v>
       </c>
     </row>
   </sheetData>
@@ -21023,12 +21053,12 @@
     </row>
     <row r="39" spans="2:22">
       <c r="B39" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="40" spans="2:22">
       <c r="B40" t="s">
-        <v>545</v>
+        <v>532</v>
       </c>
     </row>
     <row r="41" spans="2:22">
@@ -21038,17 +21068,17 @@
     </row>
     <row r="42" spans="2:22">
       <c r="B42" t="s">
-        <v>546</v>
+        <v>533</v>
       </c>
     </row>
     <row r="44" spans="2:22">
       <c r="B44" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="45" spans="2:22">
       <c r="B45" t="s">
-        <v>544</v>
+        <v>531</v>
       </c>
     </row>
     <row r="46" spans="2:22">
@@ -21058,7 +21088,7 @@
     </row>
     <row r="47" spans="2:22">
       <c r="B47" t="s">
-        <v>546</v>
+        <v>533</v>
       </c>
     </row>
     <row r="58" spans="14:14">
@@ -21874,92 +21904,92 @@
     </row>
     <row r="39" spans="2:22">
       <c r="B39" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="40" spans="2:22">
       <c r="B40" t="s">
-        <v>513</v>
+        <v>500</v>
       </c>
     </row>
     <row r="41" spans="2:22">
       <c r="B41" t="s">
-        <v>517</v>
+        <v>504</v>
       </c>
     </row>
     <row r="42" spans="2:22">
       <c r="B42" t="s">
-        <v>532</v>
+        <v>519</v>
       </c>
     </row>
     <row r="43" spans="2:22">
       <c r="B43" t="s">
-        <v>517</v>
+        <v>504</v>
       </c>
     </row>
     <row r="44" spans="2:22">
       <c r="B44" t="s">
-        <v>522</v>
+        <v>509</v>
       </c>
     </row>
     <row r="45" spans="2:22">
       <c r="B45" t="s">
-        <v>523</v>
+        <v>510</v>
       </c>
     </row>
     <row r="46" spans="2:22">
       <c r="B46" t="s">
-        <v>524</v>
+        <v>511</v>
       </c>
     </row>
     <row r="47" spans="2:22">
       <c r="B47" t="s">
-        <v>525</v>
+        <v>512</v>
       </c>
     </row>
     <row r="48" spans="2:22">
       <c r="B48" t="s">
-        <v>526</v>
+        <v>513</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49" t="s">
-        <v>527</v>
+        <v>514</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50" t="s">
-        <v>528</v>
+        <v>515</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51" t="s">
-        <v>529</v>
+        <v>516</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" t="s">
-        <v>530</v>
+        <v>517</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" t="s">
-        <v>531</v>
+        <v>518</v>
       </c>
     </row>
     <row r="54" spans="2:2">
       <c r="B54" t="s">
-        <v>514</v>
+        <v>501</v>
       </c>
     </row>
     <row r="55" spans="2:2">
       <c r="B55" t="s">
-        <v>515</v>
+        <v>502</v>
       </c>
     </row>
     <row r="56" spans="2:2">
       <c r="B56" t="s">
-        <v>516</v>
+        <v>503</v>
       </c>
     </row>
     <row r="58" spans="2:2">
@@ -21969,7 +21999,7 @@
     </row>
     <row r="59" spans="2:2">
       <c r="B59" t="s">
-        <v>548</v>
+        <v>535</v>
       </c>
     </row>
     <row r="60" spans="2:2">
@@ -21989,7 +22019,7 @@
     </row>
     <row r="64" spans="2:2">
       <c r="B64" t="s">
-        <v>549</v>
+        <v>536</v>
       </c>
     </row>
     <row r="65" spans="2:2">
@@ -22029,7 +22059,7 @@
     </row>
     <row r="73" spans="2:2">
       <c r="B73" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="74" spans="2:2">
@@ -22531,7 +22561,7 @@
       <c r="N22" s="115"/>
       <c r="O22" s="111"/>
       <c r="P22" s="115" t="s">
-        <v>557</v>
+        <v>544</v>
       </c>
       <c r="Q22" s="120"/>
       <c r="R22" s="122"/>
@@ -22870,37 +22900,37 @@
     </row>
     <row r="39" spans="2:22">
       <c r="B39" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="40" spans="2:22">
       <c r="B40" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="41" spans="2:22">
       <c r="B41" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="42" spans="2:22">
       <c r="B42" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="44" spans="2:22">
       <c r="B44" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="45" spans="2:22">
       <c r="B45" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="46" spans="2:22">
       <c r="B46" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="58" spans="14:14">
@@ -23653,17 +23683,17 @@
     </row>
     <row r="39" spans="1:22">
       <c r="B39" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="40" spans="1:22">
       <c r="B40" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="41" spans="1:22">
       <c r="B41" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="42" spans="1:22">
@@ -23671,42 +23701,42 @@
         <v>280</v>
       </c>
       <c r="B42" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="44" spans="1:22">
       <c r="B44" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="45" spans="1:22">
       <c r="B45" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="46" spans="1:22">
       <c r="B46" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="48" spans="1:22">
       <c r="B48" t="s">
-        <v>518</v>
+        <v>505</v>
       </c>
     </row>
     <row r="49" spans="2:14">
       <c r="B49" t="s">
-        <v>519</v>
+        <v>506</v>
       </c>
     </row>
     <row r="51" spans="2:14">
       <c r="B51" t="s">
-        <v>520</v>
+        <v>507</v>
       </c>
     </row>
     <row r="52" spans="2:14">
       <c r="B52" t="s">
-        <v>521</v>
+        <v>508</v>
       </c>
     </row>
     <row r="58" spans="2:14">
@@ -24454,47 +24484,47 @@
     </row>
     <row r="39" spans="2:22">
       <c r="B39" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="40" spans="2:22">
       <c r="B40" t="s">
-        <v>560</v>
+        <v>547</v>
       </c>
     </row>
     <row r="41" spans="2:22">
       <c r="B41" t="s">
-        <v>558</v>
+        <v>545</v>
       </c>
     </row>
     <row r="42" spans="2:22">
       <c r="B42" t="s">
-        <v>559</v>
+        <v>546</v>
       </c>
     </row>
     <row r="44" spans="2:22">
       <c r="B44" t="s">
-        <v>561</v>
+        <v>548</v>
       </c>
     </row>
     <row r="45" spans="2:22">
       <c r="B45" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
     </row>
     <row r="46" spans="2:22">
       <c r="B46" t="s">
-        <v>563</v>
+        <v>550</v>
       </c>
     </row>
     <row r="47" spans="2:22">
       <c r="B47" t="s">
-        <v>564</v>
+        <v>551</v>
       </c>
     </row>
     <row r="48" spans="2:22">
       <c r="B48" t="s">
-        <v>562</v>
+        <v>549</v>
       </c>
     </row>
     <row r="49" spans="2:14">
@@ -24504,7 +24534,7 @@
     </row>
     <row r="50" spans="2:14">
       <c r="B50" t="s">
-        <v>505</v>
+        <v>492</v>
       </c>
     </row>
     <row r="51" spans="2:14">
@@ -24514,27 +24544,27 @@
     </row>
     <row r="53" spans="2:14">
       <c r="B53" t="s">
-        <v>566</v>
+        <v>553</v>
       </c>
     </row>
     <row r="54" spans="2:14">
       <c r="B54" t="s">
-        <v>567</v>
+        <v>554</v>
       </c>
     </row>
     <row r="55" spans="2:14">
       <c r="B55" t="s">
-        <v>568</v>
+        <v>555</v>
       </c>
     </row>
     <row r="56" spans="2:14">
       <c r="B56" t="s">
-        <v>569</v>
+        <v>556</v>
       </c>
     </row>
     <row r="57" spans="2:14">
       <c r="B57" t="s">
-        <v>562</v>
+        <v>549</v>
       </c>
     </row>
     <row r="58" spans="2:14">
@@ -24609,7 +24639,7 @@
       <c r="D6" s="200"/>
       <c r="E6" s="200"/>
       <c r="F6" s="201" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G6" s="201"/>
       <c r="H6" s="201"/>
@@ -25397,7 +25427,7 @@
     </row>
     <row r="40" spans="2:22">
       <c r="B40" t="s">
-        <v>533</v>
+        <v>520</v>
       </c>
     </row>
     <row r="41" spans="2:22">
@@ -25768,7 +25798,7 @@
     <row r="16" spans="1:22" ht="17.25" thickBot="1">
       <c r="B16" s="163"/>
       <c r="C16" s="45" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="D16" s="47"/>
       <c r="E16" s="47"/>
@@ -25777,7 +25807,7 @@
       <c r="H16" s="47"/>
       <c r="I16" s="185"/>
       <c r="J16" s="188" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="K16" s="189"/>
       <c r="L16" s="189"/>
@@ -25798,22 +25828,22 @@
         <v>141</v>
       </c>
       <c r="D17" s="223" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="E17" s="223" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="F17" s="223" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="G17" s="223" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="H17" s="223" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="I17" s="268" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="J17" s="190"/>
       <c r="K17" s="191"/>
@@ -26336,12 +26366,12 @@
     </row>
     <row r="39" spans="2:22">
       <c r="B39" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="40" spans="2:22">
       <c r="B40" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="41" spans="2:22">
@@ -26351,37 +26381,37 @@
     </row>
     <row r="42" spans="2:22">
       <c r="B42" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="44" spans="2:22">
       <c r="B44" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="45" spans="2:22">
       <c r="B45" t="s">
-        <v>584</v>
+        <v>571</v>
       </c>
     </row>
     <row r="46" spans="2:22">
       <c r="B46" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
     </row>
     <row r="47" spans="2:22">
       <c r="B47" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="48" spans="2:22">
       <c r="B48" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="49" spans="2:15">
       <c r="B49" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H49" s="6"/>
       <c r="I49" s="6"/>
@@ -26392,14 +26422,14 @@
     </row>
     <row r="51" spans="2:15">
       <c r="B51" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H51" s="6"/>
       <c r="I51" s="6"/>
     </row>
     <row r="52" spans="2:15">
       <c r="B52" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H52" s="6"/>
       <c r="I52" s="6"/>
@@ -26413,7 +26443,7 @@
     </row>
     <row r="54" spans="2:15">
       <c r="B54" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H54" s="6"/>
       <c r="I54" s="6"/>
@@ -26939,7 +26969,7 @@
       <c r="E21" s="39"/>
       <c r="F21" s="39"/>
       <c r="G21" s="39" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H21" s="39"/>
       <c r="I21" s="39"/>
@@ -27205,11 +27235,11 @@
       <c r="E32" s="39"/>
       <c r="F32" s="39"/>
       <c r="G32" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H32" s="39"/>
       <c r="I32" s="39" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="J32" s="39"/>
       <c r="K32" s="39"/>
@@ -27252,7 +27282,7 @@
       </c>
       <c r="H34" s="94"/>
       <c r="I34" s="213" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J34" s="213"/>
       <c r="K34" s="213"/>
@@ -27293,7 +27323,7 @@
     </row>
     <row r="38" spans="2:22">
       <c r="B38" s="182" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C38" s="97"/>
       <c r="D38" s="97"/>
@@ -27318,47 +27348,47 @@
     </row>
     <row r="39" spans="2:22">
       <c r="B39" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="40" spans="2:22">
       <c r="B40" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="42" spans="2:22">
       <c r="B42" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="43" spans="2:22">
       <c r="B43" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="44" spans="2:22">
       <c r="B44" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="45" spans="2:22">
       <c r="B45" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="47" spans="2:22">
       <c r="B47" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="48" spans="2:22">
       <c r="B48" t="s">
-        <v>510</v>
+        <v>497</v>
       </c>
     </row>
     <row r="49" spans="2:15">
       <c r="B49" t="s">
-        <v>511</v>
+        <v>498</v>
       </c>
       <c r="H49" s="6"/>
       <c r="I49" s="6"/>
@@ -27369,14 +27399,14 @@
     </row>
     <row r="51" spans="2:15">
       <c r="B51" t="s">
-        <v>512</v>
+        <v>499</v>
       </c>
       <c r="H51" s="6"/>
       <c r="I51" s="6"/>
     </row>
     <row r="52" spans="2:15">
       <c r="B52" t="s">
-        <v>509</v>
+        <v>496</v>
       </c>
       <c r="H52" s="6"/>
       <c r="I52" s="6"/>

--- a/Documents/grouppl설계서 - 종합.xlsx
+++ b/Documents/grouppl설계서 - 종합.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="911"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="911" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="목록" sheetId="1" r:id="rId1"/>
@@ -2342,10 +2342,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">      WHERE A.EMAIL = ? D.ISDELETED = 'N'</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">      ORDER BY D.WRITEDATE DESC;</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -2611,6 +2607,10 @@
   </si>
   <si>
     <t>WHERE APPL_SEQ = ?</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      WHERE A.EMAIL = ? AND D.ISDELETED = 'N'</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -7215,8 +7215,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:A5"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1"/>
@@ -8623,7 +8623,7 @@
     </row>
     <row r="46" spans="2:22">
       <c r="B46" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="47" spans="2:22">
@@ -8633,22 +8633,22 @@
     </row>
     <row r="48" spans="2:22">
       <c r="B48" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="49" spans="2:12" ht="16.5" customHeight="1">
       <c r="B49" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="50" spans="2:12">
       <c r="B50" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="51" spans="2:12">
       <c r="B51" s="288" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C51" s="288"/>
       <c r="D51" s="288"/>
@@ -8663,7 +8663,7 @@
     </row>
     <row r="52" spans="2:12">
       <c r="B52" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="53" spans="2:12">
@@ -8792,7 +8792,7 @@
     </row>
     <row r="64" spans="2:12">
       <c r="B64" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C64" s="65"/>
       <c r="D64" s="65"/>
@@ -8805,7 +8805,7 @@
     </row>
     <row r="65" spans="2:10">
       <c r="B65" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C65" s="65"/>
       <c r="D65" s="65"/>
@@ -10131,7 +10131,7 @@
     </row>
     <row r="42" spans="2:22">
       <c r="B42" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="44" spans="2:22">
@@ -10701,7 +10701,7 @@
     </row>
     <row r="46" spans="2:22">
       <c r="B46" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="47" spans="2:22">
@@ -10711,27 +10711,27 @@
     </row>
     <row r="48" spans="2:22">
       <c r="B48" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="49" spans="2:12">
       <c r="B49" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="50" spans="2:12">
       <c r="B50" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="51" spans="2:12">
       <c r="B51" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="52" spans="2:12">
       <c r="B52" s="288" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C52" s="288"/>
       <c r="D52" s="288"/>
@@ -10756,7 +10756,7 @@
     </row>
     <row r="55" spans="2:12">
       <c r="B55" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
   </sheetData>
@@ -11689,13 +11689,13 @@
     </row>
     <row r="45" spans="2:22">
       <c r="B45" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="F45" s="99"/>
     </row>
     <row r="46" spans="2:22">
       <c r="B46" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="47" spans="2:22">
@@ -12556,12 +12556,12 @@
     </row>
     <row r="40" spans="2:22">
       <c r="B40" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="41" spans="2:22">
       <c r="B41" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
   </sheetData>
@@ -13436,12 +13436,12 @@
     </row>
     <row r="51" spans="2:2">
       <c r="B51" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="54" spans="2:2">
@@ -13461,12 +13461,12 @@
     </row>
     <row r="57" spans="2:2">
       <c r="B57" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="58" spans="2:2">
       <c r="B58" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
   </sheetData>
@@ -14225,12 +14225,12 @@
     </row>
     <row r="40" spans="2:22">
       <c r="B40" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="41" spans="2:22">
       <c r="B41" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="58" spans="14:14">
@@ -14994,7 +14994,7 @@
     </row>
     <row r="40" spans="2:22">
       <c r="B40" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="41" spans="2:22">
@@ -15004,7 +15004,7 @@
     </row>
     <row r="42" spans="2:22">
       <c r="B42" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="44" spans="2:22">
@@ -15014,12 +15014,12 @@
     </row>
     <row r="45" spans="2:22">
       <c r="B45" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="46" spans="2:22">
       <c r="B46" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="48" spans="2:22">
@@ -15029,22 +15029,22 @@
     </row>
     <row r="49" spans="2:14">
       <c r="B49" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="50" spans="2:14">
       <c r="B50" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="51" spans="2:14">
       <c r="B51" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="52" spans="2:14">
       <c r="B52" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="58" spans="2:14">
@@ -15898,12 +15898,12 @@
     </row>
     <row r="41" spans="1:22">
       <c r="B41" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="42" spans="1:22">
       <c r="B42" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="43" spans="1:22">
@@ -15958,12 +15958,12 @@
     </row>
     <row r="55" spans="2:2">
       <c r="B55" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="56" spans="2:2">
       <c r="B56" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="57" spans="2:2">
@@ -15978,12 +15978,12 @@
     </row>
     <row r="60" spans="2:2">
       <c r="B60" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="61" spans="2:2">
       <c r="B61" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="63" spans="2:2">
@@ -18477,12 +18477,12 @@
     </row>
     <row r="40" spans="2:22">
       <c r="B40" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="41" spans="2:22">
       <c r="B41" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="43" spans="2:22">
@@ -18492,12 +18492,12 @@
     </row>
     <row r="44" spans="2:22">
       <c r="B44" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="45" spans="2:22">
       <c r="B45" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
   </sheetData>
@@ -19304,7 +19304,7 @@
     </row>
     <row r="40" spans="2:22">
       <c r="B40" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="41" spans="2:22">
@@ -19314,12 +19314,12 @@
     </row>
     <row r="42" spans="2:22">
       <c r="B42" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="43" spans="2:22">
       <c r="B43" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="45" spans="2:22">
@@ -19359,17 +19359,17 @@
     </row>
     <row r="54" spans="2:2">
       <c r="B54" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="55" spans="2:2">
       <c r="B55" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="56" spans="2:2">
       <c r="B56" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
   </sheetData>
@@ -21058,7 +21058,7 @@
     </row>
     <row r="40" spans="2:22">
       <c r="B40" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="41" spans="2:22">
@@ -21068,7 +21068,7 @@
     </row>
     <row r="42" spans="2:22">
       <c r="B42" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="44" spans="2:22">
@@ -21078,7 +21078,7 @@
     </row>
     <row r="45" spans="2:22">
       <c r="B45" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="46" spans="2:22">
@@ -21088,7 +21088,7 @@
     </row>
     <row r="47" spans="2:22">
       <c r="B47" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="58" spans="14:14">
@@ -21141,8 +21141,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V77"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:A5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -21919,7 +21919,7 @@
     </row>
     <row r="42" spans="2:22">
       <c r="B42" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="43" spans="2:22">
@@ -21969,12 +21969,12 @@
     </row>
     <row r="52" spans="2:2">
       <c r="B52" t="s">
-        <v>517</v>
+        <v>586</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="54" spans="2:2">
@@ -21999,7 +21999,7 @@
     </row>
     <row r="59" spans="2:2">
       <c r="B59" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="60" spans="2:2">
@@ -22019,7 +22019,7 @@
     </row>
     <row r="64" spans="2:2">
       <c r="B64" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="65" spans="2:2">
@@ -22561,7 +22561,7 @@
       <c r="N22" s="115"/>
       <c r="O22" s="111"/>
       <c r="P22" s="115" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="Q22" s="120"/>
       <c r="R22" s="122"/>
@@ -24489,42 +24489,42 @@
     </row>
     <row r="40" spans="2:22">
       <c r="B40" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="41" spans="2:22">
       <c r="B41" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="42" spans="2:22">
       <c r="B42" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="44" spans="2:22">
       <c r="B44" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="45" spans="2:22">
       <c r="B45" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="46" spans="2:22">
       <c r="B46" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="47" spans="2:22">
       <c r="B47" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="48" spans="2:22">
       <c r="B48" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="49" spans="2:14">
@@ -24544,27 +24544,27 @@
     </row>
     <row r="53" spans="2:14">
       <c r="B53" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="54" spans="2:14">
       <c r="B54" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="55" spans="2:14">
       <c r="B55" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="56" spans="2:14">
       <c r="B56" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="57" spans="2:14">
       <c r="B57" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="58" spans="2:14">
@@ -25427,7 +25427,7 @@
     </row>
     <row r="40" spans="2:22">
       <c r="B40" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="41" spans="2:22">
@@ -26391,7 +26391,7 @@
     </row>
     <row r="45" spans="2:22">
       <c r="B45" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="46" spans="2:22">
